--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32ADF9AD-D6B6-4AEB-8040-B24A704BAB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C481278-C824-44DE-8FC6-CAACEEBEAC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26B571D9-6066-4A50-9F1B-6B43D918E0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Designs" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Card Designs'!$A$5:$Q$5</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="188">
   <si>
     <t>Card design ideas Table</t>
   </si>
@@ -246,7 +249,7 @@
     <t>The great Nebula</t>
   </si>
   <si>
-    <t>Research Project</t>
+    <t>Event</t>
   </si>
   <si>
     <t>Look at the top 3 cards of your library, put 2 Space event cards into your hand and the rest into the graveyard</t>
@@ -267,7 +270,7 @@
     <t>Tactic</t>
   </si>
   <si>
-    <t>Return a crew card from the graveyard to your hand</t>
+    <t>Return a crew card from stasis to your hand</t>
   </si>
   <si>
     <t>Shields Are Down</t>
@@ -285,9 +288,6 @@
     <t>Meteor Incoming!</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>Target Enemy Ship: Deal 100 damage</t>
   </si>
   <si>
@@ -315,7 +315,7 @@
     <t>Rare</t>
   </si>
   <si>
-    <t>At the start of your damage phase increase targets ship damage by 100 to one gun  slot</t>
+    <t>Attach to Ship: At the start of your damage phase increase targets ship damage by 100 to one gun  slot</t>
   </si>
   <si>
     <t>Under Pressure</t>
@@ -436,6 +436,231 @@
   <si>
     <t>Target Player: Draw x cards
 Target Player: Discard x cards</t>
+  </si>
+  <si>
+    <t>Deflectors</t>
+  </si>
+  <si>
+    <t>Attach to Ship: When this ship is being targetted by enemy ship gun slots, they must tap an extra crew member per gun slot</t>
+  </si>
+  <si>
+    <t>Security Officer</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Assualt Tier 1.
+On entry, capture enemy players crew member while Security Officer is a member of your ship.
+Tap: Assualt + 2</t>
+  </si>
+  <si>
+    <t>Rescue Mission</t>
+  </si>
+  <si>
+    <t>Return 1 captured crew member to original owners hand.</t>
+  </si>
+  <si>
+    <t>Raid</t>
+  </si>
+  <si>
+    <t>Return 1 captured crew member to original owners hand from a target enemy ship and capture enemy crew member from same target enemy ship</t>
+  </si>
+  <si>
+    <t>Back in Action</t>
+  </si>
+  <si>
+    <t>Return a crew card from stasis and place in a ship slot, this crew member can tap this turn</t>
+  </si>
+  <si>
+    <t>Boosted medicine</t>
+  </si>
+  <si>
+    <t>Untap target Captain or Leuitenant</t>
+  </si>
+  <si>
+    <t>Healing Bays</t>
+  </si>
+  <si>
+    <t>Attach to Ship: Untap 2 non Robot crew members at start of secondary main phase</t>
+  </si>
+  <si>
+    <t>Y Bot</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot can't be used for gun slots.
+Tap: Engineering + 1
+Tap: Repair ship by 100</t>
+  </si>
+  <si>
+    <t>R Bot</t>
+  </si>
+  <si>
+    <t>Robot can't be used for gun slots.
+Tap: Medic + 1
+Tap: Repair ship by 100</t>
+  </si>
+  <si>
+    <t>B Bot</t>
+  </si>
+  <si>
+    <t>Robot can't be used for gun slots.
+Tap: Handling + 1
+Tap: Repair ship by 100</t>
+  </si>
+  <si>
+    <t>P Bot</t>
+  </si>
+  <si>
+    <t>Robot can't be used for gun slots.
+Tap: Assault + 1
+Tap: Repair ship by 100</t>
+  </si>
+  <si>
+    <t>W Bot</t>
+  </si>
+  <si>
+    <t>Robot can't be used for gun slots.
+Tap: Research + 1
+Tap: Repair ship by 100</t>
+  </si>
+  <si>
+    <t>Y Bot Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Engineering Tier 1
+Robot can't be used for gun slots.
+Tap: Engineering + 2
+Tap: Repair ship by 200</t>
+  </si>
+  <si>
+    <t>R Bot Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Medic Tier 1
+Robot can't be used for gun slots.
+Tap: Medic + 2
+Tap: Repair ship by 200</t>
+  </si>
+  <si>
+    <t>B Bot Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Handling Tier 1
+Robot can't be used for gun slots.
+Tap: Handling + 2
+Tap: Repair ship by 200</t>
+  </si>
+  <si>
+    <t>P Bot Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Assault Tier 1
+Robot can't be used for gun slots.
+Tap: Assault + 2
+Tap: Repair ship by 200</t>
+  </si>
+  <si>
+    <t>W Bot Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Research Tier 1
+Robot can't be used for gun slots.
+Tap: Research + 2
+Tap: Repair ship by 200</t>
+  </si>
+  <si>
+    <t>Y Boop Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Engineering Tier 2
+Robot can't be used for gun slots.
+Tap: Engineering + 3
+Tap: Repair ship by 300</t>
+  </si>
+  <si>
+    <t>R Boop Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Medic Tier 2
+Robot can't be used for gun slots.
+Tap: Medic + 3
+Tap: Repair ship by 300</t>
+  </si>
+  <si>
+    <t>B Boop Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Handling Tier 2
+Robot can't be used for gun slots.
+Tap: Handling + 3
+Tap: Repair ship by 300</t>
+  </si>
+  <si>
+    <t>P Boop Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Assault Tier 2
+Robot can't be used for gun slots.
+Tap: Assault + 3
+Tap: Repair ship by 300</t>
+  </si>
+  <si>
+    <t>W Boop Bot</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Research Tier 2.
+Robot can't be used for gun slots.
+Tap: Research + 3
+Tap: Repair ship by 300</t>
+  </si>
+  <si>
+    <t>Lt YRBPW Bot</t>
+  </si>
+  <si>
+    <t>Ultra Rare</t>
+  </si>
+  <si>
+    <t>All Robots on assigned ship untap at start of secondary main phase.</t>
+  </si>
+  <si>
+    <t>Cpt James Rainbow</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Robots on asigned ship Repair an extra 100.
+Tap: All Robots on assigned ship can now tap to use gun slots </t>
+  </si>
+  <si>
+    <t>Robot Repair</t>
+  </si>
+  <si>
+    <t>When a Robot Crew is destroyed, roll a d6. If 6 Robot crew is not destroyed.</t>
+  </si>
+  <si>
+    <t>Ones and Zeros</t>
+  </si>
+  <si>
+    <t>Target Enemy Ship are unable to attack during their next battle phase</t>
+  </si>
+  <si>
+    <t>Robotic Upgrade</t>
+  </si>
+  <si>
+    <t>Crew Attachment</t>
+  </si>
+  <si>
+    <t>Attach to no Robot Crew Member.
+This crew member is now a Robot as well as other current species.
+Tap: Repair ship by X where X is 100 * Rank</t>
+  </si>
+  <si>
+    <t>Self Destruct</t>
+  </si>
+  <si>
+    <t>Sacrifice x Robot crew members. Destroy target ships x crew members.</t>
   </si>
 </sst>
 </file>
@@ -813,11 +1038,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EA94B-2824-4AC9-A95E-59E2D4B44008}">
-  <dimension ref="A2:Q52"/>
+  <dimension ref="A2:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O53" sqref="O53"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J79" sqref="J79"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -832,7 +1057,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="12" width="14.5703125" customWidth="1"/>
     <col min="13" max="14" width="15.42578125" customWidth="1"/>
     <col min="15" max="15" width="25.42578125" customWidth="1"/>
@@ -1561,7 +1786,7 @@
         <v>71</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>72</v>
@@ -1630,13 +1855,13 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="N31" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="P31" s="3"/>
     </row>
@@ -1645,7 +1870,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1657,7 +1882,7 @@
         <v>22</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P32" s="3"/>
     </row>
@@ -1666,7 +1891,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1678,7 +1903,7 @@
         <v>22</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P33" s="3"/>
     </row>
@@ -1687,7 +1912,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -1699,16 +1924,16 @@
         <v>22</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="60.75">
+    <row r="35" spans="1:16" ht="76.5">
       <c r="A35">
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1720,10 +1945,10 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
+        <v>87</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="P35" s="3"/>
     </row>
@@ -1732,19 +1957,19 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="J36" t="s">
+        <v>90</v>
+      </c>
+      <c r="N36" t="s">
+        <v>87</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="N36" t="s">
-        <v>88</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="P36" s="3"/>
     </row>
@@ -1753,7 +1978,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1765,7 +1990,7 @@
         <v>30</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P37" s="3"/>
     </row>
@@ -1774,7 +1999,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1786,10 +2011,10 @@
         <v>30</v>
       </c>
       <c r="O38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="30.75">
@@ -1797,7 +2022,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1809,10 +2034,10 @@
         <v>72</v>
       </c>
       <c r="N39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -1820,7 +2045,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1835,7 +2060,7 @@
         <v>30</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="45.75">
@@ -1843,7 +2068,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1855,7 +2080,7 @@
         <v>22</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -1863,7 +2088,7 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -1872,10 +2097,10 @@
         <v>66</v>
       </c>
       <c r="N42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="91.5">
@@ -1883,7 +2108,7 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1892,16 +2117,16 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M43" t="s">
         <v>21</v>
       </c>
       <c r="N43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="76.5">
@@ -1909,7 +2134,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1918,16 +2143,16 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M44" t="s">
         <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="30.75">
@@ -1935,7 +2160,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1944,16 +2169,16 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s">
         <v>21</v>
       </c>
       <c r="N45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="30.75">
@@ -1961,7 +2186,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1973,7 +2198,7 @@
         <v>30</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1981,7 +2206,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -1993,7 +2218,7 @@
         <v>30</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="45.75">
@@ -2001,19 +2226,19 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
       <c r="J48" t="s">
+        <v>118</v>
+      </c>
+      <c r="N48" t="s">
+        <v>87</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="N48" t="s">
-        <v>88</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="45.75">
@@ -2021,19 +2246,19 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N49" t="s">
         <v>30</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="45.75">
@@ -2041,7 +2266,7 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -2053,7 +2278,7 @@
         <v>30</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="45.75">
@@ -2061,19 +2286,19 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="N51" t="s">
         <v>30</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="45.75">
@@ -2081,7 +2306,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2099,10 +2324,718 @@
         <v>22</v>
       </c>
       <c r="O52" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="76.5">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
         <v>128</v>
       </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="J53" t="s">
+        <v>69</v>
+      </c>
+      <c r="N53" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="91.5">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="45.75">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>66</v>
+      </c>
+      <c r="N55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="91.5">
+      <c r="A56">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>66</v>
+      </c>
+      <c r="N56" t="s">
+        <v>30</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="60.75">
+      <c r="A57">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>72</v>
+      </c>
+      <c r="N57" t="s">
+        <v>30</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="30.75">
+      <c r="A58">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>66</v>
+      </c>
+      <c r="N58" t="s">
+        <v>87</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="60.75">
+      <c r="A59">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>69</v>
+      </c>
+      <c r="N59" t="s">
+        <v>30</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="60.75">
+      <c r="A60">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>143</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="60.75">
+      <c r="A61">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
+        <v>143</v>
+      </c>
+      <c r="N61" t="s">
+        <v>22</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="60.75">
+      <c r="A62">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>143</v>
+      </c>
+      <c r="N62" t="s">
+        <v>22</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="60.75">
+      <c r="A63">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>143</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="60.75">
+      <c r="A64">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>143</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="91.5">
+      <c r="A65">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>143</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="76.5">
+      <c r="A66">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>143</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="76.5">
+      <c r="A67">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67" t="s">
+        <v>143</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="76.5">
+      <c r="A68">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>143</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="76.5">
+      <c r="A69">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="91.5">
+      <c r="A70">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70" t="s">
+        <v>143</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="76.5">
+      <c r="A71">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71" t="s">
+        <v>143</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="76.5">
+      <c r="A72">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72" t="s">
+        <v>143</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="76.5">
+      <c r="A73">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73" t="s">
+        <v>143</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="76.5">
+      <c r="A74">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74" t="s">
+        <v>143</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="45.75">
+      <c r="A75">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+      <c r="M75" t="s">
+        <v>143</v>
+      </c>
+      <c r="N75" t="s">
+        <v>174</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="76.5">
+      <c r="A76">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+      <c r="M76" t="s">
+        <v>177</v>
+      </c>
+      <c r="N76" t="s">
+        <v>174</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="60.75">
+      <c r="A77">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="J77" t="s">
+        <v>69</v>
+      </c>
+      <c r="N77" t="s">
+        <v>30</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="45.75">
+      <c r="A78">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="J78" t="s">
+        <v>72</v>
+      </c>
+      <c r="N78" t="s">
+        <v>30</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="106.5">
+      <c r="A79">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>184</v>
+      </c>
+      <c r="N79" t="s">
+        <v>30</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="45.75">
+      <c r="A80">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>186</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>66</v>
+      </c>
+      <c r="N80" t="s">
+        <v>30</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A5:Q58" xr:uid="{C49EA94B-2824-4AC9-A95E-59E2D4B44008}"/>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C481278-C824-44DE-8FC6-CAACEEBEAC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7458491-C5AB-453B-BCBF-5EF588BAEB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{26B571D9-6066-4A50-9F1B-6B43D918E0C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{26B571D9-6066-4A50-9F1B-6B43D918E0C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Card Designs" sheetId="1" r:id="rId1"/>
+    <sheet name="Card Table Counts" sheetId="2" r:id="rId1"/>
+    <sheet name="Card Designs" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Card Designs'!$A$5:$Q$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Card Designs'!$A$5:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="34380" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,73 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="241">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Count of Id</t>
+  </si>
+  <si>
+    <t>Admiral</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>Crew</t>
+  </si>
+  <si>
+    <t>Crew Attachment</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Lieutenant</t>
+  </si>
+  <si>
+    <t>On Going Event</t>
+  </si>
+  <si>
+    <t>Ship Upgrade</t>
+  </si>
+  <si>
+    <t>Tactic</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Sub type</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Handling</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Assault</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
   <si>
     <t>Card design ideas Table</t>
   </si>
@@ -56,36 +126,15 @@
     <t>Ship Slot</t>
   </si>
   <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>Engineering</t>
   </si>
   <si>
-    <t>Medic</t>
-  </si>
-  <si>
-    <t>Handling</t>
-  </si>
-  <si>
-    <t>Assault</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Sub type</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>Card Rarity</t>
   </si>
   <si>
@@ -101,12 +150,6 @@
     <t>Associate Scientist</t>
   </si>
   <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
     <t>Common</t>
   </si>
   <si>
@@ -114,9 +157,6 @@
   </si>
   <si>
     <t>Research Scientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Research </t>
   </si>
   <si>
     <t>Sacrifice 1 Research Tier 1
@@ -139,10 +179,7 @@
     <t>Tap: Research + 3 and discard top card of deck</t>
   </si>
   <si>
-    <t>Pilot Office</t>
-  </si>
-  <si>
-    <t>Pilot</t>
+    <t>handling Office</t>
   </si>
   <si>
     <t>Tap: Ship Handling + 1 or Shoot at target ship</t>
@@ -151,18 +188,18 @@
     <t>Wing Commander</t>
   </si>
   <si>
-    <t>Sacrifice 1 Pilot Tier 1
+    <t>Sacrifice 1 handling Tier 1
 Tap: Ship Handling + 2  or Shoot at target ship</t>
   </si>
   <si>
     <t>Space Marshal</t>
   </si>
   <si>
-    <t>Sacrifice 1 Pilot Tier 2
+    <t>Sacrifice 1 handling Tier 2
 Tap: Ship Handling + 3 or Shoot at target ship</t>
   </si>
   <si>
-    <t>Unlikely Pilot</t>
+    <t>Unlikely handling</t>
   </si>
   <si>
     <t>Tap: Ship Handling + 1 or scry 1</t>
@@ -194,9 +231,6 @@
     <t>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</t>
   </si>
   <si>
-    <t>Engineer</t>
-  </si>
-  <si>
     <t>Tap: Engineering + 1</t>
   </si>
   <si>
@@ -249,27 +283,18 @@
     <t>The great Nebula</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>Look at the top 3 cards of your library, put 2 Space event cards into your hand and the rest into the graveyard</t>
   </si>
   <si>
     <t>Upgraded Cabins</t>
   </si>
   <si>
-    <t>Ship Upgrade</t>
-  </si>
-  <si>
     <t>Attach to ship: Attached ship gains 1 extra crew slot</t>
   </si>
   <si>
     <t>Recovery Bays</t>
   </si>
   <si>
-    <t>Tactic</t>
-  </si>
-  <si>
     <t>Return a crew card from stasis to your hand</t>
   </si>
   <si>
@@ -321,9 +346,6 @@
     <t>Under Pressure</t>
   </si>
   <si>
-    <t>Ongoing Event</t>
-  </si>
-  <si>
     <t>Target ship gains 1 extra Research for each Research crew tapped on your turns</t>
   </si>
   <si>
@@ -366,30 +388,24 @@
     <t>Gain an extra turn after this one</t>
   </si>
   <si>
-    <t>Cpt Gray, The Infiltrator</t>
-  </si>
-  <si>
-    <t>Captain</t>
+    <t>Cpt. Gray, The Infiltrator</t>
   </si>
   <si>
     <t>All assault crew get +1 assault on your turn when tapped
 Tap: Target enemy ships Gun spot can't be used until the start of your next turn</t>
   </si>
   <si>
-    <t>Cpt Walter</t>
-  </si>
-  <si>
-    <t>All assault crew get +1 research on your turn when tapped
-Tap: Draw 2 cards from main, then discard 1</t>
-  </si>
-  <si>
-    <t>Lt Barbara</t>
-  </si>
-  <si>
-    <t>Leuitenant</t>
-  </si>
-  <si>
-    <t>Untap target tapped pilot at the end of your turn</t>
+    <t>Cpt. Walter</t>
+  </si>
+  <si>
+    <t>All crew get +1 research on your turn when tapped
+Tap: Draw 2 cards from strategy deck, then discard 1</t>
+  </si>
+  <si>
+    <t>Lt. Barbara</t>
+  </si>
+  <si>
+    <t>Untap target tapped handling at the end of your turn</t>
   </si>
   <si>
     <t>Project Disruption</t>
@@ -405,9 +421,6 @@
   </si>
   <si>
     <t>Cloning Vat</t>
-  </si>
-  <si>
-    <t>On Going Event</t>
   </si>
   <si>
     <t>Target Ship can have one extra crew added during crew phase</t>
@@ -473,19 +486,16 @@
     <t>Boosted medicine</t>
   </si>
   <si>
-    <t>Untap target Captain or Leuitenant</t>
+    <t>Untap target Captain or Lieutenant</t>
   </si>
   <si>
     <t>Healing Bays</t>
   </si>
   <si>
-    <t>Attach to Ship: Untap 2 non Robot crew members at start of secondary main phase</t>
+    <t>Attach to Ship: Untap 2 non Robot crew members at start of secondary strategy phase</t>
   </si>
   <si>
     <t>Y Bot</t>
-  </si>
-  <si>
-    <t>Robot</t>
   </si>
   <si>
     <t>Robot can't be used for gun slots.
@@ -615,19 +625,16 @@
 Tap: Repair ship by 300</t>
   </si>
   <si>
-    <t>Lt YRBPW Bot</t>
+    <t>Lt. YRBPW Bot</t>
   </si>
   <si>
     <t>Ultra Rare</t>
   </si>
   <si>
-    <t>All Robots on assigned ship untap at start of secondary main phase.</t>
-  </si>
-  <si>
-    <t>Cpt James Rainbow</t>
-  </si>
-  <si>
-    <t>Cyborg</t>
+    <t>All Robots on assigned ship untap at start of secondary strategy phase.</t>
+  </si>
+  <si>
+    <t>Cpt. James Rainbow</t>
   </si>
   <si>
     <t xml:space="preserve">All Robots on asigned ship Repair an extra 100.
@@ -637,7 +644,7 @@
     <t>Robot Repair</t>
   </si>
   <si>
-    <t>When a Robot Crew is destroyed, roll a d6. If 6 Robot crew is not destroyed.</t>
+    <t>Attach to Ship: When a Robot Crew is destroyed, roll a d6. If 6 Robot crew is not destroyed.</t>
   </si>
   <si>
     <t>Ones and Zeros</t>
@@ -649,10 +656,7 @@
     <t>Robotic Upgrade</t>
   </si>
   <si>
-    <t>Crew Attachment</t>
-  </si>
-  <si>
-    <t>Attach to no Robot Crew Member.
+    <t>Attach to non Robot Crew Member.
 This crew member is now a Robot as well as other current species.
 Tap: Repair ship by X where X is 100 * Rank</t>
   </si>
@@ -661,13 +665,182 @@
   </si>
   <si>
     <t>Sacrifice x Robot crew members. Destroy target ships x crew members.</t>
+  </si>
+  <si>
+    <t>Redirection</t>
+  </si>
+  <si>
+    <t>Change the target of a enemy ship to a different ship you control</t>
+  </si>
+  <si>
+    <t>Oops! Wrong Target</t>
+  </si>
+  <si>
+    <t>Change the target of a enemy ship to a another enemy ship</t>
+  </si>
+  <si>
+    <t>Cpt. Ryan The Defender</t>
+  </si>
+  <si>
+    <t>At the start of your turn restore 200 shield.
+Tap: Deflect damage targeting assigned ship from a target enemy ship to another enemy ship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cpt. Edward </t>
+  </si>
+  <si>
+    <t>All engineering crew get +1 engineering on your turn when tapped
+Tap: Build ship upgrade without pay its cost</t>
+  </si>
+  <si>
+    <t>Cpt. Ray</t>
+  </si>
+  <si>
+    <t>Tap: Untap 2 crew members on assigned ship
+Tap: Return 1 crew member from your stasis pile to your hand</t>
+  </si>
+  <si>
+    <t>Cpt. J. Swanson</t>
+  </si>
+  <si>
+    <t>Tap: Activate tactic card twice</t>
+  </si>
+  <si>
+    <t>Adm. I.T.S Atrap</t>
+  </si>
+  <si>
+    <t>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</t>
+  </si>
+  <si>
+    <t>Admiral Ian Thomas Sterling Atrap always has something up his sleeve.</t>
+  </si>
+  <si>
+    <t>Adm. D. Flashheart</t>
+  </si>
+  <si>
+    <t>Fighter ships you control each dodge 1 gun slot targetting them.</t>
+  </si>
+  <si>
+    <t>In Admiral Dave Flashheart dog fighting days would have a mirror in his cockpit. Some would say this is so he could see the enemy behind him, however he may have another reason.</t>
+  </si>
+  <si>
+    <t>Comet</t>
+  </si>
+  <si>
+    <t>Draw 1 card from your strategy deck</t>
+  </si>
+  <si>
+    <t>Halt! Who Goes there?</t>
+  </si>
+  <si>
+    <t>Tap 1 target enemy crew</t>
+  </si>
+  <si>
+    <t>Memory Wipe</t>
+  </si>
+  <si>
+    <t>Target player discards 2 strategy deck cards</t>
+  </si>
+  <si>
+    <t>All together for Humanity</t>
+  </si>
+  <si>
+    <t>All Humans on target ship get +1 to their department on tap</t>
+  </si>
+  <si>
+    <t>System Overload</t>
+  </si>
+  <si>
+    <t>Select 1 ship: Deplete selected ships shield.
+Selected ships gun slots power is increased by 200 each for one turn.</t>
+  </si>
+  <si>
+    <t>Adm. B2ON</t>
+  </si>
+  <si>
+    <t>All ships you control non robot crew members are now Robots in addition to its other species types, they gain the following:
+Tap: Repair ship by 100</t>
+  </si>
+  <si>
+    <t>Some say that the mere sight of Admiral B2ON turns you to a robot.</t>
+  </si>
+  <si>
+    <t>Lt. Dang</t>
+  </si>
+  <si>
+    <t>Draw 1 extra card at the start of your turn</t>
+  </si>
+  <si>
+    <t>Lt. Gaven</t>
+  </si>
+  <si>
+    <t>Ship upgrades cost 1 less engineer to attach to assigned ship</t>
+  </si>
+  <si>
+    <t>Lt. Stacey</t>
+  </si>
+  <si>
+    <t>Crew attachments cost 1 less medic to attach to crew members on assigned ship.</t>
+  </si>
+  <si>
+    <t>Lt. Andrew</t>
+  </si>
+  <si>
+    <t>Tactic cards cost 1 less assault to play.</t>
+  </si>
+  <si>
+    <t>Welcome to the squad</t>
+  </si>
+  <si>
+    <t>Attach to non Assault Crew Member.
+This crew member gains 1 assault as well as its other department types on tap.</t>
+  </si>
+  <si>
+    <t>Science School</t>
+  </si>
+  <si>
+    <t>Attach to non Research Crew Member.
+This crew member gains 1 research as well as its other department types on tap.</t>
+  </si>
+  <si>
+    <t>Building blocks</t>
+  </si>
+  <si>
+    <t>Attach to non Engineer Crew Member.
+This crew member gains 1 enginering as well as its other department types on tap.</t>
+  </si>
+  <si>
+    <t>Flight School</t>
+  </si>
+  <si>
+    <t>Attach to non Handling Crew Member.
+This crew member gains 1 handling as well as its other department types on tap.</t>
+  </si>
+  <si>
+    <t>The art of medicine</t>
+  </si>
+  <si>
+    <t>Attach to non Medic Crew Member.
+This crew member gains 1 medic as well as its other department types on tap.</t>
+  </si>
+  <si>
+    <t>Auto Cannon</t>
+  </si>
+  <si>
+    <t>Attach to Ship: When this ship is targetted by enemy gun slots deal 200 damage to that enemy ship</t>
+  </si>
+  <si>
+    <t>Robot Uprising</t>
+  </si>
+  <si>
+    <t>All Robots on target ship get +1 to their department on tap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +859,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -712,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -723,6 +904,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,6 +925,2271 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45013.926626157408" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="101" xr:uid="{B688DD9A-DD39-418C-87CC-4E60672EAA36}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A5:Q200" sheet="Card Designs"/>
+  </cacheSource>
+  <cacheFields count="17">
+    <cacheField name="Id" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="100"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Ship Slot" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Research" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Engineering" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Medic" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Handling" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="Assault" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="X" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems containsBlank="1" count="12">
+        <s v="Crew"/>
+        <s v="Event"/>
+        <s v="Ship Upgrade"/>
+        <s v="Tactic"/>
+        <s v="On Going Event"/>
+        <s v="Captain"/>
+        <s v="Lieutenant"/>
+        <s v="Crew Attachment"/>
+        <s v="Admiral"/>
+        <m/>
+        <s v="Leuitenant" u="1"/>
+        <s v="Ongoing Event" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sub type" numFmtId="0">
+      <sharedItems containsBlank="1" count="9">
+        <s v="Research"/>
+        <s v="Handling"/>
+        <s v="Medic"/>
+        <s v="Engineer"/>
+        <s v="Assault"/>
+        <m/>
+        <s v="Master"/>
+        <s v="Pilot" u="1"/>
+        <s v="Research " u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rank" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Species" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Human"/>
+        <m/>
+        <s v="Robot"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Card Rarity" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Effect" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Image design " numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="101">
+  <r>
+    <n v="1"/>
+    <s v="Associate Scientist"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Tap: Research + 1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="Research Scientist"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Research Tier 1_x000a_Tap: Research + 2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="Senior Scientist"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Research Tier 2_x000a_Tap: Research + 3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="Mad Scientist"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Uncommon"/>
+    <s v="Tap: Research + 3 and discard top card of deck"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="handling Office"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Tap: Ship Handling + 1 or Shoot at target ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="Wing Commander"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 handling Tier 1_x000a_Tap: Ship Handling + 2  or Shoot at target ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="Space Marshal"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 handling Tier 2_x000a_Tap: Ship Handling + 3 or Shoot at target ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="Unlikely handling"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Uncommon"/>
+    <s v="Tap: Ship Handling + 1 or scry 1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Ship Nurse"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Tap: Medical + 1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="Medical Officer"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Medic Tier 1_x000a_Tap: Medical + 2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="Chief Medical Officer"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Medic Tier 2_x000a_Tap: Medical + 3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="Experimental Doctor"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Uncommon"/>
+    <s v="Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="Engineer"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Tap: Engineering + 1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="Assistant Chief Engineer"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Engineer Tier 1_x000a_Tap: Engineering + 2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <s v="Chief Engineer"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Engineer Tier 2_x000a_Tap: Engineering + 3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <s v="Engineer's Assistant"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Uncommon"/>
+    <s v="Tap: If you have already tapped an Engineer not called Engineer's Assistant then Engineering + 2 otherwise Engineering + 1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <s v="Private"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Tap: Assualt + 1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <s v="Corporal"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Assualt Tier 1_x000a_Tap: Assualt + 2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <s v="Sergeant"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Assualt Tier 2_x000a_Tap: Assualt + 3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <s v="Mischeavous Marine"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Uncommon"/>
+    <s v="Tap: Assault + 1 or block enemy crew slot until your next turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="The great Nebula"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Look at the top 3 cards of your library, put 2 Space event cards into your hand and the rest into the graveyard"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="Upgraded Cabins"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to ship: Attached ship gains 1 extra crew slot"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="Recovery Bays"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Return a crew card from stasis to your hand"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="Shields Are Down"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Remove target ships shield until of turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="Boarding Party"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <b v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Target Enemy ship: Tap X amount of crew members until your next turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="Meteor Incoming!"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Target Enemy Ship: Deal 100 damage"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="Pew Pew Lazors"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Target Owned Ship: Increase Ships Damage by 100 to one gun slot until end of turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="Targeting Computer"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Attach to Ship: Attached ship gains 1 extra gun slot"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="Ship Infection"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Target Ship: Sacrifice 1 crew member"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="Ships Gun Installations"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Attach to Ship: At the start of your damage phase increase targets ship damage by 100 to one gun  slot"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="Under Pressure"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Target ship gains 1 extra Research for each Research crew tapped on your turns"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="Evasive Maneuvers"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Prevent all ship damage dealt to target ship this turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="Spinning Evasion"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Prevent ship damage from 1 target source and draw a card"/>
+    <s v="&quot;I'll try spinning - that's a good trick&quot;"/>
+    <m/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="Shields for Days"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Prevent all ship damage to all your ships this turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="Hacking the System"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Destroy target Ship Upgrade"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="Old Piece of Junk"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Return 1 Ship Upgrade card from the graveyard to your hand"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="Wormhole"/>
+    <m/>
+    <n v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Gain an extra turn after this one"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="Cpt. Gray, The Infiltrator"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="5"/>
+    <x v="4"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="All assault crew get +1 assault on your turn when tapped_x000a_Tap: Target enemy ships Gun spot can't be used until the start of your next turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="Cpt. Walter"/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="All crew get +1 research on your turn when tapped_x000a_Tap: Draw 2 cards from strategy deck, then discard 1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="Lt. Barbara"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="Untap target tapped handling at the end of your turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="Project Disruption"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Cancel activated Research Project Card"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="Infiltrated Tactics"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Cancel activated Tactic Card"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="43"/>
+    <s v="Cloning Vat"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Target Ship can have one extra crew added during crew phase"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="44"/>
+    <s v="Alien Disease"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Target enemy ship sacrifices 1 crew during that players start phase"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="45"/>
+    <s v="Antidote"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Remove target On Going event card attached to your Target ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="46"/>
+    <s v="Hull Breach"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="47"/>
+    <s v="Smuggling goods"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <b v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Target Player: Draw x cards_x000a_Target Player: Discard x cards"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="48"/>
+    <s v="Deflectors"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to Ship: When this ship is being targetted by enemy ship gun slots, they must tap an extra crew member per gun slot"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="49"/>
+    <s v="Security Officer"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="Sacrifice 1 Assualt Tier 1._x000a_On entry, capture enemy players crew member while Security Officer is a member of your ship._x000a_Tap: Assualt + 2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <s v="Rescue Mission"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Return 1 captured crew member to original owners hand."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <s v="Raid"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Return 1 captured crew member to original owners hand from a target enemy ship and capture enemy crew member from same target enemy ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="52"/>
+    <s v="Back in Action"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Return a crew card from stasis and place in a ship slot, this crew member can tap this turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="53"/>
+    <s v="Boosted medicine"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Untap target Captain or Lieutenant"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="54"/>
+    <s v="Healing Bays"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to Ship: Untap 2 non Robot crew members at start of secondary strategy phase"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="55"/>
+    <s v="Y Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Robot can't be used for gun slots._x000a_Tap: Engineering + 1_x000a_Tap: Repair ship by 100"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="56"/>
+    <s v="R Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Robot can't be used for gun slots._x000a_Tap: Medic + 1_x000a_Tap: Repair ship by 100"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="57"/>
+    <s v="B Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Robot can't be used for gun slots._x000a_Tap: Handling + 1_x000a_Tap: Repair ship by 100"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="58"/>
+    <s v="P Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Robot can't be used for gun slots._x000a_Tap: Assault + 1_x000a_Tap: Repair ship by 100"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="59"/>
+    <s v="W Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Robot can't be used for gun slots._x000a_Tap: Research + 1_x000a_Tap: Repair ship by 100"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="Y Bot Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Engineering Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Engineering + 2_x000a_Tap: Repair ship by 200"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="61"/>
+    <s v="R Bot Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Medic Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Medic + 2_x000a_Tap: Repair ship by 200"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="B Bot Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Handling Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Handling + 2_x000a_Tap: Repair ship by 200"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="63"/>
+    <s v="P Bot Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Assault Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Assault + 2_x000a_Tap: Repair ship by 200"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="64"/>
+    <s v="W Bot Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Research Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Research + 2_x000a_Tap: Repair ship by 200"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="65"/>
+    <s v="Y Boop Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Engineering Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Engineering + 3_x000a_Tap: Repair ship by 300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="66"/>
+    <s v="R Boop Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Medic Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Medic + 3_x000a_Tap: Repair ship by 300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="67"/>
+    <s v="B Boop Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Handling Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Handling + 3_x000a_Tap: Repair ship by 300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="68"/>
+    <s v="P Boop Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Assault Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Assault + 3_x000a_Tap: Repair ship by 300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="69"/>
+    <s v="W Boop Bot"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Research Tier 2._x000a_Robot can't be used for gun slots._x000a_Tap: Research + 3_x000a_Tap: Repair ship by 300"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="70"/>
+    <s v="Lt. YRBPW Bot"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <x v="6"/>
+    <x v="6"/>
+    <m/>
+    <x v="2"/>
+    <s v="Ultra Rare"/>
+    <s v="All Robots on assigned ship untap at start of secondary strategy phase."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="71"/>
+    <s v="Cpt. James Rainbow"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <x v="5"/>
+    <x v="6"/>
+    <m/>
+    <x v="2"/>
+    <s v="Ultra Rare"/>
+    <s v="All Robots on asigned ship Repair an extra 100._x000a_Tap: All Robots on assigned ship can now tap to use gun slots "/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="72"/>
+    <s v="Robot Repair"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to Ship: When a Robot Crew is destroyed, roll a d6. If 6 Robot crew is not destroyed."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="73"/>
+    <s v="Ones and Zeros"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Target Enemy Ship are unable to attack during their next battle phase"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="74"/>
+    <s v="Robotic Upgrade"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to non Robot Crew Member._x000a_This crew member is now a Robot as well as other current species._x000a_Tap: Repair ship by X where X is 100 * Rank"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="75"/>
+    <s v="Self Destruct"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <b v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Sacrifice x Robot crew members. Destroy target ships x crew members."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="76"/>
+    <s v="Redirection"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Change the target of a enemy ship to a different ship you control"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="77"/>
+    <s v="Oops! Wrong Target"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Change the target of a enemy ship to a another enemy ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="78"/>
+    <s v="Cpt. Ryan The Defender"/>
+    <n v="1"/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="At the start of your turn restore 200 shield._x000a_Tap: Deflect damage targeting assigned ship from a target enemy ship to another enemy ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="79"/>
+    <s v="Cpt. Edward "/>
+    <n v="1"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="All engineering crew get +1 engineering on your turn when tapped_x000a_Tap: Build ship upgrade without pay its cost"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="80"/>
+    <s v="Cpt. Ray"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="Tap: Untap 2 crew members on assigned ship_x000a_Tap: Return 1 crew member from your stasis pile to your hand"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="81"/>
+    <s v="Cpt. J. Swanson"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="Tap: Activate tactic card twice"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="82"/>
+    <s v="Adm. I.T.S Atrap"/>
+    <m/>
+    <n v="2"/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="Ultra Rare"/>
+    <s v="Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots."/>
+    <s v="Admiral Ian Thomas Sterling Atrap always has something up his sleeve."/>
+    <m/>
+  </r>
+  <r>
+    <n v="83"/>
+    <s v="Adm. D. Flashheart"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <x v="8"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <s v="Ultra Rare"/>
+    <s v="Fighter ships you control each dodge 1 gun slot targetting them."/>
+    <s v="In Admiral Dave Flashheart dog fighting days would have a mirror in his cockpit. Some would say this is so he could see the enemy behind him, however he may have another reason."/>
+    <m/>
+  </r>
+  <r>
+    <n v="84"/>
+    <s v="Comet"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Draw 1 card from your strategy deck"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="85"/>
+    <s v="Halt! Who Goes there?"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Tap 1 target enemy crew"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="86"/>
+    <s v="Memory Wipe"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Target player discards 2 strategy deck cards"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="87"/>
+    <s v="All together for Humanity"/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="All Humans on target ship get +1 to their department on tap"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="88"/>
+    <s v="System Overload"/>
+    <m/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Select 1 ship: Deplete selected ships shield._x000a_Selected ships gun slots power is increased by 200 each for one turn."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="89"/>
+    <s v="Adm. B2ON"/>
+    <m/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <x v="8"/>
+    <x v="6"/>
+    <m/>
+    <x v="2"/>
+    <s v="Ultra Rare"/>
+    <s v="All ships you control non robot crew members are now Robots in addition to its other species types, they gain the following:_x000a_Tap: Repair ship by 100"/>
+    <s v="Some say that the mere sight of Admiral B2ON turns you to a robot."/>
+    <m/>
+  </r>
+  <r>
+    <n v="90"/>
+    <s v="Lt. Dang"/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="Draw 1 extra card at the start of your turn"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="91"/>
+    <s v="Lt. Gaven"/>
+    <n v="1"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="Ship upgrades cost 1 less engineer to attach to assigned ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="92"/>
+    <s v="Lt. Stacey"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="Crew attachments cost 1 less medic to attach to crew members on assigned ship."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="93"/>
+    <s v="Lt. Andrew"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <x v="6"/>
+    <x v="4"/>
+    <m/>
+    <x v="0"/>
+    <s v="Rare"/>
+    <s v="Tactic cards cost 1 less assault to play."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="94"/>
+    <s v="Welcome to the squad"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Attach to non Assault Crew Member._x000a_This crew member gains 1 assault as well as its other department types on tap."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="95"/>
+    <s v="Science School"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Attach to non Research Crew Member._x000a_This crew member gains 1 research as well as its other department types on tap."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="96"/>
+    <s v="Building blocks"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Attach to non Engineer Crew Member._x000a_This crew member gains 1 enginering as well as its other department types on tap."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="97"/>
+    <s v="Flight School"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Attach to non Handling Crew Member._x000a_This crew member gains 1 handling as well as its other department types on tap."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="98"/>
+    <s v="The art of medicine"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Attach to non Medic Crew Member._x000a_This crew member gains 1 medic as well as its other department types on tap."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="99"/>
+    <s v="Auto Cannon"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to Ship: When this ship is targetted by enemy gun slots deal 200 damage to that enemy ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="100"/>
+    <s v="Robot Uprising"/>
+    <m/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="All Robots on target ship get +1 to their department on tap"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="9"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56E0844B-B842-49FE-BAD9-C54D8B7F54DF}" name="PivotTable2" cacheId="34380" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A17:E39" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="17">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item h="1" x="7"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item m="1" x="7"/>
+        <item x="0"/>
+        <item m="1" x="8"/>
+        <item h="1" x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="9"/>
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="12"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95421989-C99E-48E6-8DB6-11F3B37CAE68}" name="PivotTable1" cacheId="34380" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item m="1" x="11"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1037,12 +3488,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0742F16-4937-4A8E-A8D7-41747212FF7D}">
+  <dimension ref="A3:E39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3</v>
+      </c>
+      <c r="E28" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3</v>
+      </c>
+      <c r="E31" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3</v>
+      </c>
+      <c r="E32" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="6">
+        <v>34</v>
+      </c>
+      <c r="D39" s="6">
+        <v>18</v>
+      </c>
+      <c r="E39" s="6">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EA94B-2824-4AC9-A95E-59E2D4B44008}">
-  <dimension ref="A2:Q80"/>
+  <dimension ref="A2:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J79" sqref="J79"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J106" sqref="J106"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1067,7 +3929,7 @@
   <sheetData>
     <row r="2" spans="1:17" ht="18.75">
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1080,60 +3942,60 @@
     </row>
     <row r="4" spans="1:17">
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1141,28 +4003,28 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -1171,28 +4033,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="3"/>
     </row>
@@ -1201,28 +4063,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -1231,28 +4093,28 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="P9" s="3"/>
     </row>
@@ -1261,28 +4123,28 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P10" s="3"/>
     </row>
@@ -1291,28 +4153,28 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="P11" s="3"/>
     </row>
@@ -1321,28 +4183,28 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P12" s="3"/>
     </row>
@@ -1351,28 +4213,28 @@
         <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="P13" s="3"/>
     </row>
@@ -1381,28 +4243,28 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="P14" s="3"/>
     </row>
@@ -1411,28 +4273,28 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
         <v>20</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
       </c>
       <c r="L15">
         <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P15" s="3"/>
     </row>
@@ -1441,28 +4303,28 @@
         <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
         <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>7</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P16" s="3"/>
     </row>
@@ -1471,28 +4333,28 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
         <v>20</v>
       </c>
-      <c r="K17" t="s">
-        <v>7</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N17" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="P17" s="3"/>
     </row>
@@ -1501,28 +4363,28 @@
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="P18" s="3"/>
     </row>
@@ -1531,28 +4393,28 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="L19">
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P19" s="3"/>
     </row>
@@ -1561,28 +4423,28 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="L20">
         <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N20" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P20" s="3"/>
     </row>
@@ -1591,28 +4453,28 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="P21" s="3"/>
     </row>
@@ -1621,28 +4483,28 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="P22" s="3"/>
     </row>
@@ -1651,28 +4513,28 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L23">
         <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P23" s="3"/>
     </row>
@@ -1681,28 +4543,28 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
       <c r="M24" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P24" s="3"/>
     </row>
@@ -1711,28 +4573,28 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="P25" s="3"/>
     </row>
@@ -1741,19 +4603,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="P26" s="3"/>
     </row>
@@ -1762,19 +4624,19 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="P27" s="3"/>
     </row>
@@ -1783,19 +4645,19 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N28" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P28" s="3"/>
     </row>
@@ -1804,19 +4666,19 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N29" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P29" s="3"/>
     </row>
@@ -1825,7 +4687,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1834,13 +4696,13 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N30" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P30" s="3"/>
     </row>
@@ -1849,19 +4711,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P31" s="3"/>
     </row>
@@ -1870,19 +4732,19 @@
         <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P32" s="3"/>
     </row>
@@ -1891,19 +4753,19 @@
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P33" s="3"/>
     </row>
@@ -1912,19 +4774,19 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N34" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P34" s="3"/>
     </row>
@@ -1933,7 +4795,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1942,13 +4804,13 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N35" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P35" s="3"/>
     </row>
@@ -1957,19 +4819,19 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H36">
         <v>4</v>
       </c>
       <c r="J36" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="N36" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P36" s="3"/>
     </row>
@@ -1978,19 +4840,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N37" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P37" s="3"/>
     </row>
@@ -1999,22 +4861,22 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N38" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="30.75">
@@ -2022,7 +4884,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2031,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N39" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2045,7 +4907,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2054,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N40" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="45.75">
@@ -2068,19 +4930,19 @@
         <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N41" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2088,19 +4950,19 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N42" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O42" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="91.5">
@@ -2108,7 +4970,7 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2117,16 +4979,19 @@
         <v>3</v>
       </c>
       <c r="J43" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N43" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="76.5">
@@ -2134,7 +4999,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2143,24 +5008,27 @@
         <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>21</v>
       </c>
       <c r="M44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N44" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="30.75">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="45.75">
       <c r="A45">
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2169,16 +5037,19 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>111</v>
+        <v>7</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N45" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="30.75">
@@ -2186,19 +5057,19 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N46" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2206,19 +5077,19 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N47" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="45.75">
@@ -2226,19 +5097,19 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F48">
         <v>3</v>
       </c>
       <c r="J48" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="N48" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="45.75">
@@ -2246,19 +5117,19 @@
         <v>44</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F49">
         <v>4</v>
       </c>
       <c r="J49" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="N49" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="45.75">
@@ -2266,19 +5137,19 @@
         <v>45</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="45.75">
@@ -2286,19 +5157,19 @@
         <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="45.75">
@@ -2306,7 +5177,7 @@
         <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2318,13 +5189,13 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N52" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="76.5">
@@ -2332,19 +5203,19 @@
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N53" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="91.5">
@@ -2352,28 +5223,28 @@
         <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K54" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L54">
         <v>2</v>
       </c>
       <c r="M54" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N54" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="45.75">
@@ -2381,19 +5252,19 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N55" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="91.5">
@@ -2401,19 +5272,19 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H56">
         <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N56" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="60.75">
@@ -2421,19 +5292,19 @@
         <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F57">
         <v>4</v>
       </c>
       <c r="J57" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N57" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="30.75">
@@ -2441,19 +5312,19 @@
         <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F58">
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N58" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="60.75">
@@ -2461,7 +5332,7 @@
         <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2470,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N59" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="60.75">
@@ -2484,25 +5355,28 @@
         <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K60" t="s">
+        <v>16</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N60" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="60.75">
@@ -2510,25 +5384,28 @@
         <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" t="s">
         <v>20</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N61" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="60.75">
@@ -2536,25 +5413,28 @@
         <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N62" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="60.75">
@@ -2562,25 +5442,28 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N63" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="60.75">
@@ -2588,25 +5471,28 @@
         <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K64" t="s">
+        <v>21</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N64" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="91.5">
@@ -2614,25 +5500,28 @@
         <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K65" t="s">
+        <v>16</v>
       </c>
       <c r="L65">
         <v>2</v>
       </c>
       <c r="M65" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N65" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="76.5">
@@ -2640,25 +5529,28 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" t="s">
         <v>20</v>
       </c>
       <c r="L66">
         <v>2</v>
       </c>
       <c r="M66" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N66" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="76.5">
@@ -2666,25 +5558,28 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
       </c>
       <c r="L67">
         <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N67" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="76.5">
@@ -2692,25 +5587,28 @@
         <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
       </c>
       <c r="L68">
         <v>2</v>
       </c>
       <c r="M68" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N68" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="76.5">
@@ -2718,25 +5616,28 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K69" t="s">
+        <v>21</v>
       </c>
       <c r="L69">
         <v>2</v>
       </c>
       <c r="M69" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N69" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="91.5">
@@ -2744,25 +5645,28 @@
         <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K70" t="s">
+        <v>16</v>
       </c>
       <c r="L70">
         <v>3</v>
       </c>
       <c r="M70" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N70" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="76.5">
@@ -2770,25 +5674,28 @@
         <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" t="s">
         <v>20</v>
       </c>
       <c r="L71">
         <v>3</v>
       </c>
       <c r="M71" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N71" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="76.5">
@@ -2796,25 +5703,28 @@
         <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
       </c>
       <c r="L72">
         <v>3</v>
       </c>
       <c r="M72" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N72" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="76.5">
@@ -2822,25 +5732,28 @@
         <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
       </c>
       <c r="L73">
         <v>3</v>
       </c>
       <c r="M73" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N73" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="76.5">
@@ -2848,25 +5761,28 @@
         <v>69</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="K74" t="s">
+        <v>21</v>
       </c>
       <c r="L74">
         <v>3</v>
       </c>
       <c r="M74" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N74" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="45.75">
@@ -2874,7 +5790,7 @@
         <v>70</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2895,16 +5811,19 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>111</v>
+        <v>7</v>
+      </c>
+      <c r="K75" t="s">
+        <v>18</v>
       </c>
       <c r="M75" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="N75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="76.5">
@@ -2912,7 +5831,7 @@
         <v>71</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2933,16 +5852,19 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="K76" t="s">
+        <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="N76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="60.75">
@@ -2950,7 +5872,7 @@
         <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2959,13 +5881,13 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N77" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="45.75">
@@ -2973,19 +5895,19 @@
         <v>73</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="N78" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="106.5">
@@ -2993,7 +5915,7 @@
         <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3002,10 +5924,10 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>185</v>
@@ -3025,17 +5947,656 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="N80" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>187</v>
       </c>
     </row>
+    <row r="81" spans="1:16" ht="45.75">
+      <c r="A81">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>188</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81" t="s">
+        <v>42</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="45.75">
+      <c r="A82">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>10</v>
+      </c>
+      <c r="N82" t="s">
+        <v>42</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="91.5">
+      <c r="A83">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" t="s">
+        <v>16</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83" t="s">
+        <v>94</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="76.5">
+      <c r="A84">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="J84" t="s">
+        <v>3</v>
+      </c>
+      <c r="K84" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" t="s">
+        <v>94</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="76.5">
+      <c r="A85">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="J85" t="s">
+        <v>3</v>
+      </c>
+      <c r="K85" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85" t="s">
+        <v>94</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>198</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="J86" t="s">
+        <v>3</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86" t="s">
+        <v>94</v>
+      </c>
+      <c r="O86" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="91.5">
+      <c r="A87">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="J87" t="s">
+        <v>2</v>
+      </c>
+      <c r="K87" t="s">
+        <v>16</v>
+      </c>
+      <c r="M87" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87" t="s">
+        <v>176</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="106.5">
+      <c r="A88">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>2</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88" t="s">
+        <v>176</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="30.75">
+      <c r="A89">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>6</v>
+      </c>
+      <c r="N89" t="s">
+        <v>35</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>208</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>6</v>
+      </c>
+      <c r="N90" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="30.75">
+      <c r="A91">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>6</v>
+      </c>
+      <c r="N91" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="45.75">
+      <c r="A92">
+        <v>87</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>8</v>
+      </c>
+      <c r="N92" t="s">
+        <v>42</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="76.5">
+      <c r="A93">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="J93" t="s">
+        <v>6</v>
+      </c>
+      <c r="N93" t="s">
+        <v>94</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P93" s="2"/>
+    </row>
+    <row r="94" spans="1:16" ht="91.5">
+      <c r="A94">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>2</v>
+      </c>
+      <c r="K94" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" t="s">
+        <v>15</v>
+      </c>
+      <c r="N94" t="s">
+        <v>176</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="30.75">
+      <c r="A95">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="J95" t="s">
+        <v>7</v>
+      </c>
+      <c r="K95" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95" t="s">
+        <v>94</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="45.75">
+      <c r="A96">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="J96" t="s">
+        <v>7</v>
+      </c>
+      <c r="K96" t="s">
+        <v>16</v>
+      </c>
+      <c r="M96" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96" t="s">
+        <v>94</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="45.75">
+      <c r="A97">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="J97" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>94</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="30.75">
+      <c r="A98">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>7</v>
+      </c>
+      <c r="K98" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98" t="s">
+        <v>94</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="76.5">
+      <c r="A99">
+        <v>94</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>35</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="76.5">
+      <c r="A100">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>229</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>35</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="91.5">
+      <c r="A101">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>35</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="76.5">
+      <c r="A102">
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>35</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="76.5">
+      <c r="A103">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="60.75">
+      <c r="A104">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>9</v>
+      </c>
+      <c r="N104" t="s">
+        <v>42</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="45.75">
+      <c r="A105">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>8</v>
+      </c>
+      <c r="N105" t="s">
+        <v>94</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:Q58" xr:uid="{C49EA94B-2824-4AC9-A95E-59E2D4B44008}"/>
+  <autoFilter ref="A5:Q105" xr:uid="{C49EA94B-2824-4AC9-A95E-59E2D4B44008}"/>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7458491-C5AB-453B-BCBF-5EF588BAEB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BE51CC-67A9-4359-9BCB-215302C573E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{26B571D9-6066-4A50-9F1B-6B43D918E0C1}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="34380" r:id="rId3"/>
+    <pivotCache cacheId="36" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="291">
   <si>
     <t>Type</t>
   </si>
@@ -834,13 +834,164 @@
   </si>
   <si>
     <t>All Robots on target ship get +1 to their department on tap</t>
+  </si>
+  <si>
+    <t>Fighter Bot 2000</t>
+  </si>
+  <si>
+    <t>Can only be tapped to use gun slot.
+When Using gun slot add an aditional 100 damage</t>
+  </si>
+  <si>
+    <t>Attach to crew: This crew member when used on gun slot add aditional 100 damage against a targets ships shield</t>
+  </si>
+  <si>
+    <t>Knowing Shields</t>
+  </si>
+  <si>
+    <t>Attach to crew: This crew member can use one extra gun slot</t>
+  </si>
+  <si>
+    <t>An extra hand</t>
+  </si>
+  <si>
+    <t>Target ship: Switch targets ship shield with its hull</t>
+  </si>
+  <si>
+    <t>Target ship: Restore 200 shield</t>
+  </si>
+  <si>
+    <t>Shield Booster</t>
+  </si>
+  <si>
+    <t>Target ship: Increase shield max by 200 and Restore 200 shield</t>
+  </si>
+  <si>
+    <t>Flick the switch</t>
+  </si>
+  <si>
+    <t>Sometimes you just need to check everythings plugged in.</t>
+  </si>
+  <si>
+    <t>Unidentified Lifeform</t>
+  </si>
+  <si>
+    <t>on Going Event</t>
+  </si>
+  <si>
+    <t>No one has ever known the true purpose of this disgusting lifeform but it just gets in the way</t>
+  </si>
+  <si>
+    <t>Attach to ship: At the start of ship owners turn add a unidentified lifeform token to a empty crew slot. The token cannot be used on gun slots and has: Tap: remove unidentified lifeform and assigned ship takes 100 damage.</t>
+  </si>
+  <si>
+    <t>Evolutionary Pod</t>
+  </si>
+  <si>
+    <t>Attach to ship: All unidentified lifeform tokens can now be used on a gun slot. When a unidentifed lifeform is used on a gun slot it is sacrified and deals an extra 400 to targeted ship</t>
+  </si>
+  <si>
+    <t>Promotion!</t>
+  </si>
+  <si>
+    <t>Tractor Beam</t>
+  </si>
+  <si>
+    <t>Steal target players ship upgrade from target enemy ship and attach to one of your ships</t>
+  </si>
+  <si>
+    <t>Its in the stars</t>
+  </si>
+  <si>
+    <t>Search your strategy deck for any card with converted cost of 4 or less and place into your hand. Then shuffle your strategy deck.</t>
+  </si>
+  <si>
+    <t>Even further beyond</t>
+  </si>
+  <si>
+    <t>Search your strategy deck for any card with converted cost of 4 or less and immediately play without paying its cost. Then shuffle your strategy deck.</t>
+  </si>
+  <si>
+    <t>Fusion Reactor</t>
+  </si>
+  <si>
+    <t>Attach to ship: Increase ships maximum shield by 400 while this is attached. Restore shield back to full when this is first attached.</t>
+  </si>
+  <si>
+    <t>Wires Crossed</t>
+  </si>
+  <si>
+    <t>Search your strategy deck for 1 crew card with a rank higher than 1 and place into your hand. Then shuffle your strategy deck.</t>
+  </si>
+  <si>
+    <t>Prisoners of War</t>
+  </si>
+  <si>
+    <t>Target ship: Roll a d6 and attach up to that many prisoners of war tokens to an equal amount of crew members. Crew members with a prisoners of war attached cannot tap.</t>
+  </si>
+  <si>
+    <t>All crew members that have a prisoners of war token attached are killed and sent to stasis</t>
+  </si>
+  <si>
+    <t>Prisoners Escaped!</t>
+  </si>
+  <si>
+    <t>Cleared Out</t>
+  </si>
+  <si>
+    <t>Target ship: Remove all crew attachments from target ship.</t>
+  </si>
+  <si>
+    <t>One at a time</t>
+  </si>
+  <si>
+    <t>Remove 1 crew attachment from 1 target crew member</t>
+  </si>
+  <si>
+    <t>Attach to ship: All crew members on ship can now tap: remove all crew attachments on tapped crew member</t>
+  </si>
+  <si>
+    <t>Seeing Stars Bar</t>
+  </si>
+  <si>
+    <t>Most ships have to have some form of entertainment and whats better than a bar to wipe yourself clean of all your troubles and responsibilities</t>
+  </si>
+  <si>
+    <t>Intergalactic Laxative</t>
+  </si>
+  <si>
+    <t>Target Ship: All crew members are tapped until the start of your next turn</t>
+  </si>
+  <si>
+    <t>Sometimes in space poo gets on the loose</t>
+  </si>
+  <si>
+    <t>Jerry's Space Diner</t>
+  </si>
+  <si>
+    <t>At the start of your turn draw 2 cards from either your strategy or crew deck and then place 1 card from your hand to the bottom of that cards deck.</t>
+  </si>
+  <si>
+    <t>Jerry's Diner is known for its gossips across the galaxy</t>
+  </si>
+  <si>
+    <t>Black Hole</t>
+  </si>
+  <si>
+    <t>Deal 500 damage to all ships</t>
+  </si>
+  <si>
+    <t>Galactic Diplomacy</t>
+  </si>
+  <si>
+    <t>At the start of each turn all players give 1 card from their hand to the player on their left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,14 +1053,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,13 +1079,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45013.926626157408" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="101" xr:uid="{B688DD9A-DD39-418C-87CC-4E60672EAA36}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="local-user" refreshedDate="45014.717974421299" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="123" xr:uid="{B688DD9A-DD39-418C-87CC-4E60672EAA36}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:Q200" sheet="Card Designs"/>
   </cacheSource>
   <cacheFields count="17">
     <cacheField name="Id" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="100"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="122"/>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -955,7 +1106,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="Assault" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="X" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1021,7 +1172,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="101">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="123">
   <r>
     <n v="1"/>
     <s v="Associate Scientist"/>
@@ -2923,6 +3074,424 @@
     <m/>
   </r>
   <r>
+    <n v="101"/>
+    <s v="Fighter Bot 2000"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Uncommon"/>
+    <s v="Can only be tapped to use gun slot._x000a_When Using gun slot add an aditional 100 damage"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="Knowing Shields"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to crew: This crew member when used on gun slot add aditional 100 damage against a targets ships shield"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="An extra hand"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to crew: This crew member can use one extra gun slot"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="104"/>
+    <s v="Wires Crossed"/>
+    <m/>
+    <n v="3"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Target ship: Switch targets ship shield with its hull"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="Shield Booster"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Target ship: Increase shield max by 200 and Restore 200 shield"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="106"/>
+    <s v="Flick the switch"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Target ship: Restore 200 shield"/>
+    <s v="Sometimes you just need to check everythings plugged in."/>
+    <m/>
+  </r>
+  <r>
+    <n v="107"/>
+    <s v="Unidentified Lifeform"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Attach to ship: At the start of ship owners turn add a unidentified lifeform token to a empty crew slot. The token cannot be used on gun slots and has: Tap: remove unidentified lifeform and assigned ship takes 100 damage."/>
+    <s v="No one has ever known the true purpose of this disgusting lifeform but it just gets in the way"/>
+    <m/>
+  </r>
+  <r>
+    <n v="108"/>
+    <s v="Evolutionary Pod"/>
+    <m/>
+    <n v="3"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Attach to ship: All unidentified lifeform tokens can now be used on a gun slot. When a unidentifed lifeform is used on a gun slot it is sacrified and deals an extra 400 to targeted ship"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="109"/>
+    <s v="Promotion!"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Search your strategy deck for 1 crew card with a rank higher than 1 and place into your hand. Then shuffle your strategy deck."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="110"/>
+    <s v="Tractor Beam"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Steal target players ship upgrade from target enemy ship and attach to one of your ships"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="111"/>
+    <s v="Its in the stars"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Search your strategy deck for any card with converted cost of 4 or less and place into your hand. Then shuffle your strategy deck."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="112"/>
+    <s v="Even further beyond"/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Search your strategy deck for any card with converted cost of 4 or less and immediately play without paying its cost. Then shuffle your strategy deck."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="113"/>
+    <s v="Fusion Reactor"/>
+    <m/>
+    <n v="1"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Attach to ship: Increase ships maximum shield by 400 while this is attached. Restore shield back to full when this is first attached."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="114"/>
+    <s v="Prisoners of War"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Target ship: Roll a d6 and attach up to that many prisoners of war tokens to an equal amount of crew members. Crew members with a prisoners of war attached cannot tap."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="115"/>
+    <s v="Prisoners Escaped!"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="All crew members that have a prisoners of war token attached are killed and sent to stasis"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="116"/>
+    <s v="Cleared Out"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Target ship: Remove all crew attachments from target ship."/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="117"/>
+    <s v="One at a time"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <x v="3"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Uncommon"/>
+    <s v="Remove 1 crew attachment from 1 target crew member"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="Seeing Stars Bar"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Common"/>
+    <s v="Attach to ship: All crew members on ship can now tap: remove all crew attachments on tapped crew member"/>
+    <s v="Most ships have to have some form of entertainment and whats better than a bar to wipe yourself clean of all your troubles and responsibilities"/>
+    <m/>
+  </r>
+  <r>
+    <n v="119"/>
+    <s v="Intergalactic Laxative"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Ultra Rare"/>
+    <s v="Target Ship: All crew members are tapped until the start of your next turn"/>
+    <s v="Sometimes in space poo gets on the loose"/>
+    <m/>
+  </r>
+  <r>
+    <n v="120"/>
+    <s v="Jerry's Space Diner"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="At the start of your turn draw 2 cards from either your strategy or crew deck and then place 1 card from your hand to the bottom of that cards deck."/>
+    <s v="Jerry's Diner is known for its gossips across the galaxy"/>
+    <m/>
+  </r>
+  <r>
+    <n v="121"/>
+    <s v="Black Hole"/>
+    <m/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="Deal 500 damage to all ships"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="122"/>
+    <s v="Galactic Diplomacy"/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <x v="5"/>
+    <m/>
+    <x v="1"/>
+    <s v="Rare"/>
+    <s v="At the start of each turn all players give 1 card from their hand to the player on their left"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
     <m/>
     <m/>
     <m/>
@@ -2945,7 +3514,98 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56E0844B-B842-49FE-BAD9-C54D8B7F54DF}" name="PivotTable2" cacheId="34380" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95421989-C99E-48E6-8DB6-11F3B37CAE68}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item m="1" x="11"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56E0844B-B842-49FE-BAD9-C54D8B7F54DF}" name="PivotTable2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:E39" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="17">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -3085,97 +3745,6 @@
     <i t="grand">
       <x/>
     </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95421989-C99E-48E6-8DB6-11F3B37CAE68}" name="PivotTable1" cacheId="34380" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="13">
-        <item x="8"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item m="1" x="11"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
@@ -3491,120 +4060,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0742F16-4937-4A8E-A8D7-41747212FF7D}">
   <dimension ref="A3:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B13" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
@@ -3617,280 +4186,280 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>5</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>3</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="7">
         <v>4</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>3</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="7">
         <v>4</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="7">
         <v>3</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>3</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="7">
         <v>4</v>
       </c>
-      <c r="D32" s="6">
-        <v>3</v>
-      </c>
-      <c r="E32" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>34</v>
       </c>
-      <c r="D39" s="6">
-        <v>18</v>
-      </c>
-      <c r="E39" s="6">
-        <v>52</v>
+      <c r="D39" s="7">
+        <v>19</v>
+      </c>
+      <c r="E39" s="7">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3900,16 +4469,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EA94B-2824-4AC9-A95E-59E2D4B44008}">
-  <dimension ref="A2:Q105"/>
+  <dimension ref="A2:Q127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J106" sqref="J106"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="topRight"/>
+      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -3927,25 +4496,25 @@
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="18.75">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3998,7 +4567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4028,7 +4597,7 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="30.75">
+    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4058,7 +4627,7 @@
       </c>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="30.75">
+    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4088,7 +4657,7 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="30.75">
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4118,7 +4687,7 @@
       </c>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="30.75">
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4148,7 +4717,7 @@
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="45.75">
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4178,7 +4747,7 @@
       </c>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="45.75">
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4208,7 +4777,7 @@
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="30.75">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4238,7 +4807,7 @@
       </c>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4268,7 +4837,7 @@
       </c>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="30.75">
+    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4298,7 +4867,7 @@
       </c>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="30.75">
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -4328,7 +4897,7 @@
       </c>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="45.75">
+    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4358,7 +4927,7 @@
       </c>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -4388,7 +4957,7 @@
       </c>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="30.75">
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -4418,7 +4987,7 @@
       </c>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" ht="30.75">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -4448,7 +5017,7 @@
       </c>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" ht="76.5">
+    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -4478,7 +5047,7 @@
       </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -4508,7 +5077,7 @@
       </c>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" ht="30.75">
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18</v>
       </c>
@@ -4538,7 +5107,7 @@
       </c>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" ht="30.75">
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19</v>
       </c>
@@ -4568,7 +5137,7 @@
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" ht="45.75">
+    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>20</v>
       </c>
@@ -4598,7 +5167,7 @@
       </c>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" ht="76.5">
+    <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>21</v>
       </c>
@@ -4619,7 +5188,7 @@
       </c>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" ht="30.75">
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>22</v>
       </c>
@@ -4640,7 +5209,7 @@
       </c>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" ht="30.75">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -4661,7 +5230,7 @@
       </c>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" ht="30.75">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -4682,7 +5251,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" ht="45.75">
+    <row r="30" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -4706,7 +5275,7 @@
       </c>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" ht="30.75">
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>26</v>
       </c>
@@ -4727,7 +5296,7 @@
       </c>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="45.75">
+    <row r="32" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -4748,7 +5317,7 @@
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" ht="30.75">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>28</v>
       </c>
@@ -4769,7 +5338,7 @@
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" ht="30.75">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>29</v>
       </c>
@@ -4790,7 +5359,7 @@
       </c>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="76.5">
+    <row r="35" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>30</v>
       </c>
@@ -4814,7 +5383,7 @@
       </c>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" ht="45.75">
+    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>31</v>
       </c>
@@ -4835,7 +5404,7 @@
       </c>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" ht="30.75">
+    <row r="37" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>32</v>
       </c>
@@ -4856,7 +5425,7 @@
       </c>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" ht="45.75">
+    <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>33</v>
       </c>
@@ -4879,7 +5448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="30.75">
+    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>34</v>
       </c>
@@ -4902,7 +5471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>35</v>
       </c>
@@ -4925,7 +5494,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="45.75">
+    <row r="41" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>36</v>
       </c>
@@ -4945,7 +5514,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>37</v>
       </c>
@@ -4965,7 +5534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="91.5">
+    <row r="43" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>38</v>
       </c>
@@ -4994,7 +5563,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="76.5">
+    <row r="44" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>39</v>
       </c>
@@ -5023,7 +5592,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="45.75">
+    <row r="45" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>40</v>
       </c>
@@ -5052,7 +5621,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30.75">
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>41</v>
       </c>
@@ -5072,7 +5641,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>42</v>
       </c>
@@ -5092,7 +5661,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="45.75">
+    <row r="48" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>43</v>
       </c>
@@ -5112,7 +5681,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="45.75">
+    <row r="49" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
@@ -5132,7 +5701,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="45.75">
+    <row r="50" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>45</v>
       </c>
@@ -5152,7 +5721,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="45.75">
+    <row r="51" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -5172,7 +5741,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="45.75">
+    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -5198,7 +5767,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="76.5">
+    <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>48</v>
       </c>
@@ -5218,7 +5787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="91.5">
+    <row r="54" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>49</v>
       </c>
@@ -5247,7 +5816,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="45.75">
+    <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>50</v>
       </c>
@@ -5267,7 +5836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="91.5">
+    <row r="56" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>51</v>
       </c>
@@ -5287,7 +5856,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="60.75">
+    <row r="57" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>52</v>
       </c>
@@ -5307,7 +5876,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="30.75">
+    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>53</v>
       </c>
@@ -5327,7 +5896,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="60.75">
+    <row r="59" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>54</v>
       </c>
@@ -5350,7 +5919,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="60.75">
+    <row r="60" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>55</v>
       </c>
@@ -5379,7 +5948,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="60.75">
+    <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>56</v>
       </c>
@@ -5408,7 +5977,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="60.75">
+    <row r="62" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>57</v>
       </c>
@@ -5437,7 +6006,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="60.75">
+    <row r="63" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>58</v>
       </c>
@@ -5466,7 +6035,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="60.75">
+    <row r="64" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>59</v>
       </c>
@@ -5495,7 +6064,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="91.5">
+    <row r="65" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>60</v>
       </c>
@@ -5524,7 +6093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="76.5">
+    <row r="66" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>61</v>
       </c>
@@ -5553,7 +6122,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="76.5">
+    <row r="67" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>62</v>
       </c>
@@ -5582,7 +6151,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="76.5">
+    <row r="68" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>63</v>
       </c>
@@ -5611,7 +6180,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="76.5">
+    <row r="69" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>64</v>
       </c>
@@ -5640,7 +6209,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="91.5">
+    <row r="70" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>65</v>
       </c>
@@ -5669,7 +6238,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="76.5">
+    <row r="71" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>66</v>
       </c>
@@ -5698,7 +6267,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="76.5">
+    <row r="72" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>67</v>
       </c>
@@ -5727,7 +6296,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="76.5">
+    <row r="73" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>68</v>
       </c>
@@ -5756,7 +6325,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="76.5">
+    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>69</v>
       </c>
@@ -5785,7 +6354,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="45.75">
+    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>70</v>
       </c>
@@ -5826,7 +6395,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="76.5">
+    <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>71</v>
       </c>
@@ -5867,7 +6436,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="60.75">
+    <row r="77" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>72</v>
       </c>
@@ -5890,7 +6459,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="45.75">
+    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>73</v>
       </c>
@@ -5910,7 +6479,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="106.5">
+    <row r="79" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>74</v>
       </c>
@@ -5933,7 +6502,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="45.75">
+    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>75</v>
       </c>
@@ -5956,7 +6525,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="45.75">
+    <row r="81" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>76</v>
       </c>
@@ -5976,7 +6545,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="45.75">
+    <row r="82" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>77</v>
       </c>
@@ -5999,7 +6568,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="91.5">
+    <row r="83" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>78</v>
       </c>
@@ -6028,7 +6597,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="76.5">
+    <row r="84" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>79</v>
       </c>
@@ -6057,7 +6626,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="76.5">
+    <row r="85" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>80</v>
       </c>
@@ -6086,7 +6655,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>81</v>
       </c>
@@ -6112,7 +6681,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="91.5">
+    <row r="87" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>82</v>
       </c>
@@ -6140,11 +6709,11 @@
       <c r="O87" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="P87" s="7" t="s">
+      <c r="P87" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="106.5">
+    <row r="88" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>83</v>
       </c>
@@ -6172,11 +6741,11 @@
       <c r="O88" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="P88" s="7" t="s">
+      <c r="P88" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="30.75">
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>84</v>
       </c>
@@ -6196,7 +6765,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>85</v>
       </c>
@@ -6216,7 +6785,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="30.75">
+    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>86</v>
       </c>
@@ -6239,7 +6808,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="45.75">
+    <row r="92" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>87</v>
       </c>
@@ -6271,7 +6840,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="76.5">
+    <row r="93" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>88</v>
       </c>
@@ -6295,7 +6864,7 @@
       </c>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="91.5">
+    <row r="94" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>89</v>
       </c>
@@ -6332,11 +6901,11 @@
       <c r="O94" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="P94" s="7" t="s">
+      <c r="P94" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30.75">
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>90</v>
       </c>
@@ -6365,7 +6934,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="45.75">
+    <row r="96" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>91</v>
       </c>
@@ -6394,7 +6963,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="45.75">
+    <row r="97" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>92</v>
       </c>
@@ -6423,7 +6992,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="30.75">
+    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>93</v>
       </c>
@@ -6452,7 +7021,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="76.5">
+    <row r="99" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>94</v>
       </c>
@@ -6472,7 +7041,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="76.5">
+    <row r="100" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>95</v>
       </c>
@@ -6492,7 +7061,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="91.5">
+    <row r="101" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>96</v>
       </c>
@@ -6512,7 +7081,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="76.5">
+    <row r="102" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>97</v>
       </c>
@@ -6532,7 +7101,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="76.5">
+    <row r="103" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>98</v>
       </c>
@@ -6552,7 +7121,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="60.75">
+    <row r="104" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>99</v>
       </c>
@@ -6572,7 +7141,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="45.75">
+    <row r="105" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>100</v>
       </c>
@@ -6593,6 +7162,509 @@
       </c>
       <c r="O105" s="2" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" t="s">
+        <v>17</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
+        <v>15</v>
+      </c>
+      <c r="N106" t="s">
+        <v>42</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="J107" t="s">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>42</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>103</v>
+      </c>
+      <c r="B108" t="s">
+        <v>246</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>42</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>6</v>
+      </c>
+      <c r="N109" t="s">
+        <v>94</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>249</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>6</v>
+      </c>
+      <c r="N110" t="s">
+        <v>42</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>251</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>6</v>
+      </c>
+      <c r="N111" t="s">
+        <v>35</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>107</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>254</v>
+      </c>
+      <c r="N112" t="s">
+        <v>94</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P112" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>257</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>9</v>
+      </c>
+      <c r="N113" t="s">
+        <v>94</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>259</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>6</v>
+      </c>
+      <c r="N114" t="s">
+        <v>42</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>260</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>6</v>
+      </c>
+      <c r="N115" t="s">
+        <v>42</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>111</v>
+      </c>
+      <c r="B116" t="s">
+        <v>262</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="J116" t="s">
+        <v>6</v>
+      </c>
+      <c r="N116" t="s">
+        <v>35</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>112</v>
+      </c>
+      <c r="B117" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="J117" t="s">
+        <v>6</v>
+      </c>
+      <c r="N117" t="s">
+        <v>42</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>113</v>
+      </c>
+      <c r="B118" t="s">
+        <v>266</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+      <c r="J118" t="s">
+        <v>9</v>
+      </c>
+      <c r="N118" t="s">
+        <v>42</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>270</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="J119" t="s">
+        <v>6</v>
+      </c>
+      <c r="N119" t="s">
+        <v>42</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>273</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
+      <c r="J120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N120" t="s">
+        <v>42</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>116</v>
+      </c>
+      <c r="B121" t="s">
+        <v>274</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="J121" t="s">
+        <v>10</v>
+      </c>
+      <c r="N121" t="s">
+        <v>42</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>117</v>
+      </c>
+      <c r="B122" t="s">
+        <v>276</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>10</v>
+      </c>
+      <c r="N122" t="s">
+        <v>42</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>279</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>9</v>
+      </c>
+      <c r="N123" t="s">
+        <v>35</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="P123" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>281</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="J124" t="s">
+        <v>6</v>
+      </c>
+      <c r="N124" t="s">
+        <v>176</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>284</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="J125" t="s">
+        <v>8</v>
+      </c>
+      <c r="N125" t="s">
+        <v>94</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="P125" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>287</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>6</v>
+      </c>
+      <c r="N126" t="s">
+        <v>94</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>122</v>
+      </c>
+      <c r="B127" t="s">
+        <v>289</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+      <c r="J127" t="s">
+        <v>8</v>
+      </c>
+      <c r="N127" t="s">
+        <v>94</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BE51CC-67A9-4359-9BCB-215302C573E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{398B63CC-9E9F-45BA-A3B8-B752525E208A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{26B571D9-6066-4A50-9F1B-6B43D918E0C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{26B571D9-6066-4A50-9F1B-6B43D918E0C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Table Counts" sheetId="2" r:id="rId1"/>
     <sheet name="Card Designs" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Card Designs'!$A$5:$Q$5</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId3"/>
+    <pivotCache cacheId="3776" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="323">
   <si>
     <t>Type</t>
   </si>
@@ -843,33 +844,36 @@
 When Using gun slot add an aditional 100 damage</t>
   </si>
   <si>
+    <t>Knowing Shields</t>
+  </si>
+  <si>
     <t>Attach to crew: This crew member when used on gun slot add aditional 100 damage against a targets ships shield</t>
   </si>
   <si>
-    <t>Knowing Shields</t>
+    <t>An extra hand</t>
   </si>
   <si>
     <t>Attach to crew: This crew member can use one extra gun slot</t>
   </si>
   <si>
-    <t>An extra hand</t>
+    <t>Wires Crossed</t>
   </si>
   <si>
     <t>Target ship: Switch targets ship shield with its hull</t>
   </si>
   <si>
+    <t>Shield Booster</t>
+  </si>
+  <si>
+    <t>Target ship: Increase shield max by 200 and Restore 200 shield</t>
+  </si>
+  <si>
+    <t>Flick the switch</t>
+  </si>
+  <si>
     <t>Target ship: Restore 200 shield</t>
   </si>
   <si>
-    <t>Shield Booster</t>
-  </si>
-  <si>
-    <t>Target ship: Increase shield max by 200 and Restore 200 shield</t>
-  </si>
-  <si>
-    <t>Flick the switch</t>
-  </si>
-  <si>
     <t>Sometimes you just need to check everythings plugged in.</t>
   </si>
   <si>
@@ -879,12 +883,12 @@
     <t>on Going Event</t>
   </si>
   <si>
+    <t>Attach to ship: At the start of ship owners turn add a unidentified lifeform token to a empty crew slot. The token cannot be used on gun slots and has: Tap: remove unidentified lifeform and assigned ship takes 100 damage.</t>
+  </si>
+  <si>
     <t>No one has ever known the true purpose of this disgusting lifeform but it just gets in the way</t>
   </si>
   <si>
-    <t>Attach to ship: At the start of ship owners turn add a unidentified lifeform token to a empty crew slot. The token cannot be used on gun slots and has: Tap: remove unidentified lifeform and assigned ship takes 100 damage.</t>
-  </si>
-  <si>
     <t>Evolutionary Pod</t>
   </si>
   <si>
@@ -894,6 +898,9 @@
     <t>Promotion!</t>
   </si>
   <si>
+    <t>Search your strategy deck for 1 crew card with a rank higher than 1 and place into your hand. Then shuffle your strategy deck.</t>
+  </si>
+  <si>
     <t>Tractor Beam</t>
   </si>
   <si>
@@ -918,24 +925,18 @@
     <t>Attach to ship: Increase ships maximum shield by 400 while this is attached. Restore shield back to full when this is first attached.</t>
   </si>
   <si>
-    <t>Wires Crossed</t>
-  </si>
-  <si>
-    <t>Search your strategy deck for 1 crew card with a rank higher than 1 and place into your hand. Then shuffle your strategy deck.</t>
-  </si>
-  <si>
     <t>Prisoners of War</t>
   </si>
   <si>
     <t>Target ship: Roll a d6 and attach up to that many prisoners of war tokens to an equal amount of crew members. Crew members with a prisoners of war attached cannot tap.</t>
   </si>
   <si>
+    <t>Prisoners Escaped!</t>
+  </si>
+  <si>
     <t>All crew members that have a prisoners of war token attached are killed and sent to stasis</t>
   </si>
   <si>
-    <t>Prisoners Escaped!</t>
-  </si>
-  <si>
     <t>Cleared Out</t>
   </si>
   <si>
@@ -948,12 +949,12 @@
     <t>Remove 1 crew attachment from 1 target crew member</t>
   </si>
   <si>
+    <t>Seeing Stars Bar</t>
+  </si>
+  <si>
     <t>Attach to ship: All crew members on ship can now tap: remove all crew attachments on tapped crew member</t>
   </si>
   <si>
-    <t>Seeing Stars Bar</t>
-  </si>
-  <si>
     <t>Most ships have to have some form of entertainment and whats better than a bar to wipe yourself clean of all your troubles and responsibilities</t>
   </si>
   <si>
@@ -985,13 +986,109 @@
   </si>
   <si>
     <t>At the start of each turn all players give 1 card from their hand to the player on their left</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>3m 3a</t>
+  </si>
+  <si>
+    <t>1e 1a</t>
+  </si>
+  <si>
+    <t>1e 1m</t>
+  </si>
+  <si>
+    <t>Player 1</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>Damage per gun</t>
+  </si>
+  <si>
+    <t>Guns</t>
+  </si>
+  <si>
+    <t>Junkyard</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Strategy Deck</t>
+  </si>
+  <si>
+    <t>Cruiser</t>
+  </si>
+  <si>
+    <t>Stasis</t>
+  </si>
+  <si>
+    <t>Destroyer</t>
+  </si>
+  <si>
+    <t>Crew Deck</t>
+  </si>
+  <si>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assualt </t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
+    <t>Player 2</t>
+  </si>
+  <si>
+    <t>2e 2r</t>
+  </si>
+  <si>
+    <t>3e 2r</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>3r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,16 +1120,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1040,11 +1201,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1060,7 +1297,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3514,98 +3780,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95421989-C99E-48E6-8DB6-11F3B37CAE68}" name="PivotTable1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="13">
-        <item x="8"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item m="1" x="11"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56E0844B-B842-49FE-BAD9-C54D8B7F54DF}" name="PivotTable2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56E0844B-B842-49FE-BAD9-C54D8B7F54DF}" name="PivotTable2" cacheId="3776" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:E39" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="17">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -3745,6 +3920,97 @@
     <i t="grand">
       <x/>
     </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95421989-C99E-48E6-8DB6-11F3B37CAE68}" name="PivotTable1" cacheId="3776" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item m="1" x="11"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
@@ -4064,7 +4330,7 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -4073,7 +4339,7 @@
     <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4081,87 +4347,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -4169,7 +4435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>0</v>
       </c>
@@ -4186,279 +4452,264 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>4</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="7">
-        <v>1</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39">
         <v>34</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39">
         <v>19</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39">
         <v>53</v>
       </c>
     </row>
@@ -4471,14 +4722,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49EA94B-2824-4AC9-A95E-59E2D4B44008}">
   <dimension ref="A2:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K127" sqref="K127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
@@ -4496,7 +4747,7 @@
     <col min="17" max="17" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.75">
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
@@ -4509,12 +4760,12 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -4567,7 +4818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4597,7 +4848,7 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="30">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4627,7 +4878,7 @@
       </c>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="30">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4657,7 +4908,7 @@
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="30">
       <c r="A9">
         <v>4</v>
       </c>
@@ -4687,7 +4938,7 @@
       </c>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="30">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4717,7 +4968,7 @@
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4747,7 +4998,7 @@
       </c>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="45">
       <c r="A12">
         <v>7</v>
       </c>
@@ -4777,7 +5028,7 @@
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="30">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4807,7 +5058,7 @@
       </c>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4837,7 +5088,7 @@
       </c>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="30">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4867,7 +5118,7 @@
       </c>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="30">
       <c r="A16">
         <v>11</v>
       </c>
@@ -4897,7 +5148,7 @@
       </c>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="45">
       <c r="A17">
         <v>12</v>
       </c>
@@ -4927,7 +5178,7 @@
       </c>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>13</v>
       </c>
@@ -4957,7 +5208,7 @@
       </c>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="30">
       <c r="A19">
         <v>14</v>
       </c>
@@ -4987,7 +5238,7 @@
       </c>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="30">
       <c r="A20">
         <v>15</v>
       </c>
@@ -5017,7 +5268,7 @@
       </c>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="75">
       <c r="A21">
         <v>16</v>
       </c>
@@ -5047,7 +5298,7 @@
       </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>17</v>
       </c>
@@ -5077,7 +5328,7 @@
       </c>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="30">
       <c r="A23">
         <v>18</v>
       </c>
@@ -5107,7 +5358,7 @@
       </c>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="30">
       <c r="A24">
         <v>19</v>
       </c>
@@ -5137,7 +5388,7 @@
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="45">
       <c r="A25">
         <v>20</v>
       </c>
@@ -5167,7 +5418,7 @@
       </c>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="75">
       <c r="A26">
         <v>21</v>
       </c>
@@ -5188,7 +5439,7 @@
       </c>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="30">
       <c r="A27">
         <v>22</v>
       </c>
@@ -5209,7 +5460,7 @@
       </c>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="30">
       <c r="A28">
         <v>23</v>
       </c>
@@ -5230,7 +5481,7 @@
       </c>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="30">
       <c r="A29">
         <v>24</v>
       </c>
@@ -5251,7 +5502,7 @@
       </c>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="45">
       <c r="A30">
         <v>25</v>
       </c>
@@ -5275,7 +5526,7 @@
       </c>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="30">
       <c r="A31">
         <v>26</v>
       </c>
@@ -5296,7 +5547,7 @@
       </c>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="60">
       <c r="A32">
         <v>27</v>
       </c>
@@ -5317,7 +5568,7 @@
       </c>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="30">
       <c r="A33">
         <v>28</v>
       </c>
@@ -5338,7 +5589,7 @@
       </c>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="30">
       <c r="A34">
         <v>29</v>
       </c>
@@ -5359,7 +5610,7 @@
       </c>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="75">
       <c r="A35">
         <v>30</v>
       </c>
@@ -5383,7 +5634,7 @@
       </c>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="45">
       <c r="A36">
         <v>31</v>
       </c>
@@ -5404,7 +5655,7 @@
       </c>
       <c r="P36" s="3"/>
     </row>
-    <row r="37" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="45">
       <c r="A37">
         <v>32</v>
       </c>
@@ -5425,7 +5676,7 @@
       </c>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="45">
       <c r="A38">
         <v>33</v>
       </c>
@@ -5448,7 +5699,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="30">
       <c r="A39">
         <v>34</v>
       </c>
@@ -5471,7 +5722,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="30">
       <c r="A40">
         <v>35</v>
       </c>
@@ -5494,7 +5745,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="45">
       <c r="A41">
         <v>36</v>
       </c>
@@ -5514,7 +5765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>37</v>
       </c>
@@ -5534,7 +5785,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="105">
       <c r="A43">
         <v>38</v>
       </c>
@@ -5563,7 +5814,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="75">
       <c r="A44">
         <v>39</v>
       </c>
@@ -5592,7 +5843,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="45">
       <c r="A45">
         <v>40</v>
       </c>
@@ -5621,7 +5872,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="30">
       <c r="A46">
         <v>41</v>
       </c>
@@ -5641,7 +5892,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="30">
       <c r="A47">
         <v>42</v>
       </c>
@@ -5661,7 +5912,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="45">
       <c r="A48">
         <v>43</v>
       </c>
@@ -5681,7 +5932,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="45">
       <c r="A49">
         <v>44</v>
       </c>
@@ -5701,7 +5952,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="45">
       <c r="A50">
         <v>45</v>
       </c>
@@ -5721,7 +5972,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="60">
       <c r="A51">
         <v>46</v>
       </c>
@@ -5741,7 +5992,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="45">
       <c r="A52">
         <v>47</v>
       </c>
@@ -5767,7 +6018,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="75">
       <c r="A53">
         <v>48</v>
       </c>
@@ -5787,7 +6038,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="90">
       <c r="A54">
         <v>49</v>
       </c>
@@ -5816,7 +6067,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="45">
       <c r="A55">
         <v>50</v>
       </c>
@@ -5836,7 +6087,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="90">
       <c r="A56">
         <v>51</v>
       </c>
@@ -5856,7 +6107,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="60">
       <c r="A57">
         <v>52</v>
       </c>
@@ -5876,7 +6127,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="30">
       <c r="A58">
         <v>53</v>
       </c>
@@ -5896,7 +6147,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="60">
       <c r="A59">
         <v>54</v>
       </c>
@@ -5919,7 +6170,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="60">
       <c r="A60">
         <v>55</v>
       </c>
@@ -5948,7 +6199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="60">
       <c r="A61">
         <v>56</v>
       </c>
@@ -5977,7 +6228,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="60">
       <c r="A62">
         <v>57</v>
       </c>
@@ -6006,7 +6257,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="60">
       <c r="A63">
         <v>58</v>
       </c>
@@ -6035,7 +6286,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="60">
       <c r="A64">
         <v>59</v>
       </c>
@@ -6064,7 +6315,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="90">
       <c r="A65">
         <v>60</v>
       </c>
@@ -6093,7 +6344,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="75">
       <c r="A66">
         <v>61</v>
       </c>
@@ -6122,7 +6373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="75">
       <c r="A67">
         <v>62</v>
       </c>
@@ -6151,7 +6402,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="75">
       <c r="A68">
         <v>63</v>
       </c>
@@ -6180,7 +6431,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="75">
       <c r="A69">
         <v>64</v>
       </c>
@@ -6209,7 +6460,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="90">
       <c r="A70">
         <v>65</v>
       </c>
@@ -6238,7 +6489,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="75">
       <c r="A71">
         <v>66</v>
       </c>
@@ -6267,7 +6518,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="75">
       <c r="A72">
         <v>67</v>
       </c>
@@ -6296,7 +6547,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="75">
       <c r="A73">
         <v>68</v>
       </c>
@@ -6325,7 +6576,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="75">
       <c r="A74">
         <v>69</v>
       </c>
@@ -6354,7 +6605,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="45">
       <c r="A75">
         <v>70</v>
       </c>
@@ -6395,7 +6646,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="75">
       <c r="A76">
         <v>71</v>
       </c>
@@ -6436,7 +6687,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="60">
       <c r="A77">
         <v>72</v>
       </c>
@@ -6459,7 +6710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="45">
       <c r="A78">
         <v>73</v>
       </c>
@@ -6479,7 +6730,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="105">
       <c r="A79">
         <v>74</v>
       </c>
@@ -6502,7 +6753,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="45">
       <c r="A80">
         <v>75</v>
       </c>
@@ -6525,7 +6776,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="45">
       <c r="A81">
         <v>76</v>
       </c>
@@ -6545,7 +6796,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="45">
       <c r="A82">
         <v>77</v>
       </c>
@@ -6568,7 +6819,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="90">
       <c r="A83">
         <v>78</v>
       </c>
@@ -6597,7 +6848,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="75">
       <c r="A84">
         <v>79</v>
       </c>
@@ -6626,7 +6877,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="75">
       <c r="A85">
         <v>80</v>
       </c>
@@ -6655,7 +6906,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>81</v>
       </c>
@@ -6681,7 +6932,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="105">
       <c r="A87">
         <v>82</v>
       </c>
@@ -6713,7 +6964,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="105">
       <c r="A88">
         <v>83</v>
       </c>
@@ -6745,7 +6996,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="30">
       <c r="A89">
         <v>84</v>
       </c>
@@ -6765,7 +7016,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>85</v>
       </c>
@@ -6785,7 +7036,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="30">
       <c r="A91">
         <v>86</v>
       </c>
@@ -6808,7 +7059,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="45">
       <c r="A92">
         <v>87</v>
       </c>
@@ -6840,7 +7091,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="75">
       <c r="A93">
         <v>88</v>
       </c>
@@ -6864,7 +7115,7 @@
       </c>
       <c r="P93" s="2"/>
     </row>
-    <row r="94" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="90">
       <c r="A94">
         <v>89</v>
       </c>
@@ -6905,7 +7156,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="30">
       <c r="A95">
         <v>90</v>
       </c>
@@ -6934,7 +7185,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="45">
       <c r="A96">
         <v>91</v>
       </c>
@@ -6963,7 +7214,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="60">
       <c r="A97">
         <v>92</v>
       </c>
@@ -6992,7 +7243,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="30">
       <c r="A98">
         <v>93</v>
       </c>
@@ -7021,7 +7272,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="75">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7041,7 +7292,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="90">
       <c r="A100">
         <v>95</v>
       </c>
@@ -7061,7 +7312,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="90">
       <c r="A101">
         <v>96</v>
       </c>
@@ -7081,7 +7332,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="90">
       <c r="A102">
         <v>97</v>
       </c>
@@ -7101,7 +7352,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="75">
       <c r="A103">
         <v>98</v>
       </c>
@@ -7121,7 +7372,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="60">
       <c r="A104">
         <v>99</v>
       </c>
@@ -7141,7 +7392,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="45">
       <c r="A105">
         <v>100</v>
       </c>
@@ -7164,7 +7415,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="60">
       <c r="A106">
         <v>101</v>
       </c>
@@ -7193,12 +7444,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="75">
       <c r="A107">
         <v>102</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -7210,15 +7461,15 @@
         <v>42</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="45">
       <c r="A108">
         <v>103</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -7233,15 +7484,15 @@
         <v>42</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="30">
       <c r="A109">
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -7256,10 +7507,10 @@
         <v>94</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="45">
       <c r="A110">
         <v>105</v>
       </c>
@@ -7279,7 +7530,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="45">
       <c r="A111">
         <v>106</v>
       </c>
@@ -7296,18 +7547,18 @@
         <v>35</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="135">
       <c r="A112">
         <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -7316,7 +7567,7 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N112" t="s">
         <v>94</v>
@@ -7325,15 +7576,15 @@
         <v>256</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="120">
       <c r="A113">
         <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -7348,15 +7599,15 @@
         <v>94</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="75">
       <c r="A114">
         <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -7368,15 +7619,15 @@
         <v>42</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="60">
       <c r="A115">
         <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -7391,15 +7642,15 @@
         <v>42</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="90">
       <c r="A116">
         <v>111</v>
       </c>
       <c r="B116" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -7411,15 +7662,15 @@
         <v>35</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="105">
       <c r="A117">
         <v>112</v>
       </c>
       <c r="B117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D117">
         <v>4</v>
@@ -7431,15 +7682,15 @@
         <v>42</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="75">
       <c r="A118">
         <v>113</v>
       </c>
       <c r="B118" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -7454,10 +7705,10 @@
         <v>42</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="105">
       <c r="A119">
         <v>114</v>
       </c>
@@ -7477,12 +7728,12 @@
         <v>271</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="60">
       <c r="A120">
         <v>115</v>
       </c>
       <c r="B120" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H120">
         <v>5</v>
@@ -7494,10 +7745,10 @@
         <v>42</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="45">
       <c r="A121">
         <v>116</v>
       </c>
@@ -7520,7 +7771,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="45">
       <c r="A122">
         <v>117</v>
       </c>
@@ -7540,12 +7791,12 @@
         <v>277</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="90">
       <c r="A123">
         <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -7560,13 +7811,13 @@
         <v>35</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="45">
       <c r="A124">
         <v>119</v>
       </c>
@@ -7592,7 +7843,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="90">
       <c r="A125">
         <v>120</v>
       </c>
@@ -7615,7 +7866,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="30">
       <c r="A126">
         <v>121</v>
       </c>
@@ -7647,7 +7898,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="60">
       <c r="A127">
         <v>122</v>
       </c>
@@ -7675,4 +7926,563 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2188B7-5041-48D7-9898-9DEA4A6DF962}">
+  <dimension ref="B1:S26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19">
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>44</v>
+      </c>
+      <c r="F1">
+        <v>119</v>
+      </c>
+      <c r="G1">
+        <v>35</v>
+      </c>
+      <c r="H1">
+        <v>54</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="D2" t="str">
+        <f>VLOOKUP($D$1,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Senior Scientist</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP($E$1,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Alien Disease</v>
+      </c>
+      <c r="F2" s="20" t="str">
+        <f>VLOOKUP($F$1,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Intergalactic Laxative</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP($G$1,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Hacking the System</v>
+      </c>
+      <c r="H2" t="str">
+        <f>VLOOKUP($H$1,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Healing Bays</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="106.5">
+      <c r="D3" s="2" t="str">
+        <f>VLOOKUP($D$1,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Sacrifice 1 Research Tier 2
+Tap: Research + 3</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>VLOOKUP($E$1,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Target enemy ship sacrifices 1 crew during that players start phase</v>
+      </c>
+      <c r="F3" s="22" t="str">
+        <f>VLOOKUP($F$1,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Target Ship: All crew members are tapped until the start of your next turn</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>VLOOKUP($G$1,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Destroy target Ship Upgrade</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>VLOOKUP($H$1,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Attach to Ship: Untap 2 non Robot crew members at start of secondary strategy phase</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="E4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="N5" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="O6" s="11">
+        <v>2000</v>
+      </c>
+      <c r="P6" s="11">
+        <v>2000</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>2000</v>
+      </c>
+      <c r="R6" s="11">
+        <v>100</v>
+      </c>
+      <c r="S6" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" t="s">
+        <v>303</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1500</v>
+      </c>
+      <c r="P7" s="14">
+        <v>1500</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>1500</v>
+      </c>
+      <c r="R7" s="14">
+        <v>100</v>
+      </c>
+      <c r="S7" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>303</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="O8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>1000</v>
+      </c>
+      <c r="R8" s="16">
+        <v>100</v>
+      </c>
+      <c r="S8" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" t="s">
+        <v>303</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="O9" s="14">
+        <v>500</v>
+      </c>
+      <c r="P9" s="14">
+        <v>500</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>500</v>
+      </c>
+      <c r="R9" s="14">
+        <v>100</v>
+      </c>
+      <c r="S9" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="G10" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="O10" s="16">
+        <v>100</v>
+      </c>
+      <c r="P10" s="16">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>100</v>
+      </c>
+      <c r="R10" s="16">
+        <v>100</v>
+      </c>
+      <c r="S10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="N12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="I13" t="s">
+        <v>316</v>
+      </c>
+      <c r="K13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="C14" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" t="s">
+        <v>316</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="E15" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15">
+        <f ca="1">RANDBETWEEN(0,123)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="F16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>316</v>
+      </c>
+      <c r="P16" s="20">
+        <f ca="1">RANDBETWEEN(0,6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="C17" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="F18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="E19" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="F20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>114</v>
+      </c>
+      <c r="F23">
+        <v>118</v>
+      </c>
+      <c r="G23">
+        <v>73</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="60.75">
+      <c r="B24" s="2" t="str">
+        <f>VLOOKUP(B$23,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Ships Gun Installations</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(C$23,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Robot Uprising</v>
+      </c>
+      <c r="D24" t="str">
+        <f>VLOOKUP(D$23,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Under Pressure</v>
+      </c>
+      <c r="E24" t="str">
+        <f>VLOOKUP(E$23,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Prisoners of War</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f>VLOOKUP(F$23,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Seeing Stars Bar</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(G$23,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Ones and Zeros</v>
+      </c>
+      <c r="H24" t="str">
+        <f>VLOOKUP(H$23,'Card Designs'!A6:O127,2,FALSE)</f>
+        <v>Chief Medical Officer</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="198">
+      <c r="B25" s="2" t="str">
+        <f>VLOOKUP(B$23,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Attach to Ship: At the start of your damage phase increase targets ship damage by 100 to one gun  slot</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>VLOOKUP(C$23,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>All Robots on target ship get +1 to their department on tap</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>VLOOKUP(D$23,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Target ship gains 1 extra Research for each Research crew tapped on your turns</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>VLOOKUP(E$23,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Target ship: Roll a d6 and attach up to that many prisoners of war tokens to an equal amount of crew members. Crew members with a prisoners of war attached cannot tap.</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>VLOOKUP(F$23,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Attach to ship: All crew members on ship can now tap: remove all crew attachments on tapped crew member</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>VLOOKUP(G$23,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Target Enemy Ship are unable to attack during their next battle phase</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f>VLOOKUP(H$23,'Card Designs'!A7:O128,15,FALSE)</f>
+        <v>Sacrifice 1 Medic Tier 2
+Tap: Medical + 3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F26" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A62162C-D503-4B43-BD76-9A389FE27EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4D8614D-1A9A-41FC-A350-2A381141C488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Table Counts" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="22644" r:id="rId6"/>
+    <pivotCache cacheId="28484" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="391">
   <si>
     <t>Type</t>
   </si>
@@ -115,6 +115,9 @@
     <t>Medic</t>
   </si>
   <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>Card design ideas Table</t>
   </si>
   <si>
@@ -134,9 +137,6 @@
   </si>
   <si>
     <t>Engineering</t>
-  </si>
-  <si>
-    <t>General</t>
   </si>
   <si>
     <t>X</t>
@@ -557,7 +557,7 @@
     <t>Sacrifice 1 Engineering Tier 1
 Robot can't be used for gun slots.
 Tap: Engineering + 2
-Tap: Repair ship by 200</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>R Bot Bot</t>
@@ -566,7 +566,7 @@
     <t>Sacrifice 1 Medic Tier 1
 Robot can't be used for gun slots.
 Tap: Medic + 2
-Tap: Repair ship by 200</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>B Bot Bot</t>
@@ -575,7 +575,7 @@
     <t>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
-Tap: Repair ship by 200</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>P Bot Bot</t>
@@ -584,7 +584,7 @@
     <t>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Tap: Assault + 2
-Tap: Repair ship by 200</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>W Bot Bot</t>
@@ -593,7 +593,7 @@
     <t>Sacrifice 1 Research Tier 1
 Robot can't be used for gun slots.
 Tap: Research + 2
-Tap: Repair ship by 200</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>Y Boop Bot</t>
@@ -602,7 +602,7 @@
     <t>Sacrifice 1 Engineering Tier 2
 Robot can't be used for gun slots.
 Tap: Engineering + 3
-Tap: Repair ship by 300</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>R Boop Bot</t>
@@ -611,7 +611,7 @@
     <t>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Tap: Medic + 3
-Tap: Repair ship by 300</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>B Boop Bot</t>
@@ -620,7 +620,7 @@
     <t>Sacrifice 1 Handling Tier 2
 Robot can't be used for gun slots.
 Tap: Handling + 3
-Tap: Repair ship by 300</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>P Boop Bot</t>
@@ -629,7 +629,7 @@
     <t>Sacrifice 1 Assault Tier 2
 Robot can't be used for gun slots.
 Tap: Assault + 3
-Tap: Repair ship by 300</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>W Boop Bot</t>
@@ -638,7 +638,7 @@
     <t>Sacrifice 1 Research Tier 2.
 Robot can't be used for gun slots.
 Tap: Research + 3
-Tap: Repair ship by 300</t>
+Tap: Repair ship by 100</t>
   </si>
   <si>
     <t>Lt. YRBPW Bot</t>
@@ -1064,7 +1064,128 @@
     <t>Tier 3 Blue Lazor</t>
   </si>
   <si>
-    <t>Target Owned Ship: Increase Ships Damage per gun by 200</t>
+    <t>Attach to ship: Increase Ships Damage per gun by 200</t>
+  </si>
+  <si>
+    <t>FTS Droid</t>
+  </si>
+  <si>
+    <t>Tap: Neutral + 1
+Tap: Repair Ship by 100</t>
+  </si>
+  <si>
+    <t>FTS stands for Fixes The Ship</t>
+  </si>
+  <si>
+    <t>CEC Droid</t>
+  </si>
+  <si>
+    <t>Tap: Neutral + 1
+Tap: Tap 1 Enemy Crew member until start of your next turn</t>
+  </si>
+  <si>
+    <t>CEC stands for Capture Enemy Crew</t>
+  </si>
+  <si>
+    <t>FTS2 Droid</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Neutral Robot Tier 1
+Tap: Neutral + 2
+Tap: Repair Ship by 100</t>
+  </si>
+  <si>
+    <t>CEC2 Droid</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Neutral Robot Tier 1
+Tap: Neutral + 2
+Tap: Tap 1 Enemy Crew member until start of your next turn</t>
+  </si>
+  <si>
+    <t>FTS3 Droid</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Neutral Robot Tier 1
+Tap: Neutral + 3
+Tap: Repair Ship by 100</t>
+  </si>
+  <si>
+    <t>CEC3 Droid</t>
+  </si>
+  <si>
+    <t>Sacrifice 1 Neutral Robot Tier 1
+Tap: Neutral + 3
+Tap: Tap 1 Enemy Crew member until start of your next turn</t>
+  </si>
+  <si>
+    <t>Micro Repair Bots</t>
+  </si>
+  <si>
+    <t>Attach to ship: Tap: Repair assigned ship by 200</t>
+  </si>
+  <si>
+    <t>These tiny robots can get into the smallest parts of the ship to find the source of the problem</t>
+  </si>
+  <si>
+    <t>HBF Droid</t>
+  </si>
+  <si>
+    <t>Attach to crew: This crew member repairs assigned ship by 100 whenever they tap</t>
+  </si>
+  <si>
+    <t>HBF stands for Helpful Best Friend. The HBF droid has been a fond favourite of many children across the galaxy</t>
+  </si>
+  <si>
+    <t>Welcome Droid Committee</t>
+  </si>
+  <si>
+    <t>Attach to ship: When crew members move to the assigned ship they untap.</t>
+  </si>
+  <si>
+    <t>Malfunctioned HBF Droid</t>
+  </si>
+  <si>
+    <t>Attach to Enemy Crew: Tap this crew, this crew does not untap during crew owners untap step</t>
+  </si>
+  <si>
+    <t>In the Year 2566 a new model of the HBF Droid attacked a human. It wasnt long until most of them were sent back.</t>
+  </si>
+  <si>
+    <t>Advertising Droid Campaign</t>
+  </si>
+  <si>
+    <t>Attach to ship: When a new crew member is assigned to this ship from your hand, draw a card from your crew deck</t>
+  </si>
+  <si>
+    <t>Disruption Waves Tier 1</t>
+  </si>
+  <si>
+    <t>Enemy Cards that target your Fighter ships cost 1 extra Neutral</t>
+  </si>
+  <si>
+    <t>Disruption Waves Tier 2</t>
+  </si>
+  <si>
+    <t>Enemy Cards that target your Frigate ships cost 1 extra Neutral</t>
+  </si>
+  <si>
+    <t>Disruption Waves Tier 3</t>
+  </si>
+  <si>
+    <t>Enemy Cards that target your Destroyer ships cost 1 extra Neutral</t>
+  </si>
+  <si>
+    <t>Disruption Waves Tier 4</t>
+  </si>
+  <si>
+    <t>Enemy Cards that target your Cruiser ships cost 1 extra Neutral</t>
+  </si>
+  <si>
+    <t>Disruption Waves Tier 5</t>
+  </si>
+  <si>
+    <t>Enemy Cards that target your Capital ships cost 1 extra Neutral</t>
   </si>
   <si>
     <t>Strategy</t>
@@ -1167,6 +1288,9 @@
   </si>
   <si>
     <t>Crew Deck</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
   <si>
     <t>This is a Research and Medic Deck</t>
@@ -1182,7 +1306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,6 +1358,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1725,7 +1856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1858,61 +1989,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,12 +2012,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1945,6 +2031,126 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1952,12 +2158,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1978,24 +2178,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2005,57 +2187,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2118,13 +2253,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="local-user" refreshedDate="45016.576053472221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="195" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45021.926989236112" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="194" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:S199" sheet="Card Designs"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="125"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="146"/>
     </cacheField>
     <cacheField name="Deck" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2136,7 +2271,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="Research" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="Engineering" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
@@ -2150,8 +2285,8 @@
     <cacheField name="Assault" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
-    <cacheField name="General" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+    <cacheField name="Neutral" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="X" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2168,12 +2303,12 @@
         <s v="Crew Attachment"/>
         <s v="Admiral"/>
         <m/>
+        <s v="Leuitenant" u="1"/>
         <s v="Ongoing Event" u="1"/>
-        <s v="Leuitenant" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sub type" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <s v="Research"/>
         <s v="Handling"/>
         <s v="Medic"/>
@@ -2181,8 +2316,9 @@
         <s v="Assault"/>
         <m/>
         <s v="Master"/>
+        <s v="Neutral"/>
+        <s v="Pilot" u="1"/>
         <s v="Research " u="1"/>
-        <s v="Pilot" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Rank" numFmtId="0">
@@ -2217,7 +2353,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="195">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="194">
   <r>
     <n v="1"/>
     <s v="CREW"/>
@@ -2732,7 +2868,7 @@
     <m/>
     <m/>
     <n v="1"/>
-    <n v="1"/>
+    <s v="X"/>
     <b v="1"/>
     <x v="3"/>
     <x v="5"/>
@@ -3474,7 +3610,7 @@
     <n v="2"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Engineering Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Engineering + 2_x000a_Tap: Repair ship by 200"/>
+    <s v="Sacrifice 1 Engineering Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Engineering + 2_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3495,7 +3631,7 @@
     <n v="2"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Medic Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Medic + 2_x000a_Tap: Repair ship by 200"/>
+    <s v="Sacrifice 1 Medic Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Medic + 2_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3516,7 +3652,7 @@
     <n v="2"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Handling Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Handling + 2_x000a_Tap: Repair ship by 200"/>
+    <s v="Sacrifice 1 Handling Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Handling + 2_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3537,7 +3673,7 @@
     <n v="2"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Assault Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Assault + 2_x000a_Tap: Repair ship by 200"/>
+    <s v="Sacrifice 1 Assault Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Assault + 2_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3558,7 +3694,7 @@
     <n v="2"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Research Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Research + 2_x000a_Tap: Repair ship by 200"/>
+    <s v="Sacrifice 1 Research Tier 1_x000a_Robot can't be used for gun slots._x000a_Tap: Research + 2_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3579,7 +3715,7 @@
     <n v="3"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Engineering Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Engineering + 3_x000a_Tap: Repair ship by 300"/>
+    <s v="Sacrifice 1 Engineering Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Engineering + 3_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3600,7 +3736,7 @@
     <n v="3"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Medic Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Medic + 3_x000a_Tap: Repair ship by 300"/>
+    <s v="Sacrifice 1 Medic Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Medic + 3_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3621,7 +3757,7 @@
     <n v="3"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Handling Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Handling + 3_x000a_Tap: Repair ship by 300"/>
+    <s v="Sacrifice 1 Handling Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Handling + 3_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3642,7 +3778,7 @@
     <n v="3"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Assault Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Assault + 3_x000a_Tap: Repair ship by 300"/>
+    <s v="Sacrifice 1 Assault Tier 2_x000a_Robot can't be used for gun slots._x000a_Tap: Assault + 3_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3663,7 +3799,7 @@
     <n v="3"/>
     <x v="2"/>
     <s v="Common"/>
-    <s v="Sacrifice 1 Research Tier 2._x000a_Robot can't be used for gun slots._x000a_Tap: Research + 3_x000a_Tap: Repair ship by 300"/>
+    <s v="Sacrifice 1 Research Tier 2._x000a_Robot can't be used for gun slots._x000a_Tap: Research + 3_x000a_Tap: Repair ship by 100"/>
     <m/>
     <m/>
   </r>
@@ -3747,7 +3883,7 @@
     <m/>
     <x v="1"/>
     <s v="Uncommon"/>
-    <s v="Target Enemy Ship are unable to attack during their next battle phase"/>
+    <s v="Target Enemy Ship are unable to attack during their next turn"/>
     <m/>
     <m/>
   </r>
@@ -3924,11 +4060,11 @@
     <s v="CREW"/>
     <s v="Adm. I.T.S Atrap"/>
     <m/>
+    <m/>
     <n v="1"/>
+    <m/>
+    <m/>
     <n v="1"/>
-    <m/>
-    <m/>
-    <m/>
     <n v="3"/>
     <m/>
     <x v="8"/>
@@ -4515,9 +4651,9 @@
     <m/>
     <n v="1"/>
     <m/>
+    <m/>
+    <m/>
     <n v="1"/>
-    <m/>
-    <m/>
     <m/>
     <x v="1"/>
     <x v="5"/>
@@ -4797,7 +4933,7 @@
     <m/>
     <x v="0"/>
     <s v="Rare"/>
-    <s v="At the start of your turn, return a target event card from your junkyard to your hand. DOES NOT TRIGGER ON EXTRA GOES"/>
+    <s v="At the start of your turn, return a target event card from your junkyard to your hand."/>
     <s v="Admiral Bonnie has been known for repeating herself from time to time"/>
     <m/>
   </r>
@@ -4844,464 +4980,443 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="126"/>
+    <s v="STRATEGY"/>
+    <s v="A&amp;B Class Solar Flare"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <b v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Target 2 ships each take 100 damage"/>
+    <s v="Class A &amp; B Solar flares are the lowest class and are very common and not very interesting"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="127"/>
+    <s v="STRATEGY"/>
+    <s v="C-Class Solar Flare"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="X"/>
+    <b v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="X number of ships each take 100 damage"/>
+    <s v="Class C Solar Flares have a long duration and might produce coronal mass ejection"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="128"/>
+    <s v="STRATEGY"/>
+    <s v="M-Class Solar Flare"/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <b v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Rare"/>
+    <s v="X number of ships each take 200 damage where x are the amount of event cards in your junkyard"/>
+    <s v="Sometimes minor radiation storms can follow an M Class Solar Flare"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="129"/>
+    <s v="STRATEGY"/>
+    <s v="X-Class Solar Flare"/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <b v="1"/>
+    <x v="1"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Ultra Rare"/>
+    <s v="All ships take x * 100 damage where x is the amount of event cards in their owners junkyard"/>
+    <s v="X-Class Solar Flares are the biggest and can be 10 times the size of Earth"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="130"/>
+    <s v="STRATEGY"/>
+    <s v="Tier 3 Blue Lazor"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <x v="2"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Rare"/>
+    <s v="Attach to ship: Increase Ships Damage per gun by 200"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="5"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="131"/>
+    <s v="CREW"/>
+    <s v="FTS Droid"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Tap: Neutral + 1_x000a_Tap: Repair Ship by 100"/>
+    <s v="FTS stands for Fixes The Ship"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="5"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="132"/>
+    <s v="CREW"/>
+    <s v="CEC Droid"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="1"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Tap: Neutral + 1_x000a_Tap: Tap 1 Enemy Crew member until start of your next turn"/>
+    <s v="CEC stands for Capture Enemy Crew"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="5"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <n v="133"/>
+    <s v="CREW"/>
+    <s v="FTS2 Droid"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Neutral Robot Tier 1_x000a_Tap: Neutral + 2_x000a_Tap: Repair Ship by 100"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="5"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <n v="134"/>
+    <s v="CREW"/>
+    <s v="CEC2 Droid"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="2"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Neutral Robot Tier 1_x000a_Tap: Neutral + 2_x000a_Tap: Tap 1 Enemy Crew member until start of your next turn"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="5"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <n v="135"/>
+    <s v="CREW"/>
+    <s v="FTS3 Droid"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Neutral Robot Tier 1_x000a_Tap: Neutral + 3_x000a_Tap: Repair Ship by 100"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="5"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <n v="136"/>
+    <s v="CREW"/>
+    <s v="CEC3 Droid"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Common"/>
+    <s v="Sacrifice 1 Neutral Robot Tier 1_x000a_Tap: Neutral + 3_x000a_Tap: Tap 1 Enemy Crew member until start of your next turn"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="137"/>
+    <s v="STRATEGY"/>
+    <s v="Micro Repair Bots"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <x v="2"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Attach to ship: Tap: Repair assigned ship by 200"/>
+    <s v="These tiny robots can get into the smallest parts of the ship to find the source of the problem"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="138"/>
+    <s v="STRATEGY"/>
+    <s v="HBF Droid"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <x v="7"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Attach to crew: This crew member repairs assigned ship by 100 whenever they tap"/>
+    <s v="HBF stands for Helpful Best Friend. The HBF droid has been a fond favourite of many children across the galaxy"/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="139"/>
+    <s v="STRATEGY"/>
+    <s v="Welcome Droid Committee"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="2"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Attach to ship: When crew members move to the assigned ship they untap."/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="140"/>
+    <s v="STRATEGY"/>
+    <s v="Malfunctioned HBF Droid"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <x v="7"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Attach to Enemy Crew: Tap this crew, this crew does not untap during crew owners untap step"/>
+    <s v="In the Year 2566 a new model of the HBF Droid attacked a human. It wasnt long until most of them were sent back."/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="141"/>
+    <s v="STRATEGY"/>
+    <s v="Advertising Droid Campaign"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="2"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Attach to ship: When a new crew member is assigned to this ship from your hand, draw a card from your crew deck"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="142"/>
+    <s v="STRATEGY"/>
+    <s v="Disruption Waves Tier 1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="4"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Enemy Cards that target your Fighter ships cost 1 extra Neutral"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="143"/>
+    <s v="STRATEGY"/>
+    <s v="Disruption Waves Tier 2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="4"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Enemy Cards that target your Frigate ships cost 1 extra Neutral"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="144"/>
+    <s v="STRATEGY"/>
+    <s v="Disruption Waves Tier 3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="4"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Enemy Cards that target your Destroyer ships cost 1 extra Neutral"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="145"/>
+    <s v="STRATEGY"/>
+    <s v="Disruption Waves Tier 4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="4"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Enemy Cards that target your Cruiser ships cost 1 extra Neutral"/>
     <m/>
     <m/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
+    <n v="146"/>
+    <s v="STRATEGY"/>
+    <s v="Disruption Waves Tier 5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <x v="4"/>
     <x v="5"/>
     <m/>
     <x v="1"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="9"/>
-    <x v="5"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <s v="Uncommon"/>
+    <s v="Enemy Cards that target your Capital ships cost 1 extra Neutral"/>
     <m/>
     <m/>
   </r>
@@ -6317,7 +6432,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="22644" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="28484" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -6338,10 +6453,10 @@
         <item x="0"/>
         <item x="7"/>
         <item x="1"/>
-        <item m="1" x="11"/>
+        <item m="1" x="10"/>
         <item x="6"/>
         <item x="4"/>
-        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item x="2"/>
         <item x="3"/>
         <item h="1" x="9"/>
@@ -6410,8 +6525,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="22644" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A17:E40" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="28484" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A17:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6431,9 +6546,9 @@
         <item x="0"/>
         <item h="1" x="7"/>
         <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="4"/>
         <item h="1" m="1" x="11"/>
-        <item h="1" x="4"/>
-        <item h="1" m="1" x="10"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item h="1" x="9"/>
@@ -6441,16 +6556,17 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="9">
+      <items count="10">
         <item x="4"/>
         <item x="3"/>
         <item x="2"/>
         <item m="1" x="8"/>
         <item x="0"/>
-        <item m="1" x="7"/>
+        <item m="1" x="9"/>
         <item h="1" x="5"/>
         <item x="1"/>
         <item x="6"/>
+        <item x="7"/>
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6470,7 +6586,7 @@
     <field x="11"/>
     <field x="12"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="23">
     <i>
       <x/>
       <x v="1"/>
@@ -6518,6 +6634,9 @@
     </i>
     <i r="1">
       <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
     </i>
     <i>
       <x v="11"/>
@@ -6584,7 +6703,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Medic"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Handling"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Assault"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="General"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Neutral"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="X"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Type"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sub type"/>
@@ -6896,19 +7015,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E40"/>
+  <dimension ref="A3:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
@@ -6923,7 +7042,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="123">
         <v>4</v>
       </c>
     </row>
@@ -6931,7 +7050,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="123">
         <v>7</v>
       </c>
     </row>
@@ -6939,31 +7058,31 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>37</v>
+      <c r="B6" s="123">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>8</v>
+      <c r="B7" s="123">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>28</v>
+      <c r="B8" s="123">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="123">
         <v>6</v>
       </c>
     </row>
@@ -6971,23 +7090,23 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8</v>
+      <c r="B10" s="123">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" s="123">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="123">
         <v>17</v>
       </c>
     </row>
@@ -6995,8 +7114,8 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>125</v>
+      <c r="B13" s="123">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7031,10 +7150,11 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="123">
+        <v>1</v>
+      </c>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7042,10 +7162,11 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20">
+      <c r="C20" s="123">
+        <v>1</v>
+      </c>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7053,10 +7174,11 @@
       <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="C21" s="123">
+        <v>1</v>
+      </c>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7064,10 +7186,11 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="123"/>
+      <c r="D22" s="123">
+        <v>1</v>
+      </c>
+      <c r="E22" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7078,10 +7201,11 @@
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="123">
+        <v>1</v>
+      </c>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7089,10 +7213,11 @@
       <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="123">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="123"/>
+      <c r="E24" s="123">
         <v>2</v>
       </c>
     </row>
@@ -7100,10 +7225,11 @@
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="C25" s="123">
+        <v>1</v>
+      </c>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7111,10 +7237,11 @@
       <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="C26" s="123">
+        <v>1</v>
+      </c>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7122,10 +7249,11 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="C27" s="123">
+        <v>1</v>
+      </c>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7133,10 +7261,11 @@
       <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="C28" s="123"/>
+      <c r="D28" s="123">
+        <v>1</v>
+      </c>
+      <c r="E28" s="123">
         <v>1</v>
       </c>
     </row>
@@ -7147,13 +7276,13 @@
       <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="123">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="123">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="123">
         <v>8</v>
       </c>
     </row>
@@ -7161,13 +7290,13 @@
       <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="123">
         <v>4</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="123">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="123">
         <v>7</v>
       </c>
     </row>
@@ -7175,13 +7304,13 @@
       <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="123">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="123">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="123">
         <v>7</v>
       </c>
     </row>
@@ -7189,13 +7318,13 @@
       <c r="B32" t="s">
         <v>17</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="123">
         <v>4</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="123">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="123">
         <v>7</v>
       </c>
     </row>
@@ -7203,97 +7332,115 @@
       <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="123">
         <v>4</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="123">
         <v>4</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="123">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123">
+        <v>6</v>
+      </c>
+      <c r="E34" s="123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="C35" s="123">
+        <v>1</v>
+      </c>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="B36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="C36" s="123">
+        <v>1</v>
+      </c>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="C37" s="123">
+        <v>1</v>
+      </c>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="C38" s="123">
+        <v>1</v>
+      </c>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="123">
+        <v>1</v>
+      </c>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" t="s">
         <v>19</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+      <c r="C40" s="123"/>
+      <c r="D40" s="123">
+        <v>1</v>
+      </c>
+      <c r="E40" s="123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="C40">
+      <c r="C41" s="123">
         <v>35</v>
       </c>
-      <c r="D40">
-        <v>19</v>
-      </c>
-      <c r="E40">
-        <v>54</v>
+      <c r="D41" s="123">
+        <v>25</v>
+      </c>
+      <c r="E41" s="123">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -7305,9 +7452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S249"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="Q52" sqref="Q52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="G150" sqref="G150"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -7334,7 +7481,7 @@
   <sheetData>
     <row r="2" spans="1:19" ht="18.75">
       <c r="C2" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
@@ -7411,27 +7558,27 @@
         <v>#REF!</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>21</v>
@@ -7443,7 +7590,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>30</v>
@@ -7506,7 +7653,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="30">
+    <row r="7" spans="1:19" ht="30.75">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8160,7 +8307,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="30">
+    <row r="27" spans="1:18" ht="30.75">
       <c r="A27">
         <v>22</v>
       </c>
@@ -9222,7 +9369,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="90">
+    <row r="65" spans="1:17" ht="91.5">
       <c r="A65">
         <v>60</v>
       </c>
@@ -9254,7 +9401,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="75">
+    <row r="66" spans="1:17" ht="76.5">
       <c r="A66">
         <v>61</v>
       </c>
@@ -9286,7 +9433,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="75">
+    <row r="67" spans="1:17" ht="76.5">
       <c r="A67">
         <v>62</v>
       </c>
@@ -9318,7 +9465,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="75">
+    <row r="68" spans="1:17" ht="76.5">
       <c r="A68">
         <v>63</v>
       </c>
@@ -9350,7 +9497,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="75">
+    <row r="69" spans="1:17" ht="76.5">
       <c r="A69">
         <v>64</v>
       </c>
@@ -9382,7 +9529,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="90">
+    <row r="70" spans="1:17" ht="91.5">
       <c r="A70">
         <v>65</v>
       </c>
@@ -9414,7 +9561,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="75">
+    <row r="71" spans="1:17" ht="76.5">
       <c r="A71">
         <v>66</v>
       </c>
@@ -9446,7 +9593,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="75">
+    <row r="72" spans="1:17" ht="76.5">
       <c r="A72">
         <v>67</v>
       </c>
@@ -9478,7 +9625,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="75">
+    <row r="73" spans="1:17" ht="76.5">
       <c r="A73">
         <v>68</v>
       </c>
@@ -9510,7 +9657,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="75">
+    <row r="74" spans="1:17" ht="76.5">
       <c r="A74">
         <v>69</v>
       </c>
@@ -10533,7 +10680,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="45">
+    <row r="108" spans="1:18" ht="45.75">
       <c r="A108">
         <v>103</v>
       </c>
@@ -11327,106 +11474,490 @@
       </c>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" ht="30.75">
       <c r="A136">
         <v>131</v>
       </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-    </row>
-    <row r="137" spans="1:18">
-      <c r="Q137" s="2"/>
-      <c r="R137" s="2"/>
-    </row>
-    <row r="138" spans="1:18">
-      <c r="Q138" s="2"/>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" t="s">
+        <v>316</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>4</v>
+      </c>
+      <c r="M136" t="s">
+        <v>22</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>15</v>
+      </c>
+      <c r="P136" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q136" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="R136" s="122" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="60.75">
+      <c r="A137">
+        <v>132</v>
+      </c>
+      <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" t="s">
+        <v>319</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>4</v>
+      </c>
+      <c r="M137" t="s">
+        <v>22</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>15</v>
+      </c>
+      <c r="P137" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R137" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="60.75">
+      <c r="A138">
+        <v>133</v>
+      </c>
+      <c r="B138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C138" t="s">
+        <v>322</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>4</v>
+      </c>
+      <c r="M138" t="s">
+        <v>22</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>15</v>
+      </c>
+      <c r="P138" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="1:18">
-      <c r="Q139" s="2"/>
+    <row r="139" spans="1:18" ht="91.5">
+      <c r="A139">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" t="s">
+        <v>324</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>4</v>
+      </c>
+      <c r="M139" t="s">
+        <v>22</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>15</v>
+      </c>
+      <c r="P139" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="1:18">
-      <c r="Q140" s="2"/>
+    <row r="140" spans="1:18" ht="60.75">
+      <c r="A140">
+        <v>135</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>326</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>4</v>
+      </c>
+      <c r="M140" t="s">
+        <v>22</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>15</v>
+      </c>
+      <c r="P140" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="1:18">
-      <c r="Q141" s="2"/>
+    <row r="141" spans="1:18" ht="91.5">
+      <c r="A141">
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>4</v>
+      </c>
+      <c r="M141" t="s">
+        <v>22</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>15</v>
+      </c>
+      <c r="P141" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q141" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="1:18">
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-    </row>
-    <row r="143" spans="1:18">
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-    </row>
-    <row r="144" spans="1:18">
-      <c r="Q144" s="2"/>
+    <row r="142" spans="1:18" ht="60.75">
+      <c r="A142">
+        <v>137</v>
+      </c>
+      <c r="B142" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" t="s">
+        <v>330</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="L142" t="s">
+        <v>9</v>
+      </c>
+      <c r="P142" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q142" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="R142" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="60.75">
+      <c r="A143">
+        <v>138</v>
+      </c>
+      <c r="B143" t="s">
+        <v>78</v>
+      </c>
+      <c r="C143" t="s">
+        <v>333</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+      <c r="L143" t="s">
+        <v>5</v>
+      </c>
+      <c r="P143" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="R143" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="45.75">
+      <c r="A144">
+        <v>139</v>
+      </c>
+      <c r="B144" t="s">
+        <v>78</v>
+      </c>
+      <c r="C144" t="s">
+        <v>336</v>
+      </c>
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="L144" t="s">
+        <v>9</v>
+      </c>
+      <c r="P144" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q144" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="17:18">
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-    </row>
-    <row r="146" spans="17:18">
-      <c r="Q146" s="2"/>
+    <row r="145" spans="1:18" ht="60.75">
+      <c r="A145">
+        <v>140</v>
+      </c>
+      <c r="B145" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" t="s">
+        <v>338</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="L145" t="s">
+        <v>5</v>
+      </c>
+      <c r="P145" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q145" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="R145" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="76.5">
+      <c r="A146">
+        <v>141</v>
+      </c>
+      <c r="B146" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" t="s">
+        <v>341</v>
+      </c>
+      <c r="J146">
+        <v>3</v>
+      </c>
+      <c r="L146" t="s">
+        <v>9</v>
+      </c>
+      <c r="P146" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q146" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="17:18">
-      <c r="Q147" s="2"/>
+    <row r="147" spans="1:18" ht="45.75">
+      <c r="A147">
+        <v>142</v>
+      </c>
+      <c r="B147" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" t="s">
+        <v>343</v>
+      </c>
+      <c r="J147">
+        <v>3</v>
+      </c>
+      <c r="L147" t="s">
+        <v>8</v>
+      </c>
+      <c r="P147" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q147" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="17:18">
-      <c r="Q148" s="2"/>
+    <row r="148" spans="1:18" ht="45.75">
+      <c r="A148">
+        <v>143</v>
+      </c>
+      <c r="B148" t="s">
+        <v>78</v>
+      </c>
+      <c r="C148" t="s">
+        <v>345</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="L148" t="s">
+        <v>8</v>
+      </c>
+      <c r="P148" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="17:18">
-      <c r="Q149" s="2"/>
+    <row r="149" spans="1:18" ht="45.75">
+      <c r="A149">
+        <v>144</v>
+      </c>
+      <c r="B149" t="s">
+        <v>78</v>
+      </c>
+      <c r="C149" t="s">
+        <v>347</v>
+      </c>
+      <c r="J149">
+        <v>3</v>
+      </c>
+      <c r="L149" t="s">
+        <v>8</v>
+      </c>
+      <c r="P149" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q149" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="17:18">
-      <c r="Q150" s="2"/>
+    <row r="150" spans="1:18" ht="45.75">
+      <c r="A150">
+        <v>145</v>
+      </c>
+      <c r="B150" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" t="s">
+        <v>349</v>
+      </c>
+      <c r="J150">
+        <v>3</v>
+      </c>
+      <c r="L150" t="s">
+        <v>8</v>
+      </c>
+      <c r="P150" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q150" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="17:18">
-      <c r="Q151" s="2"/>
+    <row r="151" spans="1:18" ht="45.75">
+      <c r="A151">
+        <v>146</v>
+      </c>
+      <c r="B151" t="s">
+        <v>78</v>
+      </c>
+      <c r="C151" t="s">
+        <v>351</v>
+      </c>
+      <c r="J151">
+        <v>3</v>
+      </c>
+      <c r="L151" t="s">
+        <v>8</v>
+      </c>
+      <c r="P151" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q151" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="17:18">
+    <row r="152" spans="1:18">
       <c r="Q152" s="2"/>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="17:18">
+    <row r="153" spans="1:18">
       <c r="Q153" s="2"/>
       <c r="R153" s="2"/>
     </row>
-    <row r="154" spans="17:18">
+    <row r="154" spans="1:18">
       <c r="Q154" s="2"/>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="17:18">
+    <row r="155" spans="1:18">
       <c r="Q155" s="2"/>
       <c r="R155" s="2"/>
     </row>
-    <row r="156" spans="17:18">
+    <row r="156" spans="1:18">
       <c r="Q156" s="2"/>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="17:18">
+    <row r="157" spans="1:18">
       <c r="Q157" s="2"/>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="17:18">
+    <row r="158" spans="1:18">
       <c r="Q158" s="2"/>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="17:18">
+    <row r="159" spans="1:18">
       <c r="Q159" s="2"/>
       <c r="R159" s="2"/>
     </row>
-    <row r="160" spans="17:18">
+    <row r="160" spans="1:18">
       <c r="Q160" s="2"/>
       <c r="R160" s="2"/>
     </row>
@@ -11817,364 +12348,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="62" t="s">
+      <c r="B1" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="78"/>
+      <c r="AL1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="64"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="78"/>
     </row>
     <row r="2" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B2" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="70" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69"/>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69"/>
-      <c r="BC2" s="120"/>
-      <c r="BE2" s="118" t="s">
-        <v>326</v>
-      </c>
-      <c r="BF2" s="119"/>
+      <c r="H2" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="75"/>
+      <c r="BE2" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="BF2" s="80"/>
       <c r="BG2" s="23" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="2:59">
       <c r="B3" s="9" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="65" t="str">
+      <c r="D3" s="70" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="10"/>
       <c r="H3" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="I3" s="33">
         <v>21</v>
       </c>
-      <c r="J3" s="88" t="str">
+      <c r="J3" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
       <c r="N3" s="10" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="65" t="str">
+      <c r="P3" s="70" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
       <c r="T3" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="U3" s="33">
         <v>56</v>
       </c>
-      <c r="V3" s="88" t="str">
+      <c r="V3" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="89"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="57"/>
       <c r="Z3" s="10" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="65" t="str">
+      <c r="AB3" s="70" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
       <c r="AF3" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AG3" s="33">
         <v>62</v>
       </c>
-      <c r="AH3" s="88" t="str">
+      <c r="AH3" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="89"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="57"/>
       <c r="AL3" s="10" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="65" t="str">
+      <c r="AN3" s="70" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="65"/>
-      <c r="AP3" s="65"/>
-      <c r="AQ3" s="65"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
       <c r="AR3" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AS3" s="33">
         <v>11</v>
       </c>
-      <c r="AT3" s="88" t="str">
+      <c r="AT3" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="89"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="57"/>
       <c r="AX3" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AY3" s="33">
         <v>4</v>
       </c>
-      <c r="AZ3" s="88" t="str">
+      <c r="AZ3" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="88"/>
-      <c r="BB3" s="88"/>
-      <c r="BC3" s="89"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="57"/>
       <c r="BE3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
-        <v>CREW</v>
+        <v>STRATEGY</v>
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="66" t="str">
+      <c r="B4" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="66" t="str">
+      <c r="H4" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="65" t="str">
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="66" t="str">
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="65" t="str">
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="66" t="str">
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="65" t="str">
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="106"/>
+      <c r="AL4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="66" t="str">
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="70"/>
+      <c r="AO4" s="70"/>
+      <c r="AP4" s="70"/>
+      <c r="AQ4" s="70"/>
+      <c r="AR4" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="66" t="str">
+      <c r="AS4" s="70"/>
+      <c r="AT4" s="70"/>
+      <c r="AU4" s="70"/>
+      <c r="AV4" s="70"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="67"/>
+      <c r="AY4" s="70"/>
+      <c r="AZ4" s="70"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="106"/>
       <c r="BE4" s="20" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
@@ -12182,257 +12713,257 @@
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="105" t="str">
+      <c r="B5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="105" t="str">
+      <c r="H5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="106" t="str">
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="105" t="str">
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="106" t="str">
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="105" t="str">
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="106"/>
-      <c r="AK5" s="107"/>
-      <c r="AL5" s="106" t="str">
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="106"/>
-      <c r="AN5" s="106"/>
-      <c r="AO5" s="106"/>
-      <c r="AP5" s="106"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="105" t="str">
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="106"/>
-      <c r="AT5" s="106"/>
-      <c r="AU5" s="106"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="105" t="str">
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="106"/>
-      <c r="AZ5" s="106"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="106"/>
-      <c r="BC5" s="107"/>
+      <c r="AY5" s="108"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="108"/>
+      <c r="BB5" s="108"/>
+      <c r="BC5" s="109"/>
       <c r="BE5" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="BF5">
         <f>MAX('Card Designs'!A6:A200)</f>
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="2:59">
       <c r="B6" s="28" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AK6" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AL6" s="29" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AQ6" s="31" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AU6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AV6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AW6" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="BA6" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="BB6" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="BC6" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="2:59">
@@ -12654,228 +13185,228 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="B8" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="AM8" s="65"/>
-      <c r="AN8" s="65"/>
-      <c r="AO8" s="65"/>
-      <c r="AP8" s="65"/>
-      <c r="AQ8" s="65"/>
-      <c r="AR8" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="74"/>
-      <c r="AX8" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="67"/>
+      <c r="H8" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="70"/>
+      <c r="AE8" s="70"/>
+      <c r="AF8" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG8" s="70"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="70"/>
+      <c r="BB8" s="70"/>
+      <c r="BC8" s="106"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="56" t="str">
+      <c r="B9" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="56" t="str">
+      <c r="H9" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="57" t="str">
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="82" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Tap: Medic + 3
-Tap: Repair ship by 300</v>
-      </c>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="56" t="str">
+Tap: Repair ship by 100</v>
+      </c>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="57" t="str">
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="82"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="82" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="56" t="str">
+      <c r="AA9" s="82"/>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="82"/>
+      <c r="AD9" s="82"/>
+      <c r="AE9" s="82"/>
+      <c r="AF9" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
-Tap: Repair ship by 200</v>
-      </c>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="58"/>
-      <c r="AL9" s="57" t="str">
+Tap: Repair ship by 100</v>
+      </c>
+      <c r="AG9" s="82"/>
+      <c r="AH9" s="82"/>
+      <c r="AI9" s="82"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="82" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="56" t="str">
+      <c r="AM9" s="82"/>
+      <c r="AN9" s="82"/>
+      <c r="AO9" s="82"/>
+      <c r="AP9" s="82"/>
+      <c r="AQ9" s="82"/>
+      <c r="AR9" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="58"/>
-      <c r="AX9" s="56" t="str">
+      <c r="AS9" s="82"/>
+      <c r="AT9" s="82"/>
+      <c r="AU9" s="82"/>
+      <c r="AV9" s="82"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Tap: Research + 3 and discard top card of deck</v>
       </c>
-      <c r="AY9" s="57"/>
-      <c r="AZ9" s="57"/>
-      <c r="BA9" s="57"/>
-      <c r="BB9" s="57"/>
-      <c r="BC9" s="58"/>
+      <c r="AY9" s="82"/>
+      <c r="AZ9" s="82"/>
+      <c r="BA9" s="82"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="83"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="56"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="58"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="56"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="58"/>
-      <c r="AX10" s="56"/>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="57"/>
-      <c r="BA10" s="57"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="58"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="83"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="83"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="81"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="83"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="83"/>
       <c r="BE10" s="50" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="BF10" s="51">
         <v>15</v>
@@ -12886,351 +13417,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="56"/>
-      <c r="AS11" s="57"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="56"/>
-      <c r="AY11" s="57"/>
-      <c r="AZ11" s="57"/>
-      <c r="BA11" s="57"/>
-      <c r="BB11" s="57"/>
-      <c r="BC11" s="58"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="83"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="83"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="82"/>
+      <c r="AN11" s="82"/>
+      <c r="AO11" s="82"/>
+      <c r="AP11" s="82"/>
+      <c r="AQ11" s="82"/>
+      <c r="AR11" s="81"/>
+      <c r="AS11" s="82"/>
+      <c r="AT11" s="82"/>
+      <c r="AU11" s="82"/>
+      <c r="AV11" s="82"/>
+      <c r="AW11" s="83"/>
+      <c r="AX11" s="81"/>
+      <c r="AY11" s="82"/>
+      <c r="AZ11" s="82"/>
+      <c r="BA11" s="82"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="83"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="56"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="58"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="82"/>
+      <c r="V12" s="82"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="82"/>
+      <c r="AE12" s="82"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="82"/>
+      <c r="AH12" s="82"/>
+      <c r="AI12" s="82"/>
+      <c r="AJ12" s="82"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="82"/>
+      <c r="AN12" s="82"/>
+      <c r="AO12" s="82"/>
+      <c r="AP12" s="82"/>
+      <c r="AQ12" s="82"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="82"/>
+      <c r="AT12" s="82"/>
+      <c r="AU12" s="82"/>
+      <c r="AV12" s="82"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="82"/>
+      <c r="AZ12" s="82"/>
+      <c r="BA12" s="82"/>
+      <c r="BB12" s="82"/>
+      <c r="BC12" s="83"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="56"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="57"/>
-      <c r="AZ13" s="57"/>
-      <c r="BA13" s="57"/>
-      <c r="BB13" s="57"/>
-      <c r="BC13" s="58"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="82"/>
+      <c r="W13" s="82"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="83"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="82"/>
+      <c r="AB13" s="82"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="81"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="82"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="82"/>
+      <c r="AQ13" s="82"/>
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="82"/>
+      <c r="AV13" s="82"/>
+      <c r="AW13" s="83"/>
+      <c r="AX13" s="81"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="82"/>
+      <c r="BA13" s="82"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="83"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="58"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="58"/>
-      <c r="AX14" s="56"/>
-      <c r="AY14" s="57"/>
-      <c r="AZ14" s="57"/>
-      <c r="BA14" s="57"/>
-      <c r="BB14" s="57"/>
-      <c r="BC14" s="58"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="82"/>
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="82"/>
+      <c r="AH14" s="82"/>
+      <c r="AI14" s="82"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="82"/>
+      <c r="AN14" s="82"/>
+      <c r="AO14" s="82"/>
+      <c r="AP14" s="82"/>
+      <c r="AQ14" s="82"/>
+      <c r="AR14" s="81"/>
+      <c r="AS14" s="82"/>
+      <c r="AT14" s="82"/>
+      <c r="AU14" s="82"/>
+      <c r="AV14" s="82"/>
+      <c r="AW14" s="83"/>
+      <c r="AX14" s="81"/>
+      <c r="AY14" s="82"/>
+      <c r="AZ14" s="82"/>
+      <c r="BA14" s="82"/>
+      <c r="BB14" s="82"/>
+      <c r="BC14" s="83"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="61"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="59"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="60"/>
-      <c r="BB15" s="60"/>
-      <c r="BC15" s="61"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="85"/>
+      <c r="AK15" s="86"/>
+      <c r="AL15" s="85"/>
+      <c r="AM15" s="85"/>
+      <c r="AN15" s="85"/>
+      <c r="AO15" s="85"/>
+      <c r="AP15" s="85"/>
+      <c r="AQ15" s="85"/>
+      <c r="AR15" s="84"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="85"/>
+      <c r="AV15" s="85"/>
+      <c r="AW15" s="86"/>
+      <c r="AX15" s="84"/>
+      <c r="AY15" s="85"/>
+      <c r="AZ15" s="85"/>
+      <c r="BA15" s="85"/>
+      <c r="BB15" s="85"/>
+      <c r="BC15" s="86"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="90" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="91"/>
-      <c r="X16" s="91"/>
-      <c r="Y16" s="91"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="91"/>
-      <c r="AB16" s="91"/>
-      <c r="AC16" s="91"/>
-      <c r="AD16" s="91"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="91"/>
-      <c r="AJ16" s="91"/>
-      <c r="AK16" s="91"/>
-      <c r="AL16" s="91"/>
-      <c r="AM16" s="91"/>
-      <c r="AN16" s="91"/>
-      <c r="AO16" s="91"/>
-      <c r="AP16" s="91"/>
-      <c r="AQ16" s="91"/>
-      <c r="AR16" s="91"/>
-      <c r="AS16" s="91"/>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="91"/>
-      <c r="AV16" s="91"/>
-      <c r="AW16" s="91"/>
-      <c r="AX16" s="91"/>
-      <c r="AY16" s="91"/>
-      <c r="AZ16" s="91"/>
-      <c r="BA16" s="91"/>
-      <c r="BB16" s="91"/>
-      <c r="BC16" s="92"/>
+      <c r="B16" s="113" t="s">
+        <v>375</v>
+      </c>
+      <c r="C16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="114"/>
+      <c r="Q16" s="114"/>
+      <c r="R16" s="114"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="114"/>
+      <c r="U16" s="114"/>
+      <c r="V16" s="114"/>
+      <c r="W16" s="114"/>
+      <c r="X16" s="114"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="114"/>
+      <c r="AC16" s="114"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="114"/>
+      <c r="AG16" s="114"/>
+      <c r="AH16" s="114"/>
+      <c r="AI16" s="114"/>
+      <c r="AJ16" s="114"/>
+      <c r="AK16" s="114"/>
+      <c r="AL16" s="114"/>
+      <c r="AM16" s="114"/>
+      <c r="AN16" s="114"/>
+      <c r="AO16" s="114"/>
+      <c r="AP16" s="114"/>
+      <c r="AQ16" s="114"/>
+      <c r="AR16" s="114"/>
+      <c r="AS16" s="114"/>
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="114"/>
+      <c r="BB16" s="114"/>
+      <c r="BC16" s="115"/>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="93" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="95"/>
+      <c r="B17" s="116" t="s">
+        <v>376</v>
+      </c>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="118"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -13275,24 +13806,24 @@
       <c r="AV17" s="34"/>
       <c r="AW17" s="35"/>
       <c r="AX17" s="38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AY17" s="39"/>
-      <c r="AZ17" s="108" t="s">
+      <c r="AZ17" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="BA17" s="108"/>
-      <c r="BB17" s="108"/>
+      <c r="BA17" s="59"/>
+      <c r="BB17" s="59"/>
       <c r="BC17" s="40"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="98"/>
+      <c r="B18" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -13301,24 +13832,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="77" t="e">
+      <c r="AX18" s="60" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="78"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="78"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
       <c r="BC18" s="41"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="99" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
+      <c r="B19" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="36"/>
       <c r="L19" s="36"/>
       <c r="R19" s="36"/>
@@ -13327,24 +13858,24 @@
       <c r="AJ19" s="36"/>
       <c r="AP19" s="36"/>
       <c r="AV19" s="36"/>
-      <c r="AX19" s="75" t="e">
+      <c r="AX19" s="62" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="76"/>
-      <c r="AZ19" s="76"/>
-      <c r="BA19" s="76"/>
-      <c r="BB19" s="76"/>
+      <c r="AY19" s="63"/>
+      <c r="AZ19" s="63"/>
+      <c r="BA19" s="63"/>
+      <c r="BB19" s="63"/>
       <c r="BC19" s="42"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="102" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
+      <c r="B20" s="119" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -13354,22 +13885,22 @@
       <c r="AP20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AX20" s="43" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AZ20" s="44" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="BA20" s="44" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="BB20" s="44" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="BC20" s="45" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="2:55">
@@ -13401,71 +13932,71 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="77" t="s">
-        <v>336</v>
-      </c>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="78"/>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="78"/>
+      <c r="AX22" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY22" s="61"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="61"/>
+      <c r="BB22" s="61"/>
       <c r="BC22" s="41"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="AX23" s="79" t="e">
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="AX23" s="64" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="80"/>
-      <c r="AZ23" s="80"/>
-      <c r="BA23" s="80"/>
-      <c r="BB23" s="80"/>
-      <c r="BC23" s="81"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65"/>
+      <c r="BC23" s="66"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="79"/>
-      <c r="AY24" s="80"/>
-      <c r="AZ24" s="80"/>
-      <c r="BA24" s="80"/>
-      <c r="BB24" s="80"/>
-      <c r="BC24" s="81"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="65"/>
+      <c r="BC24" s="66"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="79"/>
-      <c r="AY25" s="80"/>
-      <c r="AZ25" s="80"/>
-      <c r="BA25" s="80"/>
-      <c r="BB25" s="80"/>
-      <c r="BC25" s="81"/>
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="65"/>
+      <c r="BC25" s="66"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="79"/>
-      <c r="AY26" s="80"/>
-      <c r="AZ26" s="80"/>
-      <c r="BA26" s="80"/>
-      <c r="BB26" s="80"/>
-      <c r="BC26" s="81"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="65"/>
+      <c r="AZ26" s="65"/>
+      <c r="BA26" s="65"/>
+      <c r="BB26" s="65"/>
+      <c r="BC26" s="66"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="82"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="83"/>
-      <c r="BC27" s="84"/>
+      <c r="AX27" s="67"/>
+      <c r="AY27" s="68"/>
+      <c r="AZ27" s="68"/>
+      <c r="BA27" s="68"/>
+      <c r="BB27" s="68"/>
+      <c r="BC27" s="69"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="47" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -13514,70 +14045,70 @@
       <c r="AU28" s="37"/>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
-      <c r="AX28" s="85" t="s">
-        <v>343</v>
-      </c>
-      <c r="AY28" s="86"/>
-      <c r="AZ28" s="86"/>
-      <c r="BA28" s="86"/>
-      <c r="BB28" s="86"/>
-      <c r="BC28" s="87"/>
+      <c r="AX28" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="AY28" s="111"/>
+      <c r="AZ28" s="111"/>
+      <c r="BA28" s="111"/>
+      <c r="BB28" s="111"/>
+      <c r="BC28" s="112"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="40"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="77" t="e">
+      <c r="B30" s="60" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="41"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="75" t="e">
+      <c r="B31" s="62" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="42"/>
       <c r="BC31" s="8"/>
     </row>
     <row r="32" spans="2:55">
       <c r="B32" s="43" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="BC32" s="8"/>
     </row>
@@ -13609,83 +14140,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="77" t="s">
-        <v>336</v>
-      </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
+      <c r="B34" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="41"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="79" t="e">
+      <c r="B35" s="64" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="66"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="AX36" s="115" t="s">
-        <v>342</v>
-      </c>
-      <c r="AY36" s="116"/>
-      <c r="AZ36" s="116"/>
-      <c r="BA36" s="116"/>
-      <c r="BB36" s="116"/>
-      <c r="BC36" s="117"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+      <c r="AX36" s="99" t="s">
+        <v>379</v>
+      </c>
+      <c r="AY36" s="100"/>
+      <c r="AZ36" s="100"/>
+      <c r="BA36" s="100"/>
+      <c r="BB36" s="100"/>
+      <c r="BC36" s="101"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="AX37" s="99" t="s">
-        <v>341</v>
-      </c>
-      <c r="AY37" s="100"/>
-      <c r="AZ37" s="100"/>
-      <c r="BA37" s="100"/>
-      <c r="BB37" s="100"/>
-      <c r="BC37" s="101"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="66"/>
+      <c r="AX37" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="AY37" s="97"/>
+      <c r="AZ37" s="97"/>
+      <c r="BA37" s="97"/>
+      <c r="BB37" s="97"/>
+      <c r="BC37" s="98"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
-      <c r="AX38" s="96" t="s">
-        <v>340</v>
-      </c>
-      <c r="AY38" s="97"/>
-      <c r="AZ38" s="97"/>
-      <c r="BA38" s="97"/>
-      <c r="BB38" s="97"/>
-      <c r="BC38" s="98"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="66"/>
+      <c r="AX38" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="AY38" s="94"/>
+      <c r="AZ38" s="94"/>
+      <c r="BA38" s="94"/>
+      <c r="BB38" s="94"/>
+      <c r="BC38" s="95"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="82"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="84"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -13728,654 +14259,654 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="112" t="s">
-        <v>339</v>
-      </c>
-      <c r="AY39" s="113"/>
-      <c r="AZ39" s="113"/>
-      <c r="BA39" s="113"/>
-      <c r="BB39" s="113"/>
-      <c r="BC39" s="114"/>
+      <c r="AX39" s="90" t="s">
+        <v>376</v>
+      </c>
+      <c r="AY39" s="91"/>
+      <c r="AZ39" s="91"/>
+      <c r="BA39" s="91"/>
+      <c r="BB39" s="91"/>
+      <c r="BC39" s="92"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="109" t="s">
-        <v>344</v>
-      </c>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="S40" s="110"/>
-      <c r="T40" s="110"/>
-      <c r="U40" s="110"/>
-      <c r="V40" s="110"/>
-      <c r="W40" s="110"/>
-      <c r="X40" s="110"/>
-      <c r="Y40" s="110"/>
-      <c r="Z40" s="110"/>
-      <c r="AA40" s="110"/>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
-      <c r="AD40" s="110"/>
-      <c r="AE40" s="110"/>
-      <c r="AF40" s="110"/>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="110"/>
-      <c r="AJ40" s="110"/>
-      <c r="AK40" s="110"/>
-      <c r="AL40" s="110"/>
-      <c r="AM40" s="110"/>
-      <c r="AN40" s="110"/>
-      <c r="AO40" s="110"/>
-      <c r="AP40" s="110"/>
-      <c r="AQ40" s="110"/>
-      <c r="AR40" s="110"/>
-      <c r="AS40" s="110"/>
-      <c r="AT40" s="110"/>
-      <c r="AU40" s="110"/>
-      <c r="AV40" s="110"/>
-      <c r="AW40" s="110"/>
-      <c r="AX40" s="110"/>
-      <c r="AY40" s="110"/>
-      <c r="AZ40" s="110"/>
-      <c r="BA40" s="110"/>
-      <c r="BB40" s="110"/>
-      <c r="BC40" s="111"/>
+      <c r="B40" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
+      <c r="X40" s="88"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="88"/>
+      <c r="AB40" s="88"/>
+      <c r="AC40" s="88"/>
+      <c r="AD40" s="88"/>
+      <c r="AE40" s="88"/>
+      <c r="AF40" s="88"/>
+      <c r="AG40" s="88"/>
+      <c r="AH40" s="88"/>
+      <c r="AI40" s="88"/>
+      <c r="AJ40" s="88"/>
+      <c r="AK40" s="88"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="88"/>
+      <c r="AN40" s="88"/>
+      <c r="AO40" s="88"/>
+      <c r="AP40" s="88"/>
+      <c r="AQ40" s="88"/>
+      <c r="AR40" s="88"/>
+      <c r="AS40" s="88"/>
+      <c r="AT40" s="88"/>
+      <c r="AU40" s="88"/>
+      <c r="AV40" s="88"/>
+      <c r="AW40" s="88"/>
+      <c r="AX40" s="88"/>
+      <c r="AY40" s="88"/>
+      <c r="AZ40" s="88"/>
+      <c r="BA40" s="88"/>
+      <c r="BB40" s="88"/>
+      <c r="BC40" s="89"/>
     </row>
     <row r="41" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B41" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
-      <c r="V41" s="63"/>
-      <c r="W41" s="63"/>
-      <c r="X41" s="63"/>
-      <c r="Y41" s="63"/>
-      <c r="Z41" s="63"/>
-      <c r="AA41" s="63"/>
-      <c r="AB41" s="63"/>
-      <c r="AC41" s="63"/>
-      <c r="AD41" s="63"/>
-      <c r="AE41" s="63"/>
-      <c r="AF41" s="63"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="63"/>
-      <c r="AI41" s="63"/>
-      <c r="AJ41" s="63"/>
-      <c r="AK41" s="64"/>
-      <c r="AL41" s="62" t="s">
+      <c r="B41" s="76" t="s">
+        <v>353</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="77"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="77"/>
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="77"/>
+      <c r="AB41" s="77"/>
+      <c r="AC41" s="77"/>
+      <c r="AD41" s="77"/>
+      <c r="AE41" s="77"/>
+      <c r="AF41" s="77"/>
+      <c r="AG41" s="77"/>
+      <c r="AH41" s="77"/>
+      <c r="AI41" s="77"/>
+      <c r="AJ41" s="77"/>
+      <c r="AK41" s="78"/>
+      <c r="AL41" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AM41" s="63"/>
-      <c r="AN41" s="63"/>
-      <c r="AO41" s="63"/>
-      <c r="AP41" s="63"/>
-      <c r="AQ41" s="63"/>
-      <c r="AR41" s="63"/>
-      <c r="AS41" s="63"/>
-      <c r="AT41" s="63"/>
-      <c r="AU41" s="63"/>
-      <c r="AV41" s="63"/>
-      <c r="AW41" s="63"/>
-      <c r="AX41" s="63"/>
-      <c r="AY41" s="63"/>
-      <c r="AZ41" s="63"/>
-      <c r="BA41" s="63"/>
-      <c r="BB41" s="63"/>
-      <c r="BC41" s="64"/>
+      <c r="AM41" s="77"/>
+      <c r="AN41" s="77"/>
+      <c r="AO41" s="77"/>
+      <c r="AP41" s="77"/>
+      <c r="AQ41" s="77"/>
+      <c r="AR41" s="77"/>
+      <c r="AS41" s="77"/>
+      <c r="AT41" s="77"/>
+      <c r="AU41" s="77"/>
+      <c r="AV41" s="77"/>
+      <c r="AW41" s="77"/>
+      <c r="AX41" s="77"/>
+      <c r="AY41" s="77"/>
+      <c r="AZ41" s="77"/>
+      <c r="BA41" s="77"/>
+      <c r="BB41" s="77"/>
+      <c r="BC41" s="78"/>
     </row>
     <row r="42" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B42" s="68" t="s">
-        <v>317</v>
-      </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="B42" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="27"/>
-      <c r="H42" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="69" t="s">
-        <v>319</v>
-      </c>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="69"/>
-      <c r="AC42" s="69"/>
-      <c r="AD42" s="69"/>
-      <c r="AE42" s="69"/>
-      <c r="AF42" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="AG42" s="69"/>
-      <c r="AH42" s="69"/>
-      <c r="AI42" s="69"/>
-      <c r="AJ42" s="69"/>
-      <c r="AK42" s="69"/>
-      <c r="AL42" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="AM42" s="69"/>
-      <c r="AN42" s="69"/>
-      <c r="AO42" s="69"/>
-      <c r="AP42" s="69"/>
-      <c r="AQ42" s="69"/>
-      <c r="AR42" s="70" t="s">
-        <v>324</v>
-      </c>
-      <c r="AS42" s="69"/>
-      <c r="AT42" s="69"/>
-      <c r="AU42" s="69"/>
-      <c r="AV42" s="69"/>
-      <c r="AW42" s="71"/>
-      <c r="AX42" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY42" s="69"/>
-      <c r="AZ42" s="69"/>
-      <c r="BA42" s="69"/>
-      <c r="BB42" s="69"/>
-      <c r="BC42" s="120"/>
+      <c r="H42" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="72" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="AG42" s="72"/>
+      <c r="AH42" s="72"/>
+      <c r="AI42" s="72"/>
+      <c r="AJ42" s="72"/>
+      <c r="AK42" s="72"/>
+      <c r="AL42" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM42" s="72"/>
+      <c r="AN42" s="72"/>
+      <c r="AO42" s="72"/>
+      <c r="AP42" s="72"/>
+      <c r="AQ42" s="72"/>
+      <c r="AR42" s="73" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS42" s="72"/>
+      <c r="AT42" s="72"/>
+      <c r="AU42" s="72"/>
+      <c r="AV42" s="72"/>
+      <c r="AW42" s="74"/>
+      <c r="AX42" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="AY42" s="72"/>
+      <c r="AZ42" s="72"/>
+      <c r="BA42" s="72"/>
+      <c r="BB42" s="72"/>
+      <c r="BC42" s="75"/>
     </row>
     <row r="43" spans="2:55">
       <c r="B43" s="9" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C43" s="26">
         <v>63</v>
       </c>
-      <c r="D43" s="65" t="str">
+      <c r="D43" s="70" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
       <c r="G43" s="10"/>
       <c r="H43" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="I43" s="33">
         <v>99</v>
       </c>
-      <c r="J43" s="88" t="str">
+      <c r="J43" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="89"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="57"/>
       <c r="N43" s="10" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="O43" s="26">
         <v>46</v>
       </c>
-      <c r="P43" s="65" t="str">
+      <c r="P43" s="70" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
-      <c r="S43" s="65"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
       <c r="T43" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="U43" s="33">
         <v>56</v>
       </c>
-      <c r="V43" s="88" t="str">
+      <c r="V43" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="89"/>
+      <c r="W43" s="56"/>
+      <c r="X43" s="56"/>
+      <c r="Y43" s="57"/>
       <c r="Z43" s="10" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AA43" s="26">
         <v>99</v>
       </c>
-      <c r="AB43" s="65" t="str">
+      <c r="AB43" s="70" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="65"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="70"/>
       <c r="AF43" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AG43" s="33">
         <v>62</v>
       </c>
-      <c r="AH43" s="88" t="str">
+      <c r="AH43" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI43" s="88"/>
-      <c r="AJ43" s="88"/>
-      <c r="AK43" s="89"/>
+      <c r="AI43" s="56"/>
+      <c r="AJ43" s="56"/>
+      <c r="AK43" s="57"/>
       <c r="AL43" s="10" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AM43" s="26">
         <v>82</v>
       </c>
-      <c r="AN43" s="65" t="str">
+      <c r="AN43" s="70" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO43" s="65"/>
-      <c r="AP43" s="65"/>
-      <c r="AQ43" s="65"/>
+      <c r="AO43" s="70"/>
+      <c r="AP43" s="70"/>
+      <c r="AQ43" s="70"/>
       <c r="AR43" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AS43" s="33">
         <v>11</v>
       </c>
-      <c r="AT43" s="88" t="str">
+      <c r="AT43" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU43" s="88"/>
-      <c r="AV43" s="88"/>
-      <c r="AW43" s="89"/>
+      <c r="AU43" s="56"/>
+      <c r="AV43" s="56"/>
+      <c r="AW43" s="57"/>
       <c r="AX43" s="32" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="AY43" s="33">
         <v>4</v>
       </c>
-      <c r="AZ43" s="88" t="str">
+      <c r="AZ43" s="56" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA43" s="88"/>
-      <c r="BB43" s="88"/>
-      <c r="BC43" s="89"/>
+      <c r="BA43" s="56"/>
+      <c r="BB43" s="56"/>
+      <c r="BC43" s="57"/>
     </row>
     <row r="44" spans="2:55">
-      <c r="B44" s="66" t="str">
+      <c r="B44" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),3)</f>
         <v>P Bot Bot</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="66" t="str">
+      <c r="H44" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="65" t="str">
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),3)</f>
         <v>Hull Breach</v>
       </c>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="66" t="str">
+      <c r="O44" s="70"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="70"/>
+      <c r="R44" s="70"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="67"/>
-      <c r="Z44" s="65" t="str">
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="106"/>
+      <c r="Z44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="66" t="str">
+      <c r="AA44" s="70"/>
+      <c r="AB44" s="70"/>
+      <c r="AC44" s="70"/>
+      <c r="AD44" s="70"/>
+      <c r="AE44" s="70"/>
+      <c r="AF44" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG44" s="65"/>
-      <c r="AH44" s="65"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="65"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="65" t="str">
+      <c r="AG44" s="70"/>
+      <c r="AH44" s="70"/>
+      <c r="AI44" s="70"/>
+      <c r="AJ44" s="70"/>
+      <c r="AK44" s="106"/>
+      <c r="AL44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM44" s="65"/>
-      <c r="AN44" s="65"/>
-      <c r="AO44" s="65"/>
-      <c r="AP44" s="65"/>
-      <c r="AQ44" s="65"/>
-      <c r="AR44" s="66" t="str">
+      <c r="AM44" s="70"/>
+      <c r="AN44" s="70"/>
+      <c r="AO44" s="70"/>
+      <c r="AP44" s="70"/>
+      <c r="AQ44" s="70"/>
+      <c r="AR44" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS44" s="65"/>
-      <c r="AT44" s="65"/>
-      <c r="AU44" s="65"/>
-      <c r="AV44" s="65"/>
-      <c r="AW44" s="67"/>
-      <c r="AX44" s="66" t="str">
+      <c r="AS44" s="70"/>
+      <c r="AT44" s="70"/>
+      <c r="AU44" s="70"/>
+      <c r="AV44" s="70"/>
+      <c r="AW44" s="106"/>
+      <c r="AX44" s="105" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY44" s="65"/>
-      <c r="AZ44" s="65"/>
-      <c r="BA44" s="65"/>
-      <c r="BB44" s="65"/>
-      <c r="BC44" s="67"/>
+      <c r="AY44" s="70"/>
+      <c r="AZ44" s="70"/>
+      <c r="BA44" s="70"/>
+      <c r="BB44" s="70"/>
+      <c r="BC44" s="106"/>
     </row>
     <row r="45" spans="2:55">
-      <c r="B45" s="105" t="str">
+      <c r="B45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="105" t="str">
+      <c r="H45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="107"/>
-      <c r="N45" s="106" t="str">
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="106"/>
-      <c r="T45" s="105" t="str">
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U45" s="106"/>
-      <c r="V45" s="106"/>
-      <c r="W45" s="106"/>
-      <c r="X45" s="106"/>
-      <c r="Y45" s="107"/>
-      <c r="Z45" s="106" t="str">
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA45" s="106"/>
-      <c r="AB45" s="106"/>
-      <c r="AC45" s="106"/>
-      <c r="AD45" s="106"/>
-      <c r="AE45" s="106"/>
-      <c r="AF45" s="105" t="str">
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="108"/>
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="108"/>
+      <c r="AE45" s="108"/>
+      <c r="AF45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG45" s="106"/>
-      <c r="AH45" s="106"/>
-      <c r="AI45" s="106"/>
-      <c r="AJ45" s="106"/>
-      <c r="AK45" s="107"/>
-      <c r="AL45" s="106" t="str">
+      <c r="AG45" s="108"/>
+      <c r="AH45" s="108"/>
+      <c r="AI45" s="108"/>
+      <c r="AJ45" s="108"/>
+      <c r="AK45" s="109"/>
+      <c r="AL45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM45" s="106"/>
-      <c r="AN45" s="106"/>
-      <c r="AO45" s="106"/>
-      <c r="AP45" s="106"/>
-      <c r="AQ45" s="106"/>
-      <c r="AR45" s="105" t="str">
+      <c r="AM45" s="108"/>
+      <c r="AN45" s="108"/>
+      <c r="AO45" s="108"/>
+      <c r="AP45" s="108"/>
+      <c r="AQ45" s="108"/>
+      <c r="AR45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS45" s="106"/>
-      <c r="AT45" s="106"/>
-      <c r="AU45" s="106"/>
-      <c r="AV45" s="106"/>
-      <c r="AW45" s="107"/>
-      <c r="AX45" s="105" t="str">
+      <c r="AS45" s="108"/>
+      <c r="AT45" s="108"/>
+      <c r="AU45" s="108"/>
+      <c r="AV45" s="108"/>
+      <c r="AW45" s="109"/>
+      <c r="AX45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY45" s="106"/>
-      <c r="AZ45" s="106"/>
-      <c r="BA45" s="106"/>
-      <c r="BB45" s="106"/>
-      <c r="BC45" s="107"/>
+      <c r="AY45" s="108"/>
+      <c r="AZ45" s="108"/>
+      <c r="BA45" s="108"/>
+      <c r="BB45" s="108"/>
+      <c r="BC45" s="109"/>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="28" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="S46" s="31" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="Y46" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AE46" s="31" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AG46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AH46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AI46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AJ46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AK46" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AL46" s="29" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AM46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AN46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AO46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AP46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AQ46" s="31" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AR46" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AS46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AT46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="AU46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="AV46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="AW46" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="AX46" s="16" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="AY46" s="14" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="AZ46" s="14" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="BA46" s="14" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="BB46" s="14" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="BC46" s="17" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="2:55">
@@ -14597,509 +15128,620 @@
       </c>
     </row>
     <row r="48" spans="2:55">
-      <c r="B48" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
+      <c r="B48" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="67"/>
-      <c r="N48" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="65"/>
-      <c r="T48" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
-      <c r="Y48" s="67"/>
-      <c r="Z48" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA48" s="65"/>
-      <c r="AB48" s="65"/>
-      <c r="AC48" s="65"/>
-      <c r="AD48" s="65"/>
-      <c r="AE48" s="65"/>
-      <c r="AF48" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="AG48" s="65"/>
-      <c r="AH48" s="65"/>
-      <c r="AI48" s="65"/>
-      <c r="AJ48" s="65"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="AM48" s="65"/>
-      <c r="AN48" s="65"/>
-      <c r="AO48" s="65"/>
-      <c r="AP48" s="65"/>
-      <c r="AQ48" s="65"/>
-      <c r="AR48" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="AS48" s="73"/>
-      <c r="AT48" s="73"/>
-      <c r="AU48" s="73"/>
-      <c r="AV48" s="73"/>
-      <c r="AW48" s="74"/>
-      <c r="AX48" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="AY48" s="65"/>
-      <c r="AZ48" s="65"/>
-      <c r="BA48" s="65"/>
-      <c r="BB48" s="65"/>
-      <c r="BC48" s="67"/>
+      <c r="H48" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="106"/>
+      <c r="N48" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="U48" s="70"/>
+      <c r="V48" s="70"/>
+      <c r="W48" s="70"/>
+      <c r="X48" s="70"/>
+      <c r="Y48" s="106"/>
+      <c r="Z48" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA48" s="70"/>
+      <c r="AB48" s="70"/>
+      <c r="AC48" s="70"/>
+      <c r="AD48" s="70"/>
+      <c r="AE48" s="70"/>
+      <c r="AF48" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="AG48" s="70"/>
+      <c r="AH48" s="70"/>
+      <c r="AI48" s="70"/>
+      <c r="AJ48" s="70"/>
+      <c r="AK48" s="106"/>
+      <c r="AL48" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM48" s="70"/>
+      <c r="AN48" s="70"/>
+      <c r="AO48" s="70"/>
+      <c r="AP48" s="70"/>
+      <c r="AQ48" s="70"/>
+      <c r="AR48" s="102" t="s">
+        <v>373</v>
+      </c>
+      <c r="AS48" s="103"/>
+      <c r="AT48" s="103"/>
+      <c r="AU48" s="103"/>
+      <c r="AV48" s="103"/>
+      <c r="AW48" s="104"/>
+      <c r="AX48" s="105" t="s">
+        <v>373</v>
+      </c>
+      <c r="AY48" s="70"/>
+      <c r="AZ48" s="70"/>
+      <c r="BA48" s="70"/>
+      <c r="BB48" s="70"/>
+      <c r="BC48" s="106"/>
     </row>
     <row r="49" spans="2:55" ht="15" customHeight="1">
-      <c r="B49" s="56" t="str">
+      <c r="B49" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Tap: Assault + 2
-Tap: Repair ship by 200</v>
-      </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="56" t="str">
+Tap: Repair ship by 100</v>
+      </c>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="83"/>
+      <c r="H49" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="57" t="str">
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="82" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship</v>
       </c>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="56" t="str">
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="58"/>
-      <c r="Z49" s="57" t="str">
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="83"/>
+      <c r="Z49" s="82" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="57"/>
-      <c r="AC49" s="57"/>
-      <c r="AD49" s="57"/>
-      <c r="AE49" s="57"/>
-      <c r="AF49" s="56" t="str">
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="82"/>
+      <c r="AD49" s="82"/>
+      <c r="AE49" s="82"/>
+      <c r="AF49" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
-Tap: Repair ship by 200</v>
-      </c>
-      <c r="AG49" s="57"/>
-      <c r="AH49" s="57"/>
-      <c r="AI49" s="57"/>
-      <c r="AJ49" s="57"/>
-      <c r="AK49" s="58"/>
-      <c r="AL49" s="57" t="str">
+Tap: Repair ship by 100</v>
+      </c>
+      <c r="AG49" s="82"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="82"/>
+      <c r="AJ49" s="82"/>
+      <c r="AK49" s="83"/>
+      <c r="AL49" s="82" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM49" s="57"/>
-      <c r="AN49" s="57"/>
-      <c r="AO49" s="57"/>
-      <c r="AP49" s="57"/>
-      <c r="AQ49" s="57"/>
-      <c r="AR49" s="56" t="str">
+      <c r="AM49" s="82"/>
+      <c r="AN49" s="82"/>
+      <c r="AO49" s="82"/>
+      <c r="AP49" s="82"/>
+      <c r="AQ49" s="82"/>
+      <c r="AR49" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS49" s="57"/>
-      <c r="AT49" s="57"/>
-      <c r="AU49" s="57"/>
-      <c r="AV49" s="57"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="56" t="str">
+      <c r="AS49" s="82"/>
+      <c r="AT49" s="82"/>
+      <c r="AU49" s="82"/>
+      <c r="AV49" s="82"/>
+      <c r="AW49" s="83"/>
+      <c r="AX49" s="81" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Tap: Research + 3 and discard top card of deck</v>
       </c>
-      <c r="AY49" s="57"/>
-      <c r="AZ49" s="57"/>
-      <c r="BA49" s="57"/>
-      <c r="BB49" s="57"/>
-      <c r="BC49" s="58"/>
+      <c r="AY49" s="82"/>
+      <c r="AZ49" s="82"/>
+      <c r="BA49" s="82"/>
+      <c r="BB49" s="82"/>
+      <c r="BC49" s="83"/>
     </row>
     <row r="50" spans="2:55">
-      <c r="B50" s="56"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="57"/>
-      <c r="O50" s="57"/>
-      <c r="P50" s="57"/>
-      <c r="Q50" s="57"/>
-      <c r="R50" s="57"/>
-      <c r="S50" s="57"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="57"/>
-      <c r="V50" s="57"/>
-      <c r="W50" s="57"/>
-      <c r="X50" s="57"/>
-      <c r="Y50" s="58"/>
-      <c r="Z50" s="57"/>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="57"/>
-      <c r="AC50" s="57"/>
-      <c r="AD50" s="57"/>
-      <c r="AE50" s="57"/>
-      <c r="AF50" s="56"/>
-      <c r="AG50" s="57"/>
-      <c r="AH50" s="57"/>
-      <c r="AI50" s="57"/>
-      <c r="AJ50" s="57"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="57"/>
-      <c r="AM50" s="57"/>
-      <c r="AN50" s="57"/>
-      <c r="AO50" s="57"/>
-      <c r="AP50" s="57"/>
-      <c r="AQ50" s="57"/>
-      <c r="AR50" s="56"/>
-      <c r="AS50" s="57"/>
-      <c r="AT50" s="57"/>
-      <c r="AU50" s="57"/>
-      <c r="AV50" s="57"/>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="56"/>
-      <c r="AY50" s="57"/>
-      <c r="AZ50" s="57"/>
-      <c r="BA50" s="57"/>
-      <c r="BB50" s="57"/>
-      <c r="BC50" s="58"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="83"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="81"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="83"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="82"/>
+      <c r="AD50" s="82"/>
+      <c r="AE50" s="82"/>
+      <c r="AF50" s="81"/>
+      <c r="AG50" s="82"/>
+      <c r="AH50" s="82"/>
+      <c r="AI50" s="82"/>
+      <c r="AJ50" s="82"/>
+      <c r="AK50" s="83"/>
+      <c r="AL50" s="82"/>
+      <c r="AM50" s="82"/>
+      <c r="AN50" s="82"/>
+      <c r="AO50" s="82"/>
+      <c r="AP50" s="82"/>
+      <c r="AQ50" s="82"/>
+      <c r="AR50" s="81"/>
+      <c r="AS50" s="82"/>
+      <c r="AT50" s="82"/>
+      <c r="AU50" s="82"/>
+      <c r="AV50" s="82"/>
+      <c r="AW50" s="83"/>
+      <c r="AX50" s="81"/>
+      <c r="AY50" s="82"/>
+      <c r="AZ50" s="82"/>
+      <c r="BA50" s="82"/>
+      <c r="BB50" s="82"/>
+      <c r="BC50" s="83"/>
     </row>
     <row r="51" spans="2:55">
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="57"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="58"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="57"/>
-      <c r="AD51" s="57"/>
-      <c r="AE51" s="57"/>
-      <c r="AF51" s="56"/>
-      <c r="AG51" s="57"/>
-      <c r="AH51" s="57"/>
-      <c r="AI51" s="57"/>
-      <c r="AJ51" s="57"/>
-      <c r="AK51" s="58"/>
-      <c r="AL51" s="57"/>
-      <c r="AM51" s="57"/>
-      <c r="AN51" s="57"/>
-      <c r="AO51" s="57"/>
-      <c r="AP51" s="57"/>
-      <c r="AQ51" s="57"/>
-      <c r="AR51" s="56"/>
-      <c r="AS51" s="57"/>
-      <c r="AT51" s="57"/>
-      <c r="AU51" s="57"/>
-      <c r="AV51" s="57"/>
-      <c r="AW51" s="58"/>
-      <c r="AX51" s="56"/>
-      <c r="AY51" s="57"/>
-      <c r="AZ51" s="57"/>
-      <c r="BA51" s="57"/>
-      <c r="BB51" s="57"/>
-      <c r="BC51" s="58"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="81"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="83"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="82"/>
+      <c r="AB51" s="82"/>
+      <c r="AC51" s="82"/>
+      <c r="AD51" s="82"/>
+      <c r="AE51" s="82"/>
+      <c r="AF51" s="81"/>
+      <c r="AG51" s="82"/>
+      <c r="AH51" s="82"/>
+      <c r="AI51" s="82"/>
+      <c r="AJ51" s="82"/>
+      <c r="AK51" s="83"/>
+      <c r="AL51" s="82"/>
+      <c r="AM51" s="82"/>
+      <c r="AN51" s="82"/>
+      <c r="AO51" s="82"/>
+      <c r="AP51" s="82"/>
+      <c r="AQ51" s="82"/>
+      <c r="AR51" s="81"/>
+      <c r="AS51" s="82"/>
+      <c r="AT51" s="82"/>
+      <c r="AU51" s="82"/>
+      <c r="AV51" s="82"/>
+      <c r="AW51" s="83"/>
+      <c r="AX51" s="81"/>
+      <c r="AY51" s="82"/>
+      <c r="AZ51" s="82"/>
+      <c r="BA51" s="82"/>
+      <c r="BB51" s="82"/>
+      <c r="BC51" s="83"/>
     </row>
     <row r="52" spans="2:55">
-      <c r="B52" s="56"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="56"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="58"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="57"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="56"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="57"/>
-      <c r="AJ52" s="57"/>
-      <c r="AK52" s="58"/>
-      <c r="AL52" s="57"/>
-      <c r="AM52" s="57"/>
-      <c r="AN52" s="57"/>
-      <c r="AO52" s="57"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="56"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="57"/>
-      <c r="AV52" s="57"/>
-      <c r="AW52" s="58"/>
-      <c r="AX52" s="56"/>
-      <c r="AY52" s="57"/>
-      <c r="AZ52" s="57"/>
-      <c r="BA52" s="57"/>
-      <c r="BB52" s="57"/>
-      <c r="BC52" s="58"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+      <c r="L52" s="82"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="82"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="82"/>
+      <c r="R52" s="82"/>
+      <c r="S52" s="82"/>
+      <c r="T52" s="81"/>
+      <c r="U52" s="82"/>
+      <c r="V52" s="82"/>
+      <c r="W52" s="82"/>
+      <c r="X52" s="82"/>
+      <c r="Y52" s="83"/>
+      <c r="Z52" s="82"/>
+      <c r="AA52" s="82"/>
+      <c r="AB52" s="82"/>
+      <c r="AC52" s="82"/>
+      <c r="AD52" s="82"/>
+      <c r="AE52" s="82"/>
+      <c r="AF52" s="81"/>
+      <c r="AG52" s="82"/>
+      <c r="AH52" s="82"/>
+      <c r="AI52" s="82"/>
+      <c r="AJ52" s="82"/>
+      <c r="AK52" s="83"/>
+      <c r="AL52" s="82"/>
+      <c r="AM52" s="82"/>
+      <c r="AN52" s="82"/>
+      <c r="AO52" s="82"/>
+      <c r="AP52" s="82"/>
+      <c r="AQ52" s="82"/>
+      <c r="AR52" s="81"/>
+      <c r="AS52" s="82"/>
+      <c r="AT52" s="82"/>
+      <c r="AU52" s="82"/>
+      <c r="AV52" s="82"/>
+      <c r="AW52" s="83"/>
+      <c r="AX52" s="81"/>
+      <c r="AY52" s="82"/>
+      <c r="AZ52" s="82"/>
+      <c r="BA52" s="82"/>
+      <c r="BB52" s="82"/>
+      <c r="BC52" s="83"/>
     </row>
     <row r="53" spans="2:55">
-      <c r="B53" s="56"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="57"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="57"/>
-      <c r="V53" s="57"/>
-      <c r="W53" s="57"/>
-      <c r="X53" s="57"/>
-      <c r="Y53" s="58"/>
-      <c r="Z53" s="57"/>
-      <c r="AA53" s="57"/>
-      <c r="AB53" s="57"/>
-      <c r="AC53" s="57"/>
-      <c r="AD53" s="57"/>
-      <c r="AE53" s="57"/>
-      <c r="AF53" s="56"/>
-      <c r="AG53" s="57"/>
-      <c r="AH53" s="57"/>
-      <c r="AI53" s="57"/>
-      <c r="AJ53" s="57"/>
-      <c r="AK53" s="58"/>
-      <c r="AL53" s="57"/>
-      <c r="AM53" s="57"/>
-      <c r="AN53" s="57"/>
-      <c r="AO53" s="57"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="57"/>
-      <c r="AR53" s="56"/>
-      <c r="AS53" s="57"/>
-      <c r="AT53" s="57"/>
-      <c r="AU53" s="57"/>
-      <c r="AV53" s="57"/>
-      <c r="AW53" s="58"/>
-      <c r="AX53" s="56"/>
-      <c r="AY53" s="57"/>
-      <c r="AZ53" s="57"/>
-      <c r="BA53" s="57"/>
-      <c r="BB53" s="57"/>
-      <c r="BC53" s="58"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="82"/>
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+      <c r="L53" s="82"/>
+      <c r="M53" s="83"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="82"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="82"/>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="81"/>
+      <c r="U53" s="82"/>
+      <c r="V53" s="82"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
+      <c r="Y53" s="83"/>
+      <c r="Z53" s="82"/>
+      <c r="AA53" s="82"/>
+      <c r="AB53" s="82"/>
+      <c r="AC53" s="82"/>
+      <c r="AD53" s="82"/>
+      <c r="AE53" s="82"/>
+      <c r="AF53" s="81"/>
+      <c r="AG53" s="82"/>
+      <c r="AH53" s="82"/>
+      <c r="AI53" s="82"/>
+      <c r="AJ53" s="82"/>
+      <c r="AK53" s="83"/>
+      <c r="AL53" s="82"/>
+      <c r="AM53" s="82"/>
+      <c r="AN53" s="82"/>
+      <c r="AO53" s="82"/>
+      <c r="AP53" s="82"/>
+      <c r="AQ53" s="82"/>
+      <c r="AR53" s="81"/>
+      <c r="AS53" s="82"/>
+      <c r="AT53" s="82"/>
+      <c r="AU53" s="82"/>
+      <c r="AV53" s="82"/>
+      <c r="AW53" s="83"/>
+      <c r="AX53" s="81"/>
+      <c r="AY53" s="82"/>
+      <c r="AZ53" s="82"/>
+      <c r="BA53" s="82"/>
+      <c r="BB53" s="82"/>
+      <c r="BC53" s="83"/>
     </row>
     <row r="54" spans="2:55">
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="57"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="57"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
-      <c r="X54" s="57"/>
-      <c r="Y54" s="58"/>
-      <c r="Z54" s="57"/>
-      <c r="AA54" s="57"/>
-      <c r="AB54" s="57"/>
-      <c r="AC54" s="57"/>
-      <c r="AD54" s="57"/>
-      <c r="AE54" s="57"/>
-      <c r="AF54" s="56"/>
-      <c r="AG54" s="57"/>
-      <c r="AH54" s="57"/>
-      <c r="AI54" s="57"/>
-      <c r="AJ54" s="57"/>
-      <c r="AK54" s="58"/>
-      <c r="AL54" s="57"/>
-      <c r="AM54" s="57"/>
-      <c r="AN54" s="57"/>
-      <c r="AO54" s="57"/>
-      <c r="AP54" s="57"/>
-      <c r="AQ54" s="57"/>
-      <c r="AR54" s="56"/>
-      <c r="AS54" s="57"/>
-      <c r="AT54" s="57"/>
-      <c r="AU54" s="57"/>
-      <c r="AV54" s="57"/>
-      <c r="AW54" s="58"/>
-      <c r="AX54" s="56"/>
-      <c r="AY54" s="57"/>
-      <c r="AZ54" s="57"/>
-      <c r="BA54" s="57"/>
-      <c r="BB54" s="57"/>
-      <c r="BC54" s="58"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="82"/>
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+      <c r="L54" s="82"/>
+      <c r="M54" s="83"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="82"/>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="82"/>
+      <c r="S54" s="82"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="82"/>
+      <c r="V54" s="82"/>
+      <c r="W54" s="82"/>
+      <c r="X54" s="82"/>
+      <c r="Y54" s="83"/>
+      <c r="Z54" s="82"/>
+      <c r="AA54" s="82"/>
+      <c r="AB54" s="82"/>
+      <c r="AC54" s="82"/>
+      <c r="AD54" s="82"/>
+      <c r="AE54" s="82"/>
+      <c r="AF54" s="81"/>
+      <c r="AG54" s="82"/>
+      <c r="AH54" s="82"/>
+      <c r="AI54" s="82"/>
+      <c r="AJ54" s="82"/>
+      <c r="AK54" s="83"/>
+      <c r="AL54" s="82"/>
+      <c r="AM54" s="82"/>
+      <c r="AN54" s="82"/>
+      <c r="AO54" s="82"/>
+      <c r="AP54" s="82"/>
+      <c r="AQ54" s="82"/>
+      <c r="AR54" s="81"/>
+      <c r="AS54" s="82"/>
+      <c r="AT54" s="82"/>
+      <c r="AU54" s="82"/>
+      <c r="AV54" s="82"/>
+      <c r="AW54" s="83"/>
+      <c r="AX54" s="81"/>
+      <c r="AY54" s="82"/>
+      <c r="AZ54" s="82"/>
+      <c r="BA54" s="82"/>
+      <c r="BB54" s="82"/>
+      <c r="BC54" s="83"/>
     </row>
     <row r="55" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="61"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="60"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="60"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="60"/>
-      <c r="T55" s="59"/>
-      <c r="U55" s="60"/>
-      <c r="V55" s="60"/>
-      <c r="W55" s="60"/>
-      <c r="X55" s="60"/>
-      <c r="Y55" s="61"/>
-      <c r="Z55" s="60"/>
-      <c r="AA55" s="60"/>
-      <c r="AB55" s="60"/>
-      <c r="AC55" s="60"/>
-      <c r="AD55" s="60"/>
-      <c r="AE55" s="60"/>
-      <c r="AF55" s="59"/>
-      <c r="AG55" s="60"/>
-      <c r="AH55" s="60"/>
-      <c r="AI55" s="60"/>
-      <c r="AJ55" s="60"/>
-      <c r="AK55" s="61"/>
-      <c r="AL55" s="60"/>
-      <c r="AM55" s="60"/>
-      <c r="AN55" s="60"/>
-      <c r="AO55" s="60"/>
-      <c r="AP55" s="60"/>
-      <c r="AQ55" s="60"/>
-      <c r="AR55" s="59"/>
-      <c r="AS55" s="60"/>
-      <c r="AT55" s="60"/>
-      <c r="AU55" s="60"/>
-      <c r="AV55" s="60"/>
-      <c r="AW55" s="61"/>
-      <c r="AX55" s="59"/>
-      <c r="AY55" s="60"/>
-      <c r="AZ55" s="60"/>
-      <c r="BA55" s="60"/>
-      <c r="BB55" s="60"/>
-      <c r="BC55" s="61"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="85"/>
+      <c r="O55" s="85"/>
+      <c r="P55" s="85"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
+      <c r="S55" s="85"/>
+      <c r="T55" s="84"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="86"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="85"/>
+      <c r="AD55" s="85"/>
+      <c r="AE55" s="85"/>
+      <c r="AF55" s="84"/>
+      <c r="AG55" s="85"/>
+      <c r="AH55" s="85"/>
+      <c r="AI55" s="85"/>
+      <c r="AJ55" s="85"/>
+      <c r="AK55" s="86"/>
+      <c r="AL55" s="85"/>
+      <c r="AM55" s="85"/>
+      <c r="AN55" s="85"/>
+      <c r="AO55" s="85"/>
+      <c r="AP55" s="85"/>
+      <c r="AQ55" s="85"/>
+      <c r="AR55" s="84"/>
+      <c r="AS55" s="85"/>
+      <c r="AT55" s="85"/>
+      <c r="AU55" s="85"/>
+      <c r="AV55" s="85"/>
+      <c r="AW55" s="86"/>
+      <c r="AX55" s="84"/>
+      <c r="AY55" s="85"/>
+      <c r="AZ55" s="85"/>
+      <c r="BA55" s="85"/>
+      <c r="BB55" s="85"/>
+      <c r="BC55" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="B49:G55"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AL1:BC1"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AK4"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AL8:AQ8"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AR8:AW8"/>
+    <mergeCell ref="AL4:AQ4"/>
+    <mergeCell ref="AR4:AW4"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="AX4:BC4"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BC27"/>
+    <mergeCell ref="AX28:BC28"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B16:BC16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
+    <mergeCell ref="B9:F15"/>
+    <mergeCell ref="H9:M15"/>
+    <mergeCell ref="N9:S15"/>
+    <mergeCell ref="T9:Y15"/>
+    <mergeCell ref="Z9:AE15"/>
+    <mergeCell ref="AF9:AK15"/>
+    <mergeCell ref="AL9:AQ15"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AR9:AW15"/>
+    <mergeCell ref="AX9:BC15"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AF45:AK45"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="AL44:AQ44"/>
+    <mergeCell ref="AR44:AW44"/>
+    <mergeCell ref="AR49:AW55"/>
+    <mergeCell ref="AX49:BC55"/>
+    <mergeCell ref="B40:BC40"/>
+    <mergeCell ref="AX39:BC39"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="AX36:BC36"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AL48:AQ48"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="N49:S55"/>
+    <mergeCell ref="T49:Y55"/>
+    <mergeCell ref="Z49:AE55"/>
+    <mergeCell ref="AF49:AK55"/>
+    <mergeCell ref="AL49:AQ55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="AZ43:BC43"/>
     <mergeCell ref="K23:O23"/>
     <mergeCell ref="D29:F29"/>
@@ -15124,117 +15766,6 @@
     <mergeCell ref="T42:Y42"/>
     <mergeCell ref="Z42:AE42"/>
     <mergeCell ref="AF42:AK42"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AR49:AW55"/>
-    <mergeCell ref="AX49:BC55"/>
-    <mergeCell ref="B40:BC40"/>
-    <mergeCell ref="AX39:BC39"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="AX36:BC36"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AL48:AQ48"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:M55"/>
-    <mergeCell ref="N49:S55"/>
-    <mergeCell ref="T49:Y55"/>
-    <mergeCell ref="Z49:AE55"/>
-    <mergeCell ref="AF49:AK55"/>
-    <mergeCell ref="AL49:AQ55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AF45:AK45"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="AL44:AQ44"/>
-    <mergeCell ref="AR44:AW44"/>
-    <mergeCell ref="B9:F15"/>
-    <mergeCell ref="H9:M15"/>
-    <mergeCell ref="N9:S15"/>
-    <mergeCell ref="T9:Y15"/>
-    <mergeCell ref="Z9:AE15"/>
-    <mergeCell ref="AF9:AK15"/>
-    <mergeCell ref="AL9:AQ15"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AR9:AW15"/>
-    <mergeCell ref="AX9:BC15"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BC27"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B16:BC16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B49:G55"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AL1:BC1"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AK4"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AL8:AQ8"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AR8:AW8"/>
-    <mergeCell ref="AL4:AQ4"/>
-    <mergeCell ref="AR4:AW4"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="AX4:BC4"/>
   </mergeCells>
   <conditionalFormatting sqref="BG3 BG10">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="CREW">
@@ -15269,43 +15800,43 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:33">
       <c r="B5" s="53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="54" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>21</v>
@@ -15317,7 +15848,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -15338,19 +15869,19 @@
         <v>33</v>
       </c>
       <c r="S5" s="53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T5" s="54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V5" s="54" t="s">
         <v>17</v>
       </c>
       <c r="W5" s="54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X5" s="54" t="s">
         <v>21</v>
@@ -15362,7 +15893,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -19539,7 +20070,7 @@
       </c>
       <c r="AG44" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S44,TblCardDesign[ID],0),17)</f>
-        <v>Target Owned Ship: Increase Ships Damage per gun by 200</v>
+        <v>Attach to ship: Increase Ships Damage per gun by 200</v>
       </c>
     </row>
     <row r="45" spans="2:33" ht="30.75">
@@ -19600,7 +20131,7 @@
       </c>
       <c r="AG45" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S45,TblCardDesign[ID],0),17)</f>
-        <v>Target Owned Ship: Increase Ships Damage per gun by 200</v>
+        <v>Attach to ship: Increase Ships Damage per gun by 200</v>
       </c>
     </row>
   </sheetData>
@@ -19627,43 +20158,43 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="E2" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="2:33">
       <c r="B5" s="53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="54" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>21</v>
@@ -19675,7 +20206,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -19696,19 +20227,19 @@
         <v>33</v>
       </c>
       <c r="S5" s="53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T5" s="54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U5" s="54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V5" s="54" t="s">
         <v>17</v>
       </c>
       <c r="W5" s="54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X5" s="54" t="s">
         <v>21</v>
@@ -19720,7 +20251,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>29</v>
+        <v>387</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD11928A-F19C-4FE8-9B4F-E261EFF49CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{340AC92B-110E-4EB4-B542-2A6DF53B26CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Table Counts" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1801" r:id="rId11"/>
+    <pivotCache cacheId="437" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -202,7 +202,7 @@
     <t>Tap: Research + 3 and discard top card of deck</t>
   </si>
   <si>
-    <t>handling Office</t>
+    <t>Handling Office</t>
   </si>
   <si>
     <t>Tap: Ship Handling + 1
@@ -255,7 +255,8 @@
     <t>Experimental Doctor</t>
   </si>
   <si>
-    <t>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</t>
+    <t>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</t>
   </si>
   <si>
     <t>Tap: Engineering + 1</t>
@@ -1294,7 +1295,7 @@
     <t>CC Droid</t>
   </si>
   <si>
-    <t>When CC Droid is assigned/moves to a ship it becomes a copy of a chosen non Robot crew member on that ship, as well copying all crew attachments and abilities that crew member has. Removing any previously copyed attachments and abilities.
+    <t>When CC Droid is assigned/moves to a ship it becomes a copy of a chosen non Robot crew member on that ship, as well copying all crew attachments and abilities that crew member has. Removing any previously copied attachments and abilities.
 If there are no other non Robot crew members left on the ship then send CC Droid to Stasis.</t>
   </si>
   <si>
@@ -2225,61 +2226,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2287,12 +2249,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2312,6 +2268,126 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2319,12 +2395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2345,24 +2415,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2370,57 +2422,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6664,7 +6665,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="1801" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="437" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6830,7 +6831,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1801" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="437" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -6924,7 +6925,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TblCardDesign" displayName="TblCardDesign" ref="A5:S248" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A5:S248" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A5:S248" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="STRATEGY"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Deck"/>
@@ -8333,7 +8340,8 @@
       </c>
       <c r="P10" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B10,TblCardDesign[ID],0),17)</f>
-        <v>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</v>
+        <v>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</v>
       </c>
       <c r="S10">
         <v>21</v>
@@ -8453,7 +8461,8 @@
       </c>
       <c r="P11" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B11,TblCardDesign[ID],0),17)</f>
-        <v>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</v>
+        <v>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</v>
       </c>
       <c r="S11">
         <v>21</v>
@@ -8573,7 +8582,8 @@
       </c>
       <c r="P12" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B12,TblCardDesign[ID],0),17)</f>
-        <v>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</v>
+        <v>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</v>
       </c>
       <c r="S12">
         <v>21</v>
@@ -8693,7 +8703,8 @@
       </c>
       <c r="P13" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B13,TblCardDesign[ID],0),17)</f>
-        <v>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</v>
+        <v>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</v>
       </c>
       <c r="S13">
         <v>37</v>
@@ -12026,9 +12037,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S248"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M164" sqref="M164"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -12194,7 +12205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" hidden="1">
       <c r="A6">
         <v>1</v>
       </c>
@@ -12227,7 +12238,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="30">
+    <row r="7" spans="1:19" ht="30.75" hidden="1">
       <c r="A7">
         <v>2</v>
       </c>
@@ -12260,7 +12271,7 @@
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="30">
+    <row r="8" spans="1:19" ht="30.75" hidden="1">
       <c r="A8">
         <v>3</v>
       </c>
@@ -12293,7 +12304,7 @@
       </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="30.75" hidden="1">
       <c r="A9">
         <v>4</v>
       </c>
@@ -12326,7 +12337,7 @@
       </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="45.75">
+    <row r="10" spans="1:19" ht="45.75" hidden="1">
       <c r="A10">
         <v>5</v>
       </c>
@@ -12359,7 +12370,7 @@
       </c>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:19" ht="60.75">
+    <row r="11" spans="1:19" ht="60.75" hidden="1">
       <c r="A11">
         <v>6</v>
       </c>
@@ -12392,7 +12403,7 @@
       </c>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:19" ht="60.75">
+    <row r="12" spans="1:19" ht="60.75" hidden="1">
       <c r="A12">
         <v>7</v>
       </c>
@@ -12425,7 +12436,7 @@
       </c>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="91.5">
+    <row r="13" spans="1:19" ht="91.5" hidden="1">
       <c r="A13">
         <v>8</v>
       </c>
@@ -12458,7 +12469,7 @@
       </c>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" hidden="1">
       <c r="A14">
         <v>9</v>
       </c>
@@ -12491,7 +12502,7 @@
       </c>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="30.75" hidden="1">
       <c r="A15">
         <v>10</v>
       </c>
@@ -12524,7 +12535,7 @@
       </c>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="30.75" hidden="1">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12557,7 +12568,7 @@
       </c>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="45">
+    <row r="17" spans="1:18" ht="45.75" hidden="1">
       <c r="A17">
         <v>12</v>
       </c>
@@ -12590,7 +12601,7 @@
       </c>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18">
         <v>13</v>
       </c>
@@ -12623,7 +12634,7 @@
       </c>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="30">
+    <row r="19" spans="1:18" ht="30.75" hidden="1">
       <c r="A19">
         <v>14</v>
       </c>
@@ -12656,7 +12667,7 @@
       </c>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" ht="30">
+    <row r="20" spans="1:18" ht="30.75" hidden="1">
       <c r="A20">
         <v>15</v>
       </c>
@@ -12689,7 +12700,7 @@
       </c>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" ht="75">
+    <row r="21" spans="1:18" ht="60.75" hidden="1">
       <c r="A21">
         <v>16</v>
       </c>
@@ -12722,7 +12733,7 @@
       </c>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" hidden="1">
       <c r="A22">
         <v>17</v>
       </c>
@@ -12755,7 +12766,7 @@
       </c>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="30">
+    <row r="23" spans="1:18" ht="30.75" hidden="1">
       <c r="A23">
         <v>18</v>
       </c>
@@ -12788,7 +12799,7 @@
       </c>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="30">
+    <row r="24" spans="1:18" ht="30.75" hidden="1">
       <c r="A24">
         <v>19</v>
       </c>
@@ -12821,7 +12832,7 @@
       </c>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" ht="45.75">
+    <row r="25" spans="1:18" ht="45.75" hidden="1">
       <c r="A25">
         <v>20</v>
       </c>
@@ -12854,7 +12865,7 @@
       </c>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" ht="60">
+    <row r="26" spans="1:18" ht="60.75">
       <c r="A26">
         <v>21</v>
       </c>
@@ -13305,7 +13316,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="105">
+    <row r="43" spans="1:18" ht="76.5" hidden="1">
       <c r="A43">
         <v>38</v>
       </c>
@@ -13340,7 +13351,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="75">
+    <row r="44" spans="1:18" ht="60.75" hidden="1">
       <c r="A44">
         <v>39</v>
       </c>
@@ -13375,7 +13386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="45">
+    <row r="45" spans="1:18" ht="30.75" hidden="1">
       <c r="A45">
         <v>40</v>
       </c>
@@ -13624,7 +13635,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="90">
+    <row r="54" spans="1:17" ht="76.5" hidden="1">
       <c r="A54">
         <v>49</v>
       </c>
@@ -13783,7 +13794,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="60">
+    <row r="60" spans="1:17" ht="45.75" hidden="1">
       <c r="A60">
         <v>55</v>
       </c>
@@ -13815,7 +13826,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="60">
+    <row r="61" spans="1:17" ht="45.75" hidden="1">
       <c r="A61">
         <v>56</v>
       </c>
@@ -13847,7 +13858,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="60">
+    <row r="62" spans="1:17" ht="45.75" hidden="1">
       <c r="A62">
         <v>57</v>
       </c>
@@ -13879,7 +13890,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="60">
+    <row r="63" spans="1:17" ht="45.75" hidden="1">
       <c r="A63">
         <v>58</v>
       </c>
@@ -13911,7 +13922,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="60">
+    <row r="64" spans="1:17" ht="45.75" hidden="1">
       <c r="A64">
         <v>59</v>
       </c>
@@ -13943,7 +13954,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="90">
+    <row r="65" spans="1:17" ht="60.75" hidden="1">
       <c r="A65">
         <v>60</v>
       </c>
@@ -13975,7 +13986,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="75">
+    <row r="66" spans="1:17" ht="60.75" hidden="1">
       <c r="A66">
         <v>61</v>
       </c>
@@ -14007,7 +14018,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="75">
+    <row r="67" spans="1:17" ht="60.75" hidden="1">
       <c r="A67">
         <v>62</v>
       </c>
@@ -14039,7 +14050,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="75">
+    <row r="68" spans="1:17" ht="60.75" hidden="1">
       <c r="A68">
         <v>63</v>
       </c>
@@ -14071,7 +14082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="75">
+    <row r="69" spans="1:17" ht="60.75" hidden="1">
       <c r="A69">
         <v>64</v>
       </c>
@@ -14103,7 +14114,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="90">
+    <row r="70" spans="1:17" ht="60.75" hidden="1">
       <c r="A70">
         <v>65</v>
       </c>
@@ -14135,7 +14146,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="75">
+    <row r="71" spans="1:17" ht="60.75" hidden="1">
       <c r="A71">
         <v>66</v>
       </c>
@@ -14167,7 +14178,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="75">
+    <row r="72" spans="1:17" ht="60.75" hidden="1">
       <c r="A72">
         <v>67</v>
       </c>
@@ -14199,7 +14210,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="75">
+    <row r="73" spans="1:17" ht="60.75" hidden="1">
       <c r="A73">
         <v>68</v>
       </c>
@@ -14231,7 +14242,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="75">
+    <row r="74" spans="1:17" ht="60.75" hidden="1">
       <c r="A74">
         <v>69</v>
       </c>
@@ -14263,7 +14274,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="30">
+    <row r="75" spans="1:17" ht="30.75" hidden="1">
       <c r="A75">
         <v>70</v>
       </c>
@@ -14307,7 +14318,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="75">
+    <row r="76" spans="1:17" ht="60.75" hidden="1">
       <c r="A76">
         <v>71</v>
       </c>
@@ -14507,7 +14518,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="90">
+    <row r="83" spans="1:18" ht="76.5" hidden="1">
       <c r="A83">
         <v>78</v>
       </c>
@@ -14542,7 +14553,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="75">
+    <row r="84" spans="1:18" ht="76.5" hidden="1">
       <c r="A84">
         <v>79</v>
       </c>
@@ -14577,7 +14588,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="75">
+    <row r="85" spans="1:18" ht="60.75" hidden="1">
       <c r="A85">
         <v>80</v>
       </c>
@@ -14612,7 +14623,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="60.75">
+    <row r="86" spans="1:18" ht="60.75" hidden="1">
       <c r="A86">
         <v>81</v>
       </c>
@@ -14644,7 +14655,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="105">
+    <row r="87" spans="1:18" ht="76.5" hidden="1">
       <c r="A87">
         <v>82</v>
       </c>
@@ -14679,7 +14690,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="105">
+    <row r="88" spans="1:18" ht="106.5" hidden="1">
       <c r="A88">
         <v>83</v>
       </c>
@@ -14851,7 +14862,7 @@
       </c>
       <c r="R93" s="2"/>
     </row>
-    <row r="94" spans="1:18" ht="90">
+    <row r="94" spans="1:18" ht="76.5" hidden="1">
       <c r="A94">
         <v>89</v>
       </c>
@@ -14892,7 +14903,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="30">
+    <row r="95" spans="1:18" ht="30.75" hidden="1">
       <c r="A95">
         <v>90</v>
       </c>
@@ -14924,7 +14935,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="45">
+    <row r="96" spans="1:18" ht="30.75" hidden="1">
       <c r="A96">
         <v>91</v>
       </c>
@@ -14956,7 +14967,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="60">
+    <row r="97" spans="1:18" ht="45.75" hidden="1">
       <c r="A97">
         <v>92</v>
       </c>
@@ -14988,7 +14999,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="30">
+    <row r="98" spans="1:18" ht="30.75" hidden="1">
       <c r="A98">
         <v>93</v>
       </c>
@@ -15190,7 +15201,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="60">
+    <row r="106" spans="1:18" ht="60.75" hidden="1">
       <c r="A106">
         <v>101</v>
       </c>
@@ -15795,7 +15806,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="60">
+    <row r="128" spans="1:18" ht="45.75" hidden="1">
       <c r="A128">
         <v>123</v>
       </c>
@@ -16039,7 +16050,7 @@
       </c>
       <c r="R135" s="2"/>
     </row>
-    <row r="136" spans="1:18" ht="30">
+    <row r="136" spans="1:18" ht="30.75" hidden="1">
       <c r="A136">
         <v>131</v>
       </c>
@@ -16074,7 +16085,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="60">
+    <row r="137" spans="1:18" ht="45.75" hidden="1">
       <c r="A137">
         <v>132</v>
       </c>
@@ -16109,7 +16120,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="60">
+    <row r="138" spans="1:18" ht="45.75" hidden="1">
       <c r="A138">
         <v>133</v>
       </c>
@@ -16142,7 +16153,7 @@
       </c>
       <c r="R138" s="2"/>
     </row>
-    <row r="139" spans="1:18" ht="90">
+    <row r="139" spans="1:18" ht="60.75" hidden="1">
       <c r="A139">
         <v>134</v>
       </c>
@@ -16175,7 +16186,7 @@
       </c>
       <c r="R139" s="2"/>
     </row>
-    <row r="140" spans="1:18" ht="60">
+    <row r="140" spans="1:18" ht="45.75" hidden="1">
       <c r="A140">
         <v>135</v>
       </c>
@@ -16208,7 +16219,7 @@
       </c>
       <c r="R140" s="2"/>
     </row>
-    <row r="141" spans="1:18" ht="90">
+    <row r="141" spans="1:18" ht="60.75" hidden="1">
       <c r="A141">
         <v>136</v>
       </c>
@@ -16564,7 +16575,7 @@
       </c>
       <c r="R154" s="2"/>
     </row>
-    <row r="155" spans="1:18" ht="60">
+    <row r="155" spans="1:18" ht="60.75" hidden="1">
       <c r="A155">
         <v>150</v>
       </c>
@@ -16599,7 +16610,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="45">
+    <row r="156" spans="1:18" ht="45.75" hidden="1">
       <c r="A156">
         <v>151</v>
       </c>
@@ -16632,7 +16643,7 @@
       </c>
       <c r="R156" s="2"/>
     </row>
-    <row r="157" spans="1:18" ht="45">
+    <row r="157" spans="1:18" ht="45.75" hidden="1">
       <c r="A157">
         <v>152</v>
       </c>
@@ -16809,7 +16820,7 @@
       </c>
       <c r="R163" s="2"/>
     </row>
-    <row r="164" spans="1:18" ht="180">
+    <row r="164" spans="1:18" ht="167.25" hidden="1">
       <c r="A164">
         <v>159</v>
       </c>
@@ -16893,7 +16904,7 @@
       </c>
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="1:18" ht="45.75">
+    <row r="167" spans="1:18" ht="45.75" hidden="1">
       <c r="A167">
         <v>162</v>
       </c>
@@ -17033,7 +17044,7 @@
       </c>
       <c r="R171" s="2"/>
     </row>
-    <row r="172" spans="1:18" ht="45.75">
+    <row r="172" spans="1:18" ht="45.75" hidden="1">
       <c r="A172">
         <v>167</v>
       </c>
@@ -17043,7 +17054,7 @@
       <c r="C172" t="s">
         <v>396</v>
       </c>
-      <c r="G172">
+      <c r="F172">
         <v>1</v>
       </c>
       <c r="J172">
@@ -17095,7 +17106,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="137.25">
+    <row r="174" spans="1:18" ht="137.25" hidden="1">
       <c r="A174">
         <v>169</v>
       </c>
@@ -17206,287 +17217,287 @@
       </c>
       <c r="R177" s="2"/>
     </row>
-    <row r="178" spans="1:18">
+    <row r="178" spans="1:18" hidden="1">
       <c r="Q178" s="2"/>
       <c r="R178" s="2"/>
     </row>
-    <row r="179" spans="1:18">
+    <row r="179" spans="1:18" hidden="1">
       <c r="Q179" s="2"/>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:18">
+    <row r="180" spans="1:18" hidden="1">
       <c r="Q180" s="2"/>
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="1:18">
+    <row r="181" spans="1:18" hidden="1">
       <c r="Q181" s="2"/>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:18">
+    <row r="182" spans="1:18" hidden="1">
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:18">
+    <row r="183" spans="1:18" hidden="1">
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="1:18">
+    <row r="184" spans="1:18" hidden="1">
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="1:18">
+    <row r="185" spans="1:18" hidden="1">
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="1:18">
+    <row r="186" spans="1:18" hidden="1">
       <c r="Q186" s="2"/>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="1:18">
+    <row r="187" spans="1:18" hidden="1">
       <c r="Q187" s="2"/>
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="1:18">
+    <row r="188" spans="1:18" hidden="1">
       <c r="Q188" s="2"/>
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:18" hidden="1">
       <c r="Q189" s="2"/>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:18" hidden="1">
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="1:18">
+    <row r="191" spans="1:18" hidden="1">
       <c r="Q191" s="2"/>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="1:18">
+    <row r="192" spans="1:18" hidden="1">
       <c r="Q192" s="2"/>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="17:18">
+    <row r="193" spans="17:18" hidden="1">
       <c r="Q193" s="2"/>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="17:18">
+    <row r="194" spans="17:18" hidden="1">
       <c r="Q194" s="2"/>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="17:18">
+    <row r="195" spans="17:18" hidden="1">
       <c r="Q195" s="2"/>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="17:18">
+    <row r="196" spans="17:18" hidden="1">
       <c r="Q196" s="2"/>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="17:18">
+    <row r="197" spans="17:18" hidden="1">
       <c r="Q197" s="2"/>
       <c r="R197" s="2"/>
     </row>
-    <row r="198" spans="17:18">
+    <row r="198" spans="17:18" hidden="1">
       <c r="Q198" s="2"/>
       <c r="R198" s="2"/>
     </row>
-    <row r="199" spans="17:18">
+    <row r="199" spans="17:18" hidden="1">
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="17:18">
+    <row r="200" spans="17:18" hidden="1">
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="17:18">
+    <row r="201" spans="17:18" hidden="1">
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="17:18">
+    <row r="202" spans="17:18" hidden="1">
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="17:18">
+    <row r="203" spans="17:18" hidden="1">
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="17:18">
+    <row r="204" spans="17:18" hidden="1">
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="17:18">
+    <row r="205" spans="17:18" hidden="1">
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="17:18">
+    <row r="206" spans="17:18" hidden="1">
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="17:18">
+    <row r="207" spans="17:18" hidden="1">
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="17:18">
+    <row r="208" spans="17:18" hidden="1">
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
     </row>
-    <row r="209" spans="17:18">
+    <row r="209" spans="17:18" hidden="1">
       <c r="Q209" s="2"/>
       <c r="R209" s="2"/>
     </row>
-    <row r="210" spans="17:18">
+    <row r="210" spans="17:18" hidden="1">
       <c r="Q210" s="2"/>
       <c r="R210" s="2"/>
     </row>
-    <row r="211" spans="17:18">
+    <row r="211" spans="17:18" hidden="1">
       <c r="Q211" s="2"/>
       <c r="R211" s="2"/>
     </row>
-    <row r="212" spans="17:18">
+    <row r="212" spans="17:18" hidden="1">
       <c r="Q212" s="2"/>
       <c r="R212" s="2"/>
     </row>
-    <row r="213" spans="17:18">
+    <row r="213" spans="17:18" hidden="1">
       <c r="Q213" s="2"/>
       <c r="R213" s="2"/>
     </row>
-    <row r="214" spans="17:18">
+    <row r="214" spans="17:18" hidden="1">
       <c r="Q214" s="2"/>
       <c r="R214" s="2"/>
     </row>
-    <row r="215" spans="17:18">
+    <row r="215" spans="17:18" hidden="1">
       <c r="Q215" s="2"/>
       <c r="R215" s="2"/>
     </row>
-    <row r="216" spans="17:18">
+    <row r="216" spans="17:18" hidden="1">
       <c r="Q216" s="2"/>
       <c r="R216" s="2"/>
     </row>
-    <row r="217" spans="17:18">
+    <row r="217" spans="17:18" hidden="1">
       <c r="Q217" s="2"/>
       <c r="R217" s="2"/>
     </row>
-    <row r="218" spans="17:18">
+    <row r="218" spans="17:18" hidden="1">
       <c r="Q218" s="2"/>
       <c r="R218" s="2"/>
     </row>
-    <row r="219" spans="17:18">
+    <row r="219" spans="17:18" hidden="1">
       <c r="Q219" s="2"/>
       <c r="R219" s="2"/>
     </row>
-    <row r="220" spans="17:18">
+    <row r="220" spans="17:18" hidden="1">
       <c r="Q220" s="2"/>
       <c r="R220" s="2"/>
     </row>
-    <row r="221" spans="17:18">
+    <row r="221" spans="17:18" hidden="1">
       <c r="Q221" s="2"/>
       <c r="R221" s="2"/>
     </row>
-    <row r="222" spans="17:18">
+    <row r="222" spans="17:18" hidden="1">
       <c r="Q222" s="2"/>
       <c r="R222" s="2"/>
     </row>
-    <row r="223" spans="17:18">
+    <row r="223" spans="17:18" hidden="1">
       <c r="Q223" s="2"/>
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="17:18">
+    <row r="224" spans="17:18" hidden="1">
       <c r="Q224" s="2"/>
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="17:18">
+    <row r="225" spans="17:18" hidden="1">
       <c r="Q225" s="2"/>
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="17:18">
+    <row r="226" spans="17:18" hidden="1">
       <c r="Q226" s="2"/>
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="17:18">
+    <row r="227" spans="17:18" hidden="1">
       <c r="Q227" s="2"/>
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="17:18">
+    <row r="228" spans="17:18" hidden="1">
       <c r="Q228" s="2"/>
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="17:18">
+    <row r="229" spans="17:18" hidden="1">
       <c r="Q229" s="2"/>
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="17:18">
+    <row r="230" spans="17:18" hidden="1">
       <c r="Q230" s="2"/>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="17:18">
+    <row r="231" spans="17:18" hidden="1">
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="17:18">
+    <row r="232" spans="17:18" hidden="1">
       <c r="Q232" s="2"/>
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="17:18">
+    <row r="233" spans="17:18" hidden="1">
       <c r="Q233" s="2"/>
       <c r="R233" s="2"/>
     </row>
-    <row r="234" spans="17:18">
+    <row r="234" spans="17:18" hidden="1">
       <c r="Q234" s="2"/>
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="17:18">
+    <row r="235" spans="17:18" hidden="1">
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
     </row>
-    <row r="236" spans="17:18">
+    <row r="236" spans="17:18" hidden="1">
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
     </row>
-    <row r="237" spans="17:18">
+    <row r="237" spans="17:18" hidden="1">
       <c r="Q237" s="2"/>
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="17:18">
+    <row r="238" spans="17:18" hidden="1">
       <c r="Q238" s="2"/>
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="17:18">
+    <row r="239" spans="17:18" hidden="1">
       <c r="Q239" s="2"/>
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="17:18">
+    <row r="240" spans="17:18" hidden="1">
       <c r="Q240" s="2"/>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="17:18">
+    <row r="241" spans="17:18" hidden="1">
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="17:18">
+    <row r="242" spans="17:18" hidden="1">
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="17:18">
+    <row r="243" spans="17:18" hidden="1">
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="17:18">
+    <row r="244" spans="17:18" hidden="1">
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="17:18">
+    <row r="245" spans="17:18" hidden="1">
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="17:18">
+    <row r="246" spans="17:18" hidden="1">
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="17:18">
+    <row r="247" spans="17:18" hidden="1">
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
     </row>
-    <row r="248" spans="17:18">
+    <row r="248" spans="17:18" hidden="1">
       <c r="Q248" s="2"/>
       <c r="R248" s="2"/>
     </row>
@@ -17521,142 +17532,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="64" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="66"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="80"/>
     </row>
     <row r="2" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="71" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="71" t="s">
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="74" t="s">
         <v>414</v>
       </c>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="72" t="s">
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
         <v>415</v>
       </c>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="70" t="s">
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="73" t="s">
         <v>416</v>
       </c>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="72" t="s">
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="71" t="s">
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="122"/>
-      <c r="BE2" s="120" t="s">
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="77"/>
+      <c r="BE2" s="81" t="s">
         <v>419</v>
       </c>
-      <c r="BF2" s="121"/>
+      <c r="BF2" s="82"/>
       <c r="BG2" s="23" t="s">
         <v>420</v>
       </c>
@@ -17668,12 +17679,12 @@
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="67" t="str">
+      <c r="D3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="10"/>
       <c r="H3" s="32" t="s">
         <v>421</v>
@@ -17681,204 +17692,204 @@
       <c r="I3" s="33">
         <v>21</v>
       </c>
-      <c r="J3" s="90" t="str">
+      <c r="J3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="10" t="s">
         <v>421</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="67" t="str">
+      <c r="P3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
       <c r="T3" s="32" t="s">
         <v>421</v>
       </c>
       <c r="U3" s="33">
         <v>56</v>
       </c>
-      <c r="V3" s="90" t="str">
+      <c r="V3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="91"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="59"/>
       <c r="Z3" s="10" t="s">
         <v>421</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="67" t="str">
+      <c r="AB3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
       <c r="AF3" s="32" t="s">
         <v>421</v>
       </c>
       <c r="AG3" s="33">
         <v>62</v>
       </c>
-      <c r="AH3" s="90" t="str">
+      <c r="AH3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="91"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="59"/>
       <c r="AL3" s="10" t="s">
         <v>421</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="67" t="str">
+      <c r="AN3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
       <c r="AR3" s="32" t="s">
         <v>421</v>
       </c>
       <c r="AS3" s="33">
         <v>11</v>
       </c>
-      <c r="AT3" s="90" t="str">
+      <c r="AT3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="91"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="59"/>
       <c r="AX3" s="32" t="s">
         <v>421</v>
       </c>
       <c r="AY3" s="33">
         <v>4</v>
       </c>
-      <c r="AZ3" s="90" t="str">
+      <c r="AZ3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BC3" s="91"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="59"/>
       <c r="BE3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>144</v>
+        <v>62</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
-        <v>STRATEGY</v>
+        <v>CREW</v>
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="68" t="str">
+      <c r="B4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="67" t="str">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68" t="str">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="67" t="str">
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="68" t="str">
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="67" t="str">
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="68" t="str">
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="68" t="str">
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="69"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="108"/>
       <c r="BE4" s="20" t="s">
         <v>409</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
@@ -17886,87 +17897,87 @@
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="107" t="str">
+      <c r="B5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="107" t="str">
+      <c r="H5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="108" t="str">
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="107" t="str">
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="108" t="str">
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="107" t="str">
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="108" t="str">
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="108"/>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="108"/>
-      <c r="AR5" s="107" t="str">
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="108"/>
-      <c r="AT5" s="108"/>
-      <c r="AU5" s="108"/>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="109"/>
-      <c r="AX5" s="107" t="str">
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="108"/>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="108"/>
-      <c r="BB5" s="108"/>
-      <c r="BC5" s="109"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="111"/>
       <c r="BE5" t="s">
         <v>422</v>
       </c>
@@ -18358,226 +18369,226 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="67" t="s">
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="68" t="s">
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="67" t="s">
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="68" t="s">
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="67" t="s">
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="74" t="s">
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="104" t="s">
         <v>429</v>
       </c>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="75"/>
-      <c r="AW8" s="76"/>
-      <c r="AX8" s="68" t="s">
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="69"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="108"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="58" t="str">
+      <c r="B9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="58" t="str">
+      <c r="H9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="59" t="str">
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Tap: Medic + 3
 Tap: Repair ship by 100</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="58" t="str">
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="59" t="str">
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="58" t="str">
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="59" t="str">
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="58" t="str">
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="59"/>
-      <c r="AV9" s="59"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="58" t="str">
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Tap: Research + 3 and discard top card of deck</v>
       </c>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="59"/>
-      <c r="BA9" s="59"/>
-      <c r="BB9" s="59"/>
-      <c r="BC9" s="60"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="85"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="59"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="58"/>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="59"/>
-      <c r="BA10" s="59"/>
-      <c r="BB10" s="59"/>
-      <c r="BC10" s="60"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="85"/>
       <c r="BE10" s="50" t="s">
         <v>430</v>
       </c>
@@ -18590,351 +18601,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="59"/>
-      <c r="AV11" s="59"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="59"/>
-      <c r="AZ11" s="59"/>
-      <c r="BA11" s="59"/>
-      <c r="BB11" s="59"/>
-      <c r="BC11" s="60"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="85"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="60"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="85"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="85"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="85"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="60"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="84"/>
+      <c r="AZ13" s="84"/>
+      <c r="BA13" s="84"/>
+      <c r="BB13" s="84"/>
+      <c r="BC13" s="85"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="59"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="60"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="84"/>
+      <c r="BB14" s="84"/>
+      <c r="BC14" s="85"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="61"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="63"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="88"/>
+      <c r="AX15" s="86"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="87"/>
+      <c r="BA15" s="87"/>
+      <c r="BB15" s="87"/>
+      <c r="BC15" s="88"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="115" t="s">
         <v>431</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="94"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="116"/>
+      <c r="AP16" s="116"/>
+      <c r="AQ16" s="116"/>
+      <c r="AR16" s="116"/>
+      <c r="AS16" s="116"/>
+      <c r="AT16" s="116"/>
+      <c r="AU16" s="116"/>
+      <c r="AV16" s="116"/>
+      <c r="AW16" s="116"/>
+      <c r="AX16" s="116"/>
+      <c r="AY16" s="116"/>
+      <c r="AZ16" s="116"/>
+      <c r="BA16" s="116"/>
+      <c r="BB16" s="116"/>
+      <c r="BC16" s="117"/>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="118" t="s">
         <v>432</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -18982,21 +18993,21 @@
         <v>421</v>
       </c>
       <c r="AY17" s="39"/>
-      <c r="AZ17" s="110" t="s">
+      <c r="AZ17" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="BA17" s="110"/>
-      <c r="BB17" s="110"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
       <c r="BC17" s="40"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -19005,24 +19016,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="79" t="e">
+      <c r="AX18" s="62" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="80"/>
-      <c r="AZ18" s="80"/>
-      <c r="BA18" s="80"/>
-      <c r="BB18" s="80"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
       <c r="BC18" s="41"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="98" t="s">
         <v>434</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
       <c r="G19" s="36"/>
       <c r="L19" s="36"/>
       <c r="R19" s="36"/>
@@ -19031,24 +19042,24 @@
       <c r="AJ19" s="36"/>
       <c r="AP19" s="36"/>
       <c r="AV19" s="36"/>
-      <c r="AX19" s="77" t="e">
+      <c r="AX19" s="64" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="78"/>
-      <c r="BA19" s="78"/>
-      <c r="BB19" s="78"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
       <c r="BC19" s="42"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="121" t="s">
         <v>435</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="106"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -19105,67 +19116,67 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="79" t="s">
+      <c r="AX22" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="AY22" s="80"/>
-      <c r="AZ22" s="80"/>
-      <c r="BA22" s="80"/>
-      <c r="BB22" s="80"/>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="63"/>
+      <c r="BB22" s="63"/>
       <c r="BC22" s="41"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="AX23" s="81" t="e">
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="AX23" s="66" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="82"/>
-      <c r="BA23" s="82"/>
-      <c r="BB23" s="82"/>
-      <c r="BC23" s="83"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+      <c r="BB23" s="67"/>
+      <c r="BC23" s="68"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="81"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="82"/>
-      <c r="BA24" s="82"/>
-      <c r="BB24" s="82"/>
-      <c r="BC24" s="83"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="67"/>
+      <c r="BB24" s="67"/>
+      <c r="BC24" s="68"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="81"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="82"/>
-      <c r="BA25" s="82"/>
-      <c r="BB25" s="82"/>
-      <c r="BC25" s="83"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="68"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="81"/>
-      <c r="AY26" s="82"/>
-      <c r="AZ26" s="82"/>
-      <c r="BA26" s="82"/>
-      <c r="BB26" s="82"/>
-      <c r="BC26" s="83"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="67"/>
+      <c r="BB26" s="67"/>
+      <c r="BC26" s="68"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="84"/>
-      <c r="AY27" s="85"/>
-      <c r="AZ27" s="85"/>
-      <c r="BA27" s="85"/>
-      <c r="BB27" s="85"/>
-      <c r="BC27" s="86"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="70"/>
+      <c r="BB27" s="70"/>
+      <c r="BC27" s="71"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="47" t="s">
@@ -19218,49 +19229,49 @@
       <c r="AU28" s="37"/>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
-      <c r="AX28" s="87" t="s">
+      <c r="AX28" s="112" t="s">
         <v>436</v>
       </c>
-      <c r="AY28" s="88"/>
-      <c r="AZ28" s="88"/>
-      <c r="BA28" s="88"/>
-      <c r="BB28" s="88"/>
-      <c r="BC28" s="89"/>
+      <c r="AY28" s="113"/>
+      <c r="AZ28" s="113"/>
+      <c r="BA28" s="113"/>
+      <c r="BB28" s="113"/>
+      <c r="BC28" s="114"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="38" t="s">
         <v>421</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="40"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="79" t="e">
+      <c r="B30" s="62" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="41"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="77" t="e">
+      <c r="B31" s="64" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="42"/>
       <c r="BC31" s="8"/>
     </row>
@@ -19313,83 +19324,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="79" t="s">
+      <c r="B34" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="41"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="81" t="e">
+      <c r="B35" s="66" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="83"/>
-      <c r="AX36" s="117" t="s">
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="AX36" s="101" t="s">
         <v>435</v>
       </c>
-      <c r="AY36" s="118"/>
-      <c r="AZ36" s="118"/>
-      <c r="BA36" s="118"/>
-      <c r="BB36" s="118"/>
-      <c r="BC36" s="119"/>
+      <c r="AY36" s="102"/>
+      <c r="AZ36" s="102"/>
+      <c r="BA36" s="102"/>
+      <c r="BB36" s="102"/>
+      <c r="BC36" s="103"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
-      <c r="AX37" s="101" t="s">
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="AX37" s="98" t="s">
         <v>434</v>
       </c>
-      <c r="AY37" s="102"/>
-      <c r="AZ37" s="102"/>
-      <c r="BA37" s="102"/>
-      <c r="BB37" s="102"/>
-      <c r="BC37" s="103"/>
+      <c r="AY37" s="99"/>
+      <c r="AZ37" s="99"/>
+      <c r="BA37" s="99"/>
+      <c r="BB37" s="99"/>
+      <c r="BC37" s="100"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
-      <c r="AX38" s="98" t="s">
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
+      <c r="AX38" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="AY38" s="99"/>
-      <c r="AZ38" s="99"/>
-      <c r="BA38" s="99"/>
-      <c r="BB38" s="99"/>
-      <c r="BC38" s="100"/>
+      <c r="AY38" s="96"/>
+      <c r="AZ38" s="96"/>
+      <c r="BA38" s="96"/>
+      <c r="BB38" s="96"/>
+      <c r="BC38" s="97"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -19432,206 +19443,206 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="114" t="s">
+      <c r="AX39" s="92" t="s">
         <v>432</v>
       </c>
-      <c r="AY39" s="115"/>
-      <c r="AZ39" s="115"/>
-      <c r="BA39" s="115"/>
-      <c r="BB39" s="115"/>
-      <c r="BC39" s="116"/>
+      <c r="AY39" s="93"/>
+      <c r="AZ39" s="93"/>
+      <c r="BA39" s="93"/>
+      <c r="BB39" s="93"/>
+      <c r="BC39" s="94"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="89" t="s">
         <v>437</v>
       </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
-      <c r="Y40" s="112"/>
-      <c r="Z40" s="112"/>
-      <c r="AA40" s="112"/>
-      <c r="AB40" s="112"/>
-      <c r="AC40" s="112"/>
-      <c r="AD40" s="112"/>
-      <c r="AE40" s="112"/>
-      <c r="AF40" s="112"/>
-      <c r="AG40" s="112"/>
-      <c r="AH40" s="112"/>
-      <c r="AI40" s="112"/>
-      <c r="AJ40" s="112"/>
-      <c r="AK40" s="112"/>
-      <c r="AL40" s="112"/>
-      <c r="AM40" s="112"/>
-      <c r="AN40" s="112"/>
-      <c r="AO40" s="112"/>
-      <c r="AP40" s="112"/>
-      <c r="AQ40" s="112"/>
-      <c r="AR40" s="112"/>
-      <c r="AS40" s="112"/>
-      <c r="AT40" s="112"/>
-      <c r="AU40" s="112"/>
-      <c r="AV40" s="112"/>
-      <c r="AW40" s="112"/>
-      <c r="AX40" s="112"/>
-      <c r="AY40" s="112"/>
-      <c r="AZ40" s="112"/>
-      <c r="BA40" s="112"/>
-      <c r="BB40" s="112"/>
-      <c r="BC40" s="113"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="90"/>
+      <c r="AD40" s="90"/>
+      <c r="AE40" s="90"/>
+      <c r="AF40" s="90"/>
+      <c r="AG40" s="90"/>
+      <c r="AH40" s="90"/>
+      <c r="AI40" s="90"/>
+      <c r="AJ40" s="90"/>
+      <c r="AK40" s="90"/>
+      <c r="AL40" s="90"/>
+      <c r="AM40" s="90"/>
+      <c r="AN40" s="90"/>
+      <c r="AO40" s="90"/>
+      <c r="AP40" s="90"/>
+      <c r="AQ40" s="90"/>
+      <c r="AR40" s="90"/>
+      <c r="AS40" s="90"/>
+      <c r="AT40" s="90"/>
+      <c r="AU40" s="90"/>
+      <c r="AV40" s="90"/>
+      <c r="AW40" s="90"/>
+      <c r="AX40" s="90"/>
+      <c r="AY40" s="90"/>
+      <c r="AZ40" s="90"/>
+      <c r="BA40" s="90"/>
+      <c r="BB40" s="90"/>
+      <c r="BC40" s="91"/>
     </row>
     <row r="41" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="65"/>
-      <c r="AF41" s="65"/>
-      <c r="AG41" s="65"/>
-      <c r="AH41" s="65"/>
-      <c r="AI41" s="65"/>
-      <c r="AJ41" s="65"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="64" t="s">
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
+      <c r="V41" s="79"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="79"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="79"/>
+      <c r="AE41" s="79"/>
+      <c r="AF41" s="79"/>
+      <c r="AG41" s="79"/>
+      <c r="AH41" s="79"/>
+      <c r="AI41" s="79"/>
+      <c r="AJ41" s="79"/>
+      <c r="AK41" s="80"/>
+      <c r="AL41" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AM41" s="65"/>
-      <c r="AN41" s="65"/>
-      <c r="AO41" s="65"/>
-      <c r="AP41" s="65"/>
-      <c r="AQ41" s="65"/>
-      <c r="AR41" s="65"/>
-      <c r="AS41" s="65"/>
-      <c r="AT41" s="65"/>
-      <c r="AU41" s="65"/>
-      <c r="AV41" s="65"/>
-      <c r="AW41" s="65"/>
-      <c r="AX41" s="65"/>
-      <c r="AY41" s="65"/>
-      <c r="AZ41" s="65"/>
-      <c r="BA41" s="65"/>
-      <c r="BB41" s="65"/>
-      <c r="BC41" s="66"/>
+      <c r="AM41" s="79"/>
+      <c r="AN41" s="79"/>
+      <c r="AO41" s="79"/>
+      <c r="AP41" s="79"/>
+      <c r="AQ41" s="79"/>
+      <c r="AR41" s="79"/>
+      <c r="AS41" s="79"/>
+      <c r="AT41" s="79"/>
+      <c r="AU41" s="79"/>
+      <c r="AV41" s="79"/>
+      <c r="AW41" s="79"/>
+      <c r="AX41" s="79"/>
+      <c r="AY41" s="79"/>
+      <c r="AZ41" s="79"/>
+      <c r="BA41" s="79"/>
+      <c r="BB41" s="79"/>
+      <c r="BC41" s="80"/>
     </row>
     <row r="42" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B42" s="70" t="s">
+      <c r="B42" s="73" t="s">
         <v>410</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
       <c r="G42" s="27"/>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="75" t="s">
         <v>411</v>
       </c>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="71" t="s">
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="72" t="s">
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="71" t="s">
+      <c r="U42" s="74"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="74" t="s">
         <v>414</v>
       </c>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="72" t="s">
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="75" t="s">
         <v>415</v>
       </c>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71"/>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="70" t="s">
+      <c r="AG42" s="74"/>
+      <c r="AH42" s="74"/>
+      <c r="AI42" s="74"/>
+      <c r="AJ42" s="74"/>
+      <c r="AK42" s="74"/>
+      <c r="AL42" s="73" t="s">
         <v>416</v>
       </c>
-      <c r="AM42" s="71"/>
-      <c r="AN42" s="71"/>
-      <c r="AO42" s="71"/>
-      <c r="AP42" s="71"/>
-      <c r="AQ42" s="71"/>
-      <c r="AR42" s="72" t="s">
+      <c r="AM42" s="74"/>
+      <c r="AN42" s="74"/>
+      <c r="AO42" s="74"/>
+      <c r="AP42" s="74"/>
+      <c r="AQ42" s="74"/>
+      <c r="AR42" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="AS42" s="71"/>
-      <c r="AT42" s="71"/>
-      <c r="AU42" s="71"/>
-      <c r="AV42" s="71"/>
-      <c r="AW42" s="73"/>
-      <c r="AX42" s="71" t="s">
+      <c r="AS42" s="74"/>
+      <c r="AT42" s="74"/>
+      <c r="AU42" s="74"/>
+      <c r="AV42" s="74"/>
+      <c r="AW42" s="76"/>
+      <c r="AX42" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="AY42" s="71"/>
-      <c r="AZ42" s="71"/>
-      <c r="BA42" s="71"/>
-      <c r="BB42" s="71"/>
-      <c r="BC42" s="122"/>
+      <c r="AY42" s="74"/>
+      <c r="AZ42" s="74"/>
+      <c r="BA42" s="74"/>
+      <c r="BB42" s="74"/>
+      <c r="BC42" s="77"/>
     </row>
     <row r="43" spans="2:55">
       <c r="B43" s="9" t="s">
@@ -19640,12 +19651,12 @@
       <c r="C43" s="26">
         <v>63</v>
       </c>
-      <c r="D43" s="67" t="str">
+      <c r="D43" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="10"/>
       <c r="H43" s="32" t="s">
         <v>421</v>
@@ -19653,270 +19664,270 @@
       <c r="I43" s="33">
         <v>99</v>
       </c>
-      <c r="J43" s="90" t="str">
+      <c r="J43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="10" t="s">
         <v>421</v>
       </c>
       <c r="O43" s="26">
         <v>46</v>
       </c>
-      <c r="P43" s="67" t="str">
+      <c r="P43" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
       <c r="T43" s="32" t="s">
         <v>421</v>
       </c>
       <c r="U43" s="33">
         <v>56</v>
       </c>
-      <c r="V43" s="90" t="str">
+      <c r="V43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W43" s="90"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="91"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="59"/>
       <c r="Z43" s="10" t="s">
         <v>421</v>
       </c>
       <c r="AA43" s="26">
         <v>99</v>
       </c>
-      <c r="AB43" s="67" t="str">
+      <c r="AB43" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="72"/>
+      <c r="AE43" s="72"/>
       <c r="AF43" s="32" t="s">
         <v>421</v>
       </c>
       <c r="AG43" s="33">
         <v>62</v>
       </c>
-      <c r="AH43" s="90" t="str">
+      <c r="AH43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI43" s="90"/>
-      <c r="AJ43" s="90"/>
-      <c r="AK43" s="91"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="59"/>
       <c r="AL43" s="10" t="s">
         <v>421</v>
       </c>
       <c r="AM43" s="26">
         <v>82</v>
       </c>
-      <c r="AN43" s="67" t="str">
+      <c r="AN43" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
+      <c r="AO43" s="72"/>
+      <c r="AP43" s="72"/>
+      <c r="AQ43" s="72"/>
       <c r="AR43" s="32" t="s">
         <v>421</v>
       </c>
       <c r="AS43" s="33">
         <v>11</v>
       </c>
-      <c r="AT43" s="90" t="str">
+      <c r="AT43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU43" s="90"/>
-      <c r="AV43" s="90"/>
-      <c r="AW43" s="91"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="59"/>
       <c r="AX43" s="32" t="s">
         <v>421</v>
       </c>
       <c r="AY43" s="33">
         <v>4</v>
       </c>
-      <c r="AZ43" s="90" t="str">
+      <c r="AZ43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA43" s="90"/>
-      <c r="BB43" s="90"/>
-      <c r="BC43" s="91"/>
+      <c r="BA43" s="58"/>
+      <c r="BB43" s="58"/>
+      <c r="BC43" s="59"/>
     </row>
     <row r="44" spans="2:55">
-      <c r="B44" s="68" t="str">
+      <c r="B44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),3)</f>
         <v>P Bot Bot</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="68" t="str">
+      <c r="H44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="67" t="str">
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),3)</f>
         <v>Hull Breach</v>
       </c>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="68" t="str">
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="69"/>
-      <c r="Z44" s="67" t="str">
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA44" s="67"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="67"/>
-      <c r="AD44" s="67"/>
-      <c r="AE44" s="67"/>
-      <c r="AF44" s="68" t="str">
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="72"/>
+      <c r="AD44" s="72"/>
+      <c r="AE44" s="72"/>
+      <c r="AF44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG44" s="67"/>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="69"/>
-      <c r="AL44" s="67" t="str">
+      <c r="AG44" s="72"/>
+      <c r="AH44" s="72"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="72"/>
+      <c r="AK44" s="108"/>
+      <c r="AL44" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM44" s="67"/>
-      <c r="AN44" s="67"/>
-      <c r="AO44" s="67"/>
-      <c r="AP44" s="67"/>
-      <c r="AQ44" s="67"/>
-      <c r="AR44" s="68" t="str">
+      <c r="AM44" s="72"/>
+      <c r="AN44" s="72"/>
+      <c r="AO44" s="72"/>
+      <c r="AP44" s="72"/>
+      <c r="AQ44" s="72"/>
+      <c r="AR44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS44" s="67"/>
-      <c r="AT44" s="67"/>
-      <c r="AU44" s="67"/>
-      <c r="AV44" s="67"/>
-      <c r="AW44" s="69"/>
-      <c r="AX44" s="68" t="str">
+      <c r="AS44" s="72"/>
+      <c r="AT44" s="72"/>
+      <c r="AU44" s="72"/>
+      <c r="AV44" s="72"/>
+      <c r="AW44" s="108"/>
+      <c r="AX44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY44" s="67"/>
-      <c r="AZ44" s="67"/>
-      <c r="BA44" s="67"/>
-      <c r="BB44" s="67"/>
-      <c r="BC44" s="69"/>
+      <c r="AY44" s="72"/>
+      <c r="AZ44" s="72"/>
+      <c r="BA44" s="72"/>
+      <c r="BB44" s="72"/>
+      <c r="BC44" s="108"/>
     </row>
     <row r="45" spans="2:55">
-      <c r="B45" s="107" t="str">
+      <c r="B45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="107" t="str">
+      <c r="H45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="108" t="str">
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O45" s="108"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="108"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="107" t="str">
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U45" s="108"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="108" t="str">
+      <c r="U45" s="110"/>
+      <c r="V45" s="110"/>
+      <c r="W45" s="110"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA45" s="108"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="108"/>
-      <c r="AF45" s="107" t="str">
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+      <c r="AF45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG45" s="108"/>
-      <c r="AH45" s="108"/>
-      <c r="AI45" s="108"/>
-      <c r="AJ45" s="108"/>
-      <c r="AK45" s="109"/>
-      <c r="AL45" s="108" t="str">
+      <c r="AG45" s="110"/>
+      <c r="AH45" s="110"/>
+      <c r="AI45" s="110"/>
+      <c r="AJ45" s="110"/>
+      <c r="AK45" s="111"/>
+      <c r="AL45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM45" s="108"/>
-      <c r="AN45" s="108"/>
-      <c r="AO45" s="108"/>
-      <c r="AP45" s="108"/>
-      <c r="AQ45" s="108"/>
-      <c r="AR45" s="107" t="str">
+      <c r="AM45" s="110"/>
+      <c r="AN45" s="110"/>
+      <c r="AO45" s="110"/>
+      <c r="AP45" s="110"/>
+      <c r="AQ45" s="110"/>
+      <c r="AR45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS45" s="108"/>
-      <c r="AT45" s="108"/>
-      <c r="AU45" s="108"/>
-      <c r="AV45" s="108"/>
-      <c r="AW45" s="109"/>
-      <c r="AX45" s="107" t="str">
+      <c r="AS45" s="110"/>
+      <c r="AT45" s="110"/>
+      <c r="AU45" s="110"/>
+      <c r="AV45" s="110"/>
+      <c r="AW45" s="111"/>
+      <c r="AX45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY45" s="108"/>
-      <c r="AZ45" s="108"/>
-      <c r="BA45" s="108"/>
-      <c r="BB45" s="108"/>
-      <c r="BC45" s="109"/>
+      <c r="AY45" s="110"/>
+      <c r="AZ45" s="110"/>
+      <c r="BA45" s="110"/>
+      <c r="BB45" s="110"/>
+      <c r="BC45" s="111"/>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="28" t="s">
@@ -20301,509 +20312,620 @@
       </c>
     </row>
     <row r="48" spans="2:55">
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="68" t="s">
+      <c r="H48" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="67" t="s">
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="68" t="s">
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="69"/>
-      <c r="Z48" s="67" t="s">
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+      <c r="Y48" s="108"/>
+      <c r="Z48" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="AA48" s="67"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="67"/>
-      <c r="AD48" s="67"/>
-      <c r="AE48" s="67"/>
-      <c r="AF48" s="68" t="s">
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
+      <c r="AD48" s="72"/>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="69"/>
-      <c r="AL48" s="67" t="s">
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="108"/>
+      <c r="AL48" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="AM48" s="67"/>
-      <c r="AN48" s="67"/>
-      <c r="AO48" s="67"/>
-      <c r="AP48" s="67"/>
-      <c r="AQ48" s="67"/>
-      <c r="AR48" s="74" t="s">
+      <c r="AM48" s="72"/>
+      <c r="AN48" s="72"/>
+      <c r="AO48" s="72"/>
+      <c r="AP48" s="72"/>
+      <c r="AQ48" s="72"/>
+      <c r="AR48" s="104" t="s">
         <v>429</v>
       </c>
-      <c r="AS48" s="75"/>
-      <c r="AT48" s="75"/>
-      <c r="AU48" s="75"/>
-      <c r="AV48" s="75"/>
-      <c r="AW48" s="76"/>
-      <c r="AX48" s="68" t="s">
+      <c r="AS48" s="105"/>
+      <c r="AT48" s="105"/>
+      <c r="AU48" s="105"/>
+      <c r="AV48" s="105"/>
+      <c r="AW48" s="106"/>
+      <c r="AX48" s="107" t="s">
         <v>429</v>
       </c>
-      <c r="AY48" s="67"/>
-      <c r="AZ48" s="67"/>
-      <c r="BA48" s="67"/>
-      <c r="BB48" s="67"/>
-      <c r="BC48" s="69"/>
+      <c r="AY48" s="72"/>
+      <c r="AZ48" s="72"/>
+      <c r="BA48" s="72"/>
+      <c r="BB48" s="72"/>
+      <c r="BC48" s="108"/>
     </row>
     <row r="49" spans="2:55" ht="15" customHeight="1">
-      <c r="B49" s="58" t="str">
+      <c r="B49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Tap: Assault + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="58" t="str">
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="59" t="str">
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship</v>
       </c>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="58" t="str">
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="60"/>
-      <c r="Z49" s="59" t="str">
+      <c r="U49" s="84"/>
+      <c r="V49" s="84"/>
+      <c r="W49" s="84"/>
+      <c r="X49" s="84"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA49" s="59"/>
-      <c r="AB49" s="59"/>
-      <c r="AC49" s="59"/>
-      <c r="AD49" s="59"/>
-      <c r="AE49" s="59"/>
-      <c r="AF49" s="58" t="str">
+      <c r="AA49" s="84"/>
+      <c r="AB49" s="84"/>
+      <c r="AC49" s="84"/>
+      <c r="AD49" s="84"/>
+      <c r="AE49" s="84"/>
+      <c r="AF49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG49" s="59"/>
-      <c r="AH49" s="59"/>
-      <c r="AI49" s="59"/>
-      <c r="AJ49" s="59"/>
-      <c r="AK49" s="60"/>
-      <c r="AL49" s="59" t="str">
+      <c r="AG49" s="84"/>
+      <c r="AH49" s="84"/>
+      <c r="AI49" s="84"/>
+      <c r="AJ49" s="84"/>
+      <c r="AK49" s="85"/>
+      <c r="AL49" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM49" s="59"/>
-      <c r="AN49" s="59"/>
-      <c r="AO49" s="59"/>
-      <c r="AP49" s="59"/>
-      <c r="AQ49" s="59"/>
-      <c r="AR49" s="58" t="str">
+      <c r="AM49" s="84"/>
+      <c r="AN49" s="84"/>
+      <c r="AO49" s="84"/>
+      <c r="AP49" s="84"/>
+      <c r="AQ49" s="84"/>
+      <c r="AR49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS49" s="59"/>
-      <c r="AT49" s="59"/>
-      <c r="AU49" s="59"/>
-      <c r="AV49" s="59"/>
-      <c r="AW49" s="60"/>
-      <c r="AX49" s="58" t="str">
+      <c r="AS49" s="84"/>
+      <c r="AT49" s="84"/>
+      <c r="AU49" s="84"/>
+      <c r="AV49" s="84"/>
+      <c r="AW49" s="85"/>
+      <c r="AX49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Tap: Research + 3 and discard top card of deck</v>
       </c>
-      <c r="AY49" s="59"/>
-      <c r="AZ49" s="59"/>
-      <c r="BA49" s="59"/>
-      <c r="BB49" s="59"/>
-      <c r="BC49" s="60"/>
+      <c r="AY49" s="84"/>
+      <c r="AZ49" s="84"/>
+      <c r="BA49" s="84"/>
+      <c r="BB49" s="84"/>
+      <c r="BC49" s="85"/>
     </row>
     <row r="50" spans="2:55">
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="59"/>
-      <c r="Y50" s="60"/>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="59"/>
-      <c r="AB50" s="59"/>
-      <c r="AC50" s="59"/>
-      <c r="AD50" s="59"/>
-      <c r="AE50" s="59"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="59"/>
-      <c r="AH50" s="59"/>
-      <c r="AI50" s="59"/>
-      <c r="AJ50" s="59"/>
-      <c r="AK50" s="60"/>
-      <c r="AL50" s="59"/>
-      <c r="AM50" s="59"/>
-      <c r="AN50" s="59"/>
-      <c r="AO50" s="59"/>
-      <c r="AP50" s="59"/>
-      <c r="AQ50" s="59"/>
-      <c r="AR50" s="58"/>
-      <c r="AS50" s="59"/>
-      <c r="AT50" s="59"/>
-      <c r="AU50" s="59"/>
-      <c r="AV50" s="59"/>
-      <c r="AW50" s="60"/>
-      <c r="AX50" s="58"/>
-      <c r="AY50" s="59"/>
-      <c r="AZ50" s="59"/>
-      <c r="BA50" s="59"/>
-      <c r="BB50" s="59"/>
-      <c r="BC50" s="60"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
+      <c r="W50" s="84"/>
+      <c r="X50" s="84"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="84"/>
+      <c r="AA50" s="84"/>
+      <c r="AB50" s="84"/>
+      <c r="AC50" s="84"/>
+      <c r="AD50" s="84"/>
+      <c r="AE50" s="84"/>
+      <c r="AF50" s="83"/>
+      <c r="AG50" s="84"/>
+      <c r="AH50" s="84"/>
+      <c r="AI50" s="84"/>
+      <c r="AJ50" s="84"/>
+      <c r="AK50" s="85"/>
+      <c r="AL50" s="84"/>
+      <c r="AM50" s="84"/>
+      <c r="AN50" s="84"/>
+      <c r="AO50" s="84"/>
+      <c r="AP50" s="84"/>
+      <c r="AQ50" s="84"/>
+      <c r="AR50" s="83"/>
+      <c r="AS50" s="84"/>
+      <c r="AT50" s="84"/>
+      <c r="AU50" s="84"/>
+      <c r="AV50" s="84"/>
+      <c r="AW50" s="85"/>
+      <c r="AX50" s="83"/>
+      <c r="AY50" s="84"/>
+      <c r="AZ50" s="84"/>
+      <c r="BA50" s="84"/>
+      <c r="BB50" s="84"/>
+      <c r="BC50" s="85"/>
     </row>
     <row r="51" spans="2:55">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="60"/>
-      <c r="Z51" s="59"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="59"/>
-      <c r="AC51" s="59"/>
-      <c r="AD51" s="59"/>
-      <c r="AE51" s="59"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="59"/>
-      <c r="AH51" s="59"/>
-      <c r="AI51" s="59"/>
-      <c r="AJ51" s="59"/>
-      <c r="AK51" s="60"/>
-      <c r="AL51" s="59"/>
-      <c r="AM51" s="59"/>
-      <c r="AN51" s="59"/>
-      <c r="AO51" s="59"/>
-      <c r="AP51" s="59"/>
-      <c r="AQ51" s="59"/>
-      <c r="AR51" s="58"/>
-      <c r="AS51" s="59"/>
-      <c r="AT51" s="59"/>
-      <c r="AU51" s="59"/>
-      <c r="AV51" s="59"/>
-      <c r="AW51" s="60"/>
-      <c r="AX51" s="58"/>
-      <c r="AY51" s="59"/>
-      <c r="AZ51" s="59"/>
-      <c r="BA51" s="59"/>
-      <c r="BB51" s="59"/>
-      <c r="BC51" s="60"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="84"/>
+      <c r="V51" s="84"/>
+      <c r="W51" s="84"/>
+      <c r="X51" s="84"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="84"/>
+      <c r="AA51" s="84"/>
+      <c r="AB51" s="84"/>
+      <c r="AC51" s="84"/>
+      <c r="AD51" s="84"/>
+      <c r="AE51" s="84"/>
+      <c r="AF51" s="83"/>
+      <c r="AG51" s="84"/>
+      <c r="AH51" s="84"/>
+      <c r="AI51" s="84"/>
+      <c r="AJ51" s="84"/>
+      <c r="AK51" s="85"/>
+      <c r="AL51" s="84"/>
+      <c r="AM51" s="84"/>
+      <c r="AN51" s="84"/>
+      <c r="AO51" s="84"/>
+      <c r="AP51" s="84"/>
+      <c r="AQ51" s="84"/>
+      <c r="AR51" s="83"/>
+      <c r="AS51" s="84"/>
+      <c r="AT51" s="84"/>
+      <c r="AU51" s="84"/>
+      <c r="AV51" s="84"/>
+      <c r="AW51" s="85"/>
+      <c r="AX51" s="83"/>
+      <c r="AY51" s="84"/>
+      <c r="AZ51" s="84"/>
+      <c r="BA51" s="84"/>
+      <c r="BB51" s="84"/>
+      <c r="BC51" s="85"/>
     </row>
     <row r="52" spans="2:55">
-      <c r="B52" s="58"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
-      <c r="Y52" s="60"/>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="59"/>
-      <c r="AB52" s="59"/>
-      <c r="AC52" s="59"/>
-      <c r="AD52" s="59"/>
-      <c r="AE52" s="59"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="59"/>
-      <c r="AH52" s="59"/>
-      <c r="AI52" s="59"/>
-      <c r="AJ52" s="59"/>
-      <c r="AK52" s="60"/>
-      <c r="AL52" s="59"/>
-      <c r="AM52" s="59"/>
-      <c r="AN52" s="59"/>
-      <c r="AO52" s="59"/>
-      <c r="AP52" s="59"/>
-      <c r="AQ52" s="59"/>
-      <c r="AR52" s="58"/>
-      <c r="AS52" s="59"/>
-      <c r="AT52" s="59"/>
-      <c r="AU52" s="59"/>
-      <c r="AV52" s="59"/>
-      <c r="AW52" s="60"/>
-      <c r="AX52" s="58"/>
-      <c r="AY52" s="59"/>
-      <c r="AZ52" s="59"/>
-      <c r="BA52" s="59"/>
-      <c r="BB52" s="59"/>
-      <c r="BC52" s="60"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="84"/>
+      <c r="V52" s="84"/>
+      <c r="W52" s="84"/>
+      <c r="X52" s="84"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="84"/>
+      <c r="AA52" s="84"/>
+      <c r="AB52" s="84"/>
+      <c r="AC52" s="84"/>
+      <c r="AD52" s="84"/>
+      <c r="AE52" s="84"/>
+      <c r="AF52" s="83"/>
+      <c r="AG52" s="84"/>
+      <c r="AH52" s="84"/>
+      <c r="AI52" s="84"/>
+      <c r="AJ52" s="84"/>
+      <c r="AK52" s="85"/>
+      <c r="AL52" s="84"/>
+      <c r="AM52" s="84"/>
+      <c r="AN52" s="84"/>
+      <c r="AO52" s="84"/>
+      <c r="AP52" s="84"/>
+      <c r="AQ52" s="84"/>
+      <c r="AR52" s="83"/>
+      <c r="AS52" s="84"/>
+      <c r="AT52" s="84"/>
+      <c r="AU52" s="84"/>
+      <c r="AV52" s="84"/>
+      <c r="AW52" s="85"/>
+      <c r="AX52" s="83"/>
+      <c r="AY52" s="84"/>
+      <c r="AZ52" s="84"/>
+      <c r="BA52" s="84"/>
+      <c r="BB52" s="84"/>
+      <c r="BC52" s="85"/>
     </row>
     <row r="53" spans="2:55">
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="60"/>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="59"/>
-      <c r="AB53" s="59"/>
-      <c r="AC53" s="59"/>
-      <c r="AD53" s="59"/>
-      <c r="AE53" s="59"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="59"/>
-      <c r="AH53" s="59"/>
-      <c r="AI53" s="59"/>
-      <c r="AJ53" s="59"/>
-      <c r="AK53" s="60"/>
-      <c r="AL53" s="59"/>
-      <c r="AM53" s="59"/>
-      <c r="AN53" s="59"/>
-      <c r="AO53" s="59"/>
-      <c r="AP53" s="59"/>
-      <c r="AQ53" s="59"/>
-      <c r="AR53" s="58"/>
-      <c r="AS53" s="59"/>
-      <c r="AT53" s="59"/>
-      <c r="AU53" s="59"/>
-      <c r="AV53" s="59"/>
-      <c r="AW53" s="60"/>
-      <c r="AX53" s="58"/>
-      <c r="AY53" s="59"/>
-      <c r="AZ53" s="59"/>
-      <c r="BA53" s="59"/>
-      <c r="BB53" s="59"/>
-      <c r="BC53" s="60"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="84"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="84"/>
+      <c r="AB53" s="84"/>
+      <c r="AC53" s="84"/>
+      <c r="AD53" s="84"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="83"/>
+      <c r="AG53" s="84"/>
+      <c r="AH53" s="84"/>
+      <c r="AI53" s="84"/>
+      <c r="AJ53" s="84"/>
+      <c r="AK53" s="85"/>
+      <c r="AL53" s="84"/>
+      <c r="AM53" s="84"/>
+      <c r="AN53" s="84"/>
+      <c r="AO53" s="84"/>
+      <c r="AP53" s="84"/>
+      <c r="AQ53" s="84"/>
+      <c r="AR53" s="83"/>
+      <c r="AS53" s="84"/>
+      <c r="AT53" s="84"/>
+      <c r="AU53" s="84"/>
+      <c r="AV53" s="84"/>
+      <c r="AW53" s="85"/>
+      <c r="AX53" s="83"/>
+      <c r="AY53" s="84"/>
+      <c r="AZ53" s="84"/>
+      <c r="BA53" s="84"/>
+      <c r="BB53" s="84"/>
+      <c r="BC53" s="85"/>
     </row>
     <row r="54" spans="2:55">
-      <c r="B54" s="58"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="60"/>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="59"/>
-      <c r="AB54" s="59"/>
-      <c r="AC54" s="59"/>
-      <c r="AD54" s="59"/>
-      <c r="AE54" s="59"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="59"/>
-      <c r="AH54" s="59"/>
-      <c r="AI54" s="59"/>
-      <c r="AJ54" s="59"/>
-      <c r="AK54" s="60"/>
-      <c r="AL54" s="59"/>
-      <c r="AM54" s="59"/>
-      <c r="AN54" s="59"/>
-      <c r="AO54" s="59"/>
-      <c r="AP54" s="59"/>
-      <c r="AQ54" s="59"/>
-      <c r="AR54" s="58"/>
-      <c r="AS54" s="59"/>
-      <c r="AT54" s="59"/>
-      <c r="AU54" s="59"/>
-      <c r="AV54" s="59"/>
-      <c r="AW54" s="60"/>
-      <c r="AX54" s="58"/>
-      <c r="AY54" s="59"/>
-      <c r="AZ54" s="59"/>
-      <c r="BA54" s="59"/>
-      <c r="BB54" s="59"/>
-      <c r="BC54" s="60"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="83"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="84"/>
+      <c r="W54" s="84"/>
+      <c r="X54" s="84"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="84"/>
+      <c r="AA54" s="84"/>
+      <c r="AB54" s="84"/>
+      <c r="AC54" s="84"/>
+      <c r="AD54" s="84"/>
+      <c r="AE54" s="84"/>
+      <c r="AF54" s="83"/>
+      <c r="AG54" s="84"/>
+      <c r="AH54" s="84"/>
+      <c r="AI54" s="84"/>
+      <c r="AJ54" s="84"/>
+      <c r="AK54" s="85"/>
+      <c r="AL54" s="84"/>
+      <c r="AM54" s="84"/>
+      <c r="AN54" s="84"/>
+      <c r="AO54" s="84"/>
+      <c r="AP54" s="84"/>
+      <c r="AQ54" s="84"/>
+      <c r="AR54" s="83"/>
+      <c r="AS54" s="84"/>
+      <c r="AT54" s="84"/>
+      <c r="AU54" s="84"/>
+      <c r="AV54" s="84"/>
+      <c r="AW54" s="85"/>
+      <c r="AX54" s="83"/>
+      <c r="AY54" s="84"/>
+      <c r="AZ54" s="84"/>
+      <c r="BA54" s="84"/>
+      <c r="BB54" s="84"/>
+      <c r="BC54" s="85"/>
     </row>
     <row r="55" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B55" s="61"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="62"/>
-      <c r="AA55" s="62"/>
-      <c r="AB55" s="62"/>
-      <c r="AC55" s="62"/>
-      <c r="AD55" s="62"/>
-      <c r="AE55" s="62"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="62"/>
-      <c r="AH55" s="62"/>
-      <c r="AI55" s="62"/>
-      <c r="AJ55" s="62"/>
-      <c r="AK55" s="63"/>
-      <c r="AL55" s="62"/>
-      <c r="AM55" s="62"/>
-      <c r="AN55" s="62"/>
-      <c r="AO55" s="62"/>
-      <c r="AP55" s="62"/>
-      <c r="AQ55" s="62"/>
-      <c r="AR55" s="61"/>
-      <c r="AS55" s="62"/>
-      <c r="AT55" s="62"/>
-      <c r="AU55" s="62"/>
-      <c r="AV55" s="62"/>
-      <c r="AW55" s="63"/>
-      <c r="AX55" s="61"/>
-      <c r="AY55" s="62"/>
-      <c r="AZ55" s="62"/>
-      <c r="BA55" s="62"/>
-      <c r="BB55" s="62"/>
-      <c r="BC55" s="63"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="87"/>
+      <c r="V55" s="87"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="87"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="87"/>
+      <c r="AA55" s="87"/>
+      <c r="AB55" s="87"/>
+      <c r="AC55" s="87"/>
+      <c r="AD55" s="87"/>
+      <c r="AE55" s="87"/>
+      <c r="AF55" s="86"/>
+      <c r="AG55" s="87"/>
+      <c r="AH55" s="87"/>
+      <c r="AI55" s="87"/>
+      <c r="AJ55" s="87"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="87"/>
+      <c r="AM55" s="87"/>
+      <c r="AN55" s="87"/>
+      <c r="AO55" s="87"/>
+      <c r="AP55" s="87"/>
+      <c r="AQ55" s="87"/>
+      <c r="AR55" s="86"/>
+      <c r="AS55" s="87"/>
+      <c r="AT55" s="87"/>
+      <c r="AU55" s="87"/>
+      <c r="AV55" s="87"/>
+      <c r="AW55" s="88"/>
+      <c r="AX55" s="86"/>
+      <c r="AY55" s="87"/>
+      <c r="AZ55" s="87"/>
+      <c r="BA55" s="87"/>
+      <c r="BB55" s="87"/>
+      <c r="BC55" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="B49:G55"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AL1:BC1"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AK4"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AL8:AQ8"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AR8:AW8"/>
+    <mergeCell ref="AL4:AQ4"/>
+    <mergeCell ref="AR4:AW4"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="AX4:BC4"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BC27"/>
+    <mergeCell ref="AX28:BC28"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B16:BC16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
+    <mergeCell ref="B9:F15"/>
+    <mergeCell ref="H9:M15"/>
+    <mergeCell ref="N9:S15"/>
+    <mergeCell ref="T9:Y15"/>
+    <mergeCell ref="Z9:AE15"/>
+    <mergeCell ref="AF9:AK15"/>
+    <mergeCell ref="AL9:AQ15"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AR9:AW15"/>
+    <mergeCell ref="AX9:BC15"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AF45:AK45"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="AL44:AQ44"/>
+    <mergeCell ref="AR44:AW44"/>
+    <mergeCell ref="AR49:AW55"/>
+    <mergeCell ref="AX49:BC55"/>
+    <mergeCell ref="B40:BC40"/>
+    <mergeCell ref="AX39:BC39"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="AX36:BC36"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AL48:AQ48"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="N49:S55"/>
+    <mergeCell ref="T49:Y55"/>
+    <mergeCell ref="Z49:AE55"/>
+    <mergeCell ref="AF49:AK55"/>
+    <mergeCell ref="AL49:AQ55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="AZ43:BC43"/>
     <mergeCell ref="K23:O23"/>
     <mergeCell ref="D29:F29"/>
@@ -20828,117 +20950,6 @@
     <mergeCell ref="T42:Y42"/>
     <mergeCell ref="Z42:AE42"/>
     <mergeCell ref="AF42:AK42"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AR49:AW55"/>
-    <mergeCell ref="AX49:BC55"/>
-    <mergeCell ref="B40:BC40"/>
-    <mergeCell ref="AX39:BC39"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="AX36:BC36"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AL48:AQ48"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:M55"/>
-    <mergeCell ref="N49:S55"/>
-    <mergeCell ref="T49:Y55"/>
-    <mergeCell ref="Z49:AE55"/>
-    <mergeCell ref="AF49:AK55"/>
-    <mergeCell ref="AL49:AQ55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AF45:AK45"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="AL44:AQ44"/>
-    <mergeCell ref="AR44:AW44"/>
-    <mergeCell ref="B9:F15"/>
-    <mergeCell ref="H9:M15"/>
-    <mergeCell ref="N9:S15"/>
-    <mergeCell ref="T9:Y15"/>
-    <mergeCell ref="Z9:AE15"/>
-    <mergeCell ref="AF9:AK15"/>
-    <mergeCell ref="AL9:AQ15"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AR9:AW15"/>
-    <mergeCell ref="AX9:BC15"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BC27"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B16:BC16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B49:G55"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AL1:BC1"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AK4"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AL8:AQ8"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AR8:AW8"/>
-    <mergeCell ref="AL4:AQ4"/>
-    <mergeCell ref="AR4:AW4"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="AX4:BC4"/>
   </mergeCells>
   <conditionalFormatting sqref="BG3 BG10">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="CREW">
@@ -20959,8 +20970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825695B-E77D-451D-B1ED-F04615885196}">
   <dimension ref="B2:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q35" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView topLeftCell="Q35" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25478,7 +25489,7 @@
       </c>
       <c r="C6" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B6,TblCardDesign[ID],0),3)</f>
-        <v>handling Office</v>
+        <v>Handling Office</v>
       </c>
       <c r="D6">
         <f>INDEX(TblCardDesign[#Data],MATCH($B6,TblCardDesign[ID],0),4)</f>
@@ -25599,7 +25610,7 @@
       </c>
       <c r="C7" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B7,TblCardDesign[ID],0),3)</f>
-        <v>handling Office</v>
+        <v>Handling Office</v>
       </c>
       <c r="D7">
         <f>INDEX(TblCardDesign[#Data],MATCH($B7,TblCardDesign[ID],0),4)</f>
@@ -25720,7 +25731,7 @@
       </c>
       <c r="C8" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B8,TblCardDesign[ID],0),3)</f>
-        <v>handling Office</v>
+        <v>Handling Office</v>
       </c>
       <c r="D8">
         <f>INDEX(TblCardDesign[#Data],MATCH($B8,TblCardDesign[ID],0),4)</f>
@@ -25841,7 +25852,7 @@
       </c>
       <c r="C9" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B9,TblCardDesign[ID],0),3)</f>
-        <v>handling Office</v>
+        <v>Handling Office</v>
       </c>
       <c r="D9">
         <f>INDEX(TblCardDesign[#Data],MATCH($B9,TblCardDesign[ID],0),4)</f>
@@ -29745,7 +29756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B2AF4-132E-4827-929E-699A91E27690}">
   <dimension ref="B2:AG45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
@@ -33393,11 +33404,11 @@
       </c>
       <c r="F35">
         <f>INDEX(TblCardDesign[#Data],MATCH($B35,TblCardDesign[ID],0),6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <f>INDEX(TblCardDesign[#Data],MATCH($B35,TblCardDesign[ID],0),7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <f>INDEX(TblCardDesign[#Data],MATCH($B35,TblCardDesign[ID],0),8)</f>
@@ -36508,7 +36519,7 @@
       </c>
       <c r="P24" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B24,TblCardDesign[ID],0),17)</f>
-        <v>When CC Droid is assigned/moves to a ship it becomes a copy of a chosen non Robot crew member on that ship, as well copying all crew attachments and abilities that crew member has. Removing any previously copyed attachments and abilities.
+        <v>When CC Droid is assigned/moves to a ship it becomes a copy of a chosen non Robot crew member on that ship, as well copying all crew attachments and abilities that crew member has. Removing any previously copied attachments and abilities.
 If there are no other non Robot crew members left on the ship then send CC Droid to Stasis.</v>
       </c>
       <c r="S24">
@@ -36629,7 +36640,7 @@
       </c>
       <c r="P25" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B25,TblCardDesign[ID],0),17)</f>
-        <v>When CC Droid is assigned/moves to a ship it becomes a copy of a chosen non Robot crew member on that ship, as well copying all crew attachments and abilities that crew member has. Removing any previously copyed attachments and abilities.
+        <v>When CC Droid is assigned/moves to a ship it becomes a copy of a chosen non Robot crew member on that ship, as well copying all crew attachments and abilities that crew member has. Removing any previously copied attachments and abilities.
 If there are no other non Robot crew members left on the ship then send CC Droid to Stasis.</v>
       </c>
       <c r="S25">
@@ -36750,7 +36761,8 @@
       </c>
       <c r="P26" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B26,TblCardDesign[ID],0),17)</f>
-        <v>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</v>
+        <v>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</v>
       </c>
       <c r="S26">
         <v>163</v>
@@ -36870,7 +36882,8 @@
       </c>
       <c r="P27" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B27,TblCardDesign[ID],0),17)</f>
-        <v>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</v>
+        <v>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</v>
       </c>
       <c r="S27">
         <v>163</v>
@@ -36990,7 +37003,8 @@
       </c>
       <c r="P28" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B28,TblCardDesign[ID],0),17)</f>
-        <v>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</v>
+        <v>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</v>
       </c>
       <c r="S28">
         <v>143</v>
@@ -37110,7 +37124,8 @@
       </c>
       <c r="P29" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B29,TblCardDesign[ID],0),17)</f>
-        <v>Tap: Medical + 1 or Discard 1 card from your hand and gain Medical + 2</v>
+        <v>Tap: Medical + 1
+Tap: Discard 1 card from your hand and gain Medical + 2</v>
       </c>
       <c r="S29">
         <v>143</v>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{340AC92B-110E-4EB4-B542-2A6DF53B26CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{788FE75C-43C9-40D3-B7B6-14158495B826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Table Counts" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="437" r:id="rId11"/>
+    <pivotCache cacheId="11062" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="457">
   <si>
     <t>Type</t>
   </si>
@@ -372,7 +372,7 @@
     <t>Rare</t>
   </si>
   <si>
-    <t>Attach to Ship: At the start of your damage phase increase targets ship damage by 100 to one gun  slot</t>
+    <t>Attach to Ship: At the start of your turn increase targets ship damage by 100 to one gun slot</t>
   </si>
   <si>
     <t>Under Pressure</t>
@@ -473,7 +473,7 @@
     <t>Hull Breach</t>
   </si>
   <si>
-    <t>Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship</t>
+    <t>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</t>
   </si>
   <si>
     <t>Smuggling goods</t>
@@ -912,9 +912,6 @@
     <t>Unidentified Lifeform</t>
   </si>
   <si>
-    <t>on Going Event</t>
-  </si>
-  <si>
     <t>Attach to ship: At the start of ship owners turn add a unidentified lifeform token to a empty crew slot. The token cannot be used on gun slots and has: Tap: remove unidentified lifeform and assigned ship takes 100 damage.</t>
   </si>
   <si>
@@ -1062,7 +1059,7 @@
     <t>M-Class Solar Flare</t>
   </si>
   <si>
-    <t>X number of ships each take 200 damage where x are the amount of event cards in your junkyard</t>
+    <t>You pick X number of ships that each take 200 damage where x are the amount of event cards in your junkyard</t>
   </si>
   <si>
     <t>Sometimes minor radiation storms can follow an M Class Solar Flare</t>
@@ -1272,12 +1269,7 @@
     <t>Versatile</t>
   </si>
   <si>
-    <t>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</t>
+    <t>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</t>
   </si>
   <si>
     <t>Recycling Unit</t>
@@ -2226,22 +2218,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,6 +2280,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2268,73 +2305,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2355,28 +2356,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,40 +2374,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6665,7 +6657,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="437" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="11062" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6831,7 +6823,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="437" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="11062" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -7688,26 +7680,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -7736,7 +7728,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -7781,7 +7773,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -9471,7 +9463,7 @@
       </c>
       <c r="AC19" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S19,TblCardDesign[ID],0),12)</f>
-        <v>on Going Event</v>
+        <v>On Going Event</v>
       </c>
       <c r="AD19">
         <f>INDEX(TblCardDesign[#Data],MATCH($S19,TblCardDesign[ID],0),13)</f>
@@ -9591,7 +9583,7 @@
       </c>
       <c r="AC20" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S20,TblCardDesign[ID],0),12)</f>
-        <v>on Going Event</v>
+        <v>On Going Event</v>
       </c>
       <c r="AD20">
         <f>INDEX(TblCardDesign[#Data],MATCH($S20,TblCardDesign[ID],0),13)</f>
@@ -9711,7 +9703,7 @@
       </c>
       <c r="AC21" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S21,TblCardDesign[ID],0),12)</f>
-        <v>on Going Event</v>
+        <v>On Going Event</v>
       </c>
       <c r="AD21">
         <f>INDEX(TblCardDesign[#Data],MATCH($S21,TblCardDesign[ID],0),13)</f>
@@ -11635,9 +11627,9 @@
         <f>INDEX(TblCardDesign[#Data],MATCH($S39,TblCardDesign[ID],0),10)</f>
         <v>1</v>
       </c>
-      <c r="AB39" t="b">
+      <c r="AB39">
         <f>INDEX(TblCardDesign[#Data],MATCH($S39,TblCardDesign[ID],0),11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S39,TblCardDesign[ID],0),12)</f>
@@ -11696,9 +11688,9 @@
         <f>INDEX(TblCardDesign[#Data],MATCH($S40,TblCardDesign[ID],0),10)</f>
         <v>1</v>
       </c>
-      <c r="AB40" t="b">
+      <c r="AB40">
         <f>INDEX(TblCardDesign[#Data],MATCH($S40,TblCardDesign[ID],0),11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S40,TblCardDesign[ID],0),12)</f>
@@ -11757,9 +11749,9 @@
         <f>INDEX(TblCardDesign[#Data],MATCH($S41,TblCardDesign[ID],0),10)</f>
         <v>1</v>
       </c>
-      <c r="AB41" t="b">
+      <c r="AB41">
         <f>INDEX(TblCardDesign[#Data],MATCH($S41,TblCardDesign[ID],0),11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S41,TblCardDesign[ID],0),12)</f>
@@ -11938,7 +11930,7 @@
       </c>
       <c r="AA44">
         <f>INDEX(TblCardDesign[#Data],MATCH($S44,TblCardDesign[ID],0),10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB44" t="b">
         <f>INDEX(TblCardDesign[#Data],MATCH($S44,TblCardDesign[ID],0),11)</f>
@@ -11962,7 +11954,7 @@
       </c>
       <c r="AG44" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S44,TblCardDesign[ID],0),17)</f>
-        <v>X number of ships each take 200 damage where x are the amount of event cards in your junkyard</v>
+        <v>You pick X number of ships that each take 200 damage where x are the amount of event cards in your junkyard</v>
       </c>
     </row>
     <row r="45" spans="2:33" ht="45">
@@ -11999,7 +11991,7 @@
       </c>
       <c r="AA45">
         <f>INDEX(TblCardDesign[#Data],MATCH($S45,TblCardDesign[ID],0),10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB45" t="b">
         <f>INDEX(TblCardDesign[#Data],MATCH($S45,TblCardDesign[ID],0),11)</f>
@@ -12023,7 +12015,7 @@
       </c>
       <c r="AG45" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S45,TblCardDesign[ID],0),17)</f>
-        <v>X number of ships each take 200 damage where x are the amount of event cards in your junkyard</v>
+        <v>You pick X number of ships that each take 200 damage where x are the amount of event cards in your junkyard</v>
       </c>
     </row>
   </sheetData>
@@ -12038,8 +12030,8 @@
   <dimension ref="A2:S248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M164" sqref="M164"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B170" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="Q177" sqref="Q177"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -12892,7 +12884,7 @@
       </c>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" ht="30">
+    <row r="27" spans="1:18" ht="30.75">
       <c r="A27">
         <v>22</v>
       </c>
@@ -12919,7 +12911,7 @@
       </c>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" ht="30">
+    <row r="28" spans="1:18" ht="30.75">
       <c r="A28">
         <v>23</v>
       </c>
@@ -12973,7 +12965,7 @@
       </c>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" ht="45">
+    <row r="30" spans="1:18" ht="45.75">
       <c r="A30">
         <v>25</v>
       </c>
@@ -13003,7 +12995,7 @@
       </c>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" ht="30">
+    <row r="31" spans="1:18" ht="30.75">
       <c r="A31">
         <v>26</v>
       </c>
@@ -13027,7 +13019,7 @@
       </c>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" ht="60">
+    <row r="32" spans="1:18" ht="45.75">
       <c r="A32">
         <v>27</v>
       </c>
@@ -13051,7 +13043,7 @@
       </c>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" ht="30">
+    <row r="33" spans="1:18" ht="30.75">
       <c r="A33">
         <v>28</v>
       </c>
@@ -13078,7 +13070,7 @@
       </c>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" ht="30">
+    <row r="34" spans="1:18" ht="30.75">
       <c r="A34">
         <v>29</v>
       </c>
@@ -13105,7 +13097,7 @@
       </c>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" ht="75">
+    <row r="35" spans="1:18" ht="45.75">
       <c r="A35">
         <v>30</v>
       </c>
@@ -13135,7 +13127,7 @@
       </c>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" ht="45">
+    <row r="36" spans="1:18" ht="45.75">
       <c r="A36">
         <v>31</v>
       </c>
@@ -13162,7 +13154,7 @@
       </c>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" ht="45">
+    <row r="37" spans="1:18" ht="30.75">
       <c r="A37">
         <v>32</v>
       </c>
@@ -13212,7 +13204,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="30">
+    <row r="39" spans="1:18" ht="30.75">
       <c r="A39">
         <v>34</v>
       </c>
@@ -13238,7 +13230,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="30">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>35</v>
       </c>
@@ -13264,7 +13256,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="45">
+    <row r="41" spans="1:18" ht="30.75">
       <c r="A41">
         <v>36</v>
       </c>
@@ -13290,7 +13282,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="45">
+    <row r="42" spans="1:18" ht="45.75">
       <c r="A42">
         <v>37</v>
       </c>
@@ -13421,7 +13413,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="30">
+    <row r="46" spans="1:18" ht="30.75">
       <c r="A46">
         <v>41</v>
       </c>
@@ -13447,7 +13439,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="30">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>42</v>
       </c>
@@ -13473,7 +13465,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="45">
+    <row r="48" spans="1:18" ht="30.75">
       <c r="A48">
         <v>43</v>
       </c>
@@ -13499,7 +13491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="45">
+    <row r="49" spans="1:17" ht="30.75">
       <c r="A49">
         <v>44</v>
       </c>
@@ -13525,7 +13517,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="30">
+    <row r="50" spans="1:17" ht="30.75">
       <c r="A50">
         <v>45</v>
       </c>
@@ -13551,7 +13543,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="60">
+    <row r="51" spans="1:17" ht="45.75">
       <c r="A51">
         <v>46</v>
       </c>
@@ -13577,7 +13569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="45">
+    <row r="52" spans="1:17" ht="30.75">
       <c r="A52">
         <v>47</v>
       </c>
@@ -13609,7 +13601,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="75">
+    <row r="53" spans="1:17" ht="60.75">
       <c r="A53">
         <v>48</v>
       </c>
@@ -13690,7 +13682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="90">
+    <row r="56" spans="1:17" ht="76.5">
       <c r="A56">
         <v>51</v>
       </c>
@@ -13716,7 +13708,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="45">
+    <row r="57" spans="1:17" ht="30.75">
       <c r="A57">
         <v>52</v>
       </c>
@@ -13768,7 +13760,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="60">
+    <row r="59" spans="1:17" ht="45.75">
       <c r="A59">
         <v>54</v>
       </c>
@@ -14365,7 +14357,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="75">
+    <row r="77" spans="1:17" ht="60.75">
       <c r="A77">
         <v>72</v>
       </c>
@@ -14391,7 +14383,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="45">
+    <row r="78" spans="1:17" ht="30.75">
       <c r="A78">
         <v>73</v>
       </c>
@@ -14417,7 +14409,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="105">
+    <row r="79" spans="1:17" ht="91.5">
       <c r="A79">
         <v>74</v>
       </c>
@@ -14443,7 +14435,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="45">
+    <row r="80" spans="1:17" ht="45.75">
       <c r="A80">
         <v>75</v>
       </c>
@@ -14469,7 +14461,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="45">
+    <row r="81" spans="1:18" ht="30.75">
       <c r="A81">
         <v>76</v>
       </c>
@@ -14492,7 +14484,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="45">
+    <row r="82" spans="1:18" ht="30.75">
       <c r="A82">
         <v>77</v>
       </c>
@@ -14725,7 +14717,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="30">
+    <row r="89" spans="1:18" ht="30.75">
       <c r="A89">
         <v>84</v>
       </c>
@@ -14771,7 +14763,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="30">
+    <row r="91" spans="1:18" ht="30.75">
       <c r="A91">
         <v>86</v>
       </c>
@@ -14797,7 +14789,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="45">
+    <row r="92" spans="1:18" ht="30.75">
       <c r="A92">
         <v>87</v>
       </c>
@@ -14832,7 +14824,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="75">
+    <row r="93" spans="1:18" ht="76.5">
       <c r="A93">
         <v>88</v>
       </c>
@@ -15031,7 +15023,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="75">
+    <row r="99" spans="1:18" ht="76.5">
       <c r="A99">
         <v>94</v>
       </c>
@@ -15054,7 +15046,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="90">
+    <row r="100" spans="1:18" ht="76.5">
       <c r="A100">
         <v>95</v>
       </c>
@@ -15077,7 +15069,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="90">
+    <row r="101" spans="1:18" ht="76.5">
       <c r="A101">
         <v>96</v>
       </c>
@@ -15100,7 +15092,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="90">
+    <row r="102" spans="1:18" ht="76.5">
       <c r="A102">
         <v>97</v>
       </c>
@@ -15123,7 +15115,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="75">
+    <row r="103" spans="1:18" ht="76.5">
       <c r="A103">
         <v>98</v>
       </c>
@@ -15146,7 +15138,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="60">
+    <row r="104" spans="1:18" ht="60.75">
       <c r="A104">
         <v>99</v>
       </c>
@@ -15172,7 +15164,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="45">
+    <row r="105" spans="1:18" ht="30.75">
       <c r="A105">
         <v>100</v>
       </c>
@@ -15233,7 +15225,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="75">
+    <row r="107" spans="1:18" ht="60.75">
       <c r="A107">
         <v>102</v>
       </c>
@@ -15259,7 +15251,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="45">
+    <row r="108" spans="1:18" ht="30.75">
       <c r="A108">
         <v>103</v>
       </c>
@@ -15285,7 +15277,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="30">
+    <row r="109" spans="1:18" ht="30.75">
       <c r="A109">
         <v>104</v>
       </c>
@@ -15314,7 +15306,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="45">
+    <row r="110" spans="1:18" ht="30.75">
       <c r="A110">
         <v>105</v>
       </c>
@@ -15386,19 +15378,19 @@
         <v>2</v>
       </c>
       <c r="L112" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="P112" t="s">
         <v>98</v>
       </c>
       <c r="Q112" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="R112" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="R112" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="120">
+    </row>
+    <row r="113" spans="1:18" ht="91.5">
       <c r="A113">
         <v>108</v>
       </c>
@@ -15406,7 +15398,7 @@
         <v>78</v>
       </c>
       <c r="C113" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -15424,10 +15416,10 @@
         <v>98</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="75">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" ht="60.75">
       <c r="A114">
         <v>109</v>
       </c>
@@ -15435,7 +15427,7 @@
         <v>78</v>
       </c>
       <c r="C114" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -15447,10 +15439,10 @@
         <v>45</v>
       </c>
       <c r="Q114" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="60">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" ht="45.75">
       <c r="A115">
         <v>110</v>
       </c>
@@ -15458,7 +15450,7 @@
         <v>78</v>
       </c>
       <c r="C115" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -15473,10 +15465,10 @@
         <v>45</v>
       </c>
       <c r="Q115" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="90">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" ht="60.75">
       <c r="A116">
         <v>111</v>
       </c>
@@ -15484,7 +15476,7 @@
         <v>78</v>
       </c>
       <c r="C116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -15496,10 +15488,10 @@
         <v>38</v>
       </c>
       <c r="Q116" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="105">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" ht="76.5">
       <c r="A117">
         <v>112</v>
       </c>
@@ -15507,7 +15499,7 @@
         <v>78</v>
       </c>
       <c r="C117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E117">
         <v>2</v>
@@ -15522,10 +15514,10 @@
         <v>45</v>
       </c>
       <c r="Q117" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="75">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" ht="60.75">
       <c r="A118">
         <v>113</v>
       </c>
@@ -15533,7 +15525,7 @@
         <v>78</v>
       </c>
       <c r="C118" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -15551,10 +15543,10 @@
         <v>45</v>
       </c>
       <c r="Q118" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="75">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" ht="60.75">
       <c r="A119">
         <v>114</v>
       </c>
@@ -15562,7 +15554,7 @@
         <v>78</v>
       </c>
       <c r="C119" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -15580,10 +15572,10 @@
         <v>45</v>
       </c>
       <c r="Q119" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="60">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="45.75">
       <c r="A120">
         <v>115</v>
       </c>
@@ -15591,7 +15583,7 @@
         <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I120">
         <v>2</v>
@@ -15606,10 +15598,10 @@
         <v>45</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="45">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="30.75">
       <c r="A121">
         <v>116</v>
       </c>
@@ -15617,7 +15609,7 @@
         <v>78</v>
       </c>
       <c r="C121" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -15635,10 +15627,10 @@
         <v>45</v>
       </c>
       <c r="Q121" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="45">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="30.75">
       <c r="A122">
         <v>117</v>
       </c>
@@ -15646,7 +15638,7 @@
         <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -15658,7 +15650,7 @@
         <v>45</v>
       </c>
       <c r="Q122" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:18" ht="76.5">
@@ -15669,7 +15661,7 @@
         <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -15684,10 +15676,10 @@
         <v>38</v>
       </c>
       <c r="Q123" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R123" s="5" t="s">
         <v>283</v>
-      </c>
-      <c r="R123" s="5" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:18" ht="45.75">
@@ -15698,7 +15690,7 @@
         <v>78</v>
       </c>
       <c r="C124" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -15716,10 +15708,10 @@
         <v>180</v>
       </c>
       <c r="Q124" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="R124" s="5" t="s">
         <v>286</v>
-      </c>
-      <c r="R124" s="5" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="76.5">
@@ -15730,7 +15722,7 @@
         <v>78</v>
       </c>
       <c r="C125" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -15745,13 +15737,13 @@
         <v>98</v>
       </c>
       <c r="Q125" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R125" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="R125" s="5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="30">
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>121</v>
       </c>
@@ -15759,7 +15751,7 @@
         <v>78</v>
       </c>
       <c r="C126" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -15777,10 +15769,10 @@
         <v>98</v>
       </c>
       <c r="Q126" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" ht="60">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="45.75">
       <c r="A127">
         <v>122</v>
       </c>
@@ -15788,7 +15780,7 @@
         <v>78</v>
       </c>
       <c r="C127" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -15803,7 +15795,7 @@
         <v>98</v>
       </c>
       <c r="Q127" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:18" ht="45.75" hidden="1">
@@ -15814,7 +15806,7 @@
         <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -15835,13 +15827,13 @@
         <v>98</v>
       </c>
       <c r="Q128" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="R128" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="R128" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="45">
+    </row>
+    <row r="129" spans="1:18" ht="30.75">
       <c r="A129">
         <v>124</v>
       </c>
@@ -15849,7 +15841,7 @@
         <v>78</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -15864,11 +15856,11 @@
         <v>45</v>
       </c>
       <c r="Q129" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R129" s="2"/>
     </row>
-    <row r="130" spans="1:18" ht="30">
+    <row r="130" spans="1:18" ht="30.75">
       <c r="A130">
         <v>125</v>
       </c>
@@ -15876,7 +15868,7 @@
         <v>78</v>
       </c>
       <c r="C130" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -15891,11 +15883,11 @@
         <v>45</v>
       </c>
       <c r="Q130" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R130" s="2"/>
     </row>
-    <row r="131" spans="1:18" ht="60">
+    <row r="131" spans="1:18" ht="60.75">
       <c r="A131">
         <v>126</v>
       </c>
@@ -15903,15 +15895,12 @@
         <v>78</v>
       </c>
       <c r="C131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E131">
         <v>1</v>
       </c>
       <c r="J131">
-        <v>1</v>
-      </c>
-      <c r="K131" t="b">
         <v>1</v>
       </c>
       <c r="L131" t="s">
@@ -15921,13 +15910,13 @@
         <v>45</v>
       </c>
       <c r="Q131" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R131" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="R131" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="60">
+    </row>
+    <row r="132" spans="1:18" ht="45.75">
       <c r="A132">
         <v>127</v>
       </c>
@@ -15935,7 +15924,7 @@
         <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -15953,13 +15942,13 @@
         <v>45</v>
       </c>
       <c r="Q132" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="R132" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="R132" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="60">
+    </row>
+    <row r="133" spans="1:18" ht="60.75">
       <c r="A133">
         <v>128</v>
       </c>
@@ -15967,13 +15956,13 @@
         <v>78</v>
       </c>
       <c r="C133" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E133">
         <v>3</v>
       </c>
       <c r="J133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K133" t="b">
         <v>1</v>
@@ -15985,13 +15974,13 @@
         <v>98</v>
       </c>
       <c r="Q133" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="R133" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="R133" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="60">
+    </row>
+    <row r="134" spans="1:18" ht="45.75">
       <c r="A134">
         <v>129</v>
       </c>
@@ -15999,10 +15988,10 @@
         <v>78</v>
       </c>
       <c r="C134" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J134">
         <v>4</v>
@@ -16017,13 +16006,13 @@
         <v>180</v>
       </c>
       <c r="Q134" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="R134" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="R134" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="45">
+    </row>
+    <row r="135" spans="1:18" ht="30.75">
       <c r="A135">
         <v>130</v>
       </c>
@@ -16031,7 +16020,7 @@
         <v>78</v>
       </c>
       <c r="C135" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F135">
         <v>2</v>
@@ -16046,7 +16035,7 @@
         <v>98</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R135" s="2"/>
     </row>
@@ -16058,7 +16047,7 @@
         <v>36</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -16079,10 +16068,10 @@
         <v>38</v>
       </c>
       <c r="Q136" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="R136" s="55" t="s">
         <v>317</v>
-      </c>
-      <c r="R136" s="55" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="45.75" hidden="1">
@@ -16093,7 +16082,7 @@
         <v>36</v>
       </c>
       <c r="C137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -16114,10 +16103,10 @@
         <v>38</v>
       </c>
       <c r="Q137" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="R137" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="R137" s="5" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="45.75" hidden="1">
@@ -16128,7 +16117,7 @@
         <v>36</v>
       </c>
       <c r="C138" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -16149,7 +16138,7 @@
         <v>38</v>
       </c>
       <c r="Q138" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R138" s="2"/>
     </row>
@@ -16161,7 +16150,7 @@
         <v>36</v>
       </c>
       <c r="C139" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -16182,7 +16171,7 @@
         <v>38</v>
       </c>
       <c r="Q139" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R139" s="2"/>
     </row>
@@ -16194,7 +16183,7 @@
         <v>36</v>
       </c>
       <c r="C140" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -16215,7 +16204,7 @@
         <v>38</v>
       </c>
       <c r="Q140" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R140" s="2"/>
     </row>
@@ -16227,7 +16216,7 @@
         <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -16248,11 +16237,11 @@
         <v>38</v>
       </c>
       <c r="Q141" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R141" s="2"/>
     </row>
-    <row r="142" spans="1:18" ht="60">
+    <row r="142" spans="1:18" ht="60.75">
       <c r="A142">
         <v>137</v>
       </c>
@@ -16260,7 +16249,7 @@
         <v>78</v>
       </c>
       <c r="C142" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J142">
         <v>2</v>
@@ -16272,13 +16261,13 @@
         <v>45</v>
       </c>
       <c r="Q142" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="R142" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="R142" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="75">
+    </row>
+    <row r="143" spans="1:18" ht="60.75">
       <c r="A143">
         <v>138</v>
       </c>
@@ -16286,7 +16275,7 @@
         <v>78</v>
       </c>
       <c r="C143" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J143">
         <v>2</v>
@@ -16298,13 +16287,13 @@
         <v>45</v>
       </c>
       <c r="Q143" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="R143" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="R143" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="45">
+    </row>
+    <row r="144" spans="1:18" ht="45.75">
       <c r="A144">
         <v>139</v>
       </c>
@@ -16312,7 +16301,7 @@
         <v>78</v>
       </c>
       <c r="C144" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J144">
         <v>3</v>
@@ -16324,11 +16313,11 @@
         <v>45</v>
       </c>
       <c r="Q144" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R144" s="2"/>
     </row>
-    <row r="145" spans="1:18" ht="75">
+    <row r="145" spans="1:18" ht="60.75">
       <c r="A145">
         <v>140</v>
       </c>
@@ -16336,7 +16325,7 @@
         <v>78</v>
       </c>
       <c r="C145" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -16351,13 +16340,13 @@
         <v>45</v>
       </c>
       <c r="Q145" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="R145" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="R145" s="5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="75">
+    </row>
+    <row r="146" spans="1:18" ht="60.75">
       <c r="A146">
         <v>141</v>
       </c>
@@ -16365,7 +16354,7 @@
         <v>78</v>
       </c>
       <c r="C146" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J146">
         <v>3</v>
@@ -16377,11 +16366,11 @@
         <v>45</v>
       </c>
       <c r="Q146" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R146" s="2"/>
     </row>
-    <row r="147" spans="1:18" ht="45">
+    <row r="147" spans="1:18" ht="30.75">
       <c r="A147">
         <v>142</v>
       </c>
@@ -16389,7 +16378,7 @@
         <v>78</v>
       </c>
       <c r="C147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -16401,11 +16390,11 @@
         <v>45</v>
       </c>
       <c r="Q147" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R147" s="2"/>
     </row>
-    <row r="148" spans="1:18" ht="45">
+    <row r="148" spans="1:18" ht="30.75">
       <c r="A148">
         <v>143</v>
       </c>
@@ -16413,7 +16402,7 @@
         <v>78</v>
       </c>
       <c r="C148" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J148">
         <v>3</v>
@@ -16425,11 +16414,11 @@
         <v>45</v>
       </c>
       <c r="Q148" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R148" s="2"/>
     </row>
-    <row r="149" spans="1:18" ht="45">
+    <row r="149" spans="1:18" ht="45.75">
       <c r="A149">
         <v>144</v>
       </c>
@@ -16437,7 +16426,7 @@
         <v>78</v>
       </c>
       <c r="C149" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J149">
         <v>3</v>
@@ -16449,11 +16438,11 @@
         <v>45</v>
       </c>
       <c r="Q149" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R149" s="2"/>
     </row>
-    <row r="150" spans="1:18" ht="45">
+    <row r="150" spans="1:18" ht="30.75">
       <c r="A150">
         <v>145</v>
       </c>
@@ -16461,7 +16450,7 @@
         <v>78</v>
       </c>
       <c r="C150" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J150">
         <v>3</v>
@@ -16473,11 +16462,11 @@
         <v>45</v>
       </c>
       <c r="Q150" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R150" s="2"/>
     </row>
-    <row r="151" spans="1:18" ht="45">
+    <row r="151" spans="1:18" ht="30.75">
       <c r="A151">
         <v>146</v>
       </c>
@@ -16485,7 +16474,7 @@
         <v>78</v>
       </c>
       <c r="C151" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J151">
         <v>3</v>
@@ -16497,11 +16486,11 @@
         <v>45</v>
       </c>
       <c r="Q151" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R151" s="2"/>
     </row>
-    <row r="152" spans="1:18" ht="45">
+    <row r="152" spans="1:18" ht="45.75">
       <c r="A152">
         <v>147</v>
       </c>
@@ -16509,7 +16498,7 @@
         <v>78</v>
       </c>
       <c r="C152" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J152">
         <v>5</v>
@@ -16521,11 +16510,11 @@
         <v>98</v>
       </c>
       <c r="Q152" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R152" s="2"/>
     </row>
-    <row r="153" spans="1:18" ht="75">
+    <row r="153" spans="1:18" ht="60.75">
       <c r="A153">
         <v>148</v>
       </c>
@@ -16533,7 +16522,7 @@
         <v>78</v>
       </c>
       <c r="C153" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J153">
         <v>8</v>
@@ -16545,13 +16534,13 @@
         <v>98</v>
       </c>
       <c r="Q153" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="R153" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="R153" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="30">
+    </row>
+    <row r="154" spans="1:18" ht="30.75">
       <c r="A154">
         <v>149</v>
       </c>
@@ -16559,7 +16548,7 @@
         <v>78</v>
       </c>
       <c r="C154" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J154">
         <v>4</v>
@@ -16571,7 +16560,7 @@
         <v>98</v>
       </c>
       <c r="Q154" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R154" s="2"/>
     </row>
@@ -16583,7 +16572,7 @@
         <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -16604,10 +16593,10 @@
         <v>45</v>
       </c>
       <c r="Q155" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="R155" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="R155" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="156" spans="1:18" ht="45.75" hidden="1">
@@ -16618,7 +16607,7 @@
         <v>36</v>
       </c>
       <c r="C156" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -16639,7 +16628,7 @@
         <v>45</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R156" s="2"/>
     </row>
@@ -16651,7 +16640,7 @@
         <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -16672,11 +16661,11 @@
         <v>45</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R157" s="2"/>
     </row>
-    <row r="158" spans="1:18" ht="60">
+    <row r="158" spans="1:18" ht="45.75">
       <c r="A158">
         <v>153</v>
       </c>
@@ -16684,7 +16673,7 @@
         <v>78</v>
       </c>
       <c r="C158" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -16696,11 +16685,11 @@
         <v>45</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R158" s="2"/>
     </row>
-    <row r="159" spans="1:18" ht="60">
+    <row r="159" spans="1:18" ht="45.75">
       <c r="A159">
         <v>154</v>
       </c>
@@ -16708,7 +16697,7 @@
         <v>78</v>
       </c>
       <c r="C159" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J159">
         <v>3</v>
@@ -16720,7 +16709,7 @@
         <v>45</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R159" s="2"/>
     </row>
@@ -16732,7 +16721,7 @@
         <v>78</v>
       </c>
       <c r="C160" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -16744,11 +16733,11 @@
         <v>38</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R160" s="2"/>
     </row>
-    <row r="161" spans="1:18" ht="195">
+    <row r="161" spans="1:18" ht="198">
       <c r="A161">
         <v>156</v>
       </c>
@@ -16756,7 +16745,7 @@
         <v>78</v>
       </c>
       <c r="C161" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J161">
         <v>2</v>
@@ -16768,11 +16757,11 @@
         <v>98</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R161" s="2"/>
     </row>
-    <row r="162" spans="1:18" ht="75">
+    <row r="162" spans="1:18" ht="76.5">
       <c r="A162">
         <v>157</v>
       </c>
@@ -16780,7 +16769,7 @@
         <v>78</v>
       </c>
       <c r="C162" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J162">
         <v>2</v>
@@ -16792,11 +16781,11 @@
         <v>38</v>
       </c>
       <c r="Q162" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R162" s="2"/>
     </row>
-    <row r="163" spans="1:18" ht="75">
+    <row r="163" spans="1:18" ht="76.5">
       <c r="A163">
         <v>158</v>
       </c>
@@ -16804,7 +16793,7 @@
         <v>78</v>
       </c>
       <c r="C163" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J163">
         <v>2</v>
@@ -16816,7 +16805,7 @@
         <v>38</v>
       </c>
       <c r="Q163" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R163" s="2"/>
     </row>
@@ -16828,7 +16817,7 @@
         <v>36</v>
       </c>
       <c r="C164" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -16849,11 +16838,11 @@
         <v>98</v>
       </c>
       <c r="Q164" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R164" s="2"/>
     </row>
-    <row r="165" spans="1:18" ht="60">
+    <row r="165" spans="1:18" ht="60.75">
       <c r="A165">
         <v>160</v>
       </c>
@@ -16861,7 +16850,7 @@
         <v>78</v>
       </c>
       <c r="C165" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J165">
         <v>4</v>
@@ -16873,11 +16862,11 @@
         <v>45</v>
       </c>
       <c r="Q165" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R165" s="2"/>
     </row>
-    <row r="166" spans="1:18" ht="45">
+    <row r="166" spans="1:18" ht="45.75">
       <c r="A166">
         <v>161</v>
       </c>
@@ -16885,7 +16874,7 @@
         <v>78</v>
       </c>
       <c r="C166" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -16900,7 +16889,7 @@
         <v>45</v>
       </c>
       <c r="Q166" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R166" s="2"/>
     </row>
@@ -16912,7 +16901,7 @@
         <v>36</v>
       </c>
       <c r="C167" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -16933,10 +16922,10 @@
         <v>98</v>
       </c>
       <c r="Q167" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="R167" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="R167" s="5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="60.75">
@@ -16947,7 +16936,7 @@
         <v>78</v>
       </c>
       <c r="C168" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J168">
         <v>4</v>
@@ -16959,7 +16948,7 @@
         <v>45</v>
       </c>
       <c r="Q168" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R168" s="2"/>
     </row>
@@ -16971,7 +16960,7 @@
         <v>78</v>
       </c>
       <c r="C169" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -16986,7 +16975,7 @@
         <v>45</v>
       </c>
       <c r="Q169" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R169" s="2"/>
     </row>
@@ -16998,7 +16987,7 @@
         <v>78</v>
       </c>
       <c r="C170" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G170">
         <v>2</v>
@@ -17013,7 +17002,7 @@
         <v>98</v>
       </c>
       <c r="Q170" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R170" s="2"/>
     </row>
@@ -17025,7 +17014,7 @@
         <v>78</v>
       </c>
       <c r="C171" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -17040,7 +17029,7 @@
         <v>45</v>
       </c>
       <c r="Q171" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R171" s="2"/>
     </row>
@@ -17052,7 +17041,7 @@
         <v>36</v>
       </c>
       <c r="C172" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -17073,7 +17062,7 @@
         <v>98</v>
       </c>
       <c r="Q172" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R172" s="2"/>
     </row>
@@ -17085,7 +17074,7 @@
         <v>78</v>
       </c>
       <c r="C173" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -17100,10 +17089,10 @@
         <v>98</v>
       </c>
       <c r="Q173" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="R173" s="5" t="s">
         <v>399</v>
-      </c>
-      <c r="R173" s="5" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="174" spans="1:18" ht="137.25" hidden="1">
@@ -17114,7 +17103,7 @@
         <v>36</v>
       </c>
       <c r="C174" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -17135,7 +17124,7 @@
         <v>38</v>
       </c>
       <c r="Q174" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R174" s="2"/>
     </row>
@@ -17147,7 +17136,7 @@
         <v>78</v>
       </c>
       <c r="C175" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J175">
         <v>4</v>
@@ -17159,7 +17148,7 @@
         <v>98</v>
       </c>
       <c r="Q175" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R175" s="2"/>
     </row>
@@ -17171,7 +17160,7 @@
         <v>78</v>
       </c>
       <c r="C176" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -17186,7 +17175,7 @@
         <v>98</v>
       </c>
       <c r="Q176" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R176" s="2"/>
     </row>
@@ -17198,7 +17187,7 @@
         <v>78</v>
       </c>
       <c r="C177" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -17213,7 +17202,7 @@
         <v>38</v>
       </c>
       <c r="Q177" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R177" s="2"/>
     </row>
@@ -17532,270 +17521,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="66"/>
+    </row>
+    <row r="2" spans="2:59" ht="15.75" thickBot="1">
+      <c r="B2" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="80"/>
-    </row>
-    <row r="2" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B2" s="73" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="72" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="75" t="s">
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="74" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72" t="s">
         <v>412</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75" t="s">
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="71" t="s">
         <v>413</v>
       </c>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="74" t="s">
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="72" t="s">
         <v>414</v>
       </c>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="75" t="s">
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="73" t="s">
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="72" t="s">
         <v>416</v>
       </c>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="75" t="s">
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="71" t="s">
         <v>417</v>
       </c>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="74" t="s">
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="122"/>
+      <c r="BE2" s="120" t="s">
         <v>418</v>
       </c>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="77"/>
-      <c r="BE2" s="81" t="s">
+      <c r="BF2" s="121"/>
+      <c r="BG2" s="23" t="s">
         <v>419</v>
-      </c>
-      <c r="BF2" s="82"/>
-      <c r="BG2" s="23" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="3" spans="2:59">
       <c r="B3" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="72" t="str">
+      <c r="D3" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="10"/>
       <c r="H3" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I3" s="33">
         <v>21</v>
       </c>
-      <c r="J3" s="58" t="str">
+      <c r="J3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="72" t="str">
+      <c r="P3" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
       <c r="T3" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U3" s="33">
         <v>56</v>
       </c>
-      <c r="V3" s="58" t="str">
+      <c r="V3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="59"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="91"/>
       <c r="Z3" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="72" t="str">
+      <c r="AB3" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
       <c r="AF3" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG3" s="33">
         <v>62</v>
       </c>
-      <c r="AH3" s="58" t="str">
+      <c r="AH3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="59"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="91"/>
       <c r="AL3" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="72" t="str">
+      <c r="AN3" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
       <c r="AR3" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AS3" s="33">
         <v>11</v>
       </c>
-      <c r="AT3" s="58" t="str">
+      <c r="AT3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="59"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="91"/>
       <c r="AX3" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AY3" s="33">
         <v>4</v>
       </c>
-      <c r="AZ3" s="58" t="str">
+      <c r="AZ3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="59"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="91"/>
       <c r="BE3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
@@ -17803,183 +17792,183 @@
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="107" t="str">
+      <c r="B4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="107" t="str">
+      <c r="H4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="72" t="str">
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="107" t="str">
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="72" t="str">
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="107" t="str">
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="72" t="str">
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="107" t="str">
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="107" t="str">
+      <c r="AS4" s="67"/>
+      <c r="AT4" s="67"/>
+      <c r="AU4" s="67"/>
+      <c r="AV4" s="67"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="108"/>
+      <c r="AY4" s="67"/>
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+      <c r="BC4" s="69"/>
       <c r="BE4" s="20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
-        <v>CREW</v>
+        <v>STRATEGY</v>
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="109" t="str">
+      <c r="H5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="110" t="str">
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="109" t="str">
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="110" t="str">
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="109" t="str">
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="110" t="str">
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="109" t="str">
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="109" t="str">
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="111"/>
+      <c r="AY5" s="108"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="108"/>
+      <c r="BB5" s="108"/>
+      <c r="BC5" s="109"/>
       <c r="BE5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BF5">
         <f>MAX('Card Designs'!A6:A199)</f>
@@ -17988,166 +17977,166 @@
     </row>
     <row r="6" spans="2:59">
       <c r="B6" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="G6" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="H6" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="I6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="N6" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="O6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="O6" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="R6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="S6" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="S6" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="T6" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="U6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="W6" s="14" t="s">
+      <c r="X6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="Y6" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="Y6" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="Z6" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AA6" s="14" t="s">
+      <c r="AB6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AC6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AD6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="14" t="s">
+      <c r="AE6" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="AE6" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="AF6" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AG6" s="14" t="s">
+      <c r="AH6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AH6" s="14" t="s">
+      <c r="AI6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AI6" s="14" t="s">
+      <c r="AJ6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="AJ6" s="14" t="s">
+      <c r="AK6" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="AK6" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="AL6" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AM6" s="14" t="s">
+      <c r="AN6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AN6" s="14" t="s">
+      <c r="AO6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AO6" s="14" t="s">
+      <c r="AP6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="AP6" s="14" t="s">
+      <c r="AQ6" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="AQ6" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="AR6" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="AS6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AS6" s="14" t="s">
+      <c r="AT6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AT6" s="14" t="s">
+      <c r="AU6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AU6" s="14" t="s">
+      <c r="AV6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="AV6" s="14" t="s">
+      <c r="AW6" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="AW6" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="AX6" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="AY6" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AY6" s="14" t="s">
+      <c r="AZ6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AZ6" s="14" t="s">
+      <c r="BA6" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="BA6" s="14" t="s">
+      <c r="BB6" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="BB6" s="14" t="s">
+      <c r="BC6" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="BC6" s="17" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="7" spans="2:59">
@@ -18369,228 +18358,228 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="104" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="108"/>
+      <c r="H8" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="69"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="83" t="str">
+      <c r="B9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="83" t="str">
+      <c r="H9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="84" t="str">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Tap: Medic + 3
 Tap: Repair ship by 100</v>
       </c>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="83" t="str">
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="84" t="str">
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="83" t="str">
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="84" t="str">
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="83" t="str">
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="83" t="str">
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Tap: Research + 3 and discard top card of deck</v>
       </c>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="85"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="60"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="85"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="58"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="60"/>
       <c r="BE10" s="50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BF10" s="51">
         <v>15</v>
@@ -18601,351 +18590,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="85"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="60"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="85"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="60"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="83"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="85"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="60"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="85"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="59"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="59"/>
+      <c r="AO14" s="59"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="59"/>
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="60"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="86"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="87"/>
-      <c r="BA15" s="87"/>
-      <c r="BB15" s="87"/>
-      <c r="BC15" s="88"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="62"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="63"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="92" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="94"/>
+    </row>
+    <row r="17" spans="2:55">
+      <c r="B17" s="95" t="s">
         <v>431</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="116"/>
-      <c r="AS16" s="116"/>
-      <c r="AT16" s="116"/>
-      <c r="AU16" s="116"/>
-      <c r="AV16" s="116"/>
-      <c r="AW16" s="116"/>
-      <c r="AX16" s="116"/>
-      <c r="AY16" s="116"/>
-      <c r="AZ16" s="116"/>
-      <c r="BA16" s="116"/>
-      <c r="BB16" s="116"/>
-      <c r="BC16" s="117"/>
-    </row>
-    <row r="17" spans="2:55">
-      <c r="B17" s="118" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -18990,24 +18979,24 @@
       <c r="AV17" s="34"/>
       <c r="AW17" s="35"/>
       <c r="AX17" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AY17" s="39"/>
-      <c r="AZ17" s="61" t="s">
+      <c r="AZ17" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="BA17" s="61"/>
-      <c r="BB17" s="61"/>
+      <c r="BA17" s="110"/>
+      <c r="BB17" s="110"/>
       <c r="BC17" s="40"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="95" t="s">
-        <v>433</v>
-      </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
+      <c r="B18" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -19016,24 +19005,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="62" t="e">
+      <c r="AX18" s="79" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
+      <c r="AY18" s="80"/>
+      <c r="AZ18" s="80"/>
+      <c r="BA18" s="80"/>
+      <c r="BB18" s="80"/>
       <c r="BC18" s="41"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="98" t="s">
-        <v>434</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
+      <c r="B19" s="101" t="s">
+        <v>433</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="36"/>
       <c r="L19" s="36"/>
       <c r="R19" s="36"/>
@@ -19042,24 +19031,24 @@
       <c r="AJ19" s="36"/>
       <c r="AP19" s="36"/>
       <c r="AV19" s="36"/>
-      <c r="AX19" s="64" t="e">
+      <c r="AX19" s="77" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="78"/>
+      <c r="BA19" s="78"/>
+      <c r="BB19" s="78"/>
       <c r="BC19" s="42"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="121" t="s">
-        <v>435</v>
-      </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
+      <c r="B20" s="104" t="s">
+        <v>434</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -19069,22 +19058,22 @@
       <c r="AP20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AX20" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="AY20" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="AY20" s="44" t="s">
+      <c r="AZ20" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="AZ20" s="44" t="s">
+      <c r="BA20" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="BA20" s="44" t="s">
+      <c r="BB20" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="BB20" s="44" t="s">
+      <c r="BC20" s="45" t="s">
         <v>427</v>
-      </c>
-      <c r="BC20" s="45" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="21" spans="2:55">
@@ -19116,71 +19105,71 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="AY22" s="63"/>
-      <c r="AZ22" s="63"/>
-      <c r="BA22" s="63"/>
-      <c r="BB22" s="63"/>
+      <c r="AX22" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY22" s="80"/>
+      <c r="AZ22" s="80"/>
+      <c r="BA22" s="80"/>
+      <c r="BB22" s="80"/>
       <c r="BC22" s="41"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="AX23" s="66" t="e">
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="AX23" s="81" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="68"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="83"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="67"/>
-      <c r="AZ24" s="67"/>
-      <c r="BA24" s="67"/>
-      <c r="BB24" s="67"/>
-      <c r="BC24" s="68"/>
+      <c r="AX24" s="81"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="82"/>
+      <c r="BB24" s="82"/>
+      <c r="BC24" s="83"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="68"/>
+      <c r="AX25" s="81"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="82"/>
+      <c r="BB25" s="82"/>
+      <c r="BC25" s="83"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="67"/>
-      <c r="AZ26" s="67"/>
-      <c r="BA26" s="67"/>
-      <c r="BB26" s="67"/>
-      <c r="BC26" s="68"/>
+      <c r="AX26" s="81"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="82"/>
+      <c r="BA26" s="82"/>
+      <c r="BB26" s="82"/>
+      <c r="BC26" s="83"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="70"/>
-      <c r="AZ27" s="70"/>
-      <c r="BA27" s="70"/>
-      <c r="BB27" s="70"/>
-      <c r="BC27" s="71"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="85"/>
+      <c r="AZ27" s="85"/>
+      <c r="BA27" s="85"/>
+      <c r="BB27" s="85"/>
+      <c r="BC27" s="86"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -19229,70 +19218,70 @@
       <c r="AU28" s="37"/>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
-      <c r="AX28" s="112" t="s">
-        <v>436</v>
-      </c>
-      <c r="AY28" s="113"/>
-      <c r="AZ28" s="113"/>
-      <c r="BA28" s="113"/>
-      <c r="BB28" s="113"/>
-      <c r="BC28" s="114"/>
+      <c r="AX28" s="87" t="s">
+        <v>435</v>
+      </c>
+      <c r="AY28" s="88"/>
+      <c r="AZ28" s="88"/>
+      <c r="BA28" s="88"/>
+      <c r="BB28" s="88"/>
+      <c r="BC28" s="89"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="40"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="62" t="e">
+      <c r="B30" s="79" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="41"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="64" t="e">
+      <c r="B31" s="77" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="42"/>
       <c r="BC31" s="8"/>
     </row>
     <row r="32" spans="2:55">
       <c r="B32" s="43" t="s">
+        <v>422</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="D32" s="44" t="s">
         <v>424</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="E32" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="F32" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="G32" s="45" t="s">
         <v>427</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>428</v>
       </c>
       <c r="BC32" s="8"/>
     </row>
@@ -19324,83 +19313,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
+      <c r="B34" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
       <c r="G34" s="41"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="66" t="e">
+      <c r="B35" s="81" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="AX36" s="101" t="s">
-        <v>435</v>
-      </c>
-      <c r="AY36" s="102"/>
-      <c r="AZ36" s="102"/>
-      <c r="BA36" s="102"/>
-      <c r="BB36" s="102"/>
-      <c r="BC36" s="103"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="83"/>
+      <c r="AX36" s="117" t="s">
+        <v>434</v>
+      </c>
+      <c r="AY36" s="118"/>
+      <c r="AZ36" s="118"/>
+      <c r="BA36" s="118"/>
+      <c r="BB36" s="118"/>
+      <c r="BC36" s="119"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
-      <c r="AX37" s="98" t="s">
-        <v>434</v>
-      </c>
-      <c r="AY37" s="99"/>
-      <c r="AZ37" s="99"/>
-      <c r="BA37" s="99"/>
-      <c r="BB37" s="99"/>
-      <c r="BC37" s="100"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
+      <c r="AX37" s="101" t="s">
+        <v>433</v>
+      </c>
+      <c r="AY37" s="102"/>
+      <c r="AZ37" s="102"/>
+      <c r="BA37" s="102"/>
+      <c r="BB37" s="102"/>
+      <c r="BC37" s="103"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="AX38" s="95" t="s">
-        <v>433</v>
-      </c>
-      <c r="AY38" s="96"/>
-      <c r="AZ38" s="96"/>
-      <c r="BA38" s="96"/>
-      <c r="BB38" s="96"/>
-      <c r="BC38" s="97"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="83"/>
+      <c r="AX38" s="98" t="s">
+        <v>432</v>
+      </c>
+      <c r="AY38" s="99"/>
+      <c r="AZ38" s="99"/>
+      <c r="BA38" s="99"/>
+      <c r="BB38" s="99"/>
+      <c r="BC38" s="100"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="86"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -19443,654 +19432,654 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="92" t="s">
-        <v>432</v>
-      </c>
-      <c r="AY39" s="93"/>
-      <c r="AZ39" s="93"/>
-      <c r="BA39" s="93"/>
-      <c r="BB39" s="93"/>
-      <c r="BC39" s="94"/>
+      <c r="AX39" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="AY39" s="115"/>
+      <c r="AZ39" s="115"/>
+      <c r="BA39" s="115"/>
+      <c r="BB39" s="115"/>
+      <c r="BC39" s="116"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="90"/>
-      <c r="AB40" s="90"/>
-      <c r="AC40" s="90"/>
-      <c r="AD40" s="90"/>
-      <c r="AE40" s="90"/>
-      <c r="AF40" s="90"/>
-      <c r="AG40" s="90"/>
-      <c r="AH40" s="90"/>
-      <c r="AI40" s="90"/>
-      <c r="AJ40" s="90"/>
-      <c r="AK40" s="90"/>
-      <c r="AL40" s="90"/>
-      <c r="AM40" s="90"/>
-      <c r="AN40" s="90"/>
-      <c r="AO40" s="90"/>
-      <c r="AP40" s="90"/>
-      <c r="AQ40" s="90"/>
-      <c r="AR40" s="90"/>
-      <c r="AS40" s="90"/>
-      <c r="AT40" s="90"/>
-      <c r="AU40" s="90"/>
-      <c r="AV40" s="90"/>
-      <c r="AW40" s="90"/>
-      <c r="AX40" s="90"/>
-      <c r="AY40" s="90"/>
-      <c r="AZ40" s="90"/>
-      <c r="BA40" s="90"/>
-      <c r="BB40" s="90"/>
-      <c r="BC40" s="91"/>
+      <c r="B40" s="111" t="s">
+        <v>436</v>
+      </c>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="112"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="112"/>
+      <c r="Y40" s="112"/>
+      <c r="Z40" s="112"/>
+      <c r="AA40" s="112"/>
+      <c r="AB40" s="112"/>
+      <c r="AC40" s="112"/>
+      <c r="AD40" s="112"/>
+      <c r="AE40" s="112"/>
+      <c r="AF40" s="112"/>
+      <c r="AG40" s="112"/>
+      <c r="AH40" s="112"/>
+      <c r="AI40" s="112"/>
+      <c r="AJ40" s="112"/>
+      <c r="AK40" s="112"/>
+      <c r="AL40" s="112"/>
+      <c r="AM40" s="112"/>
+      <c r="AN40" s="112"/>
+      <c r="AO40" s="112"/>
+      <c r="AP40" s="112"/>
+      <c r="AQ40" s="112"/>
+      <c r="AR40" s="112"/>
+      <c r="AS40" s="112"/>
+      <c r="AT40" s="112"/>
+      <c r="AU40" s="112"/>
+      <c r="AV40" s="112"/>
+      <c r="AW40" s="112"/>
+      <c r="AX40" s="112"/>
+      <c r="AY40" s="112"/>
+      <c r="AZ40" s="112"/>
+      <c r="BA40" s="112"/>
+      <c r="BB40" s="112"/>
+      <c r="BC40" s="113"/>
     </row>
     <row r="41" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="65"/>
+      <c r="AP41" s="65"/>
+      <c r="AQ41" s="65"/>
+      <c r="AR41" s="65"/>
+      <c r="AS41" s="65"/>
+      <c r="AT41" s="65"/>
+      <c r="AU41" s="65"/>
+      <c r="AV41" s="65"/>
+      <c r="AW41" s="65"/>
+      <c r="AX41" s="65"/>
+      <c r="AY41" s="65"/>
+      <c r="AZ41" s="65"/>
+      <c r="BA41" s="65"/>
+      <c r="BB41" s="65"/>
+      <c r="BC41" s="66"/>
+    </row>
+    <row r="42" spans="2:55" ht="15.75" thickBot="1">
+      <c r="B42" s="70" t="s">
         <v>409</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="79"/>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM41" s="79"/>
-      <c r="AN41" s="79"/>
-      <c r="AO41" s="79"/>
-      <c r="AP41" s="79"/>
-      <c r="AQ41" s="79"/>
-      <c r="AR41" s="79"/>
-      <c r="AS41" s="79"/>
-      <c r="AT41" s="79"/>
-      <c r="AU41" s="79"/>
-      <c r="AV41" s="79"/>
-      <c r="AW41" s="79"/>
-      <c r="AX41" s="79"/>
-      <c r="AY41" s="79"/>
-      <c r="AZ41" s="79"/>
-      <c r="BA41" s="79"/>
-      <c r="BB41" s="79"/>
-      <c r="BC41" s="80"/>
-    </row>
-    <row r="42" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B42" s="73" t="s">
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="72" t="s">
         <v>410</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="75" t="s">
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="74" t="s">
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="72" t="s">
         <v>412</v>
       </c>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="75" t="s">
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="71" t="s">
         <v>413</v>
       </c>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="74" t="s">
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="71"/>
+      <c r="AF42" s="72" t="s">
         <v>414</v>
       </c>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
-      <c r="AD42" s="74"/>
-      <c r="AE42" s="74"/>
-      <c r="AF42" s="75" t="s">
+      <c r="AG42" s="71"/>
+      <c r="AH42" s="71"/>
+      <c r="AI42" s="71"/>
+      <c r="AJ42" s="71"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="70" t="s">
         <v>415</v>
       </c>
-      <c r="AG42" s="74"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="74"/>
-      <c r="AJ42" s="74"/>
-      <c r="AK42" s="74"/>
-      <c r="AL42" s="73" t="s">
+      <c r="AM42" s="71"/>
+      <c r="AN42" s="71"/>
+      <c r="AO42" s="71"/>
+      <c r="AP42" s="71"/>
+      <c r="AQ42" s="71"/>
+      <c r="AR42" s="72" t="s">
         <v>416</v>
       </c>
-      <c r="AM42" s="74"/>
-      <c r="AN42" s="74"/>
-      <c r="AO42" s="74"/>
-      <c r="AP42" s="74"/>
-      <c r="AQ42" s="74"/>
-      <c r="AR42" s="75" t="s">
+      <c r="AS42" s="71"/>
+      <c r="AT42" s="71"/>
+      <c r="AU42" s="71"/>
+      <c r="AV42" s="71"/>
+      <c r="AW42" s="73"/>
+      <c r="AX42" s="71" t="s">
         <v>417</v>
       </c>
-      <c r="AS42" s="74"/>
-      <c r="AT42" s="74"/>
-      <c r="AU42" s="74"/>
-      <c r="AV42" s="74"/>
-      <c r="AW42" s="76"/>
-      <c r="AX42" s="74" t="s">
-        <v>418</v>
-      </c>
-      <c r="AY42" s="74"/>
-      <c r="AZ42" s="74"/>
-      <c r="BA42" s="74"/>
-      <c r="BB42" s="74"/>
-      <c r="BC42" s="77"/>
+      <c r="AY42" s="71"/>
+      <c r="AZ42" s="71"/>
+      <c r="BA42" s="71"/>
+      <c r="BB42" s="71"/>
+      <c r="BC42" s="122"/>
     </row>
     <row r="43" spans="2:55">
       <c r="B43" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C43" s="26">
         <v>63</v>
       </c>
-      <c r="D43" s="72" t="str">
+      <c r="D43" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="10"/>
       <c r="H43" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I43" s="33">
         <v>99</v>
       </c>
-      <c r="J43" s="58" t="str">
+      <c r="J43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="59"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O43" s="26">
         <v>46</v>
       </c>
-      <c r="P43" s="72" t="str">
+      <c r="P43" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
       <c r="T43" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="U43" s="33">
         <v>56</v>
       </c>
-      <c r="V43" s="58" t="str">
+      <c r="V43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="59"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="91"/>
       <c r="Z43" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AA43" s="26">
         <v>99</v>
       </c>
-      <c r="AB43" s="72" t="str">
+      <c r="AB43" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC43" s="72"/>
-      <c r="AD43" s="72"/>
-      <c r="AE43" s="72"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="67"/>
+      <c r="AE43" s="67"/>
       <c r="AF43" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG43" s="33">
         <v>62</v>
       </c>
-      <c r="AH43" s="58" t="str">
+      <c r="AH43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI43" s="58"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="59"/>
+      <c r="AI43" s="90"/>
+      <c r="AJ43" s="90"/>
+      <c r="AK43" s="91"/>
       <c r="AL43" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM43" s="26">
         <v>82</v>
       </c>
-      <c r="AN43" s="72" t="str">
+      <c r="AN43" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO43" s="72"/>
-      <c r="AP43" s="72"/>
-      <c r="AQ43" s="72"/>
+      <c r="AO43" s="67"/>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="67"/>
       <c r="AR43" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AS43" s="33">
         <v>11</v>
       </c>
-      <c r="AT43" s="58" t="str">
+      <c r="AT43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="59"/>
+      <c r="AU43" s="90"/>
+      <c r="AV43" s="90"/>
+      <c r="AW43" s="91"/>
       <c r="AX43" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AY43" s="33">
         <v>4</v>
       </c>
-      <c r="AZ43" s="58" t="str">
+      <c r="AZ43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA43" s="58"/>
-      <c r="BB43" s="58"/>
-      <c r="BC43" s="59"/>
+      <c r="BA43" s="90"/>
+      <c r="BB43" s="90"/>
+      <c r="BC43" s="91"/>
     </row>
     <row r="44" spans="2:55">
-      <c r="B44" s="107" t="str">
+      <c r="B44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),3)</f>
         <v>P Bot Bot</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="107" t="str">
+      <c r="H44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="72" t="str">
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),3)</f>
         <v>Hull Breach</v>
       </c>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="107" t="str">
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="72" t="str">
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="72"/>
-      <c r="AC44" s="72"/>
-      <c r="AD44" s="72"/>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="107" t="str">
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="67"/>
+      <c r="AD44" s="67"/>
+      <c r="AE44" s="67"/>
+      <c r="AF44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG44" s="72"/>
-      <c r="AH44" s="72"/>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="72"/>
-      <c r="AK44" s="108"/>
-      <c r="AL44" s="72" t="str">
+      <c r="AG44" s="67"/>
+      <c r="AH44" s="67"/>
+      <c r="AI44" s="67"/>
+      <c r="AJ44" s="67"/>
+      <c r="AK44" s="69"/>
+      <c r="AL44" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM44" s="72"/>
-      <c r="AN44" s="72"/>
-      <c r="AO44" s="72"/>
-      <c r="AP44" s="72"/>
-      <c r="AQ44" s="72"/>
-      <c r="AR44" s="107" t="str">
+      <c r="AM44" s="67"/>
+      <c r="AN44" s="67"/>
+      <c r="AO44" s="67"/>
+      <c r="AP44" s="67"/>
+      <c r="AQ44" s="67"/>
+      <c r="AR44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="72"/>
-      <c r="AV44" s="72"/>
-      <c r="AW44" s="108"/>
-      <c r="AX44" s="107" t="str">
+      <c r="AS44" s="67"/>
+      <c r="AT44" s="67"/>
+      <c r="AU44" s="67"/>
+      <c r="AV44" s="67"/>
+      <c r="AW44" s="69"/>
+      <c r="AX44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY44" s="72"/>
-      <c r="AZ44" s="72"/>
-      <c r="BA44" s="72"/>
-      <c r="BB44" s="72"/>
-      <c r="BC44" s="108"/>
+      <c r="AY44" s="67"/>
+      <c r="AZ44" s="67"/>
+      <c r="BA44" s="67"/>
+      <c r="BB44" s="67"/>
+      <c r="BC44" s="69"/>
     </row>
     <row r="45" spans="2:55">
-      <c r="B45" s="109" t="str">
+      <c r="B45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="109" t="str">
+      <c r="H45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="110" t="str">
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="109" t="str">
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="110" t="str">
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="109" t="str">
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="108"/>
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="108"/>
+      <c r="AE45" s="108"/>
+      <c r="AF45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="111"/>
-      <c r="AL45" s="110" t="str">
+      <c r="AG45" s="108"/>
+      <c r="AH45" s="108"/>
+      <c r="AI45" s="108"/>
+      <c r="AJ45" s="108"/>
+      <c r="AK45" s="109"/>
+      <c r="AL45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM45" s="110"/>
-      <c r="AN45" s="110"/>
-      <c r="AO45" s="110"/>
-      <c r="AP45" s="110"/>
-      <c r="AQ45" s="110"/>
-      <c r="AR45" s="109" t="str">
+      <c r="AM45" s="108"/>
+      <c r="AN45" s="108"/>
+      <c r="AO45" s="108"/>
+      <c r="AP45" s="108"/>
+      <c r="AQ45" s="108"/>
+      <c r="AR45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS45" s="110"/>
-      <c r="AT45" s="110"/>
-      <c r="AU45" s="110"/>
-      <c r="AV45" s="110"/>
-      <c r="AW45" s="111"/>
-      <c r="AX45" s="109" t="str">
+      <c r="AS45" s="108"/>
+      <c r="AT45" s="108"/>
+      <c r="AU45" s="108"/>
+      <c r="AV45" s="108"/>
+      <c r="AW45" s="109"/>
+      <c r="AX45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY45" s="110"/>
-      <c r="AZ45" s="110"/>
-      <c r="BA45" s="110"/>
-      <c r="BB45" s="110"/>
-      <c r="BC45" s="111"/>
+      <c r="AY45" s="108"/>
+      <c r="AZ45" s="108"/>
+      <c r="BA45" s="108"/>
+      <c r="BB45" s="108"/>
+      <c r="BC45" s="109"/>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="D46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="E46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="F46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="G46" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="G46" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="H46" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="I46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="J46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="J46" s="14" t="s">
+      <c r="K46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="L46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="L46" s="14" t="s">
+      <c r="M46" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="M46" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="N46" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="O46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="O46" s="14" t="s">
+      <c r="P46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="P46" s="14" t="s">
+      <c r="Q46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="Q46" s="14" t="s">
+      <c r="R46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="R46" s="14" t="s">
+      <c r="S46" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="S46" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="T46" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="U46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="U46" s="14" t="s">
+      <c r="V46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="V46" s="14" t="s">
+      <c r="W46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="W46" s="14" t="s">
+      <c r="X46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="X46" s="14" t="s">
+      <c r="Y46" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="Y46" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="Z46" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AA46" s="14" t="s">
+      <c r="AB46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AB46" s="14" t="s">
+      <c r="AC46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AC46" s="14" t="s">
+      <c r="AD46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="AD46" s="14" t="s">
+      <c r="AE46" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="AE46" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="AF46" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AG46" s="14" t="s">
+      <c r="AH46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AH46" s="14" t="s">
+      <c r="AI46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AI46" s="14" t="s">
+      <c r="AJ46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="AJ46" s="14" t="s">
+      <c r="AK46" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="AK46" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="AL46" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AM46" s="14" t="s">
+      <c r="AN46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AN46" s="14" t="s">
+      <c r="AO46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AO46" s="14" t="s">
+      <c r="AP46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="AP46" s="14" t="s">
+      <c r="AQ46" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="AQ46" s="31" t="s">
-        <v>428</v>
-      </c>
       <c r="AR46" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="AS46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AS46" s="14" t="s">
+      <c r="AT46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AT46" s="14" t="s">
+      <c r="AU46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="AU46" s="14" t="s">
+      <c r="AV46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="AV46" s="14" t="s">
+      <c r="AW46" s="17" t="s">
         <v>427</v>
       </c>
-      <c r="AW46" s="17" t="s">
-        <v>428</v>
-      </c>
       <c r="AX46" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="AY46" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="AY46" s="14" t="s">
+      <c r="AZ46" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="AZ46" s="14" t="s">
+      <c r="BA46" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="BA46" s="14" t="s">
+      <c r="BB46" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="BB46" s="14" t="s">
+      <c r="BC46" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="BC46" s="17" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="47" spans="2:55">
@@ -20312,509 +20301,620 @@
       </c>
     </row>
     <row r="48" spans="2:55">
-      <c r="B48" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
+      <c r="B48" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="108"/>
-      <c r="Z48" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="72"/>
-      <c r="AC48" s="72"/>
-      <c r="AD48" s="72"/>
-      <c r="AE48" s="72"/>
-      <c r="AF48" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="AG48" s="72"/>
-      <c r="AH48" s="72"/>
-      <c r="AI48" s="72"/>
-      <c r="AJ48" s="72"/>
-      <c r="AK48" s="108"/>
-      <c r="AL48" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="AM48" s="72"/>
-      <c r="AN48" s="72"/>
-      <c r="AO48" s="72"/>
-      <c r="AP48" s="72"/>
-      <c r="AQ48" s="72"/>
-      <c r="AR48" s="104" t="s">
-        <v>429</v>
-      </c>
-      <c r="AS48" s="105"/>
-      <c r="AT48" s="105"/>
-      <c r="AU48" s="105"/>
-      <c r="AV48" s="105"/>
-      <c r="AW48" s="106"/>
-      <c r="AX48" s="107" t="s">
-        <v>429</v>
-      </c>
-      <c r="AY48" s="72"/>
-      <c r="AZ48" s="72"/>
-      <c r="BA48" s="72"/>
-      <c r="BB48" s="72"/>
-      <c r="BC48" s="108"/>
+      <c r="H48" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="67"/>
+      <c r="AC48" s="67"/>
+      <c r="AD48" s="67"/>
+      <c r="AE48" s="67"/>
+      <c r="AF48" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="AG48" s="67"/>
+      <c r="AH48" s="67"/>
+      <c r="AI48" s="67"/>
+      <c r="AJ48" s="67"/>
+      <c r="AK48" s="69"/>
+      <c r="AL48" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM48" s="67"/>
+      <c r="AN48" s="67"/>
+      <c r="AO48" s="67"/>
+      <c r="AP48" s="67"/>
+      <c r="AQ48" s="67"/>
+      <c r="AR48" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
+      <c r="AW48" s="76"/>
+      <c r="AX48" s="68" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY48" s="67"/>
+      <c r="AZ48" s="67"/>
+      <c r="BA48" s="67"/>
+      <c r="BB48" s="67"/>
+      <c r="BC48" s="69"/>
     </row>
     <row r="49" spans="2:55" ht="15" customHeight="1">
-      <c r="B49" s="83" t="str">
+      <c r="B49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Tap: Assault + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="83" t="str">
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="84" t="str">
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
-        <v>Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship</v>
-      </c>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="83" t="str">
+        <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
+      </c>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="85"/>
-      <c r="Z49" s="84" t="str">
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="84"/>
-      <c r="AD49" s="84"/>
-      <c r="AE49" s="84"/>
-      <c r="AF49" s="83" t="str">
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="59"/>
+      <c r="AC49" s="59"/>
+      <c r="AD49" s="59"/>
+      <c r="AE49" s="59"/>
+      <c r="AF49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG49" s="84"/>
-      <c r="AH49" s="84"/>
-      <c r="AI49" s="84"/>
-      <c r="AJ49" s="84"/>
-      <c r="AK49" s="85"/>
-      <c r="AL49" s="84" t="str">
+      <c r="AG49" s="59"/>
+      <c r="AH49" s="59"/>
+      <c r="AI49" s="59"/>
+      <c r="AJ49" s="59"/>
+      <c r="AK49" s="60"/>
+      <c r="AL49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM49" s="84"/>
-      <c r="AN49" s="84"/>
-      <c r="AO49" s="84"/>
-      <c r="AP49" s="84"/>
-      <c r="AQ49" s="84"/>
-      <c r="AR49" s="83" t="str">
+      <c r="AM49" s="59"/>
+      <c r="AN49" s="59"/>
+      <c r="AO49" s="59"/>
+      <c r="AP49" s="59"/>
+      <c r="AQ49" s="59"/>
+      <c r="AR49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS49" s="84"/>
-      <c r="AT49" s="84"/>
-      <c r="AU49" s="84"/>
-      <c r="AV49" s="84"/>
-      <c r="AW49" s="85"/>
-      <c r="AX49" s="83" t="str">
+      <c r="AS49" s="59"/>
+      <c r="AT49" s="59"/>
+      <c r="AU49" s="59"/>
+      <c r="AV49" s="59"/>
+      <c r="AW49" s="60"/>
+      <c r="AX49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Tap: Research + 3 and discard top card of deck</v>
       </c>
-      <c r="AY49" s="84"/>
-      <c r="AZ49" s="84"/>
-      <c r="BA49" s="84"/>
-      <c r="BB49" s="84"/>
-      <c r="BC49" s="85"/>
+      <c r="AY49" s="59"/>
+      <c r="AZ49" s="59"/>
+      <c r="BA49" s="59"/>
+      <c r="BB49" s="59"/>
+      <c r="BC49" s="60"/>
     </row>
     <row r="50" spans="2:55">
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="83"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="85"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="84"/>
-      <c r="AE50" s="84"/>
-      <c r="AF50" s="83"/>
-      <c r="AG50" s="84"/>
-      <c r="AH50" s="84"/>
-      <c r="AI50" s="84"/>
-      <c r="AJ50" s="84"/>
-      <c r="AK50" s="85"/>
-      <c r="AL50" s="84"/>
-      <c r="AM50" s="84"/>
-      <c r="AN50" s="84"/>
-      <c r="AO50" s="84"/>
-      <c r="AP50" s="84"/>
-      <c r="AQ50" s="84"/>
-      <c r="AR50" s="83"/>
-      <c r="AS50" s="84"/>
-      <c r="AT50" s="84"/>
-      <c r="AU50" s="84"/>
-      <c r="AV50" s="84"/>
-      <c r="AW50" s="85"/>
-      <c r="AX50" s="83"/>
-      <c r="AY50" s="84"/>
-      <c r="AZ50" s="84"/>
-      <c r="BA50" s="84"/>
-      <c r="BB50" s="84"/>
-      <c r="BC50" s="85"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="58"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="59"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="59"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="59"/>
+      <c r="AH50" s="59"/>
+      <c r="AI50" s="59"/>
+      <c r="AJ50" s="59"/>
+      <c r="AK50" s="60"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="59"/>
+      <c r="AN50" s="59"/>
+      <c r="AO50" s="59"/>
+      <c r="AP50" s="59"/>
+      <c r="AQ50" s="59"/>
+      <c r="AR50" s="58"/>
+      <c r="AS50" s="59"/>
+      <c r="AT50" s="59"/>
+      <c r="AU50" s="59"/>
+      <c r="AV50" s="59"/>
+      <c r="AW50" s="60"/>
+      <c r="AX50" s="58"/>
+      <c r="AY50" s="59"/>
+      <c r="AZ50" s="59"/>
+      <c r="BA50" s="59"/>
+      <c r="BB50" s="59"/>
+      <c r="BC50" s="60"/>
     </row>
     <row r="51" spans="2:55">
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="83"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="85"/>
-      <c r="Z51" s="84"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="84"/>
-      <c r="AE51" s="84"/>
-      <c r="AF51" s="83"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="84"/>
-      <c r="AI51" s="84"/>
-      <c r="AJ51" s="84"/>
-      <c r="AK51" s="85"/>
-      <c r="AL51" s="84"/>
-      <c r="AM51" s="84"/>
-      <c r="AN51" s="84"/>
-      <c r="AO51" s="84"/>
-      <c r="AP51" s="84"/>
-      <c r="AQ51" s="84"/>
-      <c r="AR51" s="83"/>
-      <c r="AS51" s="84"/>
-      <c r="AT51" s="84"/>
-      <c r="AU51" s="84"/>
-      <c r="AV51" s="84"/>
-      <c r="AW51" s="85"/>
-      <c r="AX51" s="83"/>
-      <c r="AY51" s="84"/>
-      <c r="AZ51" s="84"/>
-      <c r="BA51" s="84"/>
-      <c r="BB51" s="84"/>
-      <c r="BC51" s="85"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="58"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="59"/>
+      <c r="AD51" s="59"/>
+      <c r="AE51" s="59"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="59"/>
+      <c r="AH51" s="59"/>
+      <c r="AI51" s="59"/>
+      <c r="AJ51" s="59"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="59"/>
+      <c r="AM51" s="59"/>
+      <c r="AN51" s="59"/>
+      <c r="AO51" s="59"/>
+      <c r="AP51" s="59"/>
+      <c r="AQ51" s="59"/>
+      <c r="AR51" s="58"/>
+      <c r="AS51" s="59"/>
+      <c r="AT51" s="59"/>
+      <c r="AU51" s="59"/>
+      <c r="AV51" s="59"/>
+      <c r="AW51" s="60"/>
+      <c r="AX51" s="58"/>
+      <c r="AY51" s="59"/>
+      <c r="AZ51" s="59"/>
+      <c r="BA51" s="59"/>
+      <c r="BB51" s="59"/>
+      <c r="BC51" s="60"/>
     </row>
     <row r="52" spans="2:55">
-      <c r="B52" s="83"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
-      <c r="W52" s="84"/>
-      <c r="X52" s="84"/>
-      <c r="Y52" s="85"/>
-      <c r="Z52" s="84"/>
-      <c r="AA52" s="84"/>
-      <c r="AB52" s="84"/>
-      <c r="AC52" s="84"/>
-      <c r="AD52" s="84"/>
-      <c r="AE52" s="84"/>
-      <c r="AF52" s="83"/>
-      <c r="AG52" s="84"/>
-      <c r="AH52" s="84"/>
-      <c r="AI52" s="84"/>
-      <c r="AJ52" s="84"/>
-      <c r="AK52" s="85"/>
-      <c r="AL52" s="84"/>
-      <c r="AM52" s="84"/>
-      <c r="AN52" s="84"/>
-      <c r="AO52" s="84"/>
-      <c r="AP52" s="84"/>
-      <c r="AQ52" s="84"/>
-      <c r="AR52" s="83"/>
-      <c r="AS52" s="84"/>
-      <c r="AT52" s="84"/>
-      <c r="AU52" s="84"/>
-      <c r="AV52" s="84"/>
-      <c r="AW52" s="85"/>
-      <c r="AX52" s="83"/>
-      <c r="AY52" s="84"/>
-      <c r="AZ52" s="84"/>
-      <c r="BA52" s="84"/>
-      <c r="BB52" s="84"/>
-      <c r="BC52" s="85"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="59"/>
+      <c r="AE52" s="59"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="59"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="59"/>
+      <c r="AK52" s="60"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="59"/>
+      <c r="AN52" s="59"/>
+      <c r="AO52" s="59"/>
+      <c r="AP52" s="59"/>
+      <c r="AQ52" s="59"/>
+      <c r="AR52" s="58"/>
+      <c r="AS52" s="59"/>
+      <c r="AT52" s="59"/>
+      <c r="AU52" s="59"/>
+      <c r="AV52" s="59"/>
+      <c r="AW52" s="60"/>
+      <c r="AX52" s="58"/>
+      <c r="AY52" s="59"/>
+      <c r="AZ52" s="59"/>
+      <c r="BA52" s="59"/>
+      <c r="BB52" s="59"/>
+      <c r="BC52" s="60"/>
     </row>
     <row r="53" spans="2:55">
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="85"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="83"/>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="84"/>
-      <c r="AI53" s="84"/>
-      <c r="AJ53" s="84"/>
-      <c r="AK53" s="85"/>
-      <c r="AL53" s="84"/>
-      <c r="AM53" s="84"/>
-      <c r="AN53" s="84"/>
-      <c r="AO53" s="84"/>
-      <c r="AP53" s="84"/>
-      <c r="AQ53" s="84"/>
-      <c r="AR53" s="83"/>
-      <c r="AS53" s="84"/>
-      <c r="AT53" s="84"/>
-      <c r="AU53" s="84"/>
-      <c r="AV53" s="84"/>
-      <c r="AW53" s="85"/>
-      <c r="AX53" s="83"/>
-      <c r="AY53" s="84"/>
-      <c r="AZ53" s="84"/>
-      <c r="BA53" s="84"/>
-      <c r="BB53" s="84"/>
-      <c r="BC53" s="85"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="58"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="59"/>
+      <c r="AC53" s="59"/>
+      <c r="AD53" s="59"/>
+      <c r="AE53" s="59"/>
+      <c r="AF53" s="58"/>
+      <c r="AG53" s="59"/>
+      <c r="AH53" s="59"/>
+      <c r="AI53" s="59"/>
+      <c r="AJ53" s="59"/>
+      <c r="AK53" s="60"/>
+      <c r="AL53" s="59"/>
+      <c r="AM53" s="59"/>
+      <c r="AN53" s="59"/>
+      <c r="AO53" s="59"/>
+      <c r="AP53" s="59"/>
+      <c r="AQ53" s="59"/>
+      <c r="AR53" s="58"/>
+      <c r="AS53" s="59"/>
+      <c r="AT53" s="59"/>
+      <c r="AU53" s="59"/>
+      <c r="AV53" s="59"/>
+      <c r="AW53" s="60"/>
+      <c r="AX53" s="58"/>
+      <c r="AY53" s="59"/>
+      <c r="AZ53" s="59"/>
+      <c r="BA53" s="59"/>
+      <c r="BB53" s="59"/>
+      <c r="BC53" s="60"/>
     </row>
     <row r="54" spans="2:55">
-      <c r="B54" s="83"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="85"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="84"/>
-      <c r="AC54" s="84"/>
-      <c r="AD54" s="84"/>
-      <c r="AE54" s="84"/>
-      <c r="AF54" s="83"/>
-      <c r="AG54" s="84"/>
-      <c r="AH54" s="84"/>
-      <c r="AI54" s="84"/>
-      <c r="AJ54" s="84"/>
-      <c r="AK54" s="85"/>
-      <c r="AL54" s="84"/>
-      <c r="AM54" s="84"/>
-      <c r="AN54" s="84"/>
-      <c r="AO54" s="84"/>
-      <c r="AP54" s="84"/>
-      <c r="AQ54" s="84"/>
-      <c r="AR54" s="83"/>
-      <c r="AS54" s="84"/>
-      <c r="AT54" s="84"/>
-      <c r="AU54" s="84"/>
-      <c r="AV54" s="84"/>
-      <c r="AW54" s="85"/>
-      <c r="AX54" s="83"/>
-      <c r="AY54" s="84"/>
-      <c r="AZ54" s="84"/>
-      <c r="BA54" s="84"/>
-      <c r="BB54" s="84"/>
-      <c r="BC54" s="85"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="58"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="59"/>
+      <c r="AE54" s="59"/>
+      <c r="AF54" s="58"/>
+      <c r="AG54" s="59"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="59"/>
+      <c r="AJ54" s="59"/>
+      <c r="AK54" s="60"/>
+      <c r="AL54" s="59"/>
+      <c r="AM54" s="59"/>
+      <c r="AN54" s="59"/>
+      <c r="AO54" s="59"/>
+      <c r="AP54" s="59"/>
+      <c r="AQ54" s="59"/>
+      <c r="AR54" s="58"/>
+      <c r="AS54" s="59"/>
+      <c r="AT54" s="59"/>
+      <c r="AU54" s="59"/>
+      <c r="AV54" s="59"/>
+      <c r="AW54" s="60"/>
+      <c r="AX54" s="58"/>
+      <c r="AY54" s="59"/>
+      <c r="AZ54" s="59"/>
+      <c r="BA54" s="59"/>
+      <c r="BB54" s="59"/>
+      <c r="BC54" s="60"/>
     </row>
     <row r="55" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B55" s="86"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="87"/>
-      <c r="S55" s="87"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="87"/>
-      <c r="V55" s="87"/>
-      <c r="W55" s="87"/>
-      <c r="X55" s="87"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="87"/>
-      <c r="AA55" s="87"/>
-      <c r="AB55" s="87"/>
-      <c r="AC55" s="87"/>
-      <c r="AD55" s="87"/>
-      <c r="AE55" s="87"/>
-      <c r="AF55" s="86"/>
-      <c r="AG55" s="87"/>
-      <c r="AH55" s="87"/>
-      <c r="AI55" s="87"/>
-      <c r="AJ55" s="87"/>
-      <c r="AK55" s="88"/>
-      <c r="AL55" s="87"/>
-      <c r="AM55" s="87"/>
-      <c r="AN55" s="87"/>
-      <c r="AO55" s="87"/>
-      <c r="AP55" s="87"/>
-      <c r="AQ55" s="87"/>
-      <c r="AR55" s="86"/>
-      <c r="AS55" s="87"/>
-      <c r="AT55" s="87"/>
-      <c r="AU55" s="87"/>
-      <c r="AV55" s="87"/>
-      <c r="AW55" s="88"/>
-      <c r="AX55" s="86"/>
-      <c r="AY55" s="87"/>
-      <c r="AZ55" s="87"/>
-      <c r="BA55" s="87"/>
-      <c r="BB55" s="87"/>
-      <c r="BC55" s="88"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62"/>
+      <c r="AB55" s="62"/>
+      <c r="AC55" s="62"/>
+      <c r="AD55" s="62"/>
+      <c r="AE55" s="62"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="62"/>
+      <c r="AH55" s="62"/>
+      <c r="AI55" s="62"/>
+      <c r="AJ55" s="62"/>
+      <c r="AK55" s="63"/>
+      <c r="AL55" s="62"/>
+      <c r="AM55" s="62"/>
+      <c r="AN55" s="62"/>
+      <c r="AO55" s="62"/>
+      <c r="AP55" s="62"/>
+      <c r="AQ55" s="62"/>
+      <c r="AR55" s="61"/>
+      <c r="AS55" s="62"/>
+      <c r="AT55" s="62"/>
+      <c r="AU55" s="62"/>
+      <c r="AV55" s="62"/>
+      <c r="AW55" s="63"/>
+      <c r="AX55" s="61"/>
+      <c r="AY55" s="62"/>
+      <c r="AZ55" s="62"/>
+      <c r="BA55" s="62"/>
+      <c r="BB55" s="62"/>
+      <c r="BC55" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="AZ43:BC43"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:G39"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AH43:AK43"/>
+    <mergeCell ref="AN43:AQ43"/>
+    <mergeCell ref="AT43:AW43"/>
+    <mergeCell ref="AL42:AQ42"/>
+    <mergeCell ref="AR42:AW42"/>
+    <mergeCell ref="AX42:BC42"/>
+    <mergeCell ref="B41:AK41"/>
+    <mergeCell ref="AL41:BC41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="Z42:AE42"/>
+    <mergeCell ref="AF42:AK42"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="AR49:AW55"/>
+    <mergeCell ref="AX49:BC55"/>
+    <mergeCell ref="B40:BC40"/>
+    <mergeCell ref="AX39:BC39"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="AX36:BC36"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AL48:AQ48"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="N49:S55"/>
+    <mergeCell ref="T49:Y55"/>
+    <mergeCell ref="Z49:AE55"/>
+    <mergeCell ref="AF49:AK55"/>
+    <mergeCell ref="AL49:AQ55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AF45:AK45"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="AL44:AQ44"/>
+    <mergeCell ref="AR44:AW44"/>
+    <mergeCell ref="B9:F15"/>
+    <mergeCell ref="H9:M15"/>
+    <mergeCell ref="N9:S15"/>
+    <mergeCell ref="T9:Y15"/>
+    <mergeCell ref="Z9:AE15"/>
+    <mergeCell ref="AF9:AK15"/>
+    <mergeCell ref="AL9:AQ15"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AR9:AW15"/>
+    <mergeCell ref="AX9:BC15"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BC27"/>
+    <mergeCell ref="AX28:BC28"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B16:BC16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
     <mergeCell ref="B49:G55"/>
     <mergeCell ref="B1:AK1"/>
     <mergeCell ref="AL1:BC1"/>
@@ -20839,117 +20939,6 @@
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="AX4:BC4"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BC27"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B16:BC16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B9:F15"/>
-    <mergeCell ref="H9:M15"/>
-    <mergeCell ref="N9:S15"/>
-    <mergeCell ref="T9:Y15"/>
-    <mergeCell ref="Z9:AE15"/>
-    <mergeCell ref="AF9:AK15"/>
-    <mergeCell ref="AL9:AQ15"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AR9:AW15"/>
-    <mergeCell ref="AX9:BC15"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AF45:AK45"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="AL44:AQ44"/>
-    <mergeCell ref="AR44:AW44"/>
-    <mergeCell ref="AR49:AW55"/>
-    <mergeCell ref="AX49:BC55"/>
-    <mergeCell ref="B40:BC40"/>
-    <mergeCell ref="AX39:BC39"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="AX36:BC36"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AL48:AQ48"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:M55"/>
-    <mergeCell ref="N49:S55"/>
-    <mergeCell ref="T49:Y55"/>
-    <mergeCell ref="Z49:AE55"/>
-    <mergeCell ref="AF49:AK55"/>
-    <mergeCell ref="AL49:AQ55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AZ43:BC43"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:G39"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AH43:AK43"/>
-    <mergeCell ref="AN43:AQ43"/>
-    <mergeCell ref="AT43:AW43"/>
-    <mergeCell ref="AL42:AQ42"/>
-    <mergeCell ref="AR42:AW42"/>
-    <mergeCell ref="AX42:BC42"/>
-    <mergeCell ref="B41:AK41"/>
-    <mergeCell ref="AL41:BC41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="Z42:AE42"/>
-    <mergeCell ref="AF42:AK42"/>
   </mergeCells>
   <conditionalFormatting sqref="BG3 BG10">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="CREW">
@@ -20984,26 +20973,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" t="s">
         <v>438</v>
-      </c>
-      <c r="E2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" t="s">
         <v>440</v>
-      </c>
-      <c r="E3" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -21032,7 +21021,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -21077,7 +21066,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -22906,7 +22895,7 @@
       </c>
       <c r="AG20" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S20,TblCardDesign[ID],0),17)</f>
-        <v>Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship</v>
+        <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
     </row>
     <row r="21" spans="2:33" ht="60.75">
@@ -23027,7 +23016,7 @@
       </c>
       <c r="AG21" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S21,TblCardDesign[ID],0),17)</f>
-        <v>Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship</v>
+        <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
     </row>
     <row r="22" spans="2:33" ht="76.5">
@@ -25148,12 +25137,7 @@
       </c>
       <c r="AG42" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S42,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="43" spans="2:33" ht="30.75">
@@ -25214,12 +25198,7 @@
       </c>
       <c r="AG43" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S43,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="44" spans="2:33" ht="45.75">
@@ -25369,26 +25348,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" t="s">
         <v>445</v>
-      </c>
-      <c r="E3" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -25417,7 +25396,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -25462,7 +25441,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -29549,12 +29528,7 @@
       </c>
       <c r="AG42" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S42,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="43" spans="2:33" ht="30.75">
@@ -29615,12 +29589,7 @@
       </c>
       <c r="AG43" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S43,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="44" spans="2:33" ht="45.75">
@@ -29756,7 +29725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B2AF4-132E-4827-929E-699A91E27690}">
   <dimension ref="B2:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
@@ -29770,26 +29739,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -29818,7 +29787,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -29863,7 +29832,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -33808,12 +33777,7 @@
       </c>
       <c r="AG40" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S40,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="41" spans="2:33" ht="30.75">
@@ -33874,12 +33838,7 @@
       </c>
       <c r="AG41" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S41,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="42" spans="2:33" ht="30.75">
@@ -33940,12 +33899,7 @@
       </c>
       <c r="AG42" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S42,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="43" spans="2:33" ht="30.75">
@@ -34006,12 +33960,7 @@
       </c>
       <c r="AG43" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S43,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="44" spans="2:33" ht="45.75">
@@ -34161,26 +34110,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E3" t="s">
         <v>450</v>
-      </c>
-      <c r="E3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -34209,7 +34158,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -34254,7 +34203,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -36083,12 +36032,7 @@
       </c>
       <c r="AG20" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S20,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="21" spans="2:33" ht="60.75">
@@ -36209,12 +36153,7 @@
       </c>
       <c r="AG21" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S21,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="22" spans="2:33" ht="76.5">
@@ -38544,26 +38483,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -38592,7 +38531,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -38637,7 +38576,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -40345,12 +40284,7 @@
       </c>
       <c r="AG19" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S19,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="20" spans="2:33" ht="106.5">
@@ -40471,12 +40405,7 @@
       </c>
       <c r="AG20" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S20,TblCardDesign[ID],0),17)</f>
-        <v>Attach to Crew: Assigned Ship type:
-Fighter: Plus 100 damage when using a gun slot.
-Frigate: Tap: draw 1 card
-Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step.
-Cruiser: Tap: Target player discards a card
-Capital: Tap: Repair 100 hull on assigned ship</v>
+        <v>Attach to Crew: Assigned Ship type:_x000D_- Fighter: Plus 100 damage when using a gun slot._x000D_- Frigate: Tap: draw 1 card_x000D_- Destroyer: Tap: Target enemy crew member does not untap during that owners next untap step._x000D_- Cruiser: Tap: Target player discards a card_x000D_- Capital: Tap: Repair 100 hull on assigned ship</v>
       </c>
     </row>
     <row r="21" spans="2:33" ht="106.5">
@@ -42509,9 +42438,9 @@
         <f>INDEX(TblCardDesign[#Data],MATCH($S39,TblCardDesign[ID],0),10)</f>
         <v>1</v>
       </c>
-      <c r="AB39" t="b">
+      <c r="AB39">
         <f>INDEX(TblCardDesign[#Data],MATCH($S39,TblCardDesign[ID],0),11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S39,TblCardDesign[ID],0),12)</f>
@@ -42570,9 +42499,9 @@
         <f>INDEX(TblCardDesign[#Data],MATCH($S40,TblCardDesign[ID],0),10)</f>
         <v>1</v>
       </c>
-      <c r="AB40" t="b">
+      <c r="AB40">
         <f>INDEX(TblCardDesign[#Data],MATCH($S40,TblCardDesign[ID],0),11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S40,TblCardDesign[ID],0),12)</f>
@@ -42631,9 +42560,9 @@
         <f>INDEX(TblCardDesign[#Data],MATCH($S41,TblCardDesign[ID],0),10)</f>
         <v>1</v>
       </c>
-      <c r="AB41" t="b">
+      <c r="AB41">
         <f>INDEX(TblCardDesign[#Data],MATCH($S41,TblCardDesign[ID],0),11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC41" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S41,TblCardDesign[ID],0),12)</f>
@@ -42812,7 +42741,7 @@
       </c>
       <c r="AA44">
         <f>INDEX(TblCardDesign[#Data],MATCH($S44,TblCardDesign[ID],0),10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB44" t="b">
         <f>INDEX(TblCardDesign[#Data],MATCH($S44,TblCardDesign[ID],0),11)</f>
@@ -42836,7 +42765,7 @@
       </c>
       <c r="AG44" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S44,TblCardDesign[ID],0),17)</f>
-        <v>X number of ships each take 200 damage where x are the amount of event cards in your junkyard</v>
+        <v>You pick X number of ships that each take 200 damage where x are the amount of event cards in your junkyard</v>
       </c>
     </row>
     <row r="45" spans="2:33" ht="45.75">
@@ -42873,7 +42802,7 @@
       </c>
       <c r="AA45">
         <f>INDEX(TblCardDesign[#Data],MATCH($S45,TblCardDesign[ID],0),10)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB45" t="b">
         <f>INDEX(TblCardDesign[#Data],MATCH($S45,TblCardDesign[ID],0),11)</f>
@@ -42897,7 +42826,7 @@
       </c>
       <c r="AG45" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S45,TblCardDesign[ID],0),17)</f>
-        <v>X number of ships each take 200 damage where x are the amount of event cards in your junkyard</v>
+        <v>You pick X number of ships that each take 200 damage where x are the amount of event cards in your junkyard</v>
       </c>
     </row>
   </sheetData>
@@ -42925,26 +42854,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E3" t="s">
         <v>455</v>
-      </c>
-      <c r="E3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -42973,7 +42902,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -43018,7 +42947,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -45444,7 +45373,7 @@
       </c>
       <c r="AG25" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S25,TblCardDesign[ID],0),17)</f>
-        <v>Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship</v>
+        <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
     </row>
     <row r="26" spans="2:33" ht="45">
@@ -45565,7 +45494,7 @@
       </c>
       <c r="AG26" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S26,TblCardDesign[ID],0),17)</f>
-        <v>Target Enemy Ship: Sacrifice 1 crew member and deal 100 damage to ship</v>
+        <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="60">

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76DD690A-E308-4BBF-B103-9DE764546D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C1F27E7-0A4F-445F-BD34-E1EE44810E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Table Counts" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="70" r:id="rId11"/>
+    <pivotCache cacheId="597" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="512">
   <si>
     <t>Type</t>
   </si>
@@ -443,7 +443,7 @@
     <t>Project Disruption</t>
   </si>
   <si>
-    <t>Cancel activated Research Project Card</t>
+    <t>Cancel target On Going Event card</t>
   </si>
   <si>
     <t>Infiltrated Tactics</t>
@@ -897,7 +897,7 @@
     <t>Shield Booster</t>
   </si>
   <si>
-    <t>Target ship: Increase shield max by 200 and Restore 200 shield</t>
+    <t>Attach to ship: Increase shield max by 200 and Restore 200 shield</t>
   </si>
   <si>
     <t>Flick the switch</t>
@@ -1388,6 +1388,170 @@
   </si>
   <si>
     <t>Search your strategy deck for a Ship Upgrade and place into your hand. Shuffle your strategy deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.E Android </t>
+  </si>
+  <si>
+    <t>Research/Engineer</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Research or Engineering + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.M Android </t>
+  </si>
+  <si>
+    <t>Research/Medic</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Research or Medic + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.H Android </t>
+  </si>
+  <si>
+    <t>Research/Handling</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Research or Handling + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.A Android </t>
+  </si>
+  <si>
+    <t>Research/Assault</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Research or Assault + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.M Android </t>
+  </si>
+  <si>
+    <t>Engineering/Medic</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Engineering or Medic + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.H Android </t>
+  </si>
+  <si>
+    <t>Engineering/Handling</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Engineering or Handling + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.A Android </t>
+  </si>
+  <si>
+    <t>Engineering/Assault</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Engineering or Assault + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.H Android </t>
+  </si>
+  <si>
+    <t>Medic/Handling</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Medic or Handling + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.A Android </t>
+  </si>
+  <si>
+    <t>Medic/Assault</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Medic or Assault + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.A Android </t>
+  </si>
+  <si>
+    <t>Handling/Assault</t>
+  </si>
+  <si>
+    <t>Enters tapped or attached ship takes 200 damage
+Tap: Handling or Assault + 1</t>
+  </si>
+  <si>
+    <t>On boarding Degree</t>
+  </si>
+  <si>
+    <t>Attach to ship: All crew on attached ship can be tapped for any department.</t>
+  </si>
+  <si>
+    <t>Increased Scanners Array</t>
+  </si>
+  <si>
+    <t>Attach to ship: Tap 1 Engineering and Tap: Draw a card</t>
+  </si>
+  <si>
+    <t>Handheld Scanner</t>
+  </si>
+  <si>
+    <t>Attach to Crew: This Crew member can Tap: Draw a card</t>
+  </si>
+  <si>
+    <t>Retrieved Goods</t>
+  </si>
+  <si>
+    <t>At the end of your turn if you dealt damage to an enemy ships shield or hull, draw a card.</t>
+  </si>
+  <si>
+    <t>Behind Enemy Lines</t>
+  </si>
+  <si>
+    <t>At the end of your turn if you sent an enemy crew member to stasis, draw a card.</t>
+  </si>
+  <si>
+    <t>Negotiations</t>
+  </si>
+  <si>
+    <t>Targetted Enemy Ship cannot target you until the start of your next turn</t>
+  </si>
+  <si>
+    <t>Cloaking Device</t>
+  </si>
+  <si>
+    <t>Targetted Ship has protection from everything until your next turn</t>
+  </si>
+  <si>
+    <t>Warp Drive</t>
+  </si>
+  <si>
+    <t>Attach to ship: Tap only during your Draw Phase: Attached ship has protection from everything until your next turn, anything attached to the ship cannot be tapped until your next turn</t>
+  </si>
+  <si>
+    <t>Most ships are required to have one installed if they want to travel the far reaches of the galaxy</t>
+  </si>
+  <si>
+    <t>Cpt. H. Spencer</t>
+  </si>
+  <si>
+    <t>Tap: Assigned ship takes 200 hull damage, then has protection from everything until your next turn
+Tap: Assigned ship takes no damage from target enemy ship during the next Battle phase.</t>
+  </si>
+  <si>
+    <t>Captain Howard Spencer is known for his reckless flying, but always manages to get away</t>
   </si>
   <si>
     <t>Strategy</t>
@@ -2230,22 +2394,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,6 +2456,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2272,73 +2481,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2359,28 +2532,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2392,40 +2550,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6669,100 +6833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="13">
-        <item x="8"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item m="1" x="11"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="597" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6911,6 +6982,99 @@
     <i t="grand">
       <x/>
     </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="597" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item m="1" x="11"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
@@ -7686,26 +7850,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -7734,7 +7898,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -7779,7 +7943,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -9003,7 +9167,7 @@
       </c>
       <c r="AG15" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S15,TblCardDesign[ID],0),17)</f>
-        <v>Cancel activated Research Project Card</v>
+        <v>Cancel target On Going Event card</v>
       </c>
     </row>
     <row r="16" spans="2:33" ht="45">
@@ -9124,7 +9288,7 @@
       </c>
       <c r="AG16" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S16,TblCardDesign[ID],0),17)</f>
-        <v>Cancel activated Research Project Card</v>
+        <v>Cancel target On Going Event card</v>
       </c>
     </row>
     <row r="17" spans="2:33" ht="59.25" customHeight="1">
@@ -12035,9 +12199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S248"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F179" sqref="F179"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="J201" sqref="J201"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -12045,7 +12209,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -12055,7 +12219,8 @@
     <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="16" width="15.42578125" customWidth="1"/>
     <col min="17" max="17" width="32.42578125" customWidth="1"/>
     <col min="18" max="18" width="27.42578125" customWidth="1"/>
@@ -13419,7 +13584,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="30">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>41</v>
       </c>
@@ -13549,7 +13714,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="45">
+    <row r="51" spans="1:17" ht="45.75">
       <c r="A51">
         <v>46</v>
       </c>
@@ -15312,7 +15477,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="30">
+    <row r="110" spans="1:18" ht="30.75">
       <c r="A110">
         <v>105</v>
       </c>
@@ -15329,7 +15494,7 @@
         <v>2</v>
       </c>
       <c r="L110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P110" t="s">
         <v>45</v>
@@ -16961,7 +17126,7 @@
       </c>
       <c r="R168" s="2"/>
     </row>
-    <row r="169" spans="1:18" ht="45">
+    <row r="169" spans="1:18" ht="45.75">
       <c r="A169">
         <v>164</v>
       </c>
@@ -17137,7 +17302,7 @@
       </c>
       <c r="R174" s="2"/>
     </row>
-    <row r="175" spans="1:18" ht="45">
+    <row r="175" spans="1:18" ht="45.75">
       <c r="A175">
         <v>170</v>
       </c>
@@ -17269,119 +17434,614 @@
       </c>
       <c r="R179" s="2"/>
     </row>
-    <row r="180" spans="1:18">
-      <c r="Q180" s="2"/>
+    <row r="180" spans="1:18" ht="45.75">
+      <c r="A180">
+        <v>175</v>
+      </c>
+      <c r="B180" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" t="s">
+        <v>412</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>4</v>
+      </c>
+      <c r="M180" t="s">
+        <v>413</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>414</v>
+      </c>
+      <c r="P180" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q180" s="2" t="s">
+        <v>415</v>
+      </c>
       <c r="R180" s="2"/>
     </row>
-    <row r="181" spans="1:18">
-      <c r="Q181" s="2"/>
+    <row r="181" spans="1:18" ht="45.75">
+      <c r="A181">
+        <v>176</v>
+      </c>
+      <c r="B181" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181" t="s">
+        <v>416</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>4</v>
+      </c>
+      <c r="M181" t="s">
+        <v>417</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>414</v>
+      </c>
+      <c r="P181" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q181" s="2" t="s">
+        <v>418</v>
+      </c>
       <c r="R181" s="2"/>
     </row>
-    <row r="182" spans="1:18">
-      <c r="Q182" s="2"/>
+    <row r="182" spans="1:18" ht="45.75">
+      <c r="A182">
+        <v>177</v>
+      </c>
+      <c r="B182" t="s">
+        <v>36</v>
+      </c>
+      <c r="C182" t="s">
+        <v>419</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>4</v>
+      </c>
+      <c r="M182" t="s">
+        <v>420</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>414</v>
+      </c>
+      <c r="P182" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q182" s="2" t="s">
+        <v>421</v>
+      </c>
       <c r="R182" s="2"/>
     </row>
-    <row r="183" spans="1:18">
-      <c r="Q183" s="2"/>
+    <row r="183" spans="1:18" ht="45.75">
+      <c r="A183">
+        <v>178</v>
+      </c>
+      <c r="B183" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" t="s">
+        <v>422</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>4</v>
+      </c>
+      <c r="M183" t="s">
+        <v>423</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>414</v>
+      </c>
+      <c r="P183" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q183" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="R183" s="2"/>
     </row>
-    <row r="184" spans="1:18">
-      <c r="Q184" s="2"/>
+    <row r="184" spans="1:18" ht="45.75">
+      <c r="A184">
+        <v>179</v>
+      </c>
+      <c r="B184" t="s">
+        <v>36</v>
+      </c>
+      <c r="C184" t="s">
+        <v>425</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>4</v>
+      </c>
+      <c r="M184" t="s">
+        <v>426</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184" t="s">
+        <v>414</v>
+      </c>
+      <c r="P184" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q184" s="2" t="s">
+        <v>427</v>
+      </c>
       <c r="R184" s="2"/>
     </row>
-    <row r="185" spans="1:18">
-      <c r="Q185" s="2"/>
+    <row r="185" spans="1:18" ht="45.75">
+      <c r="A185">
+        <v>180</v>
+      </c>
+      <c r="B185" t="s">
+        <v>36</v>
+      </c>
+      <c r="C185" t="s">
+        <v>428</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>4</v>
+      </c>
+      <c r="M185" t="s">
+        <v>429</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>414</v>
+      </c>
+      <c r="P185" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q185" s="2" t="s">
+        <v>430</v>
+      </c>
       <c r="R185" s="2"/>
     </row>
-    <row r="186" spans="1:18">
-      <c r="Q186" s="2"/>
+    <row r="186" spans="1:18" ht="45.75">
+      <c r="A186">
+        <v>181</v>
+      </c>
+      <c r="B186" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" t="s">
+        <v>431</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>4</v>
+      </c>
+      <c r="M186" t="s">
+        <v>432</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186" t="s">
+        <v>414</v>
+      </c>
+      <c r="P186" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q186" s="2" t="s">
+        <v>433</v>
+      </c>
       <c r="R186" s="2"/>
     </row>
-    <row r="187" spans="1:18">
-      <c r="Q187" s="2"/>
+    <row r="187" spans="1:18" ht="45.75">
+      <c r="A187">
+        <v>182</v>
+      </c>
+      <c r="B187" t="s">
+        <v>36</v>
+      </c>
+      <c r="C187" t="s">
+        <v>434</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>4</v>
+      </c>
+      <c r="M187" t="s">
+        <v>435</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>414</v>
+      </c>
+      <c r="P187" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>436</v>
+      </c>
       <c r="R187" s="2"/>
     </row>
-    <row r="188" spans="1:18">
-      <c r="Q188" s="2"/>
+    <row r="188" spans="1:18" ht="45.75">
+      <c r="A188">
+        <v>183</v>
+      </c>
+      <c r="B188" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" t="s">
+        <v>437</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="L188" t="s">
+        <v>4</v>
+      </c>
+      <c r="M188" t="s">
+        <v>438</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>414</v>
+      </c>
+      <c r="P188" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q188" s="2" t="s">
+        <v>439</v>
+      </c>
       <c r="R188" s="2"/>
     </row>
-    <row r="189" spans="1:18">
-      <c r="Q189" s="2"/>
+    <row r="189" spans="1:18" ht="45.75">
+      <c r="A189">
+        <v>184</v>
+      </c>
+      <c r="B189" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" t="s">
+        <v>440</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="L189" t="s">
+        <v>4</v>
+      </c>
+      <c r="M189" t="s">
+        <v>441</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" t="s">
+        <v>414</v>
+      </c>
+      <c r="P189" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q189" s="2" t="s">
+        <v>442</v>
+      </c>
       <c r="R189" s="2"/>
     </row>
-    <row r="190" spans="1:18">
-      <c r="Q190" s="2"/>
+    <row r="190" spans="1:18" ht="45.75">
+      <c r="A190">
+        <v>185</v>
+      </c>
+      <c r="B190" t="s">
+        <v>78</v>
+      </c>
+      <c r="C190" t="s">
+        <v>443</v>
+      </c>
+      <c r="J190">
+        <v>3</v>
+      </c>
+      <c r="L190" t="s">
+        <v>9</v>
+      </c>
+      <c r="P190" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q190" s="2" t="s">
+        <v>444</v>
+      </c>
       <c r="R190" s="2"/>
     </row>
-    <row r="191" spans="1:18">
-      <c r="Q191" s="2"/>
+    <row r="191" spans="1:18" ht="30.75">
+      <c r="A191">
+        <v>186</v>
+      </c>
+      <c r="B191" t="s">
+        <v>78</v>
+      </c>
+      <c r="C191" t="s">
+        <v>445</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+      <c r="L191" t="s">
+        <v>9</v>
+      </c>
+      <c r="P191" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q191" s="2" t="s">
+        <v>446</v>
+      </c>
       <c r="R191" s="2"/>
     </row>
-    <row r="192" spans="1:18">
-      <c r="Q192" s="2"/>
+    <row r="192" spans="1:18" ht="30.75">
+      <c r="A192">
+        <v>187</v>
+      </c>
+      <c r="B192" t="s">
+        <v>78</v>
+      </c>
+      <c r="C192" t="s">
+        <v>447</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>2</v>
+      </c>
+      <c r="L192" t="s">
+        <v>5</v>
+      </c>
+      <c r="P192" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q192" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="R192" s="2"/>
     </row>
-    <row r="193" spans="17:18">
-      <c r="Q193" s="2"/>
+    <row r="193" spans="1:18" ht="45.75">
+      <c r="A193">
+        <v>188</v>
+      </c>
+      <c r="B193" t="s">
+        <v>78</v>
+      </c>
+      <c r="C193" t="s">
+        <v>449</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>2</v>
+      </c>
+      <c r="L193" t="s">
+        <v>8</v>
+      </c>
+      <c r="P193" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q193" s="2" t="s">
+        <v>450</v>
+      </c>
       <c r="R193" s="2"/>
     </row>
-    <row r="194" spans="17:18">
-      <c r="Q194" s="2"/>
+    <row r="194" spans="1:18" ht="45.75">
+      <c r="A194">
+        <v>189</v>
+      </c>
+      <c r="B194" t="s">
+        <v>78</v>
+      </c>
+      <c r="C194" t="s">
+        <v>451</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+      <c r="L194" t="s">
+        <v>8</v>
+      </c>
+      <c r="P194" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q194" s="2" t="s">
+        <v>452</v>
+      </c>
       <c r="R194" s="2"/>
     </row>
-    <row r="195" spans="17:18">
-      <c r="Q195" s="2"/>
+    <row r="195" spans="1:18" ht="30.75">
+      <c r="A195">
+        <v>190</v>
+      </c>
+      <c r="B195" t="s">
+        <v>78</v>
+      </c>
+      <c r="C195" t="s">
+        <v>453</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="L195" t="s">
+        <v>6</v>
+      </c>
+      <c r="P195" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q195" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="R195" s="2"/>
     </row>
-    <row r="196" spans="17:18">
-      <c r="Q196" s="2"/>
+    <row r="196" spans="1:18" ht="30.75">
+      <c r="A196">
+        <v>191</v>
+      </c>
+      <c r="B196" t="s">
+        <v>78</v>
+      </c>
+      <c r="C196" t="s">
+        <v>455</v>
+      </c>
+      <c r="J196">
+        <v>4</v>
+      </c>
+      <c r="L196" t="s">
+        <v>6</v>
+      </c>
+      <c r="P196" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q196" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="R196" s="2"/>
     </row>
-    <row r="197" spans="17:18">
-      <c r="Q197" s="2"/>
-      <c r="R197" s="2"/>
-    </row>
-    <row r="198" spans="17:18">
-      <c r="Q198" s="2"/>
-      <c r="R198" s="2"/>
-    </row>
-    <row r="199" spans="17:18">
+    <row r="197" spans="1:18" ht="91.5">
+      <c r="A197">
+        <v>192</v>
+      </c>
+      <c r="B197" t="s">
+        <v>78</v>
+      </c>
+      <c r="C197" t="s">
+        <v>457</v>
+      </c>
+      <c r="J197">
+        <v>4</v>
+      </c>
+      <c r="L197" t="s">
+        <v>9</v>
+      </c>
+      <c r="P197" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q197" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="R197" s="5" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="198" spans="1:18" ht="91.5">
+      <c r="A198">
+        <v>193</v>
+      </c>
+      <c r="B198" t="s">
+        <v>36</v>
+      </c>
+      <c r="C198" t="s">
+        <v>460</v>
+      </c>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>3</v>
+      </c>
+      <c r="L198" t="s">
+        <v>3</v>
+      </c>
+      <c r="M198" t="s">
+        <v>18</v>
+      </c>
+      <c r="O198" t="s">
+        <v>14</v>
+      </c>
+      <c r="P198" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q198" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="R198" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18">
       <c r="Q199" s="2"/>
       <c r="R199" s="2"/>
     </row>
-    <row r="200" spans="17:18">
+    <row r="200" spans="1:18">
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
     </row>
-    <row r="201" spans="17:18">
+    <row r="201" spans="1:18">
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
     </row>
-    <row r="202" spans="17:18">
+    <row r="202" spans="1:18">
       <c r="Q202" s="2"/>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="17:18">
+    <row r="203" spans="1:18">
       <c r="Q203" s="2"/>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="17:18">
+    <row r="204" spans="1:18">
       <c r="Q204" s="2"/>
       <c r="R204" s="2"/>
     </row>
-    <row r="205" spans="17:18">
+    <row r="205" spans="1:18">
       <c r="Q205" s="2"/>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="17:18">
+    <row r="206" spans="1:18">
       <c r="Q206" s="2"/>
       <c r="R206" s="2"/>
     </row>
-    <row r="207" spans="17:18">
+    <row r="207" spans="1:18">
       <c r="Q207" s="2"/>
       <c r="R207" s="2"/>
     </row>
-    <row r="208" spans="17:18">
+    <row r="208" spans="1:18">
       <c r="Q208" s="2"/>
       <c r="R208" s="2"/>
     </row>
@@ -17576,270 +18236,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="78" t="s">
-        <v>412</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="78" t="s">
+      <c r="B1" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="80"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="66"/>
     </row>
     <row r="2" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B2" s="73" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="75" t="s">
-        <v>414</v>
-      </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="74" t="s">
-        <v>415</v>
-      </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75" t="s">
-        <v>416</v>
-      </c>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="74" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="73" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="74" t="s">
-        <v>421</v>
-      </c>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="77"/>
-      <c r="BE2" s="81" t="s">
-        <v>422</v>
-      </c>
-      <c r="BF2" s="82"/>
+      <c r="H2" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="71" t="s">
+        <v>466</v>
+      </c>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="71" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="71" t="s">
+        <v>472</v>
+      </c>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="122"/>
+      <c r="BE2" s="120" t="s">
+        <v>473</v>
+      </c>
+      <c r="BF2" s="121"/>
       <c r="BG2" s="23" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="2:59">
       <c r="B3" s="9" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="72" t="str">
+      <c r="D3" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="10"/>
       <c r="H3" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="I3" s="33">
         <v>21</v>
       </c>
-      <c r="J3" s="58" t="str">
+      <c r="J3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
       <c r="N3" s="10" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="72" t="str">
+      <c r="P3" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
       <c r="T3" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="U3" s="33">
         <v>56</v>
       </c>
-      <c r="V3" s="58" t="str">
+      <c r="V3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="59"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="91"/>
       <c r="Z3" s="10" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="72" t="str">
+      <c r="AB3" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
       <c r="AF3" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AG3" s="33">
         <v>62</v>
       </c>
-      <c r="AH3" s="58" t="str">
+      <c r="AH3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="59"/>
+      <c r="AI3" s="90"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="91"/>
       <c r="AL3" s="10" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="72" t="str">
+      <c r="AN3" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
       <c r="AR3" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AS3" s="33">
         <v>11</v>
       </c>
-      <c r="AT3" s="58" t="str">
+      <c r="AT3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="59"/>
+      <c r="AU3" s="90"/>
+      <c r="AV3" s="90"/>
+      <c r="AW3" s="91"/>
       <c r="AX3" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AY3" s="33">
         <v>4</v>
       </c>
-      <c r="AZ3" s="58" t="str">
+      <c r="AZ3" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="59"/>
+      <c r="BA3" s="90"/>
+      <c r="BB3" s="90"/>
+      <c r="BC3" s="91"/>
       <c r="BE3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
@@ -17847,351 +18507,351 @@
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="107" t="str">
+      <c r="B4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="107" t="str">
+      <c r="H4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="72" t="str">
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="107" t="str">
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="72" t="str">
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="107" t="str">
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="72" t="str">
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="107" t="str">
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="107" t="str">
+      <c r="AS4" s="67"/>
+      <c r="AT4" s="67"/>
+      <c r="AU4" s="67"/>
+      <c r="AV4" s="67"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="108"/>
+      <c r="AY4" s="67"/>
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+      <c r="BC4" s="69"/>
       <c r="BE4" s="20" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
-        <v>CREW</v>
+        <v>STRATEGY</v>
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="109" t="str">
+      <c r="H5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="110" t="str">
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="109" t="str">
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="110" t="str">
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="108"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="109" t="str">
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="108"/>
+      <c r="AF5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="110" t="str">
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="109"/>
+      <c r="AL5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="109" t="str">
+      <c r="AM5" s="108"/>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="109" t="str">
+      <c r="AS5" s="108"/>
+      <c r="AT5" s="108"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="109"/>
+      <c r="AX5" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="111"/>
+      <c r="AY5" s="108"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="108"/>
+      <c r="BB5" s="108"/>
+      <c r="BC5" s="109"/>
       <c r="BE5" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="BF5">
         <f>MAX('Card Designs'!A6:A199)</f>
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="2:59">
       <c r="B6" s="28" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AK6" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="AL6" s="29" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AQ6" s="31" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AU6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="AV6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AW6" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="BA6" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="BB6" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="BC6" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="2:59">
@@ -18413,228 +19073,228 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="108"/>
+      <c r="H8" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
+      <c r="AR8" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="AY8" s="67"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="69"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="83" t="str">
+      <c r="B9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="83" t="str">
+      <c r="H9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="84" t="str">
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Tap: Medic + 3
 Tap: Repair ship by 100</v>
       </c>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="83" t="str">
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="84" t="str">
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="60"/>
+      <c r="Z9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="83" t="str">
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="84" t="str">
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="83" t="str">
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="83" t="str">
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="60"/>
+      <c r="AX9" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Tap: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="85"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="60"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="85"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="58"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="60"/>
       <c r="BE10" s="50" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="BF10" s="51">
         <v>15</v>
@@ -18645,351 +19305,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="85"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="60"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59"/>
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59"/>
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="60"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="59"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="60"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="85"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="60"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="83"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="85"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="60"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="60"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="60"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="85"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="58"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="59"/>
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="59"/>
+      <c r="AK14" s="60"/>
+      <c r="AL14" s="59"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="59"/>
+      <c r="AO14" s="59"/>
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="59"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="59"/>
+      <c r="AT14" s="59"/>
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="60"/>
+      <c r="AX14" s="58"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="59"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="60"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="86"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="87"/>
-      <c r="BA15" s="87"/>
-      <c r="BB15" s="87"/>
-      <c r="BC15" s="88"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62"/>
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62"/>
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="63"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="62"/>
+      <c r="AZ15" s="62"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="63"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="115" t="s">
-        <v>434</v>
-      </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="116"/>
-      <c r="AS16" s="116"/>
-      <c r="AT16" s="116"/>
-      <c r="AU16" s="116"/>
-      <c r="AV16" s="116"/>
-      <c r="AW16" s="116"/>
-      <c r="AX16" s="116"/>
-      <c r="AY16" s="116"/>
-      <c r="AZ16" s="116"/>
-      <c r="BA16" s="116"/>
-      <c r="BB16" s="116"/>
-      <c r="BC16" s="117"/>
+      <c r="B16" s="92" t="s">
+        <v>485</v>
+      </c>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="93"/>
+      <c r="AS16" s="93"/>
+      <c r="AT16" s="93"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="94"/>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="118" t="s">
-        <v>435</v>
-      </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
+      <c r="B17" s="95" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -19034,24 +19694,24 @@
       <c r="AV17" s="34"/>
       <c r="AW17" s="35"/>
       <c r="AX17" s="38" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AY17" s="39"/>
-      <c r="AZ17" s="61" t="s">
+      <c r="AZ17" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="BA17" s="61"/>
-      <c r="BB17" s="61"/>
+      <c r="BA17" s="110"/>
+      <c r="BB17" s="110"/>
       <c r="BC17" s="40"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="95" t="s">
-        <v>436</v>
-      </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
+      <c r="B18" s="98" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -19060,24 +19720,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="62" t="e">
+      <c r="AX18" s="79" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
+      <c r="AY18" s="80"/>
+      <c r="AZ18" s="80"/>
+      <c r="BA18" s="80"/>
+      <c r="BB18" s="80"/>
       <c r="BC18" s="41"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="98" t="s">
-        <v>437</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
+      <c r="B19" s="101" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
       <c r="G19" s="36"/>
       <c r="L19" s="36"/>
       <c r="R19" s="36"/>
@@ -19086,24 +19746,24 @@
       <c r="AJ19" s="36"/>
       <c r="AP19" s="36"/>
       <c r="AV19" s="36"/>
-      <c r="AX19" s="64" t="e">
+      <c r="AX19" s="77" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="78"/>
+      <c r="BA19" s="78"/>
+      <c r="BB19" s="78"/>
       <c r="BC19" s="42"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="121" t="s">
-        <v>438</v>
-      </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
+      <c r="B20" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -19113,22 +19773,22 @@
       <c r="AP20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AX20" s="43" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AZ20" s="44" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="BA20" s="44" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="BB20" s="44" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="BC20" s="45" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="2:55">
@@ -19160,71 +19820,71 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="62" t="s">
-        <v>432</v>
-      </c>
-      <c r="AY22" s="63"/>
-      <c r="AZ22" s="63"/>
-      <c r="BA22" s="63"/>
-      <c r="BB22" s="63"/>
+      <c r="AX22" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="AY22" s="80"/>
+      <c r="AZ22" s="80"/>
+      <c r="BA22" s="80"/>
+      <c r="BB22" s="80"/>
       <c r="BC22" s="41"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="AX23" s="66" t="e">
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="AX23" s="81" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="68"/>
+      <c r="AY23" s="82"/>
+      <c r="AZ23" s="82"/>
+      <c r="BA23" s="82"/>
+      <c r="BB23" s="82"/>
+      <c r="BC23" s="83"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="67"/>
-      <c r="AZ24" s="67"/>
-      <c r="BA24" s="67"/>
-      <c r="BB24" s="67"/>
-      <c r="BC24" s="68"/>
+      <c r="AX24" s="81"/>
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="82"/>
+      <c r="BA24" s="82"/>
+      <c r="BB24" s="82"/>
+      <c r="BC24" s="83"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="68"/>
+      <c r="AX25" s="81"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="82"/>
+      <c r="BB25" s="82"/>
+      <c r="BC25" s="83"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="67"/>
-      <c r="AZ26" s="67"/>
-      <c r="BA26" s="67"/>
-      <c r="BB26" s="67"/>
-      <c r="BC26" s="68"/>
+      <c r="AX26" s="81"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="82"/>
+      <c r="BA26" s="82"/>
+      <c r="BB26" s="82"/>
+      <c r="BC26" s="83"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="70"/>
-      <c r="AZ27" s="70"/>
-      <c r="BA27" s="70"/>
-      <c r="BB27" s="70"/>
-      <c r="BC27" s="71"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="85"/>
+      <c r="AZ27" s="85"/>
+      <c r="BA27" s="85"/>
+      <c r="BB27" s="85"/>
+      <c r="BC27" s="86"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="47" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -19273,70 +19933,70 @@
       <c r="AU28" s="37"/>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
-      <c r="AX28" s="112" t="s">
-        <v>439</v>
-      </c>
-      <c r="AY28" s="113"/>
-      <c r="AZ28" s="113"/>
-      <c r="BA28" s="113"/>
-      <c r="BB28" s="113"/>
-      <c r="BC28" s="114"/>
+      <c r="AX28" s="87" t="s">
+        <v>490</v>
+      </c>
+      <c r="AY28" s="88"/>
+      <c r="AZ28" s="88"/>
+      <c r="BA28" s="88"/>
+      <c r="BB28" s="88"/>
+      <c r="BC28" s="89"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="38" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="40"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="62" t="e">
+      <c r="B30" s="79" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
       <c r="G30" s="41"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="64" t="e">
+      <c r="B31" s="77" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
       <c r="G31" s="42"/>
       <c r="BC31" s="8"/>
     </row>
     <row r="32" spans="2:55">
       <c r="B32" s="43" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="BC32" s="8"/>
     </row>
@@ -19368,83 +20028,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="62" t="s">
-        <v>432</v>
-      </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
+      <c r="B34" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
       <c r="G34" s="41"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="66" t="e">
+      <c r="B35" s="81" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="AX36" s="101" t="s">
-        <v>438</v>
-      </c>
-      <c r="AY36" s="102"/>
-      <c r="AZ36" s="102"/>
-      <c r="BA36" s="102"/>
-      <c r="BB36" s="102"/>
-      <c r="BC36" s="103"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="83"/>
+      <c r="AX36" s="117" t="s">
+        <v>489</v>
+      </c>
+      <c r="AY36" s="118"/>
+      <c r="AZ36" s="118"/>
+      <c r="BA36" s="118"/>
+      <c r="BB36" s="118"/>
+      <c r="BC36" s="119"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
-      <c r="AX37" s="98" t="s">
-        <v>437</v>
-      </c>
-      <c r="AY37" s="99"/>
-      <c r="AZ37" s="99"/>
-      <c r="BA37" s="99"/>
-      <c r="BB37" s="99"/>
-      <c r="BC37" s="100"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
+      <c r="AX37" s="101" t="s">
+        <v>488</v>
+      </c>
+      <c r="AY37" s="102"/>
+      <c r="AZ37" s="102"/>
+      <c r="BA37" s="102"/>
+      <c r="BB37" s="102"/>
+      <c r="BC37" s="103"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="AX38" s="95" t="s">
-        <v>436</v>
-      </c>
-      <c r="AY38" s="96"/>
-      <c r="AZ38" s="96"/>
-      <c r="BA38" s="96"/>
-      <c r="BB38" s="96"/>
-      <c r="BC38" s="97"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="83"/>
+      <c r="AX38" s="98" t="s">
+        <v>487</v>
+      </c>
+      <c r="AY38" s="99"/>
+      <c r="AZ38" s="99"/>
+      <c r="BA38" s="99"/>
+      <c r="BB38" s="99"/>
+      <c r="BC38" s="100"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="86"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -19487,654 +20147,654 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="92" t="s">
-        <v>435</v>
-      </c>
-      <c r="AY39" s="93"/>
-      <c r="AZ39" s="93"/>
-      <c r="BA39" s="93"/>
-      <c r="BB39" s="93"/>
-      <c r="BC39" s="94"/>
+      <c r="AX39" s="114" t="s">
+        <v>486</v>
+      </c>
+      <c r="AY39" s="115"/>
+      <c r="AZ39" s="115"/>
+      <c r="BA39" s="115"/>
+      <c r="BB39" s="115"/>
+      <c r="BC39" s="116"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="89" t="s">
-        <v>440</v>
-      </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="90"/>
-      <c r="AB40" s="90"/>
-      <c r="AC40" s="90"/>
-      <c r="AD40" s="90"/>
-      <c r="AE40" s="90"/>
-      <c r="AF40" s="90"/>
-      <c r="AG40" s="90"/>
-      <c r="AH40" s="90"/>
-      <c r="AI40" s="90"/>
-      <c r="AJ40" s="90"/>
-      <c r="AK40" s="90"/>
-      <c r="AL40" s="90"/>
-      <c r="AM40" s="90"/>
-      <c r="AN40" s="90"/>
-      <c r="AO40" s="90"/>
-      <c r="AP40" s="90"/>
-      <c r="AQ40" s="90"/>
-      <c r="AR40" s="90"/>
-      <c r="AS40" s="90"/>
-      <c r="AT40" s="90"/>
-      <c r="AU40" s="90"/>
-      <c r="AV40" s="90"/>
-      <c r="AW40" s="90"/>
-      <c r="AX40" s="90"/>
-      <c r="AY40" s="90"/>
-      <c r="AZ40" s="90"/>
-      <c r="BA40" s="90"/>
-      <c r="BB40" s="90"/>
-      <c r="BC40" s="91"/>
+      <c r="B40" s="111" t="s">
+        <v>491</v>
+      </c>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="112"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="112"/>
+      <c r="Y40" s="112"/>
+      <c r="Z40" s="112"/>
+      <c r="AA40" s="112"/>
+      <c r="AB40" s="112"/>
+      <c r="AC40" s="112"/>
+      <c r="AD40" s="112"/>
+      <c r="AE40" s="112"/>
+      <c r="AF40" s="112"/>
+      <c r="AG40" s="112"/>
+      <c r="AH40" s="112"/>
+      <c r="AI40" s="112"/>
+      <c r="AJ40" s="112"/>
+      <c r="AK40" s="112"/>
+      <c r="AL40" s="112"/>
+      <c r="AM40" s="112"/>
+      <c r="AN40" s="112"/>
+      <c r="AO40" s="112"/>
+      <c r="AP40" s="112"/>
+      <c r="AQ40" s="112"/>
+      <c r="AR40" s="112"/>
+      <c r="AS40" s="112"/>
+      <c r="AT40" s="112"/>
+      <c r="AU40" s="112"/>
+      <c r="AV40" s="112"/>
+      <c r="AW40" s="112"/>
+      <c r="AX40" s="112"/>
+      <c r="AY40" s="112"/>
+      <c r="AZ40" s="112"/>
+      <c r="BA40" s="112"/>
+      <c r="BB40" s="112"/>
+      <c r="BC40" s="113"/>
     </row>
     <row r="41" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B41" s="78" t="s">
-        <v>412</v>
-      </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="79"/>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="78" t="s">
+      <c r="B41" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="AM41" s="79"/>
-      <c r="AN41" s="79"/>
-      <c r="AO41" s="79"/>
-      <c r="AP41" s="79"/>
-      <c r="AQ41" s="79"/>
-      <c r="AR41" s="79"/>
-      <c r="AS41" s="79"/>
-      <c r="AT41" s="79"/>
-      <c r="AU41" s="79"/>
-      <c r="AV41" s="79"/>
-      <c r="AW41" s="79"/>
-      <c r="AX41" s="79"/>
-      <c r="AY41" s="79"/>
-      <c r="AZ41" s="79"/>
-      <c r="BA41" s="79"/>
-      <c r="BB41" s="79"/>
-      <c r="BC41" s="80"/>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="65"/>
+      <c r="AP41" s="65"/>
+      <c r="AQ41" s="65"/>
+      <c r="AR41" s="65"/>
+      <c r="AS41" s="65"/>
+      <c r="AT41" s="65"/>
+      <c r="AU41" s="65"/>
+      <c r="AV41" s="65"/>
+      <c r="AW41" s="65"/>
+      <c r="AX41" s="65"/>
+      <c r="AY41" s="65"/>
+      <c r="AZ41" s="65"/>
+      <c r="BA41" s="65"/>
+      <c r="BB41" s="65"/>
+      <c r="BC41" s="66"/>
     </row>
     <row r="42" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B42" s="73" t="s">
-        <v>413</v>
-      </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
+      <c r="B42" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
       <c r="G42" s="27"/>
-      <c r="H42" s="75" t="s">
-        <v>414</v>
-      </c>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="74" t="s">
-        <v>415</v>
-      </c>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="75" t="s">
-        <v>416</v>
-      </c>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="74" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
-      <c r="AD42" s="74"/>
-      <c r="AE42" s="74"/>
-      <c r="AF42" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="AG42" s="74"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="74"/>
-      <c r="AJ42" s="74"/>
-      <c r="AK42" s="74"/>
-      <c r="AL42" s="73" t="s">
-        <v>419</v>
-      </c>
-      <c r="AM42" s="74"/>
-      <c r="AN42" s="74"/>
-      <c r="AO42" s="74"/>
-      <c r="AP42" s="74"/>
-      <c r="AQ42" s="74"/>
-      <c r="AR42" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="AS42" s="74"/>
-      <c r="AT42" s="74"/>
-      <c r="AU42" s="74"/>
-      <c r="AV42" s="74"/>
-      <c r="AW42" s="76"/>
-      <c r="AX42" s="74" t="s">
-        <v>421</v>
-      </c>
-      <c r="AY42" s="74"/>
-      <c r="AZ42" s="74"/>
-      <c r="BA42" s="74"/>
-      <c r="BB42" s="74"/>
-      <c r="BC42" s="77"/>
+      <c r="H42" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="71" t="s">
+        <v>466</v>
+      </c>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="71" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="71"/>
+      <c r="AF42" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG42" s="71"/>
+      <c r="AH42" s="71"/>
+      <c r="AI42" s="71"/>
+      <c r="AJ42" s="71"/>
+      <c r="AK42" s="71"/>
+      <c r="AL42" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="AM42" s="71"/>
+      <c r="AN42" s="71"/>
+      <c r="AO42" s="71"/>
+      <c r="AP42" s="71"/>
+      <c r="AQ42" s="71"/>
+      <c r="AR42" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="AS42" s="71"/>
+      <c r="AT42" s="71"/>
+      <c r="AU42" s="71"/>
+      <c r="AV42" s="71"/>
+      <c r="AW42" s="73"/>
+      <c r="AX42" s="71" t="s">
+        <v>472</v>
+      </c>
+      <c r="AY42" s="71"/>
+      <c r="AZ42" s="71"/>
+      <c r="BA42" s="71"/>
+      <c r="BB42" s="71"/>
+      <c r="BC42" s="122"/>
     </row>
     <row r="43" spans="2:55">
       <c r="B43" s="9" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="C43" s="26">
         <v>63</v>
       </c>
-      <c r="D43" s="72" t="str">
+      <c r="D43" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="10"/>
       <c r="H43" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="I43" s="33">
         <v>99</v>
       </c>
-      <c r="J43" s="58" t="str">
+      <c r="J43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="59"/>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="91"/>
       <c r="N43" s="10" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="O43" s="26">
         <v>46</v>
       </c>
-      <c r="P43" s="72" t="str">
+      <c r="P43" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
       <c r="T43" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="U43" s="33">
         <v>56</v>
       </c>
-      <c r="V43" s="58" t="str">
+      <c r="V43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="59"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="91"/>
       <c r="Z43" s="10" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AA43" s="26">
         <v>99</v>
       </c>
-      <c r="AB43" s="72" t="str">
+      <c r="AB43" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC43" s="72"/>
-      <c r="AD43" s="72"/>
-      <c r="AE43" s="72"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="67"/>
+      <c r="AE43" s="67"/>
       <c r="AF43" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AG43" s="33">
         <v>62</v>
       </c>
-      <c r="AH43" s="58" t="str">
+      <c r="AH43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI43" s="58"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="59"/>
+      <c r="AI43" s="90"/>
+      <c r="AJ43" s="90"/>
+      <c r="AK43" s="91"/>
       <c r="AL43" s="10" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AM43" s="26">
         <v>82</v>
       </c>
-      <c r="AN43" s="72" t="str">
+      <c r="AN43" s="67" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO43" s="72"/>
-      <c r="AP43" s="72"/>
-      <c r="AQ43" s="72"/>
+      <c r="AO43" s="67"/>
+      <c r="AP43" s="67"/>
+      <c r="AQ43" s="67"/>
       <c r="AR43" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AS43" s="33">
         <v>11</v>
       </c>
-      <c r="AT43" s="58" t="str">
+      <c r="AT43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="59"/>
+      <c r="AU43" s="90"/>
+      <c r="AV43" s="90"/>
+      <c r="AW43" s="91"/>
       <c r="AX43" s="32" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="AY43" s="33">
         <v>4</v>
       </c>
-      <c r="AZ43" s="58" t="str">
+      <c r="AZ43" s="90" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA43" s="58"/>
-      <c r="BB43" s="58"/>
-      <c r="BC43" s="59"/>
+      <c r="BA43" s="90"/>
+      <c r="BB43" s="90"/>
+      <c r="BC43" s="91"/>
     </row>
     <row r="44" spans="2:55">
-      <c r="B44" s="107" t="str">
+      <c r="B44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),3)</f>
         <v>P Bot Bot</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="107" t="str">
+      <c r="H44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="72" t="str">
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),3)</f>
         <v>Hull Breach</v>
       </c>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="107" t="str">
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="72" t="str">
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="72"/>
-      <c r="AC44" s="72"/>
-      <c r="AD44" s="72"/>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="107" t="str">
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="67"/>
+      <c r="AD44" s="67"/>
+      <c r="AE44" s="67"/>
+      <c r="AF44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG44" s="72"/>
-      <c r="AH44" s="72"/>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="72"/>
-      <c r="AK44" s="108"/>
-      <c r="AL44" s="72" t="str">
+      <c r="AG44" s="67"/>
+      <c r="AH44" s="67"/>
+      <c r="AI44" s="67"/>
+      <c r="AJ44" s="67"/>
+      <c r="AK44" s="69"/>
+      <c r="AL44" s="67" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM44" s="72"/>
-      <c r="AN44" s="72"/>
-      <c r="AO44" s="72"/>
-      <c r="AP44" s="72"/>
-      <c r="AQ44" s="72"/>
-      <c r="AR44" s="107" t="str">
+      <c r="AM44" s="67"/>
+      <c r="AN44" s="67"/>
+      <c r="AO44" s="67"/>
+      <c r="AP44" s="67"/>
+      <c r="AQ44" s="67"/>
+      <c r="AR44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="72"/>
-      <c r="AV44" s="72"/>
-      <c r="AW44" s="108"/>
-      <c r="AX44" s="107" t="str">
+      <c r="AS44" s="67"/>
+      <c r="AT44" s="67"/>
+      <c r="AU44" s="67"/>
+      <c r="AV44" s="67"/>
+      <c r="AW44" s="69"/>
+      <c r="AX44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY44" s="72"/>
-      <c r="AZ44" s="72"/>
-      <c r="BA44" s="72"/>
-      <c r="BB44" s="72"/>
-      <c r="BC44" s="108"/>
+      <c r="AY44" s="67"/>
+      <c r="AZ44" s="67"/>
+      <c r="BA44" s="67"/>
+      <c r="BB44" s="67"/>
+      <c r="BC44" s="69"/>
     </row>
     <row r="45" spans="2:55">
-      <c r="B45" s="109" t="str">
+      <c r="B45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="109" t="str">
+      <c r="H45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="110" t="str">
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="109" t="str">
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+      <c r="T45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="110" t="str">
+      <c r="U45" s="108"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="108"/>
+      <c r="X45" s="108"/>
+      <c r="Y45" s="109"/>
+      <c r="Z45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="109" t="str">
+      <c r="AA45" s="108"/>
+      <c r="AB45" s="108"/>
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="108"/>
+      <c r="AE45" s="108"/>
+      <c r="AF45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="111"/>
-      <c r="AL45" s="110" t="str">
+      <c r="AG45" s="108"/>
+      <c r="AH45" s="108"/>
+      <c r="AI45" s="108"/>
+      <c r="AJ45" s="108"/>
+      <c r="AK45" s="109"/>
+      <c r="AL45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM45" s="110"/>
-      <c r="AN45" s="110"/>
-      <c r="AO45" s="110"/>
-      <c r="AP45" s="110"/>
-      <c r="AQ45" s="110"/>
-      <c r="AR45" s="109" t="str">
+      <c r="AM45" s="108"/>
+      <c r="AN45" s="108"/>
+      <c r="AO45" s="108"/>
+      <c r="AP45" s="108"/>
+      <c r="AQ45" s="108"/>
+      <c r="AR45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS45" s="110"/>
-      <c r="AT45" s="110"/>
-      <c r="AU45" s="110"/>
-      <c r="AV45" s="110"/>
-      <c r="AW45" s="111"/>
-      <c r="AX45" s="109" t="str">
+      <c r="AS45" s="108"/>
+      <c r="AT45" s="108"/>
+      <c r="AU45" s="108"/>
+      <c r="AV45" s="108"/>
+      <c r="AW45" s="109"/>
+      <c r="AX45" s="107" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY45" s="110"/>
-      <c r="AZ45" s="110"/>
-      <c r="BA45" s="110"/>
-      <c r="BB45" s="110"/>
-      <c r="BC45" s="111"/>
+      <c r="AY45" s="108"/>
+      <c r="AZ45" s="108"/>
+      <c r="BA45" s="108"/>
+      <c r="BB45" s="108"/>
+      <c r="BC45" s="109"/>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="28" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="S46" s="31" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="Y46" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AE46" s="31" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AG46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AH46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AI46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="AJ46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AK46" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="AL46" s="29" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AM46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AN46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AO46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="AP46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AQ46" s="31" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="AR46" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AS46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AT46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="AU46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="AV46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="AW46" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="AX46" s="16" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="AY46" s="14" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="AZ46" s="14" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="BA46" s="14" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="BB46" s="14" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="BC46" s="17" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="2:55">
@@ -20356,509 +21016,620 @@
       </c>
     </row>
     <row r="48" spans="2:55">
-      <c r="B48" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
+      <c r="B48" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="108"/>
-      <c r="Z48" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="72"/>
-      <c r="AC48" s="72"/>
-      <c r="AD48" s="72"/>
-      <c r="AE48" s="72"/>
-      <c r="AF48" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG48" s="72"/>
-      <c r="AH48" s="72"/>
-      <c r="AI48" s="72"/>
-      <c r="AJ48" s="72"/>
-      <c r="AK48" s="108"/>
-      <c r="AL48" s="72" t="s">
-        <v>432</v>
-      </c>
-      <c r="AM48" s="72"/>
-      <c r="AN48" s="72"/>
-      <c r="AO48" s="72"/>
-      <c r="AP48" s="72"/>
-      <c r="AQ48" s="72"/>
-      <c r="AR48" s="104" t="s">
-        <v>432</v>
-      </c>
-      <c r="AS48" s="105"/>
-      <c r="AT48" s="105"/>
-      <c r="AU48" s="105"/>
-      <c r="AV48" s="105"/>
-      <c r="AW48" s="106"/>
-      <c r="AX48" s="107" t="s">
-        <v>432</v>
-      </c>
-      <c r="AY48" s="72"/>
-      <c r="AZ48" s="72"/>
-      <c r="BA48" s="72"/>
-      <c r="BB48" s="72"/>
-      <c r="BC48" s="108"/>
+      <c r="H48" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="O48" s="67"/>
+      <c r="P48" s="67"/>
+      <c r="Q48" s="67"/>
+      <c r="R48" s="67"/>
+      <c r="S48" s="67"/>
+      <c r="T48" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="U48" s="67"/>
+      <c r="V48" s="67"/>
+      <c r="W48" s="67"/>
+      <c r="X48" s="67"/>
+      <c r="Y48" s="69"/>
+      <c r="Z48" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA48" s="67"/>
+      <c r="AB48" s="67"/>
+      <c r="AC48" s="67"/>
+      <c r="AD48" s="67"/>
+      <c r="AE48" s="67"/>
+      <c r="AF48" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG48" s="67"/>
+      <c r="AH48" s="67"/>
+      <c r="AI48" s="67"/>
+      <c r="AJ48" s="67"/>
+      <c r="AK48" s="69"/>
+      <c r="AL48" s="67" t="s">
+        <v>483</v>
+      </c>
+      <c r="AM48" s="67"/>
+      <c r="AN48" s="67"/>
+      <c r="AO48" s="67"/>
+      <c r="AP48" s="67"/>
+      <c r="AQ48" s="67"/>
+      <c r="AR48" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
+      <c r="AW48" s="76"/>
+      <c r="AX48" s="68" t="s">
+        <v>483</v>
+      </c>
+      <c r="AY48" s="67"/>
+      <c r="AZ48" s="67"/>
+      <c r="BA48" s="67"/>
+      <c r="BB48" s="67"/>
+      <c r="BC48" s="69"/>
     </row>
     <row r="49" spans="2:55" ht="15" customHeight="1">
-      <c r="B49" s="83" t="str">
+      <c r="B49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Tap: Assault + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="83" t="str">
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="84" t="str">
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="83" t="str">
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="85"/>
-      <c r="Z49" s="84" t="str">
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="60"/>
+      <c r="Z49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="84"/>
-      <c r="AD49" s="84"/>
-      <c r="AE49" s="84"/>
-      <c r="AF49" s="83" t="str">
+      <c r="AA49" s="59"/>
+      <c r="AB49" s="59"/>
+      <c r="AC49" s="59"/>
+      <c r="AD49" s="59"/>
+      <c r="AE49" s="59"/>
+      <c r="AF49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG49" s="84"/>
-      <c r="AH49" s="84"/>
-      <c r="AI49" s="84"/>
-      <c r="AJ49" s="84"/>
-      <c r="AK49" s="85"/>
-      <c r="AL49" s="84" t="str">
+      <c r="AG49" s="59"/>
+      <c r="AH49" s="59"/>
+      <c r="AI49" s="59"/>
+      <c r="AJ49" s="59"/>
+      <c r="AK49" s="60"/>
+      <c r="AL49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM49" s="84"/>
-      <c r="AN49" s="84"/>
-      <c r="AO49" s="84"/>
-      <c r="AP49" s="84"/>
-      <c r="AQ49" s="84"/>
-      <c r="AR49" s="83" t="str">
+      <c r="AM49" s="59"/>
+      <c r="AN49" s="59"/>
+      <c r="AO49" s="59"/>
+      <c r="AP49" s="59"/>
+      <c r="AQ49" s="59"/>
+      <c r="AR49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS49" s="84"/>
-      <c r="AT49" s="84"/>
-      <c r="AU49" s="84"/>
-      <c r="AV49" s="84"/>
-      <c r="AW49" s="85"/>
-      <c r="AX49" s="83" t="str">
+      <c r="AS49" s="59"/>
+      <c r="AT49" s="59"/>
+      <c r="AU49" s="59"/>
+      <c r="AV49" s="59"/>
+      <c r="AW49" s="60"/>
+      <c r="AX49" s="58" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Tap: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY49" s="84"/>
-      <c r="AZ49" s="84"/>
-      <c r="BA49" s="84"/>
-      <c r="BB49" s="84"/>
-      <c r="BC49" s="85"/>
+      <c r="AY49" s="59"/>
+      <c r="AZ49" s="59"/>
+      <c r="BA49" s="59"/>
+      <c r="BB49" s="59"/>
+      <c r="BC49" s="60"/>
     </row>
     <row r="50" spans="2:55">
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="83"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="85"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="84"/>
-      <c r="AE50" s="84"/>
-      <c r="AF50" s="83"/>
-      <c r="AG50" s="84"/>
-      <c r="AH50" s="84"/>
-      <c r="AI50" s="84"/>
-      <c r="AJ50" s="84"/>
-      <c r="AK50" s="85"/>
-      <c r="AL50" s="84"/>
-      <c r="AM50" s="84"/>
-      <c r="AN50" s="84"/>
-      <c r="AO50" s="84"/>
-      <c r="AP50" s="84"/>
-      <c r="AQ50" s="84"/>
-      <c r="AR50" s="83"/>
-      <c r="AS50" s="84"/>
-      <c r="AT50" s="84"/>
-      <c r="AU50" s="84"/>
-      <c r="AV50" s="84"/>
-      <c r="AW50" s="85"/>
-      <c r="AX50" s="83"/>
-      <c r="AY50" s="84"/>
-      <c r="AZ50" s="84"/>
-      <c r="BA50" s="84"/>
-      <c r="BB50" s="84"/>
-      <c r="BC50" s="85"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="58"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="59"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="59"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="59"/>
+      <c r="AH50" s="59"/>
+      <c r="AI50" s="59"/>
+      <c r="AJ50" s="59"/>
+      <c r="AK50" s="60"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="59"/>
+      <c r="AN50" s="59"/>
+      <c r="AO50" s="59"/>
+      <c r="AP50" s="59"/>
+      <c r="AQ50" s="59"/>
+      <c r="AR50" s="58"/>
+      <c r="AS50" s="59"/>
+      <c r="AT50" s="59"/>
+      <c r="AU50" s="59"/>
+      <c r="AV50" s="59"/>
+      <c r="AW50" s="60"/>
+      <c r="AX50" s="58"/>
+      <c r="AY50" s="59"/>
+      <c r="AZ50" s="59"/>
+      <c r="BA50" s="59"/>
+      <c r="BB50" s="59"/>
+      <c r="BC50" s="60"/>
     </row>
     <row r="51" spans="2:55">
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="83"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="85"/>
-      <c r="Z51" s="84"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="84"/>
-      <c r="AE51" s="84"/>
-      <c r="AF51" s="83"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="84"/>
-      <c r="AI51" s="84"/>
-      <c r="AJ51" s="84"/>
-      <c r="AK51" s="85"/>
-      <c r="AL51" s="84"/>
-      <c r="AM51" s="84"/>
-      <c r="AN51" s="84"/>
-      <c r="AO51" s="84"/>
-      <c r="AP51" s="84"/>
-      <c r="AQ51" s="84"/>
-      <c r="AR51" s="83"/>
-      <c r="AS51" s="84"/>
-      <c r="AT51" s="84"/>
-      <c r="AU51" s="84"/>
-      <c r="AV51" s="84"/>
-      <c r="AW51" s="85"/>
-      <c r="AX51" s="83"/>
-      <c r="AY51" s="84"/>
-      <c r="AZ51" s="84"/>
-      <c r="BA51" s="84"/>
-      <c r="BB51" s="84"/>
-      <c r="BC51" s="85"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="58"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="60"/>
+      <c r="Z51" s="59"/>
+      <c r="AA51" s="59"/>
+      <c r="AB51" s="59"/>
+      <c r="AC51" s="59"/>
+      <c r="AD51" s="59"/>
+      <c r="AE51" s="59"/>
+      <c r="AF51" s="58"/>
+      <c r="AG51" s="59"/>
+      <c r="AH51" s="59"/>
+      <c r="AI51" s="59"/>
+      <c r="AJ51" s="59"/>
+      <c r="AK51" s="60"/>
+      <c r="AL51" s="59"/>
+      <c r="AM51" s="59"/>
+      <c r="AN51" s="59"/>
+      <c r="AO51" s="59"/>
+      <c r="AP51" s="59"/>
+      <c r="AQ51" s="59"/>
+      <c r="AR51" s="58"/>
+      <c r="AS51" s="59"/>
+      <c r="AT51" s="59"/>
+      <c r="AU51" s="59"/>
+      <c r="AV51" s="59"/>
+      <c r="AW51" s="60"/>
+      <c r="AX51" s="58"/>
+      <c r="AY51" s="59"/>
+      <c r="AZ51" s="59"/>
+      <c r="BA51" s="59"/>
+      <c r="BB51" s="59"/>
+      <c r="BC51" s="60"/>
     </row>
     <row r="52" spans="2:55">
-      <c r="B52" s="83"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
-      <c r="W52" s="84"/>
-      <c r="X52" s="84"/>
-      <c r="Y52" s="85"/>
-      <c r="Z52" s="84"/>
-      <c r="AA52" s="84"/>
-      <c r="AB52" s="84"/>
-      <c r="AC52" s="84"/>
-      <c r="AD52" s="84"/>
-      <c r="AE52" s="84"/>
-      <c r="AF52" s="83"/>
-      <c r="AG52" s="84"/>
-      <c r="AH52" s="84"/>
-      <c r="AI52" s="84"/>
-      <c r="AJ52" s="84"/>
-      <c r="AK52" s="85"/>
-      <c r="AL52" s="84"/>
-      <c r="AM52" s="84"/>
-      <c r="AN52" s="84"/>
-      <c r="AO52" s="84"/>
-      <c r="AP52" s="84"/>
-      <c r="AQ52" s="84"/>
-      <c r="AR52" s="83"/>
-      <c r="AS52" s="84"/>
-      <c r="AT52" s="84"/>
-      <c r="AU52" s="84"/>
-      <c r="AV52" s="84"/>
-      <c r="AW52" s="85"/>
-      <c r="AX52" s="83"/>
-      <c r="AY52" s="84"/>
-      <c r="AZ52" s="84"/>
-      <c r="BA52" s="84"/>
-      <c r="BB52" s="84"/>
-      <c r="BC52" s="85"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="58"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="60"/>
+      <c r="Z52" s="59"/>
+      <c r="AA52" s="59"/>
+      <c r="AB52" s="59"/>
+      <c r="AC52" s="59"/>
+      <c r="AD52" s="59"/>
+      <c r="AE52" s="59"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="59"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="59"/>
+      <c r="AK52" s="60"/>
+      <c r="AL52" s="59"/>
+      <c r="AM52" s="59"/>
+      <c r="AN52" s="59"/>
+      <c r="AO52" s="59"/>
+      <c r="AP52" s="59"/>
+      <c r="AQ52" s="59"/>
+      <c r="AR52" s="58"/>
+      <c r="AS52" s="59"/>
+      <c r="AT52" s="59"/>
+      <c r="AU52" s="59"/>
+      <c r="AV52" s="59"/>
+      <c r="AW52" s="60"/>
+      <c r="AX52" s="58"/>
+      <c r="AY52" s="59"/>
+      <c r="AZ52" s="59"/>
+      <c r="BA52" s="59"/>
+      <c r="BB52" s="59"/>
+      <c r="BC52" s="60"/>
     </row>
     <row r="53" spans="2:55">
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="85"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="83"/>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="84"/>
-      <c r="AI53" s="84"/>
-      <c r="AJ53" s="84"/>
-      <c r="AK53" s="85"/>
-      <c r="AL53" s="84"/>
-      <c r="AM53" s="84"/>
-      <c r="AN53" s="84"/>
-      <c r="AO53" s="84"/>
-      <c r="AP53" s="84"/>
-      <c r="AQ53" s="84"/>
-      <c r="AR53" s="83"/>
-      <c r="AS53" s="84"/>
-      <c r="AT53" s="84"/>
-      <c r="AU53" s="84"/>
-      <c r="AV53" s="84"/>
-      <c r="AW53" s="85"/>
-      <c r="AX53" s="83"/>
-      <c r="AY53" s="84"/>
-      <c r="AZ53" s="84"/>
-      <c r="BA53" s="84"/>
-      <c r="BB53" s="84"/>
-      <c r="BC53" s="85"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="58"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="60"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="59"/>
+      <c r="AC53" s="59"/>
+      <c r="AD53" s="59"/>
+      <c r="AE53" s="59"/>
+      <c r="AF53" s="58"/>
+      <c r="AG53" s="59"/>
+      <c r="AH53" s="59"/>
+      <c r="AI53" s="59"/>
+      <c r="AJ53" s="59"/>
+      <c r="AK53" s="60"/>
+      <c r="AL53" s="59"/>
+      <c r="AM53" s="59"/>
+      <c r="AN53" s="59"/>
+      <c r="AO53" s="59"/>
+      <c r="AP53" s="59"/>
+      <c r="AQ53" s="59"/>
+      <c r="AR53" s="58"/>
+      <c r="AS53" s="59"/>
+      <c r="AT53" s="59"/>
+      <c r="AU53" s="59"/>
+      <c r="AV53" s="59"/>
+      <c r="AW53" s="60"/>
+      <c r="AX53" s="58"/>
+      <c r="AY53" s="59"/>
+      <c r="AZ53" s="59"/>
+      <c r="BA53" s="59"/>
+      <c r="BB53" s="59"/>
+      <c r="BC53" s="60"/>
     </row>
     <row r="54" spans="2:55">
-      <c r="B54" s="83"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="85"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="84"/>
-      <c r="AC54" s="84"/>
-      <c r="AD54" s="84"/>
-      <c r="AE54" s="84"/>
-      <c r="AF54" s="83"/>
-      <c r="AG54" s="84"/>
-      <c r="AH54" s="84"/>
-      <c r="AI54" s="84"/>
-      <c r="AJ54" s="84"/>
-      <c r="AK54" s="85"/>
-      <c r="AL54" s="84"/>
-      <c r="AM54" s="84"/>
-      <c r="AN54" s="84"/>
-      <c r="AO54" s="84"/>
-      <c r="AP54" s="84"/>
-      <c r="AQ54" s="84"/>
-      <c r="AR54" s="83"/>
-      <c r="AS54" s="84"/>
-      <c r="AT54" s="84"/>
-      <c r="AU54" s="84"/>
-      <c r="AV54" s="84"/>
-      <c r="AW54" s="85"/>
-      <c r="AX54" s="83"/>
-      <c r="AY54" s="84"/>
-      <c r="AZ54" s="84"/>
-      <c r="BA54" s="84"/>
-      <c r="BB54" s="84"/>
-      <c r="BC54" s="85"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="58"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="59"/>
+      <c r="AC54" s="59"/>
+      <c r="AD54" s="59"/>
+      <c r="AE54" s="59"/>
+      <c r="AF54" s="58"/>
+      <c r="AG54" s="59"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="59"/>
+      <c r="AJ54" s="59"/>
+      <c r="AK54" s="60"/>
+      <c r="AL54" s="59"/>
+      <c r="AM54" s="59"/>
+      <c r="AN54" s="59"/>
+      <c r="AO54" s="59"/>
+      <c r="AP54" s="59"/>
+      <c r="AQ54" s="59"/>
+      <c r="AR54" s="58"/>
+      <c r="AS54" s="59"/>
+      <c r="AT54" s="59"/>
+      <c r="AU54" s="59"/>
+      <c r="AV54" s="59"/>
+      <c r="AW54" s="60"/>
+      <c r="AX54" s="58"/>
+      <c r="AY54" s="59"/>
+      <c r="AZ54" s="59"/>
+      <c r="BA54" s="59"/>
+      <c r="BB54" s="59"/>
+      <c r="BC54" s="60"/>
     </row>
     <row r="55" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B55" s="86"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="87"/>
-      <c r="S55" s="87"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="87"/>
-      <c r="V55" s="87"/>
-      <c r="W55" s="87"/>
-      <c r="X55" s="87"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="87"/>
-      <c r="AA55" s="87"/>
-      <c r="AB55" s="87"/>
-      <c r="AC55" s="87"/>
-      <c r="AD55" s="87"/>
-      <c r="AE55" s="87"/>
-      <c r="AF55" s="86"/>
-      <c r="AG55" s="87"/>
-      <c r="AH55" s="87"/>
-      <c r="AI55" s="87"/>
-      <c r="AJ55" s="87"/>
-      <c r="AK55" s="88"/>
-      <c r="AL55" s="87"/>
-      <c r="AM55" s="87"/>
-      <c r="AN55" s="87"/>
-      <c r="AO55" s="87"/>
-      <c r="AP55" s="87"/>
-      <c r="AQ55" s="87"/>
-      <c r="AR55" s="86"/>
-      <c r="AS55" s="87"/>
-      <c r="AT55" s="87"/>
-      <c r="AU55" s="87"/>
-      <c r="AV55" s="87"/>
-      <c r="AW55" s="88"/>
-      <c r="AX55" s="86"/>
-      <c r="AY55" s="87"/>
-      <c r="AZ55" s="87"/>
-      <c r="BA55" s="87"/>
-      <c r="BB55" s="87"/>
-      <c r="BC55" s="88"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="62"/>
+      <c r="AB55" s="62"/>
+      <c r="AC55" s="62"/>
+      <c r="AD55" s="62"/>
+      <c r="AE55" s="62"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="62"/>
+      <c r="AH55" s="62"/>
+      <c r="AI55" s="62"/>
+      <c r="AJ55" s="62"/>
+      <c r="AK55" s="63"/>
+      <c r="AL55" s="62"/>
+      <c r="AM55" s="62"/>
+      <c r="AN55" s="62"/>
+      <c r="AO55" s="62"/>
+      <c r="AP55" s="62"/>
+      <c r="AQ55" s="62"/>
+      <c r="AR55" s="61"/>
+      <c r="AS55" s="62"/>
+      <c r="AT55" s="62"/>
+      <c r="AU55" s="62"/>
+      <c r="AV55" s="62"/>
+      <c r="AW55" s="63"/>
+      <c r="AX55" s="61"/>
+      <c r="AY55" s="62"/>
+      <c r="AZ55" s="62"/>
+      <c r="BA55" s="62"/>
+      <c r="BB55" s="62"/>
+      <c r="BC55" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="AZ43:BC43"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:G39"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AH43:AK43"/>
+    <mergeCell ref="AN43:AQ43"/>
+    <mergeCell ref="AT43:AW43"/>
+    <mergeCell ref="AL42:AQ42"/>
+    <mergeCell ref="AR42:AW42"/>
+    <mergeCell ref="AX42:BC42"/>
+    <mergeCell ref="B41:AK41"/>
+    <mergeCell ref="AL41:BC41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="Z42:AE42"/>
+    <mergeCell ref="AF42:AK42"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="AR49:AW55"/>
+    <mergeCell ref="AX49:BC55"/>
+    <mergeCell ref="B40:BC40"/>
+    <mergeCell ref="AX39:BC39"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="AX36:BC36"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AL48:AQ48"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="N49:S55"/>
+    <mergeCell ref="T49:Y55"/>
+    <mergeCell ref="Z49:AE55"/>
+    <mergeCell ref="AF49:AK55"/>
+    <mergeCell ref="AL49:AQ55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AF45:AK45"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="AL44:AQ44"/>
+    <mergeCell ref="AR44:AW44"/>
+    <mergeCell ref="B9:F15"/>
+    <mergeCell ref="H9:M15"/>
+    <mergeCell ref="N9:S15"/>
+    <mergeCell ref="T9:Y15"/>
+    <mergeCell ref="Z9:AE15"/>
+    <mergeCell ref="AF9:AK15"/>
+    <mergeCell ref="AL9:AQ15"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AR9:AW15"/>
+    <mergeCell ref="AX9:BC15"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BC27"/>
+    <mergeCell ref="AX28:BC28"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B16:BC16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
     <mergeCell ref="B49:G55"/>
     <mergeCell ref="B1:AK1"/>
     <mergeCell ref="AL1:BC1"/>
@@ -20883,117 +21654,6 @@
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="AX4:BC4"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BC27"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B16:BC16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B9:F15"/>
-    <mergeCell ref="H9:M15"/>
-    <mergeCell ref="N9:S15"/>
-    <mergeCell ref="T9:Y15"/>
-    <mergeCell ref="Z9:AE15"/>
-    <mergeCell ref="AF9:AK15"/>
-    <mergeCell ref="AL9:AQ15"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AR9:AW15"/>
-    <mergeCell ref="AX9:BC15"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AF45:AK45"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="AL44:AQ44"/>
-    <mergeCell ref="AR44:AW44"/>
-    <mergeCell ref="AR49:AW55"/>
-    <mergeCell ref="AX49:BC55"/>
-    <mergeCell ref="B40:BC40"/>
-    <mergeCell ref="AX39:BC39"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="AX36:BC36"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AL48:AQ48"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:M55"/>
-    <mergeCell ref="N49:S55"/>
-    <mergeCell ref="T49:Y55"/>
-    <mergeCell ref="Z49:AE55"/>
-    <mergeCell ref="AF49:AK55"/>
-    <mergeCell ref="AL49:AQ55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AZ43:BC43"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:G39"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AH43:AK43"/>
-    <mergeCell ref="AN43:AQ43"/>
-    <mergeCell ref="AT43:AW43"/>
-    <mergeCell ref="AL42:AQ42"/>
-    <mergeCell ref="AR42:AW42"/>
-    <mergeCell ref="AX42:BC42"/>
-    <mergeCell ref="B41:AK41"/>
-    <mergeCell ref="AL41:BC41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="Z42:AE42"/>
-    <mergeCell ref="AF42:AK42"/>
   </mergeCells>
   <conditionalFormatting sqref="BG3 BG10">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="CREW">
@@ -21028,26 +21688,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -21076,7 +21736,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -21121,7 +21781,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -25403,26 +26063,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -25451,7 +26111,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -25496,7 +26156,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -29780,7 +30440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401B2AF4-132E-4827-929E-699A91E27690}">
   <dimension ref="B2:AG45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K42" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -29794,26 +30454,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -29842,7 +30502,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -29887,7 +30547,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -31700,7 +32360,7 @@
       </c>
       <c r="AC20" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S20,TblCardDesign[ID],0),12)</f>
-        <v>Event</v>
+        <v>Ship Upgrade</v>
       </c>
       <c r="AD20">
         <f>INDEX(TblCardDesign[#Data],MATCH($S20,TblCardDesign[ID],0),13)</f>
@@ -31716,7 +32376,7 @@
       </c>
       <c r="AG20" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S20,TblCardDesign[ID],0),17)</f>
-        <v>Target ship: Increase shield max by 200 and Restore 200 shield</v>
+        <v>Attach to ship: Increase shield max by 200 and Restore 200 shield</v>
       </c>
     </row>
     <row r="21" spans="2:33" ht="30">
@@ -31821,7 +32481,7 @@
       </c>
       <c r="AC21" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S21,TblCardDesign[ID],0),12)</f>
-        <v>Event</v>
+        <v>Ship Upgrade</v>
       </c>
       <c r="AD21">
         <f>INDEX(TblCardDesign[#Data],MATCH($S21,TblCardDesign[ID],0),13)</f>
@@ -31837,7 +32497,7 @@
       </c>
       <c r="AG21" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S21,TblCardDesign[ID],0),17)</f>
-        <v>Target ship: Increase shield max by 200 and Restore 200 shield</v>
+        <v>Attach to ship: Increase shield max by 200 and Restore 200 shield</v>
       </c>
     </row>
     <row r="22" spans="2:33" ht="60">
@@ -34165,26 +34825,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -34213,7 +34873,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -34258,7 +34918,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -38524,7 +39184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C550DA-18F1-4DC1-861B-F958B6FFE925}">
   <dimension ref="B2:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="K19" workbookViewId="0">
+    <sheetView topLeftCell="K30" workbookViewId="0">
       <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
@@ -38538,26 +39198,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -38586,7 +39246,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -38631,7 +39291,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -39855,7 +40515,7 @@
       </c>
       <c r="AG15" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S15,TblCardDesign[ID],0),17)</f>
-        <v>Cancel activated Research Project Card</v>
+        <v>Cancel target On Going Event card</v>
       </c>
     </row>
     <row r="16" spans="2:33" ht="45">
@@ -39976,7 +40636,7 @@
       </c>
       <c r="AG16" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S16,TblCardDesign[ID],0),17)</f>
-        <v>Cancel activated Research Project Card</v>
+        <v>Cancel target On Going Event card</v>
       </c>
     </row>
     <row r="17" spans="2:33" ht="59.25" customHeight="1">
@@ -42909,26 +43569,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="E2" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -42957,7 +43617,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -43002,7 +43662,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -46679,7 +47339,7 @@
       </c>
       <c r="AC36" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S36,TblCardDesign[ID],0),12)</f>
-        <v>Event</v>
+        <v>Ship Upgrade</v>
       </c>
       <c r="AD36">
         <f>INDEX(TblCardDesign[#Data],MATCH($S36,TblCardDesign[ID],0),13)</f>
@@ -46695,7 +47355,7 @@
       </c>
       <c r="AG36" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S36,TblCardDesign[ID],0),17)</f>
-        <v>Target ship: Increase shield max by 200 and Restore 200 shield</v>
+        <v>Attach to ship: Increase shield max by 200 and Restore 200 shield</v>
       </c>
     </row>
     <row r="37" spans="2:33" ht="30">
@@ -46740,7 +47400,7 @@
       </c>
       <c r="AC37" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S37,TblCardDesign[ID],0),12)</f>
-        <v>Event</v>
+        <v>Ship Upgrade</v>
       </c>
       <c r="AD37">
         <f>INDEX(TblCardDesign[#Data],MATCH($S37,TblCardDesign[ID],0),13)</f>
@@ -46756,7 +47416,7 @@
       </c>
       <c r="AG37" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S37,TblCardDesign[ID],0),17)</f>
-        <v>Target ship: Increase shield max by 200 and Restore 200 shield</v>
+        <v>Attach to ship: Increase shield max by 200 and Restore 200 shield</v>
       </c>
     </row>
     <row r="38" spans="2:33" ht="45">

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27230"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C1F27E7-0A4F-445F-BD34-E1EE44810E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6022BDC-E31B-4209-AA72-F4E4850665DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Table Counts" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="597" r:id="rId11"/>
+    <pivotCache cacheId="1625" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="522">
   <si>
     <t>Type</t>
   </si>
@@ -461,7 +461,7 @@
     <t>Alien Disease</t>
   </si>
   <si>
-    <t>Target player: Sacrifices 1 crew during that players start phase</t>
+    <t>Target ship: Sacrifices 1 crew during that players start phase</t>
   </si>
   <si>
     <t>Antidote</t>
@@ -1306,7 +1306,7 @@
     <t>Adm. Jess</t>
   </si>
   <si>
-    <t>At the start of your turn, return a target crew attachment card from your junkyard to your hand.</t>
+    <t>At the start of your turn, return a target crew attachment card from your Stasis to your hand.</t>
   </si>
   <si>
     <t>Admiral Jess has always treated her crew to the highest standards</t>
@@ -1396,7 +1396,7 @@
     <t>Research/Engineer</t>
   </si>
   <si>
-    <t>Android</t>
+    <t>Cyborg</t>
   </si>
   <si>
     <t>Enters tapped or attached ship takes 200 damage
@@ -1552,6 +1552,85 @@
   </si>
   <si>
     <t>Captain Howard Spencer is known for his reckless flying, but always manages to get away</t>
+  </si>
+  <si>
+    <t>Cpt. J. Mayflower</t>
+  </si>
+  <si>
+    <t>Tap and Eject a crew member on assigned ship to Stasis: Return a crew member from Stasis to your assigned ship
+Tap: +2 to Medic</t>
+  </si>
+  <si>
+    <t>Captain Jane Mayflower had a tendency of getting through members of her crew quite quickly</t>
+  </si>
+  <si>
+    <t>Cpt. L. Humphrey</t>
+  </si>
+  <si>
+    <t>Tap: +2 to Medic
+Tap: Return a crew attachment from Junkyard to your hand</t>
+  </si>
+  <si>
+    <t>Captain Luke Humphrey can use near about anything to put people back together, with any means necessary</t>
+  </si>
+  <si>
+    <t>Cpt. K. Craine</t>
+  </si>
+  <si>
+    <t>Tap: Look at the top 3 cards of your Strategy deck, you may reveal 1 ship upgrade card and place into your hand. Place the rest into your junkyard.
+Tap: Get +1 Engineering for each ship attachment attached to assigned ship</t>
+  </si>
+  <si>
+    <t>Known for her knowledge, Captain Katie Craine can easily recognise a good ship upgrade when she see's one</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Attach to Ship: Chosen gun slot deals an extra 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Piercing Round</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deals damage straight to hull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Strategy</t>
@@ -1705,7 +1784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,6 +1840,19 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -2255,7 +2347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2394,61 +2486,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2456,12 +2509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2481,6 +2528,126 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2488,12 +2655,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2514,24 +2675,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2541,56 +2684,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6833,7 +6928,100 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="597" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1625" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item m="1" x="11"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="1625" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -6982,99 +7170,6 @@
     <i t="grand">
       <x/>
     </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="597" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="13">
-        <item x="8"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item m="1" x="11"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
@@ -7850,26 +7945,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -7898,7 +7993,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -7943,7 +8038,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -10493,7 +10588,7 @@
       </c>
       <c r="AG26" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S26,TblCardDesign[ID],0),17)</f>
-        <v>Target player: Sacrifices 1 crew during that players start phase</v>
+        <v>Target ship: Sacrifices 1 crew during that players start phase</v>
       </c>
     </row>
     <row r="27" spans="2:33" ht="45">
@@ -10613,7 +10708,7 @@
       </c>
       <c r="AG27" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S27,TblCardDesign[ID],0),17)</f>
-        <v>Target player: Sacrifices 1 crew during that players start phase</v>
+        <v>Target ship: Sacrifices 1 crew during that players start phase</v>
       </c>
     </row>
     <row r="28" spans="2:33" ht="45">
@@ -12199,9 +12294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B193" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J201" sqref="J201"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -13662,7 +13757,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="30">
+    <row r="49" spans="1:17" ht="30.75">
       <c r="A49">
         <v>44</v>
       </c>
@@ -13688,7 +13783,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="30">
+    <row r="50" spans="1:17" ht="30.75">
       <c r="A50">
         <v>45</v>
       </c>
@@ -17067,7 +17162,7 @@
       </c>
       <c r="R166" s="2"/>
     </row>
-    <row r="167" spans="1:18" ht="45">
+    <row r="167" spans="1:18" ht="45.75">
       <c r="A167">
         <v>162</v>
       </c>
@@ -18005,20 +18100,133 @@
         <v>462</v>
       </c>
     </row>
-    <row r="199" spans="1:18">
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-    </row>
-    <row r="200" spans="1:18">
-      <c r="Q200" s="2"/>
-      <c r="R200" s="2"/>
-    </row>
-    <row r="201" spans="1:18">
-      <c r="Q201" s="2"/>
-      <c r="R201" s="2"/>
-    </row>
-    <row r="202" spans="1:18">
-      <c r="Q202" s="2"/>
+    <row r="199" spans="1:18" ht="76.5">
+      <c r="A199">
+        <v>194</v>
+      </c>
+      <c r="B199" t="s">
+        <v>36</v>
+      </c>
+      <c r="C199" t="s">
+        <v>463</v>
+      </c>
+      <c r="G199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>3</v>
+      </c>
+      <c r="L199" t="s">
+        <v>3</v>
+      </c>
+      <c r="M199" t="s">
+        <v>21</v>
+      </c>
+      <c r="O199" t="s">
+        <v>14</v>
+      </c>
+      <c r="P199" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q199" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="R199" s="5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" ht="60.75">
+      <c r="A200">
+        <v>195</v>
+      </c>
+      <c r="B200" t="s">
+        <v>36</v>
+      </c>
+      <c r="C200" t="s">
+        <v>466</v>
+      </c>
+      <c r="G200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>2</v>
+      </c>
+      <c r="L200" t="s">
+        <v>3</v>
+      </c>
+      <c r="M200" t="s">
+        <v>21</v>
+      </c>
+      <c r="O200" t="s">
+        <v>414</v>
+      </c>
+      <c r="P200" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q200" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="R200" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="121.5">
+      <c r="A201">
+        <v>196</v>
+      </c>
+      <c r="B201" t="s">
+        <v>36</v>
+      </c>
+      <c r="C201" t="s">
+        <v>469</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+      <c r="L201" t="s">
+        <v>3</v>
+      </c>
+      <c r="M201" t="s">
+        <v>29</v>
+      </c>
+      <c r="O201" t="s">
+        <v>414</v>
+      </c>
+      <c r="P201" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q201" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="R201" s="5" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" ht="45.75">
+      <c r="A202">
+        <v>197</v>
+      </c>
+      <c r="B202" t="s">
+        <v>78</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+      <c r="L202" t="s">
+        <v>9</v>
+      </c>
+      <c r="P202" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q202" s="124" t="s">
+        <v>472</v>
+      </c>
       <c r="R202" s="2"/>
     </row>
     <row r="203" spans="1:18">
@@ -18221,7 +18429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:BG55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
@@ -18236,364 +18444,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="64" t="s">
+      <c r="B1" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="65"/>
-      <c r="AU1" s="65"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="65"/>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="66"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="80"/>
     </row>
     <row r="2" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B2" s="70" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="72" t="s">
-        <v>465</v>
-      </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="71" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="72" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="71" t="s">
-        <v>472</v>
-      </c>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="122"/>
-      <c r="BE2" s="120" t="s">
-        <v>473</v>
-      </c>
-      <c r="BF2" s="121"/>
+      <c r="H2" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="74"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="74"/>
+      <c r="AW2" s="76"/>
+      <c r="AX2" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="AY2" s="74"/>
+      <c r="AZ2" s="74"/>
+      <c r="BA2" s="74"/>
+      <c r="BB2" s="74"/>
+      <c r="BC2" s="77"/>
+      <c r="BE2" s="81" t="s">
+        <v>483</v>
+      </c>
+      <c r="BF2" s="82"/>
       <c r="BG2" s="23" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="2:59">
       <c r="B3" s="9" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="67" t="str">
+      <c r="D3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="10"/>
       <c r="H3" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="I3" s="33">
         <v>21</v>
       </c>
-      <c r="J3" s="90" t="str">
+      <c r="J3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="91"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
       <c r="N3" s="10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="67" t="str">
+      <c r="P3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
       <c r="T3" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="U3" s="33">
         <v>56</v>
       </c>
-      <c r="V3" s="90" t="str">
+      <c r="V3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="91"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="59"/>
       <c r="Z3" s="10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="67" t="str">
+      <c r="AB3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
       <c r="AF3" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AG3" s="33">
         <v>62</v>
       </c>
-      <c r="AH3" s="90" t="str">
+      <c r="AH3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="90"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="91"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="59"/>
       <c r="AL3" s="10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="67" t="str">
+      <c r="AN3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
       <c r="AR3" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AS3" s="33">
         <v>11</v>
       </c>
-      <c r="AT3" s="90" t="str">
+      <c r="AT3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AW3" s="91"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="59"/>
       <c r="AX3" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AY3" s="33">
         <v>4</v>
       </c>
-      <c r="AZ3" s="90" t="str">
+      <c r="AZ3" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BC3" s="91"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+      <c r="BC3" s="59"/>
       <c r="BE3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
-        <v>CREW</v>
+        <v>STRATEGY</v>
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="68" t="str">
+      <c r="B4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="67" t="str">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="68" t="str">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="67" t="str">
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="68" t="str">
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="67" t="str">
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="68" t="str">
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="68" t="str">
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="69"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="108"/>
       <c r="BE4" s="20" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
@@ -18601,257 +18809,257 @@
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="107" t="str">
+      <c r="B5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="107" t="str">
+      <c r="H5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="108" t="str">
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="107" t="str">
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="109"/>
-      <c r="Z5" s="108" t="str">
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="107" t="str">
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="109"/>
-      <c r="AL5" s="108" t="str">
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="108"/>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="108"/>
-      <c r="AR5" s="107" t="str">
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="108"/>
-      <c r="AT5" s="108"/>
-      <c r="AU5" s="108"/>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="109"/>
-      <c r="AX5" s="107" t="str">
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="108"/>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="108"/>
-      <c r="BB5" s="108"/>
-      <c r="BC5" s="109"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="111"/>
       <c r="BE5" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="BF5">
         <f>MAX('Card Designs'!A6:A199)</f>
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="2:59">
       <c r="B6" s="28" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AK6" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AL6" s="29" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AQ6" s="31" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AU6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AV6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AW6" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="BA6" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="BB6" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="BC6" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="2:59">
@@ -19073,228 +19281,228 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="74" t="s">
-        <v>483</v>
-      </c>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="75"/>
-      <c r="AW8" s="76"/>
-      <c r="AX8" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="69"/>
+      <c r="H8" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="105"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="105"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="108"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="58" t="str">
+      <c r="B9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="58" t="str">
+      <c r="H9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="59" t="str">
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Tap: Medic + 3
 Tap: Repair ship by 100</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="58" t="str">
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="59" t="str">
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="85"/>
+      <c r="Z9" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="58" t="str">
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="59" t="str">
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="85"/>
+      <c r="AL9" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="58" t="str">
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="59"/>
-      <c r="AV9" s="59"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="58" t="str">
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Tap: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="59"/>
-      <c r="BA9" s="59"/>
-      <c r="BB9" s="59"/>
-      <c r="BC9" s="60"/>
+      <c r="AY9" s="84"/>
+      <c r="AZ9" s="84"/>
+      <c r="BA9" s="84"/>
+      <c r="BB9" s="84"/>
+      <c r="BC9" s="85"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="58"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="58"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="59"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="58"/>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="59"/>
-      <c r="BA10" s="59"/>
-      <c r="BB10" s="59"/>
-      <c r="BC10" s="60"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="83"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="83"/>
+      <c r="AY10" s="84"/>
+      <c r="AZ10" s="84"/>
+      <c r="BA10" s="84"/>
+      <c r="BB10" s="84"/>
+      <c r="BC10" s="85"/>
       <c r="BE10" s="50" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="BF10" s="51">
         <v>15</v>
@@ -19305,351 +19513,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="58"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="59"/>
-      <c r="AI11" s="59"/>
-      <c r="AJ11" s="59"/>
-      <c r="AK11" s="60"/>
-      <c r="AL11" s="59"/>
-      <c r="AM11" s="59"/>
-      <c r="AN11" s="59"/>
-      <c r="AO11" s="59"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="59"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="59"/>
-      <c r="AT11" s="59"/>
-      <c r="AU11" s="59"/>
-      <c r="AV11" s="59"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="59"/>
-      <c r="AZ11" s="59"/>
-      <c r="BA11" s="59"/>
-      <c r="BB11" s="59"/>
-      <c r="BC11" s="60"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="84"/>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="85"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="85"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="83"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="83"/>
+      <c r="AY11" s="84"/>
+      <c r="AZ11" s="84"/>
+      <c r="BA11" s="84"/>
+      <c r="BB11" s="84"/>
+      <c r="BC11" s="85"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="60"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="85"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="85"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="83"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="85"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="84"/>
+      <c r="AZ12" s="84"/>
+      <c r="BA12" s="84"/>
+      <c r="BB12" s="84"/>
+      <c r="BC12" s="85"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="60"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="85"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="85"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="83"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="85"/>
+      <c r="AX13" s="83"/>
+      <c r="AY13" s="84"/>
+      <c r="AZ13" s="84"/>
+      <c r="BA13" s="84"/>
+      <c r="BB13" s="84"/>
+      <c r="BC13" s="85"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="58"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59"/>
-      <c r="AN14" s="59"/>
-      <c r="AO14" s="59"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="58"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="59"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="58"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="59"/>
-      <c r="BB14" s="59"/>
-      <c r="BC14" s="60"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="83"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="85"/>
+      <c r="AX14" s="83"/>
+      <c r="AY14" s="84"/>
+      <c r="AZ14" s="84"/>
+      <c r="BA14" s="84"/>
+      <c r="BB14" s="84"/>
+      <c r="BC14" s="85"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="62"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="62"/>
-      <c r="AM15" s="62"/>
-      <c r="AN15" s="62"/>
-      <c r="AO15" s="62"/>
-      <c r="AP15" s="62"/>
-      <c r="AQ15" s="62"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="62"/>
-      <c r="AT15" s="62"/>
-      <c r="AU15" s="62"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="61"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="62"/>
-      <c r="BA15" s="62"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="63"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="86"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="87"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="86"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="88"/>
+      <c r="AX15" s="86"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="87"/>
+      <c r="BA15" s="87"/>
+      <c r="BB15" s="87"/>
+      <c r="BC15" s="88"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="94"/>
+      <c r="B16" s="115" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116"/>
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="116"/>
+      <c r="AP16" s="116"/>
+      <c r="AQ16" s="116"/>
+      <c r="AR16" s="116"/>
+      <c r="AS16" s="116"/>
+      <c r="AT16" s="116"/>
+      <c r="AU16" s="116"/>
+      <c r="AV16" s="116"/>
+      <c r="AW16" s="116"/>
+      <c r="AX16" s="116"/>
+      <c r="AY16" s="116"/>
+      <c r="AZ16" s="116"/>
+      <c r="BA16" s="116"/>
+      <c r="BB16" s="116"/>
+      <c r="BC16" s="117"/>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="95" t="s">
-        <v>486</v>
-      </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
+      <c r="B17" s="118" t="s">
+        <v>496</v>
+      </c>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -19694,24 +19902,24 @@
       <c r="AV17" s="34"/>
       <c r="AW17" s="35"/>
       <c r="AX17" s="38" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AY17" s="39"/>
-      <c r="AZ17" s="110" t="s">
+      <c r="AZ17" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="BA17" s="110"/>
-      <c r="BB17" s="110"/>
+      <c r="BA17" s="61"/>
+      <c r="BB17" s="61"/>
       <c r="BC17" s="40"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="98" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
+      <c r="B18" s="95" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -19720,24 +19928,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="79" t="e">
+      <c r="AX18" s="62" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="80"/>
-      <c r="AZ18" s="80"/>
-      <c r="BA18" s="80"/>
-      <c r="BB18" s="80"/>
+      <c r="AY18" s="63"/>
+      <c r="AZ18" s="63"/>
+      <c r="BA18" s="63"/>
+      <c r="BB18" s="63"/>
       <c r="BC18" s="41"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="101" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
+      <c r="B19" s="98" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
       <c r="G19" s="36"/>
       <c r="L19" s="36"/>
       <c r="R19" s="36"/>
@@ -19746,24 +19954,24 @@
       <c r="AJ19" s="36"/>
       <c r="AP19" s="36"/>
       <c r="AV19" s="36"/>
-      <c r="AX19" s="77" t="e">
+      <c r="AX19" s="64" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="78"/>
-      <c r="AZ19" s="78"/>
-      <c r="BA19" s="78"/>
-      <c r="BB19" s="78"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
       <c r="BC19" s="42"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="104" t="s">
-        <v>489</v>
-      </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="106"/>
+      <c r="B20" s="121" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -19773,22 +19981,22 @@
       <c r="AP20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AX20" s="43" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AZ20" s="44" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="BA20" s="44" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="BB20" s="44" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="BC20" s="45" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="2:55">
@@ -19820,71 +20028,71 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="79" t="s">
-        <v>483</v>
-      </c>
-      <c r="AY22" s="80"/>
-      <c r="AZ22" s="80"/>
-      <c r="BA22" s="80"/>
-      <c r="BB22" s="80"/>
+      <c r="AX22" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="63"/>
+      <c r="BB22" s="63"/>
       <c r="BC22" s="41"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="AX23" s="81" t="e">
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="60"/>
+      <c r="AX23" s="66" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="82"/>
-      <c r="AZ23" s="82"/>
-      <c r="BA23" s="82"/>
-      <c r="BB23" s="82"/>
-      <c r="BC23" s="83"/>
+      <c r="AY23" s="67"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+      <c r="BB23" s="67"/>
+      <c r="BC23" s="68"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="81"/>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="82"/>
-      <c r="BA24" s="82"/>
-      <c r="BB24" s="82"/>
-      <c r="BC24" s="83"/>
+      <c r="AX24" s="66"/>
+      <c r="AY24" s="67"/>
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="67"/>
+      <c r="BB24" s="67"/>
+      <c r="BC24" s="68"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="81"/>
-      <c r="AY25" s="82"/>
-      <c r="AZ25" s="82"/>
-      <c r="BA25" s="82"/>
-      <c r="BB25" s="82"/>
-      <c r="BC25" s="83"/>
+      <c r="AX25" s="66"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="68"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="81"/>
-      <c r="AY26" s="82"/>
-      <c r="AZ26" s="82"/>
-      <c r="BA26" s="82"/>
-      <c r="BB26" s="82"/>
-      <c r="BC26" s="83"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="67"/>
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="67"/>
+      <c r="BB26" s="67"/>
+      <c r="BC26" s="68"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="84"/>
-      <c r="AY27" s="85"/>
-      <c r="AZ27" s="85"/>
-      <c r="BA27" s="85"/>
-      <c r="BB27" s="85"/>
-      <c r="BC27" s="86"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="70"/>
+      <c r="BB27" s="70"/>
+      <c r="BC27" s="71"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="47" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -19933,70 +20141,70 @@
       <c r="AU28" s="37"/>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
-      <c r="AX28" s="87" t="s">
-        <v>490</v>
-      </c>
-      <c r="AY28" s="88"/>
-      <c r="AZ28" s="88"/>
-      <c r="BA28" s="88"/>
-      <c r="BB28" s="88"/>
-      <c r="BC28" s="89"/>
+      <c r="AX28" s="112" t="s">
+        <v>500</v>
+      </c>
+      <c r="AY28" s="113"/>
+      <c r="AZ28" s="113"/>
+      <c r="BA28" s="113"/>
+      <c r="BB28" s="113"/>
+      <c r="BC28" s="114"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="38" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="40"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="79" t="e">
+      <c r="B30" s="62" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="41"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="77" t="e">
+      <c r="B31" s="64" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="42"/>
       <c r="BC31" s="8"/>
     </row>
     <row r="32" spans="2:55">
       <c r="B32" s="43" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="BC32" s="8"/>
     </row>
@@ -20028,83 +20236,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="79" t="s">
-        <v>483</v>
-      </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
+      <c r="B34" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="41"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="81" t="e">
+      <c r="B35" s="66" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="81"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="83"/>
-      <c r="AX36" s="117" t="s">
-        <v>489</v>
-      </c>
-      <c r="AY36" s="118"/>
-      <c r="AZ36" s="118"/>
-      <c r="BA36" s="118"/>
-      <c r="BB36" s="118"/>
-      <c r="BC36" s="119"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="AX36" s="101" t="s">
+        <v>499</v>
+      </c>
+      <c r="AY36" s="102"/>
+      <c r="AZ36" s="102"/>
+      <c r="BA36" s="102"/>
+      <c r="BB36" s="102"/>
+      <c r="BC36" s="103"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="81"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
-      <c r="AX37" s="101" t="s">
-        <v>488</v>
-      </c>
-      <c r="AY37" s="102"/>
-      <c r="AZ37" s="102"/>
-      <c r="BA37" s="102"/>
-      <c r="BB37" s="102"/>
-      <c r="BC37" s="103"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="AX37" s="98" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY37" s="99"/>
+      <c r="AZ37" s="99"/>
+      <c r="BA37" s="99"/>
+      <c r="BB37" s="99"/>
+      <c r="BC37" s="100"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="83"/>
-      <c r="AX38" s="98" t="s">
-        <v>487</v>
-      </c>
-      <c r="AY38" s="99"/>
-      <c r="AZ38" s="99"/>
-      <c r="BA38" s="99"/>
-      <c r="BB38" s="99"/>
-      <c r="BC38" s="100"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
+      <c r="AX38" s="95" t="s">
+        <v>497</v>
+      </c>
+      <c r="AY38" s="96"/>
+      <c r="AZ38" s="96"/>
+      <c r="BA38" s="96"/>
+      <c r="BB38" s="96"/>
+      <c r="BC38" s="97"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="71"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -20147,654 +20355,654 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="114" t="s">
-        <v>486</v>
-      </c>
-      <c r="AY39" s="115"/>
-      <c r="AZ39" s="115"/>
-      <c r="BA39" s="115"/>
-      <c r="BB39" s="115"/>
-      <c r="BC39" s="116"/>
+      <c r="AX39" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="AY39" s="93"/>
+      <c r="AZ39" s="93"/>
+      <c r="BA39" s="93"/>
+      <c r="BB39" s="93"/>
+      <c r="BC39" s="94"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="111" t="s">
-        <v>491</v>
-      </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="112"/>
-      <c r="R40" s="112"/>
-      <c r="S40" s="112"/>
-      <c r="T40" s="112"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
-      <c r="Y40" s="112"/>
-      <c r="Z40" s="112"/>
-      <c r="AA40" s="112"/>
-      <c r="AB40" s="112"/>
-      <c r="AC40" s="112"/>
-      <c r="AD40" s="112"/>
-      <c r="AE40" s="112"/>
-      <c r="AF40" s="112"/>
-      <c r="AG40" s="112"/>
-      <c r="AH40" s="112"/>
-      <c r="AI40" s="112"/>
-      <c r="AJ40" s="112"/>
-      <c r="AK40" s="112"/>
-      <c r="AL40" s="112"/>
-      <c r="AM40" s="112"/>
-      <c r="AN40" s="112"/>
-      <c r="AO40" s="112"/>
-      <c r="AP40" s="112"/>
-      <c r="AQ40" s="112"/>
-      <c r="AR40" s="112"/>
-      <c r="AS40" s="112"/>
-      <c r="AT40" s="112"/>
-      <c r="AU40" s="112"/>
-      <c r="AV40" s="112"/>
-      <c r="AW40" s="112"/>
-      <c r="AX40" s="112"/>
-      <c r="AY40" s="112"/>
-      <c r="AZ40" s="112"/>
-      <c r="BA40" s="112"/>
-      <c r="BB40" s="112"/>
-      <c r="BC40" s="113"/>
+      <c r="B40" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="90"/>
+      <c r="AC40" s="90"/>
+      <c r="AD40" s="90"/>
+      <c r="AE40" s="90"/>
+      <c r="AF40" s="90"/>
+      <c r="AG40" s="90"/>
+      <c r="AH40" s="90"/>
+      <c r="AI40" s="90"/>
+      <c r="AJ40" s="90"/>
+      <c r="AK40" s="90"/>
+      <c r="AL40" s="90"/>
+      <c r="AM40" s="90"/>
+      <c r="AN40" s="90"/>
+      <c r="AO40" s="90"/>
+      <c r="AP40" s="90"/>
+      <c r="AQ40" s="90"/>
+      <c r="AR40" s="90"/>
+      <c r="AS40" s="90"/>
+      <c r="AT40" s="90"/>
+      <c r="AU40" s="90"/>
+      <c r="AV40" s="90"/>
+      <c r="AW40" s="90"/>
+      <c r="AX40" s="90"/>
+      <c r="AY40" s="90"/>
+      <c r="AZ40" s="90"/>
+      <c r="BA40" s="90"/>
+      <c r="BB40" s="90"/>
+      <c r="BC40" s="91"/>
     </row>
     <row r="41" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B41" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="65"/>
-      <c r="AF41" s="65"/>
-      <c r="AG41" s="65"/>
-      <c r="AH41" s="65"/>
-      <c r="AI41" s="65"/>
-      <c r="AJ41" s="65"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="64" t="s">
+      <c r="B41" s="78" t="s">
+        <v>473</v>
+      </c>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
+      <c r="V41" s="79"/>
+      <c r="W41" s="79"/>
+      <c r="X41" s="79"/>
+      <c r="Y41" s="79"/>
+      <c r="Z41" s="79"/>
+      <c r="AA41" s="79"/>
+      <c r="AB41" s="79"/>
+      <c r="AC41" s="79"/>
+      <c r="AD41" s="79"/>
+      <c r="AE41" s="79"/>
+      <c r="AF41" s="79"/>
+      <c r="AG41" s="79"/>
+      <c r="AH41" s="79"/>
+      <c r="AI41" s="79"/>
+      <c r="AJ41" s="79"/>
+      <c r="AK41" s="80"/>
+      <c r="AL41" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AM41" s="65"/>
-      <c r="AN41" s="65"/>
-      <c r="AO41" s="65"/>
-      <c r="AP41" s="65"/>
-      <c r="AQ41" s="65"/>
-      <c r="AR41" s="65"/>
-      <c r="AS41" s="65"/>
-      <c r="AT41" s="65"/>
-      <c r="AU41" s="65"/>
-      <c r="AV41" s="65"/>
-      <c r="AW41" s="65"/>
-      <c r="AX41" s="65"/>
-      <c r="AY41" s="65"/>
-      <c r="AZ41" s="65"/>
-      <c r="BA41" s="65"/>
-      <c r="BB41" s="65"/>
-      <c r="BC41" s="66"/>
+      <c r="AM41" s="79"/>
+      <c r="AN41" s="79"/>
+      <c r="AO41" s="79"/>
+      <c r="AP41" s="79"/>
+      <c r="AQ41" s="79"/>
+      <c r="AR41" s="79"/>
+      <c r="AS41" s="79"/>
+      <c r="AT41" s="79"/>
+      <c r="AU41" s="79"/>
+      <c r="AV41" s="79"/>
+      <c r="AW41" s="79"/>
+      <c r="AX41" s="79"/>
+      <c r="AY41" s="79"/>
+      <c r="AZ41" s="79"/>
+      <c r="BA41" s="79"/>
+      <c r="BB41" s="79"/>
+      <c r="BC41" s="80"/>
     </row>
     <row r="42" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B42" s="70" t="s">
-        <v>464</v>
-      </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
+      <c r="B42" s="73" t="s">
+        <v>474</v>
+      </c>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
       <c r="G42" s="27"/>
-      <c r="H42" s="72" t="s">
-        <v>465</v>
-      </c>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="71" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="72" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71"/>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="AM42" s="71"/>
-      <c r="AN42" s="71"/>
-      <c r="AO42" s="71"/>
-      <c r="AP42" s="71"/>
-      <c r="AQ42" s="71"/>
-      <c r="AR42" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="AS42" s="71"/>
-      <c r="AT42" s="71"/>
-      <c r="AU42" s="71"/>
-      <c r="AV42" s="71"/>
-      <c r="AW42" s="73"/>
-      <c r="AX42" s="71" t="s">
-        <v>472</v>
-      </c>
-      <c r="AY42" s="71"/>
-      <c r="AZ42" s="71"/>
-      <c r="BA42" s="71"/>
-      <c r="BB42" s="71"/>
-      <c r="BC42" s="122"/>
+      <c r="H42" s="75" t="s">
+        <v>475</v>
+      </c>
+      <c r="I42" s="74"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+      <c r="T42" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="U42" s="74"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="74"/>
+      <c r="X42" s="74"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA42" s="74"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="75" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG42" s="74"/>
+      <c r="AH42" s="74"/>
+      <c r="AI42" s="74"/>
+      <c r="AJ42" s="74"/>
+      <c r="AK42" s="74"/>
+      <c r="AL42" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="AM42" s="74"/>
+      <c r="AN42" s="74"/>
+      <c r="AO42" s="74"/>
+      <c r="AP42" s="74"/>
+      <c r="AQ42" s="74"/>
+      <c r="AR42" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="AS42" s="74"/>
+      <c r="AT42" s="74"/>
+      <c r="AU42" s="74"/>
+      <c r="AV42" s="74"/>
+      <c r="AW42" s="76"/>
+      <c r="AX42" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="AY42" s="74"/>
+      <c r="AZ42" s="74"/>
+      <c r="BA42" s="74"/>
+      <c r="BB42" s="74"/>
+      <c r="BC42" s="77"/>
     </row>
     <row r="43" spans="2:55">
       <c r="B43" s="9" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C43" s="26">
         <v>63</v>
       </c>
-      <c r="D43" s="67" t="str">
+      <c r="D43" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
       <c r="G43" s="10"/>
       <c r="H43" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="I43" s="33">
         <v>99</v>
       </c>
-      <c r="J43" s="90" t="str">
+      <c r="J43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="91"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="59"/>
       <c r="N43" s="10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="O43" s="26">
         <v>46</v>
       </c>
-      <c r="P43" s="67" t="str">
+      <c r="P43" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="Q43" s="67"/>
-      <c r="R43" s="67"/>
-      <c r="S43" s="67"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
       <c r="T43" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="U43" s="33">
         <v>56</v>
       </c>
-      <c r="V43" s="90" t="str">
+      <c r="V43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W43" s="90"/>
-      <c r="X43" s="90"/>
-      <c r="Y43" s="91"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="59"/>
       <c r="Z43" s="10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AA43" s="26">
         <v>99</v>
       </c>
-      <c r="AB43" s="67" t="str">
+      <c r="AB43" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
+      <c r="AC43" s="72"/>
+      <c r="AD43" s="72"/>
+      <c r="AE43" s="72"/>
       <c r="AF43" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AG43" s="33">
         <v>62</v>
       </c>
-      <c r="AH43" s="90" t="str">
+      <c r="AH43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI43" s="90"/>
-      <c r="AJ43" s="90"/>
-      <c r="AK43" s="91"/>
+      <c r="AI43" s="58"/>
+      <c r="AJ43" s="58"/>
+      <c r="AK43" s="59"/>
       <c r="AL43" s="10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AM43" s="26">
         <v>82</v>
       </c>
-      <c r="AN43" s="67" t="str">
+      <c r="AN43" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="67"/>
+      <c r="AO43" s="72"/>
+      <c r="AP43" s="72"/>
+      <c r="AQ43" s="72"/>
       <c r="AR43" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AS43" s="33">
         <v>11</v>
       </c>
-      <c r="AT43" s="90" t="str">
+      <c r="AT43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU43" s="90"/>
-      <c r="AV43" s="90"/>
-      <c r="AW43" s="91"/>
+      <c r="AU43" s="58"/>
+      <c r="AV43" s="58"/>
+      <c r="AW43" s="59"/>
       <c r="AX43" s="32" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="AY43" s="33">
         <v>4</v>
       </c>
-      <c r="AZ43" s="90" t="str">
+      <c r="AZ43" s="58" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA43" s="90"/>
-      <c r="BB43" s="90"/>
-      <c r="BC43" s="91"/>
+      <c r="BA43" s="58"/>
+      <c r="BB43" s="58"/>
+      <c r="BC43" s="59"/>
     </row>
     <row r="44" spans="2:55">
-      <c r="B44" s="68" t="str">
+      <c r="B44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),3)</f>
         <v>P Bot Bot</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="68" t="str">
+      <c r="H44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="67" t="str">
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),3)</f>
         <v>Hull Breach</v>
       </c>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="67"/>
-      <c r="S44" s="67"/>
-      <c r="T44" s="68" t="str">
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="69"/>
-      <c r="Z44" s="67" t="str">
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+      <c r="Y44" s="108"/>
+      <c r="Z44" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA44" s="67"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="67"/>
-      <c r="AD44" s="67"/>
-      <c r="AE44" s="67"/>
-      <c r="AF44" s="68" t="str">
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="72"/>
+      <c r="AC44" s="72"/>
+      <c r="AD44" s="72"/>
+      <c r="AE44" s="72"/>
+      <c r="AF44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG44" s="67"/>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="69"/>
-      <c r="AL44" s="67" t="str">
+      <c r="AG44" s="72"/>
+      <c r="AH44" s="72"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="72"/>
+      <c r="AK44" s="108"/>
+      <c r="AL44" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM44" s="67"/>
-      <c r="AN44" s="67"/>
-      <c r="AO44" s="67"/>
-      <c r="AP44" s="67"/>
-      <c r="AQ44" s="67"/>
-      <c r="AR44" s="68" t="str">
+      <c r="AM44" s="72"/>
+      <c r="AN44" s="72"/>
+      <c r="AO44" s="72"/>
+      <c r="AP44" s="72"/>
+      <c r="AQ44" s="72"/>
+      <c r="AR44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS44" s="67"/>
-      <c r="AT44" s="67"/>
-      <c r="AU44" s="67"/>
-      <c r="AV44" s="67"/>
-      <c r="AW44" s="69"/>
-      <c r="AX44" s="68" t="str">
+      <c r="AS44" s="72"/>
+      <c r="AT44" s="72"/>
+      <c r="AU44" s="72"/>
+      <c r="AV44" s="72"/>
+      <c r="AW44" s="108"/>
+      <c r="AX44" s="107" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY44" s="67"/>
-      <c r="AZ44" s="67"/>
-      <c r="BA44" s="67"/>
-      <c r="BB44" s="67"/>
-      <c r="BC44" s="69"/>
+      <c r="AY44" s="72"/>
+      <c r="AZ44" s="72"/>
+      <c r="BA44" s="72"/>
+      <c r="BB44" s="72"/>
+      <c r="BC44" s="108"/>
     </row>
     <row r="45" spans="2:55">
-      <c r="B45" s="107" t="str">
+      <c r="B45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="107" t="str">
+      <c r="H45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="108" t="str">
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O45" s="108"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="108"/>
-      <c r="R45" s="108"/>
-      <c r="S45" s="108"/>
-      <c r="T45" s="107" t="str">
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U45" s="108"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="108"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="108" t="str">
+      <c r="U45" s="110"/>
+      <c r="V45" s="110"/>
+      <c r="W45" s="110"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA45" s="108"/>
-      <c r="AB45" s="108"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="108"/>
-      <c r="AF45" s="107" t="str">
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+      <c r="AF45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG45" s="108"/>
-      <c r="AH45" s="108"/>
-      <c r="AI45" s="108"/>
-      <c r="AJ45" s="108"/>
-      <c r="AK45" s="109"/>
-      <c r="AL45" s="108" t="str">
+      <c r="AG45" s="110"/>
+      <c r="AH45" s="110"/>
+      <c r="AI45" s="110"/>
+      <c r="AJ45" s="110"/>
+      <c r="AK45" s="111"/>
+      <c r="AL45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM45" s="108"/>
-      <c r="AN45" s="108"/>
-      <c r="AO45" s="108"/>
-      <c r="AP45" s="108"/>
-      <c r="AQ45" s="108"/>
-      <c r="AR45" s="107" t="str">
+      <c r="AM45" s="110"/>
+      <c r="AN45" s="110"/>
+      <c r="AO45" s="110"/>
+      <c r="AP45" s="110"/>
+      <c r="AQ45" s="110"/>
+      <c r="AR45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS45" s="108"/>
-      <c r="AT45" s="108"/>
-      <c r="AU45" s="108"/>
-      <c r="AV45" s="108"/>
-      <c r="AW45" s="109"/>
-      <c r="AX45" s="107" t="str">
+      <c r="AS45" s="110"/>
+      <c r="AT45" s="110"/>
+      <c r="AU45" s="110"/>
+      <c r="AV45" s="110"/>
+      <c r="AW45" s="111"/>
+      <c r="AX45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY45" s="108"/>
-      <c r="AZ45" s="108"/>
-      <c r="BA45" s="108"/>
-      <c r="BB45" s="108"/>
-      <c r="BC45" s="109"/>
+      <c r="AY45" s="110"/>
+      <c r="AZ45" s="110"/>
+      <c r="BA45" s="110"/>
+      <c r="BB45" s="110"/>
+      <c r="BC45" s="111"/>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="28" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="S46" s="31" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="Y46" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AE46" s="31" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AG46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AH46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AI46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AJ46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AK46" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AL46" s="29" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AM46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AN46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AO46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AP46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AQ46" s="31" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AR46" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AS46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AT46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="AU46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AV46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="AW46" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="AX46" s="16" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="AY46" s="14" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="AZ46" s="14" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="BA46" s="14" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="BB46" s="14" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="BC46" s="17" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="2:55">
@@ -21016,509 +21224,620 @@
       </c>
     </row>
     <row r="48" spans="2:55">
-      <c r="B48" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
+      <c r="B48" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="69"/>
-      <c r="N48" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="O48" s="67"/>
-      <c r="P48" s="67"/>
-      <c r="Q48" s="67"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="69"/>
-      <c r="Z48" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA48" s="67"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="67"/>
-      <c r="AD48" s="67"/>
-      <c r="AE48" s="67"/>
-      <c r="AF48" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="69"/>
-      <c r="AL48" s="67" t="s">
-        <v>483</v>
-      </c>
-      <c r="AM48" s="67"/>
-      <c r="AN48" s="67"/>
-      <c r="AO48" s="67"/>
-      <c r="AP48" s="67"/>
-      <c r="AQ48" s="67"/>
-      <c r="AR48" s="74" t="s">
-        <v>483</v>
-      </c>
-      <c r="AS48" s="75"/>
-      <c r="AT48" s="75"/>
-      <c r="AU48" s="75"/>
-      <c r="AV48" s="75"/>
-      <c r="AW48" s="76"/>
-      <c r="AX48" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="AY48" s="67"/>
-      <c r="AZ48" s="67"/>
-      <c r="BA48" s="67"/>
-      <c r="BB48" s="67"/>
-      <c r="BC48" s="69"/>
+      <c r="H48" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="108"/>
+      <c r="N48" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+      <c r="Y48" s="108"/>
+      <c r="Z48" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
+      <c r="AD48" s="72"/>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="108"/>
+      <c r="AL48" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="AM48" s="72"/>
+      <c r="AN48" s="72"/>
+      <c r="AO48" s="72"/>
+      <c r="AP48" s="72"/>
+      <c r="AQ48" s="72"/>
+      <c r="AR48" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="AS48" s="105"/>
+      <c r="AT48" s="105"/>
+      <c r="AU48" s="105"/>
+      <c r="AV48" s="105"/>
+      <c r="AW48" s="106"/>
+      <c r="AX48" s="107" t="s">
+        <v>493</v>
+      </c>
+      <c r="AY48" s="72"/>
+      <c r="AZ48" s="72"/>
+      <c r="BA48" s="72"/>
+      <c r="BB48" s="72"/>
+      <c r="BC48" s="108"/>
     </row>
     <row r="49" spans="2:55" ht="15" customHeight="1">
-      <c r="B49" s="58" t="str">
+      <c r="B49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Tap: Assault + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="58" t="str">
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="59" t="str">
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="58" t="str">
+      <c r="O49" s="84"/>
+      <c r="P49" s="84"/>
+      <c r="Q49" s="84"/>
+      <c r="R49" s="84"/>
+      <c r="S49" s="84"/>
+      <c r="T49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="60"/>
-      <c r="Z49" s="59" t="str">
+      <c r="U49" s="84"/>
+      <c r="V49" s="84"/>
+      <c r="W49" s="84"/>
+      <c r="X49" s="84"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA49" s="59"/>
-      <c r="AB49" s="59"/>
-      <c r="AC49" s="59"/>
-      <c r="AD49" s="59"/>
-      <c r="AE49" s="59"/>
-      <c r="AF49" s="58" t="str">
+      <c r="AA49" s="84"/>
+      <c r="AB49" s="84"/>
+      <c r="AC49" s="84"/>
+      <c r="AD49" s="84"/>
+      <c r="AE49" s="84"/>
+      <c r="AF49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG49" s="59"/>
-      <c r="AH49" s="59"/>
-      <c r="AI49" s="59"/>
-      <c r="AJ49" s="59"/>
-      <c r="AK49" s="60"/>
-      <c r="AL49" s="59" t="str">
+      <c r="AG49" s="84"/>
+      <c r="AH49" s="84"/>
+      <c r="AI49" s="84"/>
+      <c r="AJ49" s="84"/>
+      <c r="AK49" s="85"/>
+      <c r="AL49" s="84" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM49" s="59"/>
-      <c r="AN49" s="59"/>
-      <c r="AO49" s="59"/>
-      <c r="AP49" s="59"/>
-      <c r="AQ49" s="59"/>
-      <c r="AR49" s="58" t="str">
+      <c r="AM49" s="84"/>
+      <c r="AN49" s="84"/>
+      <c r="AO49" s="84"/>
+      <c r="AP49" s="84"/>
+      <c r="AQ49" s="84"/>
+      <c r="AR49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS49" s="59"/>
-      <c r="AT49" s="59"/>
-      <c r="AU49" s="59"/>
-      <c r="AV49" s="59"/>
-      <c r="AW49" s="60"/>
-      <c r="AX49" s="58" t="str">
+      <c r="AS49" s="84"/>
+      <c r="AT49" s="84"/>
+      <c r="AU49" s="84"/>
+      <c r="AV49" s="84"/>
+      <c r="AW49" s="85"/>
+      <c r="AX49" s="83" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Tap: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY49" s="59"/>
-      <c r="AZ49" s="59"/>
-      <c r="BA49" s="59"/>
-      <c r="BB49" s="59"/>
-      <c r="BC49" s="60"/>
+      <c r="AY49" s="84"/>
+      <c r="AZ49" s="84"/>
+      <c r="BA49" s="84"/>
+      <c r="BB49" s="84"/>
+      <c r="BC49" s="85"/>
     </row>
     <row r="50" spans="2:55">
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="59"/>
-      <c r="Y50" s="60"/>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="59"/>
-      <c r="AB50" s="59"/>
-      <c r="AC50" s="59"/>
-      <c r="AD50" s="59"/>
-      <c r="AE50" s="59"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="59"/>
-      <c r="AH50" s="59"/>
-      <c r="AI50" s="59"/>
-      <c r="AJ50" s="59"/>
-      <c r="AK50" s="60"/>
-      <c r="AL50" s="59"/>
-      <c r="AM50" s="59"/>
-      <c r="AN50" s="59"/>
-      <c r="AO50" s="59"/>
-      <c r="AP50" s="59"/>
-      <c r="AQ50" s="59"/>
-      <c r="AR50" s="58"/>
-      <c r="AS50" s="59"/>
-      <c r="AT50" s="59"/>
-      <c r="AU50" s="59"/>
-      <c r="AV50" s="59"/>
-      <c r="AW50" s="60"/>
-      <c r="AX50" s="58"/>
-      <c r="AY50" s="59"/>
-      <c r="AZ50" s="59"/>
-      <c r="BA50" s="59"/>
-      <c r="BB50" s="59"/>
-      <c r="BC50" s="60"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="84"/>
+      <c r="Q50" s="84"/>
+      <c r="R50" s="84"/>
+      <c r="S50" s="84"/>
+      <c r="T50" s="83"/>
+      <c r="U50" s="84"/>
+      <c r="V50" s="84"/>
+      <c r="W50" s="84"/>
+      <c r="X50" s="84"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="84"/>
+      <c r="AA50" s="84"/>
+      <c r="AB50" s="84"/>
+      <c r="AC50" s="84"/>
+      <c r="AD50" s="84"/>
+      <c r="AE50" s="84"/>
+      <c r="AF50" s="83"/>
+      <c r="AG50" s="84"/>
+      <c r="AH50" s="84"/>
+      <c r="AI50" s="84"/>
+      <c r="AJ50" s="84"/>
+      <c r="AK50" s="85"/>
+      <c r="AL50" s="84"/>
+      <c r="AM50" s="84"/>
+      <c r="AN50" s="84"/>
+      <c r="AO50" s="84"/>
+      <c r="AP50" s="84"/>
+      <c r="AQ50" s="84"/>
+      <c r="AR50" s="83"/>
+      <c r="AS50" s="84"/>
+      <c r="AT50" s="84"/>
+      <c r="AU50" s="84"/>
+      <c r="AV50" s="84"/>
+      <c r="AW50" s="85"/>
+      <c r="AX50" s="83"/>
+      <c r="AY50" s="84"/>
+      <c r="AZ50" s="84"/>
+      <c r="BA50" s="84"/>
+      <c r="BB50" s="84"/>
+      <c r="BC50" s="85"/>
     </row>
     <row r="51" spans="2:55">
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="60"/>
-      <c r="Z51" s="59"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="59"/>
-      <c r="AC51" s="59"/>
-      <c r="AD51" s="59"/>
-      <c r="AE51" s="59"/>
-      <c r="AF51" s="58"/>
-      <c r="AG51" s="59"/>
-      <c r="AH51" s="59"/>
-      <c r="AI51" s="59"/>
-      <c r="AJ51" s="59"/>
-      <c r="AK51" s="60"/>
-      <c r="AL51" s="59"/>
-      <c r="AM51" s="59"/>
-      <c r="AN51" s="59"/>
-      <c r="AO51" s="59"/>
-      <c r="AP51" s="59"/>
-      <c r="AQ51" s="59"/>
-      <c r="AR51" s="58"/>
-      <c r="AS51" s="59"/>
-      <c r="AT51" s="59"/>
-      <c r="AU51" s="59"/>
-      <c r="AV51" s="59"/>
-      <c r="AW51" s="60"/>
-      <c r="AX51" s="58"/>
-      <c r="AY51" s="59"/>
-      <c r="AZ51" s="59"/>
-      <c r="BA51" s="59"/>
-      <c r="BB51" s="59"/>
-      <c r="BC51" s="60"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="84"/>
+      <c r="Q51" s="84"/>
+      <c r="R51" s="84"/>
+      <c r="S51" s="84"/>
+      <c r="T51" s="83"/>
+      <c r="U51" s="84"/>
+      <c r="V51" s="84"/>
+      <c r="W51" s="84"/>
+      <c r="X51" s="84"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="84"/>
+      <c r="AA51" s="84"/>
+      <c r="AB51" s="84"/>
+      <c r="AC51" s="84"/>
+      <c r="AD51" s="84"/>
+      <c r="AE51" s="84"/>
+      <c r="AF51" s="83"/>
+      <c r="AG51" s="84"/>
+      <c r="AH51" s="84"/>
+      <c r="AI51" s="84"/>
+      <c r="AJ51" s="84"/>
+      <c r="AK51" s="85"/>
+      <c r="AL51" s="84"/>
+      <c r="AM51" s="84"/>
+      <c r="AN51" s="84"/>
+      <c r="AO51" s="84"/>
+      <c r="AP51" s="84"/>
+      <c r="AQ51" s="84"/>
+      <c r="AR51" s="83"/>
+      <c r="AS51" s="84"/>
+      <c r="AT51" s="84"/>
+      <c r="AU51" s="84"/>
+      <c r="AV51" s="84"/>
+      <c r="AW51" s="85"/>
+      <c r="AX51" s="83"/>
+      <c r="AY51" s="84"/>
+      <c r="AZ51" s="84"/>
+      <c r="BA51" s="84"/>
+      <c r="BB51" s="84"/>
+      <c r="BC51" s="85"/>
     </row>
     <row r="52" spans="2:55">
-      <c r="B52" s="58"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="58"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
-      <c r="L52" s="59"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="59"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
-      <c r="Y52" s="60"/>
-      <c r="Z52" s="59"/>
-      <c r="AA52" s="59"/>
-      <c r="AB52" s="59"/>
-      <c r="AC52" s="59"/>
-      <c r="AD52" s="59"/>
-      <c r="AE52" s="59"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="59"/>
-      <c r="AH52" s="59"/>
-      <c r="AI52" s="59"/>
-      <c r="AJ52" s="59"/>
-      <c r="AK52" s="60"/>
-      <c r="AL52" s="59"/>
-      <c r="AM52" s="59"/>
-      <c r="AN52" s="59"/>
-      <c r="AO52" s="59"/>
-      <c r="AP52" s="59"/>
-      <c r="AQ52" s="59"/>
-      <c r="AR52" s="58"/>
-      <c r="AS52" s="59"/>
-      <c r="AT52" s="59"/>
-      <c r="AU52" s="59"/>
-      <c r="AV52" s="59"/>
-      <c r="AW52" s="60"/>
-      <c r="AX52" s="58"/>
-      <c r="AY52" s="59"/>
-      <c r="AZ52" s="59"/>
-      <c r="BA52" s="59"/>
-      <c r="BB52" s="59"/>
-      <c r="BC52" s="60"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="85"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="84"/>
+      <c r="V52" s="84"/>
+      <c r="W52" s="84"/>
+      <c r="X52" s="84"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="84"/>
+      <c r="AA52" s="84"/>
+      <c r="AB52" s="84"/>
+      <c r="AC52" s="84"/>
+      <c r="AD52" s="84"/>
+      <c r="AE52" s="84"/>
+      <c r="AF52" s="83"/>
+      <c r="AG52" s="84"/>
+      <c r="AH52" s="84"/>
+      <c r="AI52" s="84"/>
+      <c r="AJ52" s="84"/>
+      <c r="AK52" s="85"/>
+      <c r="AL52" s="84"/>
+      <c r="AM52" s="84"/>
+      <c r="AN52" s="84"/>
+      <c r="AO52" s="84"/>
+      <c r="AP52" s="84"/>
+      <c r="AQ52" s="84"/>
+      <c r="AR52" s="83"/>
+      <c r="AS52" s="84"/>
+      <c r="AT52" s="84"/>
+      <c r="AU52" s="84"/>
+      <c r="AV52" s="84"/>
+      <c r="AW52" s="85"/>
+      <c r="AX52" s="83"/>
+      <c r="AY52" s="84"/>
+      <c r="AZ52" s="84"/>
+      <c r="BA52" s="84"/>
+      <c r="BB52" s="84"/>
+      <c r="BC52" s="85"/>
     </row>
     <row r="53" spans="2:55">
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="58"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="59"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="60"/>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="59"/>
-      <c r="AB53" s="59"/>
-      <c r="AC53" s="59"/>
-      <c r="AD53" s="59"/>
-      <c r="AE53" s="59"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="59"/>
-      <c r="AH53" s="59"/>
-      <c r="AI53" s="59"/>
-      <c r="AJ53" s="59"/>
-      <c r="AK53" s="60"/>
-      <c r="AL53" s="59"/>
-      <c r="AM53" s="59"/>
-      <c r="AN53" s="59"/>
-      <c r="AO53" s="59"/>
-      <c r="AP53" s="59"/>
-      <c r="AQ53" s="59"/>
-      <c r="AR53" s="58"/>
-      <c r="AS53" s="59"/>
-      <c r="AT53" s="59"/>
-      <c r="AU53" s="59"/>
-      <c r="AV53" s="59"/>
-      <c r="AW53" s="60"/>
-      <c r="AX53" s="58"/>
-      <c r="AY53" s="59"/>
-      <c r="AZ53" s="59"/>
-      <c r="BA53" s="59"/>
-      <c r="BB53" s="59"/>
-      <c r="BC53" s="60"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="85"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="83"/>
+      <c r="U53" s="84"/>
+      <c r="V53" s="84"/>
+      <c r="W53" s="84"/>
+      <c r="X53" s="84"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="84"/>
+      <c r="AA53" s="84"/>
+      <c r="AB53" s="84"/>
+      <c r="AC53" s="84"/>
+      <c r="AD53" s="84"/>
+      <c r="AE53" s="84"/>
+      <c r="AF53" s="83"/>
+      <c r="AG53" s="84"/>
+      <c r="AH53" s="84"/>
+      <c r="AI53" s="84"/>
+      <c r="AJ53" s="84"/>
+      <c r="AK53" s="85"/>
+      <c r="AL53" s="84"/>
+      <c r="AM53" s="84"/>
+      <c r="AN53" s="84"/>
+      <c r="AO53" s="84"/>
+      <c r="AP53" s="84"/>
+      <c r="AQ53" s="84"/>
+      <c r="AR53" s="83"/>
+      <c r="AS53" s="84"/>
+      <c r="AT53" s="84"/>
+      <c r="AU53" s="84"/>
+      <c r="AV53" s="84"/>
+      <c r="AW53" s="85"/>
+      <c r="AX53" s="83"/>
+      <c r="AY53" s="84"/>
+      <c r="AZ53" s="84"/>
+      <c r="BA53" s="84"/>
+      <c r="BB53" s="84"/>
+      <c r="BC53" s="85"/>
     </row>
     <row r="54" spans="2:55">
-      <c r="B54" s="58"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="59"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="59"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="60"/>
-      <c r="Z54" s="59"/>
-      <c r="AA54" s="59"/>
-      <c r="AB54" s="59"/>
-      <c r="AC54" s="59"/>
-      <c r="AD54" s="59"/>
-      <c r="AE54" s="59"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="59"/>
-      <c r="AH54" s="59"/>
-      <c r="AI54" s="59"/>
-      <c r="AJ54" s="59"/>
-      <c r="AK54" s="60"/>
-      <c r="AL54" s="59"/>
-      <c r="AM54" s="59"/>
-      <c r="AN54" s="59"/>
-      <c r="AO54" s="59"/>
-      <c r="AP54" s="59"/>
-      <c r="AQ54" s="59"/>
-      <c r="AR54" s="58"/>
-      <c r="AS54" s="59"/>
-      <c r="AT54" s="59"/>
-      <c r="AU54" s="59"/>
-      <c r="AV54" s="59"/>
-      <c r="AW54" s="60"/>
-      <c r="AX54" s="58"/>
-      <c r="AY54" s="59"/>
-      <c r="AZ54" s="59"/>
-      <c r="BA54" s="59"/>
-      <c r="BB54" s="59"/>
-      <c r="BC54" s="60"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="83"/>
+      <c r="U54" s="84"/>
+      <c r="V54" s="84"/>
+      <c r="W54" s="84"/>
+      <c r="X54" s="84"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="84"/>
+      <c r="AA54" s="84"/>
+      <c r="AB54" s="84"/>
+      <c r="AC54" s="84"/>
+      <c r="AD54" s="84"/>
+      <c r="AE54" s="84"/>
+      <c r="AF54" s="83"/>
+      <c r="AG54" s="84"/>
+      <c r="AH54" s="84"/>
+      <c r="AI54" s="84"/>
+      <c r="AJ54" s="84"/>
+      <c r="AK54" s="85"/>
+      <c r="AL54" s="84"/>
+      <c r="AM54" s="84"/>
+      <c r="AN54" s="84"/>
+      <c r="AO54" s="84"/>
+      <c r="AP54" s="84"/>
+      <c r="AQ54" s="84"/>
+      <c r="AR54" s="83"/>
+      <c r="AS54" s="84"/>
+      <c r="AT54" s="84"/>
+      <c r="AU54" s="84"/>
+      <c r="AV54" s="84"/>
+      <c r="AW54" s="85"/>
+      <c r="AX54" s="83"/>
+      <c r="AY54" s="84"/>
+      <c r="AZ54" s="84"/>
+      <c r="BA54" s="84"/>
+      <c r="BB54" s="84"/>
+      <c r="BC54" s="85"/>
     </row>
     <row r="55" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B55" s="61"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="62"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-      <c r="Y55" s="63"/>
-      <c r="Z55" s="62"/>
-      <c r="AA55" s="62"/>
-      <c r="AB55" s="62"/>
-      <c r="AC55" s="62"/>
-      <c r="AD55" s="62"/>
-      <c r="AE55" s="62"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="62"/>
-      <c r="AH55" s="62"/>
-      <c r="AI55" s="62"/>
-      <c r="AJ55" s="62"/>
-      <c r="AK55" s="63"/>
-      <c r="AL55" s="62"/>
-      <c r="AM55" s="62"/>
-      <c r="AN55" s="62"/>
-      <c r="AO55" s="62"/>
-      <c r="AP55" s="62"/>
-      <c r="AQ55" s="62"/>
-      <c r="AR55" s="61"/>
-      <c r="AS55" s="62"/>
-      <c r="AT55" s="62"/>
-      <c r="AU55" s="62"/>
-      <c r="AV55" s="62"/>
-      <c r="AW55" s="63"/>
-      <c r="AX55" s="61"/>
-      <c r="AY55" s="62"/>
-      <c r="AZ55" s="62"/>
-      <c r="BA55" s="62"/>
-      <c r="BB55" s="62"/>
-      <c r="BC55" s="63"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="88"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="87"/>
+      <c r="V55" s="87"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="87"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="87"/>
+      <c r="AA55" s="87"/>
+      <c r="AB55" s="87"/>
+      <c r="AC55" s="87"/>
+      <c r="AD55" s="87"/>
+      <c r="AE55" s="87"/>
+      <c r="AF55" s="86"/>
+      <c r="AG55" s="87"/>
+      <c r="AH55" s="87"/>
+      <c r="AI55" s="87"/>
+      <c r="AJ55" s="87"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="87"/>
+      <c r="AM55" s="87"/>
+      <c r="AN55" s="87"/>
+      <c r="AO55" s="87"/>
+      <c r="AP55" s="87"/>
+      <c r="AQ55" s="87"/>
+      <c r="AR55" s="86"/>
+      <c r="AS55" s="87"/>
+      <c r="AT55" s="87"/>
+      <c r="AU55" s="87"/>
+      <c r="AV55" s="87"/>
+      <c r="AW55" s="88"/>
+      <c r="AX55" s="86"/>
+      <c r="AY55" s="87"/>
+      <c r="AZ55" s="87"/>
+      <c r="BA55" s="87"/>
+      <c r="BB55" s="87"/>
+      <c r="BC55" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="B49:G55"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AL1:BC1"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AK4"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AL8:AQ8"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AR8:AW8"/>
+    <mergeCell ref="AL4:AQ4"/>
+    <mergeCell ref="AR4:AW4"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="AX4:BC4"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BC27"/>
+    <mergeCell ref="AX28:BC28"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B16:BC16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
+    <mergeCell ref="B9:F15"/>
+    <mergeCell ref="H9:M15"/>
+    <mergeCell ref="N9:S15"/>
+    <mergeCell ref="T9:Y15"/>
+    <mergeCell ref="Z9:AE15"/>
+    <mergeCell ref="AF9:AK15"/>
+    <mergeCell ref="AL9:AQ15"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AR9:AW15"/>
+    <mergeCell ref="AX9:BC15"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AF45:AK45"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="AL44:AQ44"/>
+    <mergeCell ref="AR44:AW44"/>
+    <mergeCell ref="AR49:AW55"/>
+    <mergeCell ref="AX49:BC55"/>
+    <mergeCell ref="B40:BC40"/>
+    <mergeCell ref="AX39:BC39"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="AX36:BC36"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AL48:AQ48"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="N49:S55"/>
+    <mergeCell ref="T49:Y55"/>
+    <mergeCell ref="Z49:AE55"/>
+    <mergeCell ref="AF49:AK55"/>
+    <mergeCell ref="AL49:AQ55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="AZ43:BC43"/>
     <mergeCell ref="K23:O23"/>
     <mergeCell ref="D29:F29"/>
@@ -21543,117 +21862,6 @@
     <mergeCell ref="T42:Y42"/>
     <mergeCell ref="Z42:AE42"/>
     <mergeCell ref="AF42:AK42"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AR49:AW55"/>
-    <mergeCell ref="AX49:BC55"/>
-    <mergeCell ref="B40:BC40"/>
-    <mergeCell ref="AX39:BC39"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="AX36:BC36"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AL48:AQ48"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:M55"/>
-    <mergeCell ref="N49:S55"/>
-    <mergeCell ref="T49:Y55"/>
-    <mergeCell ref="Z49:AE55"/>
-    <mergeCell ref="AF49:AK55"/>
-    <mergeCell ref="AL49:AQ55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AF45:AK45"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="AL44:AQ44"/>
-    <mergeCell ref="AR44:AW44"/>
-    <mergeCell ref="B9:F15"/>
-    <mergeCell ref="H9:M15"/>
-    <mergeCell ref="N9:S15"/>
-    <mergeCell ref="T9:Y15"/>
-    <mergeCell ref="Z9:AE15"/>
-    <mergeCell ref="AF9:AK15"/>
-    <mergeCell ref="AL9:AQ15"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AR9:AW15"/>
-    <mergeCell ref="AX9:BC15"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BC27"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B16:BC16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B49:G55"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AL1:BC1"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AK4"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AL8:AQ8"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AR8:AW8"/>
-    <mergeCell ref="AL4:AQ4"/>
-    <mergeCell ref="AR4:AW4"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="AX4:BC4"/>
   </mergeCells>
   <conditionalFormatting sqref="BG3 BG10">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="CREW">
@@ -21688,26 +21896,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -21736,7 +21944,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -21781,7 +21989,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -26063,26 +26271,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="E3" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -26111,7 +26319,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -26156,7 +26364,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -30454,26 +30662,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E3" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -30502,7 +30710,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -30547,7 +30755,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -34825,26 +35033,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -34873,7 +35081,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -34918,7 +35126,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -35296,7 +35504,7 @@
       </c>
       <c r="AG8" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S8,TblCardDesign[ID],0),17)</f>
-        <v>Target player: Sacrifices 1 crew during that players start phase</v>
+        <v>Target ship: Sacrifices 1 crew during that players start phase</v>
       </c>
     </row>
     <row r="9" spans="2:33" ht="30">
@@ -35416,7 +35624,7 @@
       </c>
       <c r="AG9" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($S9,TblCardDesign[ID],0),17)</f>
-        <v>Target player: Sacrifices 1 crew during that players start phase</v>
+        <v>Target ship: Sacrifices 1 crew during that players start phase</v>
       </c>
     </row>
     <row r="10" spans="2:33" ht="30">
@@ -38501,7 +38709,7 @@
       </c>
       <c r="P35" s="2" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH($B35,TblCardDesign[ID],0),17)</f>
-        <v>At the start of your turn, return a target crew attachment card from your junkyard to your hand.</v>
+        <v>At the start of your turn, return a target crew attachment card from your Stasis to your hand.</v>
       </c>
       <c r="S35">
         <v>102</v>
@@ -39198,26 +39406,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -39246,7 +39454,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -39291,7 +39499,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -43569,26 +43777,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="E2" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -43617,7 +43825,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -43662,7 +43870,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6022BDC-E31B-4209-AA72-F4E4850665DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54F177E7-1D64-4652-B952-12D618A14A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Card Table Counts" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1625" r:id="rId11"/>
+    <pivotCache cacheId="1121" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="532">
   <si>
     <t>Type</t>
   </si>
@@ -1582,6 +1582,9 @@
   </si>
   <si>
     <t>Known for her knowledge, Captain Katie Craine can easily recognise a good ship upgrade when she see's one</t>
+  </si>
+  <si>
+    <t>Reaper Cannon</t>
   </si>
   <si>
     <r>
@@ -1630,6 +1633,171 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Enemy Left Overs</t>
+  </si>
+  <si>
+    <t>Select target card costing X or less amount from target opponent Junkyard and put it into your hand.</t>
+  </si>
+  <si>
+    <t>Lt. W. Wilson</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tap: Target gun slot deals an extra 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Piercing Round</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deals damage straight to hull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) this turn</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wayde Wilson was top of the class in accuracy and engineering </t>
+  </si>
+  <si>
+    <t>Total Focus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All gun slots on target ship each deal an extra 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Piercing Round</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deals damage straight to hull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) this turn</t>
+    </r>
+  </si>
+  <si>
+    <t>NanoBITES</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Target enemy ship takes 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Corrosion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deals damage straight to hull at start of target players turn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Once ship is destroyed send NanoBITES to the Junkyard</t>
     </r>
   </si>
   <si>
@@ -2483,82 +2651,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2579,22 +2675,106 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2615,28 +2795,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2648,44 +2813,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6928,100 +7096,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1625" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="13">
-        <item x="8"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item m="1" x="10"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item m="1" x="11"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="1625" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="PivotTable2" cacheId="1121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:E41" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -7170,6 +7245,99 @@
     <i t="grand">
       <x/>
     </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="13">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item m="1" x="10"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item m="1" x="11"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
     <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
@@ -7945,26 +8113,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -7993,7 +8161,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -8038,7 +8206,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -12294,9 +12462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:S248"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B200" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="H203" sqref="H203"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -12323,18 +12491,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="18.75">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3">
@@ -18212,8 +18380,11 @@
       <c r="B202" t="s">
         <v>78</v>
       </c>
+      <c r="C202" t="s">
+        <v>472</v>
+      </c>
       <c r="F202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202">
         <v>2</v>
@@ -18224,25 +18395,131 @@
       <c r="P202" t="s">
         <v>45</v>
       </c>
-      <c r="Q202" s="124" t="s">
-        <v>472</v>
+      <c r="Q202" s="57" t="s">
+        <v>473</v>
       </c>
       <c r="R202" s="2"/>
     </row>
-    <row r="203" spans="1:18">
-      <c r="Q203" s="2"/>
+    <row r="203" spans="1:18" ht="45.75">
+      <c r="A203">
+        <v>198</v>
+      </c>
+      <c r="B203" t="s">
+        <v>78</v>
+      </c>
+      <c r="C203" t="s">
+        <v>474</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>30</v>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="s">
+        <v>6</v>
+      </c>
+      <c r="P203" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q203" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="R203" s="2"/>
     </row>
-    <row r="204" spans="1:18">
-      <c r="Q204" s="2"/>
-      <c r="R204" s="2"/>
-    </row>
-    <row r="205" spans="1:18">
-      <c r="Q205" s="2"/>
+    <row r="204" spans="1:18" ht="45.75">
+      <c r="A204">
+        <v>199</v>
+      </c>
+      <c r="B204" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" t="s">
+        <v>476</v>
+      </c>
+      <c r="F204">
+        <v>2</v>
+      </c>
+      <c r="J204">
+        <v>2</v>
+      </c>
+      <c r="L204" t="s">
+        <v>7</v>
+      </c>
+      <c r="M204" t="s">
+        <v>29</v>
+      </c>
+      <c r="O204" t="s">
+        <v>14</v>
+      </c>
+      <c r="P204" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q204" s="57" t="s">
+        <v>477</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="60.75">
+      <c r="A205">
+        <v>200</v>
+      </c>
+      <c r="B205" t="s">
+        <v>78</v>
+      </c>
+      <c r="C205" t="s">
+        <v>479</v>
+      </c>
+      <c r="F205">
+        <v>2</v>
+      </c>
+      <c r="J205">
+        <v>5</v>
+      </c>
+      <c r="L205" t="s">
+        <v>6</v>
+      </c>
+      <c r="P205" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q205" s="57" t="s">
+        <v>480</v>
+      </c>
       <c r="R205" s="2"/>
     </row>
-    <row r="206" spans="1:18">
-      <c r="Q206" s="2"/>
+    <row r="206" spans="1:18" ht="76.5">
+      <c r="A206">
+        <v>201</v>
+      </c>
+      <c r="B206" t="s">
+        <v>78</v>
+      </c>
+      <c r="C206" t="s">
+        <v>481</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+      <c r="L206" t="s">
+        <v>8</v>
+      </c>
+      <c r="P206" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q206" s="57" t="s">
+        <v>482</v>
+      </c>
       <c r="R206" s="2"/>
     </row>
     <row r="207" spans="1:18">
@@ -18429,7 +18706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:BG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AI24" sqref="AI24"/>
     </sheetView>
   </sheetViews>
@@ -18444,270 +18721,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="78" t="s">
-        <v>473</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="80"/>
-      <c r="AL1" s="78" t="s">
+      <c r="B1" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="80"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="67"/>
     </row>
     <row r="2" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B2" s="73" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="75" t="s">
-        <v>475</v>
-      </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="74" t="s">
-        <v>476</v>
-      </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75" t="s">
-        <v>477</v>
-      </c>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="74" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="75" t="s">
-        <v>479</v>
-      </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="73" t="s">
-        <v>480</v>
-      </c>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="75" t="s">
-        <v>481</v>
-      </c>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="76"/>
-      <c r="AX2" s="74" t="s">
-        <v>482</v>
-      </c>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="74"/>
-      <c r="BB2" s="74"/>
-      <c r="BC2" s="77"/>
-      <c r="BE2" s="81" t="s">
-        <v>483</v>
-      </c>
-      <c r="BF2" s="82"/>
+      <c r="H2" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="72" t="s">
+        <v>486</v>
+      </c>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="73" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="71" t="s">
+        <v>490</v>
+      </c>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="72"/>
+      <c r="AR2" s="73" t="s">
+        <v>491</v>
+      </c>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="74"/>
+      <c r="AX2" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
+      <c r="BA2" s="72"/>
+      <c r="BB2" s="72"/>
+      <c r="BC2" s="123"/>
+      <c r="BE2" s="121" t="s">
+        <v>493</v>
+      </c>
+      <c r="BF2" s="122"/>
       <c r="BG2" s="23" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="2:59">
       <c r="B3" s="9" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="72" t="str">
+      <c r="D3" s="68" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="10"/>
       <c r="H3" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="I3" s="33">
         <v>21</v>
       </c>
-      <c r="J3" s="58" t="str">
+      <c r="J3" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="92"/>
       <c r="N3" s="10" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="72" t="str">
+      <c r="P3" s="68" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
       <c r="T3" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="U3" s="33">
         <v>56</v>
       </c>
-      <c r="V3" s="58" t="str">
+      <c r="V3" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="59"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="92"/>
       <c r="Z3" s="10" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="72" t="str">
+      <c r="AB3" s="68" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
       <c r="AF3" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AG3" s="33">
         <v>62</v>
       </c>
-      <c r="AH3" s="58" t="str">
+      <c r="AH3" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="59"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="92"/>
       <c r="AL3" s="10" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="72" t="str">
+      <c r="AN3" s="68" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
       <c r="AR3" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AS3" s="33">
         <v>11</v>
       </c>
-      <c r="AT3" s="58" t="str">
+      <c r="AT3" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="59"/>
+      <c r="AU3" s="91"/>
+      <c r="AV3" s="91"/>
+      <c r="AW3" s="92"/>
       <c r="AX3" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AY3" s="33">
         <v>4</v>
       </c>
-      <c r="AZ3" s="58" t="str">
+      <c r="AZ3" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="59"/>
+      <c r="BA3" s="91"/>
+      <c r="BB3" s="91"/>
+      <c r="BC3" s="92"/>
       <c r="BE3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
@@ -18715,93 +18992,93 @@
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="107" t="str">
+      <c r="B4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="107" t="str">
+      <c r="H4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="72" t="str">
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="107" t="str">
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="72" t="str">
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="107" t="str">
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="72" t="str">
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="107" t="str">
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="107" t="str">
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="68"/>
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="70"/>
+      <c r="AX4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="108"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="70"/>
       <c r="BE4" s="20" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
@@ -18809,89 +19086,89 @@
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="109" t="str">
+      <c r="H5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="110" t="str">
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="109" t="str">
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="110" t="str">
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="109" t="str">
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="110" t="str">
+      <c r="AG5" s="109"/>
+      <c r="AH5" s="109"/>
+      <c r="AI5" s="109"/>
+      <c r="AJ5" s="109"/>
+      <c r="AK5" s="110"/>
+      <c r="AL5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="109" t="str">
+      <c r="AM5" s="109"/>
+      <c r="AN5" s="109"/>
+      <c r="AO5" s="109"/>
+      <c r="AP5" s="109"/>
+      <c r="AQ5" s="109"/>
+      <c r="AR5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="109" t="str">
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="109"/>
+      <c r="AU5" s="109"/>
+      <c r="AV5" s="109"/>
+      <c r="AW5" s="110"/>
+      <c r="AX5" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="111"/>
+      <c r="AY5" s="109"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="109"/>
+      <c r="BB5" s="109"/>
+      <c r="BC5" s="110"/>
       <c r="BE5" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="BF5">
         <f>MAX('Card Designs'!A6:A199)</f>
@@ -18900,166 +19177,166 @@
     </row>
     <row r="6" spans="2:59">
       <c r="B6" s="28" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AK6" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AL6" s="29" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AQ6" s="31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AU6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AV6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AW6" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="BA6" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="BB6" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="BC6" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="2:59">
@@ -19281,228 +19558,228 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="72" t="s">
-        <v>493</v>
-      </c>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="72" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="72" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="104" t="s">
-        <v>493</v>
-      </c>
-      <c r="AS8" s="105"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="105"/>
-      <c r="AV8" s="105"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="108"/>
+      <c r="H8" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="68"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="68"/>
+      <c r="AO8" s="68"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="68"/>
+      <c r="AR8" s="75" t="s">
+        <v>503</v>
+      </c>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="68"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="68"/>
+      <c r="BC8" s="70"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="83" t="str">
+      <c r="B9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="83" t="str">
+      <c r="H9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="84" t="str">
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Tap: Medic + 3
 Tap: Repair ship by 100</v>
       </c>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="83" t="str">
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
+      <c r="T9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="85"/>
-      <c r="Z9" s="84" t="str">
+      <c r="U9" s="60"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="83" t="str">
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="60"/>
+      <c r="AC9" s="60"/>
+      <c r="AD9" s="60"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="84"/>
-      <c r="AK9" s="85"/>
-      <c r="AL9" s="84" t="str">
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="61"/>
+      <c r="AL9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="84"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="84"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="83" t="str">
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS9" s="84"/>
-      <c r="AT9" s="84"/>
-      <c r="AU9" s="84"/>
-      <c r="AV9" s="84"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="83" t="str">
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="60"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="60"/>
+      <c r="AW9" s="61"/>
+      <c r="AX9" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Tap: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY9" s="84"/>
-      <c r="AZ9" s="84"/>
-      <c r="BA9" s="84"/>
-      <c r="BB9" s="84"/>
-      <c r="BC9" s="85"/>
+      <c r="AY9" s="60"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="61"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="84"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="84"/>
-      <c r="AM10" s="84"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="84"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="83"/>
-      <c r="AS10" s="84"/>
-      <c r="AT10" s="84"/>
-      <c r="AU10" s="84"/>
-      <c r="AV10" s="84"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="83"/>
-      <c r="AY10" s="84"/>
-      <c r="AZ10" s="84"/>
-      <c r="BA10" s="84"/>
-      <c r="BB10" s="84"/>
-      <c r="BC10" s="85"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="61"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="61"/>
       <c r="BE10" s="50" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="BF10" s="51">
         <v>15</v>
@@ -19513,351 +19790,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="84"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="84"/>
-      <c r="AK11" s="85"/>
-      <c r="AL11" s="84"/>
-      <c r="AM11" s="84"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="83"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84"/>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="85"/>
-      <c r="AX11" s="83"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="85"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="60"/>
+      <c r="AE11" s="60"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="60"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="60"/>
+      <c r="AK11" s="61"/>
+      <c r="AL11" s="60"/>
+      <c r="AM11" s="60"/>
+      <c r="AN11" s="60"/>
+      <c r="AO11" s="60"/>
+      <c r="AP11" s="60"/>
+      <c r="AQ11" s="60"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="60"/>
+      <c r="AU11" s="60"/>
+      <c r="AV11" s="60"/>
+      <c r="AW11" s="61"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="60"/>
+      <c r="BB11" s="60"/>
+      <c r="BC11" s="61"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="83"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="85"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="84"/>
-      <c r="AE12" s="84"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="84"/>
-      <c r="AJ12" s="84"/>
-      <c r="AK12" s="85"/>
-      <c r="AL12" s="84"/>
-      <c r="AM12" s="84"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="84"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="84"/>
-      <c r="AT12" s="84"/>
-      <c r="AU12" s="84"/>
-      <c r="AV12" s="84"/>
-      <c r="AW12" s="85"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="84"/>
-      <c r="AZ12" s="84"/>
-      <c r="BA12" s="84"/>
-      <c r="BB12" s="84"/>
-      <c r="BC12" s="85"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="60"/>
+      <c r="AU12" s="60"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="61"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="60"/>
+      <c r="BB12" s="60"/>
+      <c r="BC12" s="61"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="83"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="85"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="84"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="84"/>
-      <c r="AM13" s="84"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="84"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="84"/>
-      <c r="AT13" s="84"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="85"/>
-      <c r="AX13" s="83"/>
-      <c r="AY13" s="84"/>
-      <c r="AZ13" s="84"/>
-      <c r="BA13" s="84"/>
-      <c r="BB13" s="84"/>
-      <c r="BC13" s="85"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="60"/>
+      <c r="AK13" s="61"/>
+      <c r="AL13" s="60"/>
+      <c r="AM13" s="60"/>
+      <c r="AN13" s="60"/>
+      <c r="AO13" s="60"/>
+      <c r="AP13" s="60"/>
+      <c r="AQ13" s="60"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="60"/>
+      <c r="AT13" s="60"/>
+      <c r="AU13" s="60"/>
+      <c r="AV13" s="60"/>
+      <c r="AW13" s="61"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="60"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="60"/>
+      <c r="BB13" s="60"/>
+      <c r="BC13" s="61"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="83"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
-      <c r="AK14" s="85"/>
-      <c r="AL14" s="84"/>
-      <c r="AM14" s="84"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="84"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="83"/>
-      <c r="AS14" s="84"/>
-      <c r="AT14" s="84"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="85"/>
-      <c r="AX14" s="83"/>
-      <c r="AY14" s="84"/>
-      <c r="AZ14" s="84"/>
-      <c r="BA14" s="84"/>
-      <c r="BB14" s="84"/>
-      <c r="BC14" s="85"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="60"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="60"/>
+      <c r="AE14" s="60"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="60"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="60"/>
+      <c r="AM14" s="60"/>
+      <c r="AN14" s="60"/>
+      <c r="AO14" s="60"/>
+      <c r="AP14" s="60"/>
+      <c r="AQ14" s="60"/>
+      <c r="AR14" s="59"/>
+      <c r="AS14" s="60"/>
+      <c r="AT14" s="60"/>
+      <c r="AU14" s="60"/>
+      <c r="AV14" s="60"/>
+      <c r="AW14" s="61"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="60"/>
+      <c r="AZ14" s="60"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="60"/>
+      <c r="BC14" s="61"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="87"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="86"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="86"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="87"/>
-      <c r="BA15" s="87"/>
-      <c r="BB15" s="87"/>
-      <c r="BC15" s="88"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="63"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="63"/>
+      <c r="AP15" s="63"/>
+      <c r="AQ15" s="63"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="63"/>
+      <c r="AT15" s="63"/>
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="63"/>
+      <c r="AZ15" s="63"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="64"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="115" t="s">
-        <v>495</v>
-      </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116"/>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="116"/>
-      <c r="AS16" s="116"/>
-      <c r="AT16" s="116"/>
-      <c r="AU16" s="116"/>
-      <c r="AV16" s="116"/>
-      <c r="AW16" s="116"/>
-      <c r="AX16" s="116"/>
-      <c r="AY16" s="116"/>
-      <c r="AZ16" s="116"/>
-      <c r="BA16" s="116"/>
-      <c r="BB16" s="116"/>
-      <c r="BC16" s="117"/>
+      <c r="B16" s="93" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="94"/>
+      <c r="Z16" s="94"/>
+      <c r="AA16" s="94"/>
+      <c r="AB16" s="94"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="94"/>
+      <c r="AI16" s="94"/>
+      <c r="AJ16" s="94"/>
+      <c r="AK16" s="94"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="94"/>
+      <c r="AS16" s="94"/>
+      <c r="AT16" s="94"/>
+      <c r="AU16" s="94"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="94"/>
+      <c r="BC16" s="95"/>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="118" t="s">
-        <v>496</v>
-      </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
+      <c r="B17" s="96" t="s">
+        <v>506</v>
+      </c>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -19902,24 +20179,24 @@
       <c r="AV17" s="34"/>
       <c r="AW17" s="35"/>
       <c r="AX17" s="38" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AY17" s="39"/>
-      <c r="AZ17" s="61" t="s">
+      <c r="AZ17" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="BA17" s="61"/>
-      <c r="BB17" s="61"/>
+      <c r="BA17" s="111"/>
+      <c r="BB17" s="111"/>
       <c r="BC17" s="40"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="95" t="s">
-        <v>497</v>
-      </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
+      <c r="B18" s="99" t="s">
+        <v>507</v>
+      </c>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -19928,24 +20205,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="62" t="e">
+      <c r="AX18" s="80" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
+      <c r="AY18" s="81"/>
+      <c r="AZ18" s="81"/>
+      <c r="BA18" s="81"/>
+      <c r="BB18" s="81"/>
       <c r="BC18" s="41"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="98" t="s">
-        <v>498</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
+      <c r="B19" s="102" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="36"/>
       <c r="L19" s="36"/>
       <c r="R19" s="36"/>
@@ -19954,24 +20231,24 @@
       <c r="AJ19" s="36"/>
       <c r="AP19" s="36"/>
       <c r="AV19" s="36"/>
-      <c r="AX19" s="64" t="e">
+      <c r="AX19" s="78" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
+      <c r="AY19" s="79"/>
+      <c r="AZ19" s="79"/>
+      <c r="BA19" s="79"/>
+      <c r="BB19" s="79"/>
       <c r="BC19" s="42"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="121" t="s">
-        <v>499</v>
-      </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
+      <c r="B20" s="105" t="s">
+        <v>509</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -19981,22 +20258,22 @@
       <c r="AP20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AX20" s="43" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AZ20" s="44" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="BA20" s="44" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="BB20" s="44" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="BC20" s="45" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="2:55">
@@ -20028,71 +20305,71 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="62" t="s">
-        <v>493</v>
-      </c>
-      <c r="AY22" s="63"/>
-      <c r="AZ22" s="63"/>
-      <c r="BA22" s="63"/>
-      <c r="BB22" s="63"/>
+      <c r="AX22" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="AY22" s="81"/>
+      <c r="AZ22" s="81"/>
+      <c r="BA22" s="81"/>
+      <c r="BB22" s="81"/>
       <c r="BC22" s="41"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="AX23" s="66" t="e">
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
+      <c r="M23" s="124"/>
+      <c r="N23" s="124"/>
+      <c r="O23" s="124"/>
+      <c r="AX23" s="82" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="68"/>
+      <c r="AY23" s="83"/>
+      <c r="AZ23" s="83"/>
+      <c r="BA23" s="83"/>
+      <c r="BB23" s="83"/>
+      <c r="BC23" s="84"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="67"/>
-      <c r="AZ24" s="67"/>
-      <c r="BA24" s="67"/>
-      <c r="BB24" s="67"/>
-      <c r="BC24" s="68"/>
+      <c r="AX24" s="82"/>
+      <c r="AY24" s="83"/>
+      <c r="AZ24" s="83"/>
+      <c r="BA24" s="83"/>
+      <c r="BB24" s="83"/>
+      <c r="BC24" s="84"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="66"/>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="67"/>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="68"/>
+      <c r="AX25" s="82"/>
+      <c r="AY25" s="83"/>
+      <c r="AZ25" s="83"/>
+      <c r="BA25" s="83"/>
+      <c r="BB25" s="83"/>
+      <c r="BC25" s="84"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="67"/>
-      <c r="AZ26" s="67"/>
-      <c r="BA26" s="67"/>
-      <c r="BB26" s="67"/>
-      <c r="BC26" s="68"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="83"/>
+      <c r="AZ26" s="83"/>
+      <c r="BA26" s="83"/>
+      <c r="BB26" s="83"/>
+      <c r="BC26" s="84"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="70"/>
-      <c r="AZ27" s="70"/>
-      <c r="BA27" s="70"/>
-      <c r="BB27" s="70"/>
-      <c r="BC27" s="71"/>
+      <c r="AX27" s="85"/>
+      <c r="AY27" s="86"/>
+      <c r="AZ27" s="86"/>
+      <c r="BA27" s="86"/>
+      <c r="BB27" s="86"/>
+      <c r="BC27" s="87"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="47" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -20141,70 +20418,70 @@
       <c r="AU28" s="37"/>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
-      <c r="AX28" s="112" t="s">
-        <v>500</v>
-      </c>
-      <c r="AY28" s="113"/>
-      <c r="AZ28" s="113"/>
-      <c r="BA28" s="113"/>
-      <c r="BB28" s="113"/>
-      <c r="BC28" s="114"/>
+      <c r="AX28" s="88" t="s">
+        <v>510</v>
+      </c>
+      <c r="AY28" s="89"/>
+      <c r="AZ28" s="89"/>
+      <c r="BA28" s="89"/>
+      <c r="BB28" s="89"/>
+      <c r="BC28" s="90"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="38" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="61" t="s">
+      <c r="D29" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="40"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="62" t="e">
+      <c r="B30" s="80" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
       <c r="G30" s="41"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="64" t="e">
+      <c r="B31" s="78" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="42"/>
       <c r="BC31" s="8"/>
     </row>
     <row r="32" spans="2:55">
       <c r="B32" s="43" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="BC32" s="8"/>
     </row>
@@ -20236,83 +20513,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="62" t="s">
-        <v>493</v>
-      </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
+      <c r="B34" s="80" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="41"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="66" t="e">
+      <c r="B35" s="82" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="84"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="AX36" s="101" t="s">
-        <v>499</v>
-      </c>
-      <c r="AY36" s="102"/>
-      <c r="AZ36" s="102"/>
-      <c r="BA36" s="102"/>
-      <c r="BB36" s="102"/>
-      <c r="BC36" s="103"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="84"/>
+      <c r="AX36" s="118" t="s">
+        <v>509</v>
+      </c>
+      <c r="AY36" s="119"/>
+      <c r="AZ36" s="119"/>
+      <c r="BA36" s="119"/>
+      <c r="BB36" s="119"/>
+      <c r="BC36" s="120"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
-      <c r="AX37" s="98" t="s">
-        <v>498</v>
-      </c>
-      <c r="AY37" s="99"/>
-      <c r="AZ37" s="99"/>
-      <c r="BA37" s="99"/>
-      <c r="BB37" s="99"/>
-      <c r="BC37" s="100"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
+      <c r="AX37" s="102" t="s">
+        <v>508</v>
+      </c>
+      <c r="AY37" s="103"/>
+      <c r="AZ37" s="103"/>
+      <c r="BA37" s="103"/>
+      <c r="BB37" s="103"/>
+      <c r="BC37" s="104"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="AX38" s="95" t="s">
-        <v>497</v>
-      </c>
-      <c r="AY38" s="96"/>
-      <c r="AZ38" s="96"/>
-      <c r="BA38" s="96"/>
-      <c r="BB38" s="96"/>
-      <c r="BC38" s="97"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
+      <c r="AX38" s="99" t="s">
+        <v>507</v>
+      </c>
+      <c r="AY38" s="100"/>
+      <c r="AZ38" s="100"/>
+      <c r="BA38" s="100"/>
+      <c r="BB38" s="100"/>
+      <c r="BC38" s="101"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="87"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -20355,654 +20632,654 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="92" t="s">
-        <v>496</v>
-      </c>
-      <c r="AY39" s="93"/>
-      <c r="AZ39" s="93"/>
-      <c r="BA39" s="93"/>
-      <c r="BB39" s="93"/>
-      <c r="BC39" s="94"/>
+      <c r="AX39" s="115" t="s">
+        <v>506</v>
+      </c>
+      <c r="AY39" s="116"/>
+      <c r="AZ39" s="116"/>
+      <c r="BA39" s="116"/>
+      <c r="BB39" s="116"/>
+      <c r="BC39" s="117"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90"/>
-      <c r="P40" s="90"/>
-      <c r="Q40" s="90"/>
-      <c r="R40" s="90"/>
-      <c r="S40" s="90"/>
-      <c r="T40" s="90"/>
-      <c r="U40" s="90"/>
-      <c r="V40" s="90"/>
-      <c r="W40" s="90"/>
-      <c r="X40" s="90"/>
-      <c r="Y40" s="90"/>
-      <c r="Z40" s="90"/>
-      <c r="AA40" s="90"/>
-      <c r="AB40" s="90"/>
-      <c r="AC40" s="90"/>
-      <c r="AD40" s="90"/>
-      <c r="AE40" s="90"/>
-      <c r="AF40" s="90"/>
-      <c r="AG40" s="90"/>
-      <c r="AH40" s="90"/>
-      <c r="AI40" s="90"/>
-      <c r="AJ40" s="90"/>
-      <c r="AK40" s="90"/>
-      <c r="AL40" s="90"/>
-      <c r="AM40" s="90"/>
-      <c r="AN40" s="90"/>
-      <c r="AO40" s="90"/>
-      <c r="AP40" s="90"/>
-      <c r="AQ40" s="90"/>
-      <c r="AR40" s="90"/>
-      <c r="AS40" s="90"/>
-      <c r="AT40" s="90"/>
-      <c r="AU40" s="90"/>
-      <c r="AV40" s="90"/>
-      <c r="AW40" s="90"/>
-      <c r="AX40" s="90"/>
-      <c r="AY40" s="90"/>
-      <c r="AZ40" s="90"/>
-      <c r="BA40" s="90"/>
-      <c r="BB40" s="90"/>
-      <c r="BC40" s="91"/>
+      <c r="B40" s="112" t="s">
+        <v>511</v>
+      </c>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="113"/>
+      <c r="AC40" s="113"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="113"/>
+      <c r="AH40" s="113"/>
+      <c r="AI40" s="113"/>
+      <c r="AJ40" s="113"/>
+      <c r="AK40" s="113"/>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="113"/>
+      <c r="AN40" s="113"/>
+      <c r="AO40" s="113"/>
+      <c r="AP40" s="113"/>
+      <c r="AQ40" s="113"/>
+      <c r="AR40" s="113"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="113"/>
+      <c r="AU40" s="113"/>
+      <c r="AV40" s="113"/>
+      <c r="AW40" s="113"/>
+      <c r="AX40" s="113"/>
+      <c r="AY40" s="113"/>
+      <c r="AZ40" s="113"/>
+      <c r="BA40" s="113"/>
+      <c r="BB40" s="113"/>
+      <c r="BC40" s="114"/>
     </row>
     <row r="41" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B41" s="78" t="s">
-        <v>473</v>
-      </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="79"/>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="79"/>
-      <c r="AK41" s="80"/>
-      <c r="AL41" s="78" t="s">
+      <c r="B41" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="67"/>
+      <c r="AL41" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AM41" s="79"/>
-      <c r="AN41" s="79"/>
-      <c r="AO41" s="79"/>
-      <c r="AP41" s="79"/>
-      <c r="AQ41" s="79"/>
-      <c r="AR41" s="79"/>
-      <c r="AS41" s="79"/>
-      <c r="AT41" s="79"/>
-      <c r="AU41" s="79"/>
-      <c r="AV41" s="79"/>
-      <c r="AW41" s="79"/>
-      <c r="AX41" s="79"/>
-      <c r="AY41" s="79"/>
-      <c r="AZ41" s="79"/>
-      <c r="BA41" s="79"/>
-      <c r="BB41" s="79"/>
-      <c r="BC41" s="80"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="66"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="66"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="66"/>
+      <c r="AV41" s="66"/>
+      <c r="AW41" s="66"/>
+      <c r="AX41" s="66"/>
+      <c r="AY41" s="66"/>
+      <c r="AZ41" s="66"/>
+      <c r="BA41" s="66"/>
+      <c r="BB41" s="66"/>
+      <c r="BC41" s="67"/>
     </row>
     <row r="42" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B42" s="73" t="s">
-        <v>474</v>
-      </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
+      <c r="B42" s="71" t="s">
+        <v>484</v>
+      </c>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="27"/>
-      <c r="H42" s="75" t="s">
-        <v>475</v>
-      </c>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="74" t="s">
-        <v>476</v>
-      </c>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="75" t="s">
-        <v>477</v>
-      </c>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="74" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA42" s="74"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
-      <c r="AD42" s="74"/>
-      <c r="AE42" s="74"/>
-      <c r="AF42" s="75" t="s">
-        <v>479</v>
-      </c>
-      <c r="AG42" s="74"/>
-      <c r="AH42" s="74"/>
-      <c r="AI42" s="74"/>
-      <c r="AJ42" s="74"/>
-      <c r="AK42" s="74"/>
-      <c r="AL42" s="73" t="s">
-        <v>480</v>
-      </c>
-      <c r="AM42" s="74"/>
-      <c r="AN42" s="74"/>
-      <c r="AO42" s="74"/>
-      <c r="AP42" s="74"/>
-      <c r="AQ42" s="74"/>
-      <c r="AR42" s="75" t="s">
-        <v>481</v>
-      </c>
-      <c r="AS42" s="74"/>
-      <c r="AT42" s="74"/>
-      <c r="AU42" s="74"/>
-      <c r="AV42" s="74"/>
-      <c r="AW42" s="76"/>
-      <c r="AX42" s="74" t="s">
-        <v>482</v>
-      </c>
-      <c r="AY42" s="74"/>
-      <c r="AZ42" s="74"/>
-      <c r="BA42" s="74"/>
-      <c r="BB42" s="74"/>
-      <c r="BC42" s="77"/>
+      <c r="H42" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="72" t="s">
+        <v>486</v>
+      </c>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="73" t="s">
+        <v>487</v>
+      </c>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="74"/>
+      <c r="Z42" s="72" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="73" t="s">
+        <v>489</v>
+      </c>
+      <c r="AG42" s="72"/>
+      <c r="AH42" s="72"/>
+      <c r="AI42" s="72"/>
+      <c r="AJ42" s="72"/>
+      <c r="AK42" s="72"/>
+      <c r="AL42" s="71" t="s">
+        <v>490</v>
+      </c>
+      <c r="AM42" s="72"/>
+      <c r="AN42" s="72"/>
+      <c r="AO42" s="72"/>
+      <c r="AP42" s="72"/>
+      <c r="AQ42" s="72"/>
+      <c r="AR42" s="73" t="s">
+        <v>491</v>
+      </c>
+      <c r="AS42" s="72"/>
+      <c r="AT42" s="72"/>
+      <c r="AU42" s="72"/>
+      <c r="AV42" s="72"/>
+      <c r="AW42" s="74"/>
+      <c r="AX42" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="AY42" s="72"/>
+      <c r="AZ42" s="72"/>
+      <c r="BA42" s="72"/>
+      <c r="BB42" s="72"/>
+      <c r="BC42" s="123"/>
     </row>
     <row r="43" spans="2:55">
       <c r="B43" s="9" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C43" s="26">
         <v>63</v>
       </c>
-      <c r="D43" s="72" t="str">
+      <c r="D43" s="68" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="10"/>
       <c r="H43" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="I43" s="33">
         <v>99</v>
       </c>
-      <c r="J43" s="58" t="str">
+      <c r="J43" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="59"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="91"/>
+      <c r="M43" s="92"/>
       <c r="N43" s="10" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="O43" s="26">
         <v>46</v>
       </c>
-      <c r="P43" s="72" t="str">
+      <c r="P43" s="68" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
       <c r="T43" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="U43" s="33">
         <v>56</v>
       </c>
-      <c r="V43" s="58" t="str">
+      <c r="V43" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="59"/>
+      <c r="W43" s="91"/>
+      <c r="X43" s="91"/>
+      <c r="Y43" s="92"/>
       <c r="Z43" s="10" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AA43" s="26">
         <v>99</v>
       </c>
-      <c r="AB43" s="72" t="str">
+      <c r="AB43" s="68" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC43" s="72"/>
-      <c r="AD43" s="72"/>
-      <c r="AE43" s="72"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
       <c r="AF43" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AG43" s="33">
         <v>62</v>
       </c>
-      <c r="AH43" s="58" t="str">
+      <c r="AH43" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI43" s="58"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="59"/>
+      <c r="AI43" s="91"/>
+      <c r="AJ43" s="91"/>
+      <c r="AK43" s="92"/>
       <c r="AL43" s="10" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AM43" s="26">
         <v>82</v>
       </c>
-      <c r="AN43" s="72" t="str">
+      <c r="AN43" s="68" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO43" s="72"/>
-      <c r="AP43" s="72"/>
-      <c r="AQ43" s="72"/>
+      <c r="AO43" s="68"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="68"/>
       <c r="AR43" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AS43" s="33">
         <v>11</v>
       </c>
-      <c r="AT43" s="58" t="str">
+      <c r="AT43" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="59"/>
+      <c r="AU43" s="91"/>
+      <c r="AV43" s="91"/>
+      <c r="AW43" s="92"/>
       <c r="AX43" s="32" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="AY43" s="33">
         <v>4</v>
       </c>
-      <c r="AZ43" s="58" t="str">
+      <c r="AZ43" s="91" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA43" s="58"/>
-      <c r="BB43" s="58"/>
-      <c r="BC43" s="59"/>
+      <c r="BA43" s="91"/>
+      <c r="BB43" s="91"/>
+      <c r="BC43" s="92"/>
     </row>
     <row r="44" spans="2:55">
-      <c r="B44" s="107" t="str">
+      <c r="B44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),3)</f>
         <v>P Bot Bot</v>
       </c>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="107" t="str">
+      <c r="H44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="108"/>
-      <c r="N44" s="72" t="str">
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),3)</f>
         <v>Hull Breach</v>
       </c>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="107" t="str">
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="108"/>
-      <c r="Z44" s="72" t="str">
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="70"/>
+      <c r="Z44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="72"/>
-      <c r="AC44" s="72"/>
-      <c r="AD44" s="72"/>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="107" t="str">
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG44" s="72"/>
-      <c r="AH44" s="72"/>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="72"/>
-      <c r="AK44" s="108"/>
-      <c r="AL44" s="72" t="str">
+      <c r="AG44" s="68"/>
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="68"/>
+      <c r="AK44" s="70"/>
+      <c r="AL44" s="68" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM44" s="72"/>
-      <c r="AN44" s="72"/>
-      <c r="AO44" s="72"/>
-      <c r="AP44" s="72"/>
-      <c r="AQ44" s="72"/>
-      <c r="AR44" s="107" t="str">
+      <c r="AM44" s="68"/>
+      <c r="AN44" s="68"/>
+      <c r="AO44" s="68"/>
+      <c r="AP44" s="68"/>
+      <c r="AQ44" s="68"/>
+      <c r="AR44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="72"/>
-      <c r="AV44" s="72"/>
-      <c r="AW44" s="108"/>
-      <c r="AX44" s="107" t="str">
+      <c r="AS44" s="68"/>
+      <c r="AT44" s="68"/>
+      <c r="AU44" s="68"/>
+      <c r="AV44" s="68"/>
+      <c r="AW44" s="70"/>
+      <c r="AX44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY44" s="72"/>
-      <c r="AZ44" s="72"/>
-      <c r="BA44" s="72"/>
-      <c r="BB44" s="72"/>
-      <c r="BC44" s="108"/>
+      <c r="AY44" s="68"/>
+      <c r="AZ44" s="68"/>
+      <c r="BA44" s="68"/>
+      <c r="BB44" s="68"/>
+      <c r="BC44" s="70"/>
     </row>
     <row r="45" spans="2:55">
-      <c r="B45" s="109" t="str">
+      <c r="B45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="109" t="str">
+      <c r="H45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="110" t="str">
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="109"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="109" t="str">
+      <c r="O45" s="109"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="109"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="109"/>
+      <c r="T45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="110" t="str">
+      <c r="U45" s="109"/>
+      <c r="V45" s="109"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="109"/>
+      <c r="Y45" s="110"/>
+      <c r="Z45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="109" t="str">
+      <c r="AA45" s="109"/>
+      <c r="AB45" s="109"/>
+      <c r="AC45" s="109"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="109"/>
+      <c r="AF45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="111"/>
-      <c r="AL45" s="110" t="str">
+      <c r="AG45" s="109"/>
+      <c r="AH45" s="109"/>
+      <c r="AI45" s="109"/>
+      <c r="AJ45" s="109"/>
+      <c r="AK45" s="110"/>
+      <c r="AL45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM45" s="110"/>
-      <c r="AN45" s="110"/>
-      <c r="AO45" s="110"/>
-      <c r="AP45" s="110"/>
-      <c r="AQ45" s="110"/>
-      <c r="AR45" s="109" t="str">
+      <c r="AM45" s="109"/>
+      <c r="AN45" s="109"/>
+      <c r="AO45" s="109"/>
+      <c r="AP45" s="109"/>
+      <c r="AQ45" s="109"/>
+      <c r="AR45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS45" s="110"/>
-      <c r="AT45" s="110"/>
-      <c r="AU45" s="110"/>
-      <c r="AV45" s="110"/>
-      <c r="AW45" s="111"/>
-      <c r="AX45" s="109" t="str">
+      <c r="AS45" s="109"/>
+      <c r="AT45" s="109"/>
+      <c r="AU45" s="109"/>
+      <c r="AV45" s="109"/>
+      <c r="AW45" s="110"/>
+      <c r="AX45" s="108" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY45" s="110"/>
-      <c r="AZ45" s="110"/>
-      <c r="BA45" s="110"/>
-      <c r="BB45" s="110"/>
-      <c r="BC45" s="111"/>
+      <c r="AY45" s="109"/>
+      <c r="AZ45" s="109"/>
+      <c r="BA45" s="109"/>
+      <c r="BB45" s="109"/>
+      <c r="BC45" s="110"/>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="28" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="S46" s="31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Y46" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AE46" s="31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AG46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AH46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AI46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AJ46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AK46" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AL46" s="29" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AM46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AN46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AO46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AP46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AQ46" s="31" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AR46" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AS46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AT46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="AU46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="AV46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AW46" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="AX46" s="16" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="AY46" s="14" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="AZ46" s="14" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="BA46" s="14" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="BB46" s="14" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="BC46" s="17" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="2:55">
@@ -21224,509 +21501,620 @@
       </c>
     </row>
     <row r="48" spans="2:55">
-      <c r="B48" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
+      <c r="B48" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="72" t="s">
-        <v>493</v>
-      </c>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="72"/>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="72"/>
-      <c r="Y48" s="108"/>
-      <c r="Z48" s="72" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA48" s="72"/>
-      <c r="AB48" s="72"/>
-      <c r="AC48" s="72"/>
-      <c r="AD48" s="72"/>
-      <c r="AE48" s="72"/>
-      <c r="AF48" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="AG48" s="72"/>
-      <c r="AH48" s="72"/>
-      <c r="AI48" s="72"/>
-      <c r="AJ48" s="72"/>
-      <c r="AK48" s="108"/>
-      <c r="AL48" s="72" t="s">
-        <v>493</v>
-      </c>
-      <c r="AM48" s="72"/>
-      <c r="AN48" s="72"/>
-      <c r="AO48" s="72"/>
-      <c r="AP48" s="72"/>
-      <c r="AQ48" s="72"/>
-      <c r="AR48" s="104" t="s">
-        <v>493</v>
-      </c>
-      <c r="AS48" s="105"/>
-      <c r="AT48" s="105"/>
-      <c r="AU48" s="105"/>
-      <c r="AV48" s="105"/>
-      <c r="AW48" s="106"/>
-      <c r="AX48" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="AY48" s="72"/>
-      <c r="AZ48" s="72"/>
-      <c r="BA48" s="72"/>
-      <c r="BB48" s="72"/>
-      <c r="BC48" s="108"/>
+      <c r="H48" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="U48" s="68"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="70"/>
+      <c r="Z48" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA48" s="68"/>
+      <c r="AB48" s="68"/>
+      <c r="AC48" s="68"/>
+      <c r="AD48" s="68"/>
+      <c r="AE48" s="68"/>
+      <c r="AF48" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG48" s="68"/>
+      <c r="AH48" s="68"/>
+      <c r="AI48" s="68"/>
+      <c r="AJ48" s="68"/>
+      <c r="AK48" s="70"/>
+      <c r="AL48" s="68" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM48" s="68"/>
+      <c r="AN48" s="68"/>
+      <c r="AO48" s="68"/>
+      <c r="AP48" s="68"/>
+      <c r="AQ48" s="68"/>
+      <c r="AR48" s="75" t="s">
+        <v>503</v>
+      </c>
+      <c r="AS48" s="76"/>
+      <c r="AT48" s="76"/>
+      <c r="AU48" s="76"/>
+      <c r="AV48" s="76"/>
+      <c r="AW48" s="77"/>
+      <c r="AX48" s="69" t="s">
+        <v>503</v>
+      </c>
+      <c r="AY48" s="68"/>
+      <c r="AZ48" s="68"/>
+      <c r="BA48" s="68"/>
+      <c r="BB48" s="68"/>
+      <c r="BC48" s="70"/>
     </row>
     <row r="49" spans="2:55" ht="15" customHeight="1">
-      <c r="B49" s="83" t="str">
+      <c r="B49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Tap: Assault + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="84"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="83" t="str">
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="I49" s="84"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="84" t="str">
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="83" t="str">
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
+      <c r="S49" s="60"/>
+      <c r="T49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Robot can't be used for gun slots.
 Tap: Medic + 1
 Tap: Repair ship by 100</v>
       </c>
-      <c r="U49" s="84"/>
-      <c r="V49" s="84"/>
-      <c r="W49" s="84"/>
-      <c r="X49" s="84"/>
-      <c r="Y49" s="85"/>
-      <c r="Z49" s="84" t="str">
+      <c r="U49" s="60"/>
+      <c r="V49" s="60"/>
+      <c r="W49" s="60"/>
+      <c r="X49" s="60"/>
+      <c r="Y49" s="61"/>
+      <c r="Z49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA49" s="84"/>
-      <c r="AB49" s="84"/>
-      <c r="AC49" s="84"/>
-      <c r="AD49" s="84"/>
-      <c r="AE49" s="84"/>
-      <c r="AF49" s="83" t="str">
+      <c r="AA49" s="60"/>
+      <c r="AB49" s="60"/>
+      <c r="AC49" s="60"/>
+      <c r="AD49" s="60"/>
+      <c r="AE49" s="60"/>
+      <c r="AF49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Tap: Handling + 2
 Tap: Repair ship by 100</v>
       </c>
-      <c r="AG49" s="84"/>
-      <c r="AH49" s="84"/>
-      <c r="AI49" s="84"/>
-      <c r="AJ49" s="84"/>
-      <c r="AK49" s="85"/>
-      <c r="AL49" s="84" t="str">
+      <c r="AG49" s="60"/>
+      <c r="AH49" s="60"/>
+      <c r="AI49" s="60"/>
+      <c r="AJ49" s="60"/>
+      <c r="AK49" s="61"/>
+      <c r="AL49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM49" s="84"/>
-      <c r="AN49" s="84"/>
-      <c r="AO49" s="84"/>
-      <c r="AP49" s="84"/>
-      <c r="AQ49" s="84"/>
-      <c r="AR49" s="83" t="str">
+      <c r="AM49" s="60"/>
+      <c r="AN49" s="60"/>
+      <c r="AO49" s="60"/>
+      <c r="AP49" s="60"/>
+      <c r="AQ49" s="60"/>
+      <c r="AR49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Tap: Medical + 3</v>
       </c>
-      <c r="AS49" s="84"/>
-      <c r="AT49" s="84"/>
-      <c r="AU49" s="84"/>
-      <c r="AV49" s="84"/>
-      <c r="AW49" s="85"/>
-      <c r="AX49" s="83" t="str">
+      <c r="AS49" s="60"/>
+      <c r="AT49" s="60"/>
+      <c r="AU49" s="60"/>
+      <c r="AV49" s="60"/>
+      <c r="AW49" s="61"/>
+      <c r="AX49" s="59" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Tap: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY49" s="84"/>
-      <c r="AZ49" s="84"/>
-      <c r="BA49" s="84"/>
-      <c r="BB49" s="84"/>
-      <c r="BC49" s="85"/>
+      <c r="AY49" s="60"/>
+      <c r="AZ49" s="60"/>
+      <c r="BA49" s="60"/>
+      <c r="BB49" s="60"/>
+      <c r="BC49" s="61"/>
     </row>
     <row r="50" spans="2:55">
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="83"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="85"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="84"/>
-      <c r="AE50" s="84"/>
-      <c r="AF50" s="83"/>
-      <c r="AG50" s="84"/>
-      <c r="AH50" s="84"/>
-      <c r="AI50" s="84"/>
-      <c r="AJ50" s="84"/>
-      <c r="AK50" s="85"/>
-      <c r="AL50" s="84"/>
-      <c r="AM50" s="84"/>
-      <c r="AN50" s="84"/>
-      <c r="AO50" s="84"/>
-      <c r="AP50" s="84"/>
-      <c r="AQ50" s="84"/>
-      <c r="AR50" s="83"/>
-      <c r="AS50" s="84"/>
-      <c r="AT50" s="84"/>
-      <c r="AU50" s="84"/>
-      <c r="AV50" s="84"/>
-      <c r="AW50" s="85"/>
-      <c r="AX50" s="83"/>
-      <c r="AY50" s="84"/>
-      <c r="AZ50" s="84"/>
-      <c r="BA50" s="84"/>
-      <c r="BB50" s="84"/>
-      <c r="BC50" s="85"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="61"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="60"/>
+      <c r="AF50" s="59"/>
+      <c r="AG50" s="60"/>
+      <c r="AH50" s="60"/>
+      <c r="AI50" s="60"/>
+      <c r="AJ50" s="60"/>
+      <c r="AK50" s="61"/>
+      <c r="AL50" s="60"/>
+      <c r="AM50" s="60"/>
+      <c r="AN50" s="60"/>
+      <c r="AO50" s="60"/>
+      <c r="AP50" s="60"/>
+      <c r="AQ50" s="60"/>
+      <c r="AR50" s="59"/>
+      <c r="AS50" s="60"/>
+      <c r="AT50" s="60"/>
+      <c r="AU50" s="60"/>
+      <c r="AV50" s="60"/>
+      <c r="AW50" s="61"/>
+      <c r="AX50" s="59"/>
+      <c r="AY50" s="60"/>
+      <c r="AZ50" s="60"/>
+      <c r="BA50" s="60"/>
+      <c r="BB50" s="60"/>
+      <c r="BC50" s="61"/>
     </row>
     <row r="51" spans="2:55">
-      <c r="B51" s="83"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="83"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="85"/>
-      <c r="Z51" s="84"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="84"/>
-      <c r="AE51" s="84"/>
-      <c r="AF51" s="83"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="84"/>
-      <c r="AI51" s="84"/>
-      <c r="AJ51" s="84"/>
-      <c r="AK51" s="85"/>
-      <c r="AL51" s="84"/>
-      <c r="AM51" s="84"/>
-      <c r="AN51" s="84"/>
-      <c r="AO51" s="84"/>
-      <c r="AP51" s="84"/>
-      <c r="AQ51" s="84"/>
-      <c r="AR51" s="83"/>
-      <c r="AS51" s="84"/>
-      <c r="AT51" s="84"/>
-      <c r="AU51" s="84"/>
-      <c r="AV51" s="84"/>
-      <c r="AW51" s="85"/>
-      <c r="AX51" s="83"/>
-      <c r="AY51" s="84"/>
-      <c r="AZ51" s="84"/>
-      <c r="BA51" s="84"/>
-      <c r="BB51" s="84"/>
-      <c r="BC51" s="85"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="60"/>
+      <c r="V51" s="60"/>
+      <c r="W51" s="60"/>
+      <c r="X51" s="60"/>
+      <c r="Y51" s="61"/>
+      <c r="Z51" s="60"/>
+      <c r="AA51" s="60"/>
+      <c r="AB51" s="60"/>
+      <c r="AC51" s="60"/>
+      <c r="AD51" s="60"/>
+      <c r="AE51" s="60"/>
+      <c r="AF51" s="59"/>
+      <c r="AG51" s="60"/>
+      <c r="AH51" s="60"/>
+      <c r="AI51" s="60"/>
+      <c r="AJ51" s="60"/>
+      <c r="AK51" s="61"/>
+      <c r="AL51" s="60"/>
+      <c r="AM51" s="60"/>
+      <c r="AN51" s="60"/>
+      <c r="AO51" s="60"/>
+      <c r="AP51" s="60"/>
+      <c r="AQ51" s="60"/>
+      <c r="AR51" s="59"/>
+      <c r="AS51" s="60"/>
+      <c r="AT51" s="60"/>
+      <c r="AU51" s="60"/>
+      <c r="AV51" s="60"/>
+      <c r="AW51" s="61"/>
+      <c r="AX51" s="59"/>
+      <c r="AY51" s="60"/>
+      <c r="AZ51" s="60"/>
+      <c r="BA51" s="60"/>
+      <c r="BB51" s="60"/>
+      <c r="BC51" s="61"/>
     </row>
     <row r="52" spans="2:55">
-      <c r="B52" s="83"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="83"/>
-      <c r="U52" s="84"/>
-      <c r="V52" s="84"/>
-      <c r="W52" s="84"/>
-      <c r="X52" s="84"/>
-      <c r="Y52" s="85"/>
-      <c r="Z52" s="84"/>
-      <c r="AA52" s="84"/>
-      <c r="AB52" s="84"/>
-      <c r="AC52" s="84"/>
-      <c r="AD52" s="84"/>
-      <c r="AE52" s="84"/>
-      <c r="AF52" s="83"/>
-      <c r="AG52" s="84"/>
-      <c r="AH52" s="84"/>
-      <c r="AI52" s="84"/>
-      <c r="AJ52" s="84"/>
-      <c r="AK52" s="85"/>
-      <c r="AL52" s="84"/>
-      <c r="AM52" s="84"/>
-      <c r="AN52" s="84"/>
-      <c r="AO52" s="84"/>
-      <c r="AP52" s="84"/>
-      <c r="AQ52" s="84"/>
-      <c r="AR52" s="83"/>
-      <c r="AS52" s="84"/>
-      <c r="AT52" s="84"/>
-      <c r="AU52" s="84"/>
-      <c r="AV52" s="84"/>
-      <c r="AW52" s="85"/>
-      <c r="AX52" s="83"/>
-      <c r="AY52" s="84"/>
-      <c r="AZ52" s="84"/>
-      <c r="BA52" s="84"/>
-      <c r="BB52" s="84"/>
-      <c r="BC52" s="85"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="60"/>
+      <c r="R52" s="60"/>
+      <c r="S52" s="60"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="60"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="60"/>
+      <c r="AA52" s="60"/>
+      <c r="AB52" s="60"/>
+      <c r="AC52" s="60"/>
+      <c r="AD52" s="60"/>
+      <c r="AE52" s="60"/>
+      <c r="AF52" s="59"/>
+      <c r="AG52" s="60"/>
+      <c r="AH52" s="60"/>
+      <c r="AI52" s="60"/>
+      <c r="AJ52" s="60"/>
+      <c r="AK52" s="61"/>
+      <c r="AL52" s="60"/>
+      <c r="AM52" s="60"/>
+      <c r="AN52" s="60"/>
+      <c r="AO52" s="60"/>
+      <c r="AP52" s="60"/>
+      <c r="AQ52" s="60"/>
+      <c r="AR52" s="59"/>
+      <c r="AS52" s="60"/>
+      <c r="AT52" s="60"/>
+      <c r="AU52" s="60"/>
+      <c r="AV52" s="60"/>
+      <c r="AW52" s="61"/>
+      <c r="AX52" s="59"/>
+      <c r="AY52" s="60"/>
+      <c r="AZ52" s="60"/>
+      <c r="BA52" s="60"/>
+      <c r="BB52" s="60"/>
+      <c r="BC52" s="61"/>
     </row>
     <row r="53" spans="2:55">
-      <c r="B53" s="83"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="83"/>
-      <c r="U53" s="84"/>
-      <c r="V53" s="84"/>
-      <c r="W53" s="84"/>
-      <c r="X53" s="84"/>
-      <c r="Y53" s="85"/>
-      <c r="Z53" s="84"/>
-      <c r="AA53" s="84"/>
-      <c r="AB53" s="84"/>
-      <c r="AC53" s="84"/>
-      <c r="AD53" s="84"/>
-      <c r="AE53" s="84"/>
-      <c r="AF53" s="83"/>
-      <c r="AG53" s="84"/>
-      <c r="AH53" s="84"/>
-      <c r="AI53" s="84"/>
-      <c r="AJ53" s="84"/>
-      <c r="AK53" s="85"/>
-      <c r="AL53" s="84"/>
-      <c r="AM53" s="84"/>
-      <c r="AN53" s="84"/>
-      <c r="AO53" s="84"/>
-      <c r="AP53" s="84"/>
-      <c r="AQ53" s="84"/>
-      <c r="AR53" s="83"/>
-      <c r="AS53" s="84"/>
-      <c r="AT53" s="84"/>
-      <c r="AU53" s="84"/>
-      <c r="AV53" s="84"/>
-      <c r="AW53" s="85"/>
-      <c r="AX53" s="83"/>
-      <c r="AY53" s="84"/>
-      <c r="AZ53" s="84"/>
-      <c r="BA53" s="84"/>
-      <c r="BB53" s="84"/>
-      <c r="BC53" s="85"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="60"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="60"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="60"/>
+      <c r="V53" s="60"/>
+      <c r="W53" s="60"/>
+      <c r="X53" s="60"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="60"/>
+      <c r="AA53" s="60"/>
+      <c r="AB53" s="60"/>
+      <c r="AC53" s="60"/>
+      <c r="AD53" s="60"/>
+      <c r="AE53" s="60"/>
+      <c r="AF53" s="59"/>
+      <c r="AG53" s="60"/>
+      <c r="AH53" s="60"/>
+      <c r="AI53" s="60"/>
+      <c r="AJ53" s="60"/>
+      <c r="AK53" s="61"/>
+      <c r="AL53" s="60"/>
+      <c r="AM53" s="60"/>
+      <c r="AN53" s="60"/>
+      <c r="AO53" s="60"/>
+      <c r="AP53" s="60"/>
+      <c r="AQ53" s="60"/>
+      <c r="AR53" s="59"/>
+      <c r="AS53" s="60"/>
+      <c r="AT53" s="60"/>
+      <c r="AU53" s="60"/>
+      <c r="AV53" s="60"/>
+      <c r="AW53" s="61"/>
+      <c r="AX53" s="59"/>
+      <c r="AY53" s="60"/>
+      <c r="AZ53" s="60"/>
+      <c r="BA53" s="60"/>
+      <c r="BB53" s="60"/>
+      <c r="BC53" s="61"/>
     </row>
     <row r="54" spans="2:55">
-      <c r="B54" s="83"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="83"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="85"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="84"/>
-      <c r="AC54" s="84"/>
-      <c r="AD54" s="84"/>
-      <c r="AE54" s="84"/>
-      <c r="AF54" s="83"/>
-      <c r="AG54" s="84"/>
-      <c r="AH54" s="84"/>
-      <c r="AI54" s="84"/>
-      <c r="AJ54" s="84"/>
-      <c r="AK54" s="85"/>
-      <c r="AL54" s="84"/>
-      <c r="AM54" s="84"/>
-      <c r="AN54" s="84"/>
-      <c r="AO54" s="84"/>
-      <c r="AP54" s="84"/>
-      <c r="AQ54" s="84"/>
-      <c r="AR54" s="83"/>
-      <c r="AS54" s="84"/>
-      <c r="AT54" s="84"/>
-      <c r="AU54" s="84"/>
-      <c r="AV54" s="84"/>
-      <c r="AW54" s="85"/>
-      <c r="AX54" s="83"/>
-      <c r="AY54" s="84"/>
-      <c r="AZ54" s="84"/>
-      <c r="BA54" s="84"/>
-      <c r="BB54" s="84"/>
-      <c r="BC54" s="85"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="60"/>
+      <c r="AA54" s="60"/>
+      <c r="AB54" s="60"/>
+      <c r="AC54" s="60"/>
+      <c r="AD54" s="60"/>
+      <c r="AE54" s="60"/>
+      <c r="AF54" s="59"/>
+      <c r="AG54" s="60"/>
+      <c r="AH54" s="60"/>
+      <c r="AI54" s="60"/>
+      <c r="AJ54" s="60"/>
+      <c r="AK54" s="61"/>
+      <c r="AL54" s="60"/>
+      <c r="AM54" s="60"/>
+      <c r="AN54" s="60"/>
+      <c r="AO54" s="60"/>
+      <c r="AP54" s="60"/>
+      <c r="AQ54" s="60"/>
+      <c r="AR54" s="59"/>
+      <c r="AS54" s="60"/>
+      <c r="AT54" s="60"/>
+      <c r="AU54" s="60"/>
+      <c r="AV54" s="60"/>
+      <c r="AW54" s="61"/>
+      <c r="AX54" s="59"/>
+      <c r="AY54" s="60"/>
+      <c r="AZ54" s="60"/>
+      <c r="BA54" s="60"/>
+      <c r="BB54" s="60"/>
+      <c r="BC54" s="61"/>
     </row>
     <row r="55" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B55" s="86"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="88"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="87"/>
-      <c r="S55" s="87"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="87"/>
-      <c r="V55" s="87"/>
-      <c r="W55" s="87"/>
-      <c r="X55" s="87"/>
-      <c r="Y55" s="88"/>
-      <c r="Z55" s="87"/>
-      <c r="AA55" s="87"/>
-      <c r="AB55" s="87"/>
-      <c r="AC55" s="87"/>
-      <c r="AD55" s="87"/>
-      <c r="AE55" s="87"/>
-      <c r="AF55" s="86"/>
-      <c r="AG55" s="87"/>
-      <c r="AH55" s="87"/>
-      <c r="AI55" s="87"/>
-      <c r="AJ55" s="87"/>
-      <c r="AK55" s="88"/>
-      <c r="AL55" s="87"/>
-      <c r="AM55" s="87"/>
-      <c r="AN55" s="87"/>
-      <c r="AO55" s="87"/>
-      <c r="AP55" s="87"/>
-      <c r="AQ55" s="87"/>
-      <c r="AR55" s="86"/>
-      <c r="AS55" s="87"/>
-      <c r="AT55" s="87"/>
-      <c r="AU55" s="87"/>
-      <c r="AV55" s="87"/>
-      <c r="AW55" s="88"/>
-      <c r="AX55" s="86"/>
-      <c r="AY55" s="87"/>
-      <c r="AZ55" s="87"/>
-      <c r="BA55" s="87"/>
-      <c r="BB55" s="87"/>
-      <c r="BC55" s="88"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+      <c r="P55" s="63"/>
+      <c r="Q55" s="63"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="63"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="63"/>
+      <c r="W55" s="63"/>
+      <c r="X55" s="63"/>
+      <c r="Y55" s="64"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="63"/>
+      <c r="AC55" s="63"/>
+      <c r="AD55" s="63"/>
+      <c r="AE55" s="63"/>
+      <c r="AF55" s="62"/>
+      <c r="AG55" s="63"/>
+      <c r="AH55" s="63"/>
+      <c r="AI55" s="63"/>
+      <c r="AJ55" s="63"/>
+      <c r="AK55" s="64"/>
+      <c r="AL55" s="63"/>
+      <c r="AM55" s="63"/>
+      <c r="AN55" s="63"/>
+      <c r="AO55" s="63"/>
+      <c r="AP55" s="63"/>
+      <c r="AQ55" s="63"/>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="63"/>
+      <c r="AT55" s="63"/>
+      <c r="AU55" s="63"/>
+      <c r="AV55" s="63"/>
+      <c r="AW55" s="64"/>
+      <c r="AX55" s="62"/>
+      <c r="AY55" s="63"/>
+      <c r="AZ55" s="63"/>
+      <c r="BA55" s="63"/>
+      <c r="BB55" s="63"/>
+      <c r="BC55" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="AZ43:BC43"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:G39"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AH43:AK43"/>
+    <mergeCell ref="AN43:AQ43"/>
+    <mergeCell ref="AT43:AW43"/>
+    <mergeCell ref="AL42:AQ42"/>
+    <mergeCell ref="AR42:AW42"/>
+    <mergeCell ref="AX42:BC42"/>
+    <mergeCell ref="B41:AK41"/>
+    <mergeCell ref="AL41:BC41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="Z42:AE42"/>
+    <mergeCell ref="AF42:AK42"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="AR49:AW55"/>
+    <mergeCell ref="AX49:BC55"/>
+    <mergeCell ref="B40:BC40"/>
+    <mergeCell ref="AX39:BC39"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="AX36:BC36"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AL48:AQ48"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="N49:S55"/>
+    <mergeCell ref="T49:Y55"/>
+    <mergeCell ref="Z49:AE55"/>
+    <mergeCell ref="AF49:AK55"/>
+    <mergeCell ref="AL49:AQ55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AF45:AK45"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="AL44:AQ44"/>
+    <mergeCell ref="AR44:AW44"/>
+    <mergeCell ref="B9:F15"/>
+    <mergeCell ref="H9:M15"/>
+    <mergeCell ref="N9:S15"/>
+    <mergeCell ref="T9:Y15"/>
+    <mergeCell ref="Z9:AE15"/>
+    <mergeCell ref="AF9:AK15"/>
+    <mergeCell ref="AL9:AQ15"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AR9:AW15"/>
+    <mergeCell ref="AX9:BC15"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BC27"/>
+    <mergeCell ref="AX28:BC28"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B16:BC16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
     <mergeCell ref="B49:G55"/>
     <mergeCell ref="B1:AK1"/>
     <mergeCell ref="AL1:BC1"/>
@@ -21751,117 +22139,6 @@
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="AX4:BC4"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BC27"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B16:BC16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B9:F15"/>
-    <mergeCell ref="H9:M15"/>
-    <mergeCell ref="N9:S15"/>
-    <mergeCell ref="T9:Y15"/>
-    <mergeCell ref="Z9:AE15"/>
-    <mergeCell ref="AF9:AK15"/>
-    <mergeCell ref="AL9:AQ15"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AR9:AW15"/>
-    <mergeCell ref="AX9:BC15"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AF45:AK45"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="AL44:AQ44"/>
-    <mergeCell ref="AR44:AW44"/>
-    <mergeCell ref="AR49:AW55"/>
-    <mergeCell ref="AX49:BC55"/>
-    <mergeCell ref="B40:BC40"/>
-    <mergeCell ref="AX39:BC39"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="AX36:BC36"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AL48:AQ48"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:M55"/>
-    <mergeCell ref="N49:S55"/>
-    <mergeCell ref="T49:Y55"/>
-    <mergeCell ref="Z49:AE55"/>
-    <mergeCell ref="AF49:AK55"/>
-    <mergeCell ref="AL49:AQ55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AZ43:BC43"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:G39"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AH43:AK43"/>
-    <mergeCell ref="AN43:AQ43"/>
-    <mergeCell ref="AT43:AW43"/>
-    <mergeCell ref="AL42:AQ42"/>
-    <mergeCell ref="AR42:AW42"/>
-    <mergeCell ref="AX42:BC42"/>
-    <mergeCell ref="B41:AK41"/>
-    <mergeCell ref="AL41:BC41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="Z42:AE42"/>
-    <mergeCell ref="AF42:AK42"/>
   </mergeCells>
   <conditionalFormatting sqref="BG3 BG10">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="CREW">
@@ -21882,7 +22159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E825695B-E77D-451D-B1ED-F04615885196}">
   <dimension ref="B2:AG45"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="Q6" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
@@ -21896,26 +22173,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -21944,7 +22221,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -21989,7 +22266,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -26271,26 +26548,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="E3" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -26319,7 +26596,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -26364,7 +26641,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -30662,26 +30939,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="E3" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -30710,7 +30987,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -30755,7 +31032,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -35033,26 +35310,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -35081,7 +35358,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -35126,7 +35403,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -39406,26 +39683,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -39454,7 +39731,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -39499,7 +39776,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>
@@ -43777,26 +44054,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="E3" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -43825,7 +44102,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>30</v>
@@ -43870,7 +44147,7 @@
         <v>20</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>30</v>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363419BA-0010-4B75-B72C-8B068A9FF947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{000D03D3-704E-4505-BF82-0B2FE6BC204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="325" r:id="rId11"/>
+    <pivotCache cacheId="21" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="605">
   <si>
     <t>Type</t>
   </si>
@@ -1894,7 +1894,238 @@
     <t>Lt. Clawmaster</t>
   </si>
   <si>
-    <t>If you have Engaged an enemy crew, then draw a card. You may only do this once on your turn</t>
+    <t>If you have Engaged an enemy crew, then Engage another enemy crew. You may only do this once on your turn</t>
+  </si>
+  <si>
+    <t>Lt. Krabbulons</t>
+  </si>
+  <si>
+    <t>If you have Engaged an enemy crew, then draw a card. If you do, discard a card. You may only do this once on your turn</t>
+  </si>
+  <si>
+    <t>Lt. Armorgrips</t>
+  </si>
+  <si>
+    <t>If you Engage a Ship Upgrade then Engage an enemy crew. You may only do this once on your turn.</t>
+  </si>
+  <si>
+    <t>Lt. Carapacoids</t>
+  </si>
+  <si>
+    <t>If you Evade an attack then Engage an enemy crew. You may only do this once until the start of your next turn</t>
+  </si>
+  <si>
+    <t>Lt. Exoclaws</t>
+  </si>
+  <si>
+    <t>If you Engage a crew member with a crew attachment then Engage an enemy crew. You may only do this once on your turn.</t>
+  </si>
+  <si>
+    <t>Lurking Parasite</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Attach to Enemy Crew: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Disease spread </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200 (Deal 200 damage to assigned ship when this crew member is Engaged)</t>
+    </r>
+  </si>
+  <si>
+    <t>Neuroleech</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Attach to Enemy Crew: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Parasitic Disruption </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(When this crew member is Engaged, card owner may pick one negative affect)
+- Disable assigned ship shield until the next End Phase
+- Deal 100 to assigned ships hull</t>
+    </r>
+  </si>
+  <si>
+    <t>Portal Jammer</t>
+  </si>
+  <si>
+    <t>Attach to Ship: Your crew can't be the target of enemy cards on this ship</t>
+  </si>
+  <si>
+    <t>Teleport Dampener</t>
+  </si>
+  <si>
+    <t>Cancel target card targetting your crew</t>
+  </si>
+  <si>
+    <t>Cpt Clawrends Denial</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cancel target card, Target ship has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mutiny 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> until the next End Phase</t>
+    </r>
+  </si>
+  <si>
+    <t>His giant claws, already imposing, became symbols of fear throughout the galaxy.</t>
+  </si>
+  <si>
+    <t>Techbane Crusher</t>
+  </si>
+  <si>
+    <t>Send target Ship Upgrade to the Junkyard, Engage target enemy crew</t>
+  </si>
+  <si>
+    <t>Cpt. P. Clawrend</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assigned ship has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mutiny 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Engage: Target enemy ship sacrifices 1 crew</t>
+    </r>
+  </si>
+  <si>
+    <t>The tale of Captain Pincerus Clawrend's rise to infamy often included stories of him orchestrating mutinies on enemy ships.</t>
+  </si>
+  <si>
+    <t>Pincerus Personal Guards</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Target ship has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mutiny 1</t>
+    </r>
+  </si>
+  <si>
+    <t>While many feared and loathed Captain Pincerus Clawrend, others admired his cunning tactics and unwavering commitment to victory.</t>
+  </si>
+  <si>
+    <t>Gateway Lockdown System</t>
+  </si>
+  <si>
+    <t>Attach to Ship: This ship has Resistance 0</t>
+  </si>
+  <si>
+    <t>Engorged Injection</t>
+  </si>
+  <si>
+    <t>Attach to Crew: This crew member has Resistance 1</t>
+  </si>
+  <si>
+    <t>Shield Gauntlets</t>
+  </si>
+  <si>
+    <t>Systems Down!</t>
+  </si>
+  <si>
+    <t>Target ships shields are depleted until next End Phase</t>
   </si>
   <si>
     <t>Strategy</t>
@@ -2617,7 +2848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2760,61 +2991,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2822,12 +3014,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2847,6 +3033,126 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2854,12 +3160,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2880,24 +3180,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2907,58 +3189,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8220,7 +8450,98 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C17E6186-C211-45E3-BF98-94266063404B}" name="PivotTable2" cacheId="325" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91C0DB95-3F2E-49BF-A001-009CDB8468CF}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="11">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C17E6186-C211-45E3-BF98-94266063404B}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:G52" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -8436,102 +8757,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91C0DB95-3F2E-49BF-A001-009CDB8468CF}" name="PivotTable1" cacheId="325" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="11">
-        <item x="8"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Id" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TblCardDesign" displayName="TblCardDesign" ref="A5:S247" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A5:S247" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID">
+      <calculatedColumnFormula>ROW() - 5</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Deck"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ship Slot"/>
@@ -8881,7 +9113,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="126">
+      <c r="B4">
         <v>6</v>
       </c>
     </row>
@@ -8889,7 +9121,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="126">
+      <c r="B5">
         <v>11</v>
       </c>
     </row>
@@ -8897,7 +9129,7 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="126">
+      <c r="B6">
         <v>73</v>
       </c>
     </row>
@@ -8905,7 +9137,7 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="126">
+      <c r="B7">
         <v>14</v>
       </c>
     </row>
@@ -8913,7 +9145,7 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="126">
+      <c r="B8">
         <v>44</v>
       </c>
     </row>
@@ -8921,7 +9153,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="126">
+      <c r="B9">
         <v>7</v>
       </c>
     </row>
@@ -8929,7 +9161,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="126">
+      <c r="B10">
         <v>20</v>
       </c>
     </row>
@@ -8937,7 +9169,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="126">
+      <c r="B11">
         <v>26</v>
       </c>
     </row>
@@ -8945,7 +9177,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="126">
+      <c r="B12">
         <v>17</v>
       </c>
     </row>
@@ -8953,7 +9185,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="126">
+      <c r="B13">
         <v>218</v>
       </c>
     </row>
@@ -8995,13 +9227,10 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="126">
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126">
+      <c r="G19">
         <v>2</v>
       </c>
     </row>
@@ -9009,13 +9238,10 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="126">
-        <v>1</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>1</v>
       </c>
     </row>
@@ -9023,13 +9249,10 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="126">
-        <v>1</v>
-      </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
@@ -9037,13 +9260,10 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="126">
-        <v>1</v>
-      </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
@@ -9051,13 +9271,10 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126">
-        <v>1</v>
-      </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
     </row>
@@ -9068,13 +9285,10 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="126">
-        <v>1</v>
-      </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
     </row>
@@ -9082,15 +9296,13 @@
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="126">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126">
-        <v>1</v>
-      </c>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>3</v>
       </c>
     </row>
@@ -9098,15 +9310,13 @@
       <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="126">
+      <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126">
-        <v>1</v>
-      </c>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>3</v>
       </c>
     </row>
@@ -9114,13 +9324,10 @@
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="126">
-        <v>1</v>
-      </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>1</v>
       </c>
     </row>
@@ -9128,13 +9335,10 @@
       <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="126">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126">
+      <c r="G28">
         <v>2</v>
       </c>
     </row>
@@ -9142,13 +9346,10 @@
       <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126">
-        <v>1</v>
-      </c>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
     </row>
@@ -9159,17 +9360,16 @@
       <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="126">
+      <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="126">
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126">
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="126">
+      <c r="G30">
         <v>11</v>
       </c>
     </row>
@@ -9177,17 +9377,16 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="126">
+      <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="126">
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126">
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="G31" s="126">
+      <c r="G31">
         <v>10</v>
       </c>
     </row>
@@ -9195,17 +9394,16 @@
       <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="126">
+      <c r="C32">
         <v>4</v>
       </c>
-      <c r="D32" s="126">
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126">
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" s="126">
+      <c r="G32">
         <v>10</v>
       </c>
     </row>
@@ -9213,17 +9411,16 @@
       <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="126">
+      <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="126">
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" s="126">
+      <c r="G33">
         <v>10</v>
       </c>
     </row>
@@ -9231,17 +9428,16 @@
       <c r="B34" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="126">
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="126">
+      <c r="D34">
         <v>4</v>
       </c>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="G34" s="126">
+      <c r="G34">
         <v>11</v>
       </c>
     </row>
@@ -9249,13 +9445,10 @@
       <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126">
+      <c r="D35">
         <v>11</v>
       </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126">
+      <c r="G35">
         <v>11</v>
       </c>
     </row>
@@ -9263,13 +9456,10 @@
       <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126">
-        <v>1</v>
-      </c>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>1</v>
       </c>
     </row>
@@ -9277,13 +9467,10 @@
       <c r="B37" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126">
-        <v>1</v>
-      </c>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>1</v>
       </c>
     </row>
@@ -9291,13 +9478,10 @@
       <c r="B38" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126">
-        <v>1</v>
-      </c>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
     </row>
@@ -9305,13 +9489,10 @@
       <c r="B39" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126">
-        <v>1</v>
-      </c>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>1</v>
       </c>
     </row>
@@ -9319,13 +9500,10 @@
       <c r="B40" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126">
-        <v>1</v>
-      </c>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>1</v>
       </c>
     </row>
@@ -9333,13 +9511,10 @@
       <c r="B41" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126">
-        <v>1</v>
-      </c>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>1</v>
       </c>
     </row>
@@ -9347,13 +9522,10 @@
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126">
-        <v>1</v>
-      </c>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
     </row>
@@ -9361,13 +9533,10 @@
       <c r="B43" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126">
-        <v>1</v>
-      </c>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>1</v>
       </c>
     </row>
@@ -9375,13 +9544,10 @@
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126">
-        <v>1</v>
-      </c>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>
@@ -9389,13 +9555,10 @@
       <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126">
-        <v>1</v>
-      </c>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>1</v>
       </c>
     </row>
@@ -9406,13 +9569,10 @@
       <c r="B46" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="126">
-        <v>1</v>
-      </c>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>1</v>
       </c>
     </row>
@@ -9420,13 +9580,10 @@
       <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="126">
+      <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126">
+      <c r="G47">
         <v>2</v>
       </c>
     </row>
@@ -9434,13 +9591,10 @@
       <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="126">
-        <v>1</v>
-      </c>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>1</v>
       </c>
     </row>
@@ -9448,13 +9602,10 @@
       <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="126">
-        <v>1</v>
-      </c>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>1</v>
       </c>
     </row>
@@ -9462,13 +9613,10 @@
       <c r="B50" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="126">
-        <v>1</v>
-      </c>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>1</v>
       </c>
     </row>
@@ -9476,13 +9624,10 @@
       <c r="B51" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126">
-        <v>1</v>
-      </c>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>1</v>
       </c>
     </row>
@@ -9490,19 +9635,19 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="126">
+      <c r="C52">
         <v>40</v>
       </c>
-      <c r="D52" s="126">
+      <c r="D52">
         <v>30</v>
       </c>
-      <c r="E52" s="126">
+      <c r="E52">
         <v>12</v>
       </c>
-      <c r="F52" s="126">
+      <c r="F52">
         <v>15</v>
       </c>
-      <c r="G52" s="126">
+      <c r="G52">
         <v>97</v>
       </c>
     </row>
@@ -9529,26 +9674,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -9577,7 +9722,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -9622,7 +9767,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -12811,7 +12956,7 @@
       </c>
       <c r="J32">
         <f>INDEX(TblCardDesign[#Data],MATCH($B32,TblCardDesign[ID],0),10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <f>INDEX(TblCardDesign[#Data],MATCH($B32,TblCardDesign[ID],0),11)</f>
@@ -12931,7 +13076,7 @@
       </c>
       <c r="J33">
         <f>INDEX(TblCardDesign[#Data],MATCH($B33,TblCardDesign[ID],0),10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <f>INDEX(TblCardDesign[#Data],MATCH($B33,TblCardDesign[ID],0),11)</f>
@@ -13051,7 +13196,7 @@
       </c>
       <c r="J34">
         <f>INDEX(TblCardDesign[#Data],MATCH($B34,TblCardDesign[ID],0),10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34">
         <f>INDEX(TblCardDesign[#Data],MATCH($B34,TblCardDesign[ID],0),11)</f>
@@ -13879,8 +14024,8 @@
   <dimension ref="A2:S247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="C228" sqref="C228"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B234" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M242" sqref="M242"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -14049,6 +14194,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6">
+        <f t="shared" ref="A6:A69" si="0">ROW() - 5</f>
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -14082,6 +14228,7 @@
     </row>
     <row r="7" spans="1:19" ht="30.75">
       <c r="A7">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B7" t="s">
@@ -14115,6 +14262,7 @@
     </row>
     <row r="8" spans="1:19" ht="30.75">
       <c r="A8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B8" t="s">
@@ -14148,6 +14296,7 @@
     </row>
     <row r="9" spans="1:19" ht="45.75">
       <c r="A9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B9" t="s">
@@ -14181,6 +14330,7 @@
     </row>
     <row r="10" spans="1:19" ht="45.75">
       <c r="A10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B10" t="s">
@@ -14214,6 +14364,7 @@
     </row>
     <row r="11" spans="1:19" ht="60.75">
       <c r="A11">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B11" t="s">
@@ -14247,6 +14398,7 @@
     </row>
     <row r="12" spans="1:19" ht="60.75">
       <c r="A12">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B12" t="s">
@@ -14280,6 +14432,7 @@
     </row>
     <row r="13" spans="1:19" ht="76.5">
       <c r="A13">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B13" t="s">
@@ -14313,6 +14466,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" t="s">
@@ -14346,6 +14500,7 @@
     </row>
     <row r="15" spans="1:19" ht="30.75">
       <c r="A15">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B15" t="s">
@@ -14379,6 +14534,7 @@
     </row>
     <row r="16" spans="1:19" ht="30.75">
       <c r="A16">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B16" t="s">
@@ -14412,6 +14568,7 @@
     </row>
     <row r="17" spans="1:18" ht="45.75">
       <c r="A17">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B17" t="s">
@@ -14445,6 +14602,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B18" t="s">
@@ -14478,6 +14636,7 @@
     </row>
     <row r="19" spans="1:18" ht="30.75">
       <c r="A19">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B19" t="s">
@@ -14511,6 +14670,7 @@
     </row>
     <row r="20" spans="1:18" ht="30.75">
       <c r="A20">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B20" t="s">
@@ -14544,6 +14704,7 @@
     </row>
     <row r="21" spans="1:18" ht="60.75">
       <c r="A21">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B21" t="s">
@@ -14577,6 +14738,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B22" t="s">
@@ -14610,6 +14772,7 @@
     </row>
     <row r="23" spans="1:18" ht="30.75">
       <c r="A23">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B23" t="s">
@@ -14643,6 +14806,7 @@
     </row>
     <row r="24" spans="1:18" ht="30.75">
       <c r="A24">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B24" t="s">
@@ -14676,6 +14840,7 @@
     </row>
     <row r="25" spans="1:18" ht="60.75">
       <c r="A25">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B25" t="s">
@@ -14709,6 +14874,7 @@
     </row>
     <row r="26" spans="1:18" ht="60">
       <c r="A26">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B26" t="s">
@@ -14736,6 +14902,7 @@
     </row>
     <row r="27" spans="1:18" ht="30">
       <c r="A27">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B27" t="s">
@@ -14763,6 +14930,7 @@
     </row>
     <row r="28" spans="1:18" ht="30">
       <c r="A28">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B28" t="s">
@@ -14790,6 +14958,7 @@
     </row>
     <row r="29" spans="1:18" ht="30">
       <c r="A29">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B29" t="s">
@@ -14817,6 +14986,7 @@
     </row>
     <row r="30" spans="1:18" ht="45.75">
       <c r="A30">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B30" t="s">
@@ -14847,6 +15017,7 @@
     </row>
     <row r="31" spans="1:18" ht="30">
       <c r="A31">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B31" t="s">
@@ -14871,6 +15042,7 @@
     </row>
     <row r="32" spans="1:18" ht="45">
       <c r="A32">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B32" t="s">
@@ -14895,6 +15067,7 @@
     </row>
     <row r="33" spans="1:18" ht="30">
       <c r="A33">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B33" t="s">
@@ -14922,6 +15095,7 @@
     </row>
     <row r="34" spans="1:18" ht="30">
       <c r="A34">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B34" t="s">
@@ -14949,6 +15123,7 @@
     </row>
     <row r="35" spans="1:18" ht="45">
       <c r="A35">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B35" t="s">
@@ -14979,6 +15154,7 @@
     </row>
     <row r="36" spans="1:18" ht="45.75">
       <c r="A36">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B36" t="s">
@@ -15006,6 +15182,7 @@
     </row>
     <row r="37" spans="1:18" ht="30">
       <c r="A37">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B37" t="s">
@@ -15030,6 +15207,7 @@
     </row>
     <row r="38" spans="1:18" ht="30">
       <c r="A38">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B38" t="s">
@@ -15056,6 +15234,7 @@
     </row>
     <row r="39" spans="1:18" ht="30">
       <c r="A39">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B39" t="s">
@@ -15082,6 +15261,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B40" t="s">
@@ -15108,6 +15288,7 @@
     </row>
     <row r="41" spans="1:18" ht="30">
       <c r="A41">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B41" t="s">
@@ -15134,6 +15315,7 @@
     </row>
     <row r="42" spans="1:18" ht="45">
       <c r="A42">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B42" t="s">
@@ -15160,6 +15342,7 @@
     </row>
     <row r="43" spans="1:18" ht="76.5">
       <c r="A43">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B43" t="s">
@@ -15195,6 +15378,7 @@
     </row>
     <row r="44" spans="1:18" ht="60.75">
       <c r="A44">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B44" t="s">
@@ -15230,6 +15414,7 @@
     </row>
     <row r="45" spans="1:18" ht="30.75">
       <c r="A45">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B45" t="s">
@@ -15265,6 +15450,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46">
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B46" t="s">
@@ -15291,6 +15477,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B47" t="s">
@@ -15317,6 +15504,7 @@
     </row>
     <row r="48" spans="1:18" ht="30">
       <c r="A48">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B48" t="s">
@@ -15343,6 +15531,7 @@
     </row>
     <row r="49" spans="1:17" ht="30.75">
       <c r="A49">
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B49" t="s">
@@ -15369,6 +15558,7 @@
     </row>
     <row r="50" spans="1:17" ht="30.75">
       <c r="A50">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B50" t="s">
@@ -15395,6 +15585,7 @@
     </row>
     <row r="51" spans="1:17" ht="45.75">
       <c r="A51">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B51" t="s">
@@ -15421,6 +15612,7 @@
     </row>
     <row r="52" spans="1:17" ht="30">
       <c r="A52">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B52" t="s">
@@ -15453,6 +15645,7 @@
     </row>
     <row r="53" spans="1:17" ht="60.75">
       <c r="A53">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B53" t="s">
@@ -15479,6 +15672,7 @@
     </row>
     <row r="54" spans="1:17" ht="76.5">
       <c r="A54">
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B54" t="s">
@@ -15511,6 +15705,7 @@
     </row>
     <row r="55" spans="1:17" ht="72" customHeight="1">
       <c r="A55">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B55" t="s">
@@ -15534,6 +15729,7 @@
     </row>
     <row r="56" spans="1:17" ht="75">
       <c r="A56">
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B56" t="s">
@@ -15560,6 +15756,7 @@
     </row>
     <row r="57" spans="1:17" ht="30">
       <c r="A57">
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B57" t="s">
@@ -15586,6 +15783,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B58" t="s">
@@ -15612,6 +15810,7 @@
     </row>
     <row r="59" spans="1:17" ht="45.75">
       <c r="A59">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B59" t="s">
@@ -15638,6 +15837,7 @@
     </row>
     <row r="60" spans="1:17" ht="45.75">
       <c r="A60">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B60" t="s">
@@ -15670,6 +15870,7 @@
     </row>
     <row r="61" spans="1:17" ht="45.75">
       <c r="A61">
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B61" t="s">
@@ -15702,6 +15903,7 @@
     </row>
     <row r="62" spans="1:17" ht="45.75">
       <c r="A62">
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B62" t="s">
@@ -15734,6 +15936,7 @@
     </row>
     <row r="63" spans="1:17" ht="45.75">
       <c r="A63">
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B63" t="s">
@@ -15766,6 +15969,7 @@
     </row>
     <row r="64" spans="1:17" ht="45.75">
       <c r="A64">
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B64" t="s">
@@ -15798,6 +16002,7 @@
     </row>
     <row r="65" spans="1:17" ht="60.75">
       <c r="A65">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B65" t="s">
@@ -15830,6 +16035,7 @@
     </row>
     <row r="66" spans="1:17" ht="60.75">
       <c r="A66">
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B66" t="s">
@@ -15862,6 +16068,7 @@
     </row>
     <row r="67" spans="1:17" ht="60.75">
       <c r="A67">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B67" t="s">
@@ -15894,6 +16101,7 @@
     </row>
     <row r="68" spans="1:17" ht="60.75">
       <c r="A68">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B68" t="s">
@@ -15926,6 +16134,7 @@
     </row>
     <row r="69" spans="1:17" ht="60.75">
       <c r="A69">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B69" t="s">
@@ -15958,6 +16167,7 @@
     </row>
     <row r="70" spans="1:17" ht="60.75">
       <c r="A70">
+        <f t="shared" ref="A70:A133" si="1">ROW() - 5</f>
         <v>65</v>
       </c>
       <c r="B70" t="s">
@@ -15990,6 +16200,7 @@
     </row>
     <row r="71" spans="1:17" ht="60.75">
       <c r="A71">
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B71" t="s">
@@ -16022,6 +16233,7 @@
     </row>
     <row r="72" spans="1:17" ht="60.75">
       <c r="A72">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B72" t="s">
@@ -16054,6 +16266,7 @@
     </row>
     <row r="73" spans="1:17" ht="60.75">
       <c r="A73">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B73" t="s">
@@ -16086,6 +16299,7 @@
     </row>
     <row r="74" spans="1:17" ht="60.75">
       <c r="A74">
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B74" t="s">
@@ -16118,6 +16332,7 @@
     </row>
     <row r="75" spans="1:17" ht="30.75">
       <c r="A75">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B75" t="s">
@@ -16162,6 +16377,7 @@
     </row>
     <row r="76" spans="1:17" ht="60.75">
       <c r="A76">
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B76" t="s">
@@ -16209,6 +16425,7 @@
     </row>
     <row r="77" spans="1:17" ht="60">
       <c r="A77">
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B77" t="s">
@@ -16235,6 +16452,7 @@
     </row>
     <row r="78" spans="1:17" ht="30">
       <c r="A78">
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B78" t="s">
@@ -16261,6 +16479,7 @@
     </row>
     <row r="79" spans="1:17" ht="76.5">
       <c r="A79">
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B79" t="s">
@@ -16287,6 +16506,7 @@
     </row>
     <row r="80" spans="1:17" ht="45">
       <c r="A80">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B80" t="s">
@@ -16313,6 +16533,7 @@
     </row>
     <row r="81" spans="1:18" ht="75">
       <c r="A81">
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B81" t="s">
@@ -16336,6 +16557,7 @@
     </row>
     <row r="82" spans="1:18" ht="75">
       <c r="A82">
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B82" t="s">
@@ -16362,6 +16584,7 @@
     </row>
     <row r="83" spans="1:18" ht="76.5">
       <c r="A83">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B83" t="s">
@@ -16397,6 +16620,7 @@
     </row>
     <row r="84" spans="1:18" ht="76.5">
       <c r="A84">
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B84" t="s">
@@ -16432,6 +16656,7 @@
     </row>
     <row r="85" spans="1:18" ht="60.75">
       <c r="A85">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B85" t="s">
@@ -16467,6 +16692,7 @@
     </row>
     <row r="86" spans="1:18" ht="60.75">
       <c r="A86">
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B86" t="s">
@@ -16475,6 +16701,9 @@
       <c r="C86" t="s">
         <v>214</v>
       </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
       <c r="H86">
         <v>1</v>
       </c>
@@ -16499,6 +16728,7 @@
     </row>
     <row r="87" spans="1:18" ht="75">
       <c r="A87">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B87" t="s">
@@ -16534,6 +16764,7 @@
     </row>
     <row r="88" spans="1:18" ht="105">
       <c r="A88">
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B88" t="s">
@@ -16569,6 +16800,7 @@
     </row>
     <row r="89" spans="1:18" ht="30">
       <c r="A89">
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B89" t="s">
@@ -16592,6 +16824,7 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90">
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B90" t="s">
@@ -16615,6 +16848,7 @@
     </row>
     <row r="91" spans="1:18" ht="30">
       <c r="A91">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B91" t="s">
@@ -16641,6 +16875,7 @@
     </row>
     <row r="92" spans="1:18" ht="45.75">
       <c r="A92">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B92" t="s">
@@ -16676,6 +16911,7 @@
     </row>
     <row r="93" spans="1:18" ht="60.75">
       <c r="A93">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B93" t="s">
@@ -16706,6 +16942,7 @@
     </row>
     <row r="94" spans="1:18" ht="76.5">
       <c r="A94">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B94" t="s">
@@ -16747,6 +16984,7 @@
     </row>
     <row r="95" spans="1:18" ht="30">
       <c r="A95">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B95" t="s">
@@ -16761,6 +16999,9 @@
       <c r="E95">
         <v>2</v>
       </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
       <c r="L95" t="s">
         <v>7</v>
       </c>
@@ -16779,6 +17020,7 @@
     </row>
     <row r="96" spans="1:18" ht="45">
       <c r="A96">
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B96" t="s">
@@ -16811,6 +17053,7 @@
     </row>
     <row r="97" spans="1:18" ht="45">
       <c r="A97">
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B97" t="s">
@@ -16843,6 +17086,7 @@
     </row>
     <row r="98" spans="1:18" ht="30">
       <c r="A98">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B98" t="s">
@@ -16875,6 +17119,7 @@
     </row>
     <row r="99" spans="1:18" ht="76.5">
       <c r="A99">
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B99" t="s">
@@ -16898,6 +17143,7 @@
     </row>
     <row r="100" spans="1:18" ht="76.5">
       <c r="A100">
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B100" t="s">
@@ -16921,6 +17167,7 @@
     </row>
     <row r="101" spans="1:18" ht="76.5">
       <c r="A101">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B101" t="s">
@@ -16944,6 +17191,7 @@
     </row>
     <row r="102" spans="1:18" ht="76.5">
       <c r="A102">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B102" t="s">
@@ -16967,6 +17215,7 @@
     </row>
     <row r="103" spans="1:18" ht="60.75">
       <c r="A103">
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B103" t="s">
@@ -16990,6 +17239,7 @@
     </row>
     <row r="104" spans="1:18" ht="60">
       <c r="A104">
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B104" t="s">
@@ -17016,6 +17266,7 @@
     </row>
     <row r="105" spans="1:18" ht="30.75">
       <c r="A105">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B105" t="s">
@@ -17045,6 +17296,7 @@
     </row>
     <row r="106" spans="1:18" ht="60.75">
       <c r="A106">
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B106" t="s">
@@ -17077,6 +17329,7 @@
     </row>
     <row r="107" spans="1:18" ht="60">
       <c r="A107">
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B107" t="s">
@@ -17103,6 +17356,7 @@
     </row>
     <row r="108" spans="1:18" ht="45">
       <c r="A108">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B108" t="s">
@@ -17129,6 +17383,7 @@
     </row>
     <row r="109" spans="1:18" ht="30">
       <c r="A109">
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B109" t="s">
@@ -17158,6 +17413,7 @@
     </row>
     <row r="110" spans="1:18" ht="30.75">
       <c r="A110">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B110" t="s">
@@ -17184,6 +17440,7 @@
     </row>
     <row r="111" spans="1:18" ht="30">
       <c r="A111">
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B111" t="s">
@@ -17210,6 +17467,7 @@
     </row>
     <row r="112" spans="1:18" ht="106.5">
       <c r="A112">
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B112" t="s">
@@ -17242,6 +17500,7 @@
     </row>
     <row r="113" spans="1:18" ht="90">
       <c r="A113">
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B113" t="s">
@@ -17271,6 +17530,7 @@
     </row>
     <row r="114" spans="1:18" ht="60">
       <c r="A114">
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B114" t="s">
@@ -17297,6 +17557,7 @@
     </row>
     <row r="115" spans="1:18" ht="45">
       <c r="A115">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B115" t="s">
@@ -17323,6 +17584,7 @@
     </row>
     <row r="116" spans="1:18" ht="60">
       <c r="A116">
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B116" t="s">
@@ -17346,6 +17608,7 @@
     </row>
     <row r="117" spans="1:18" ht="75">
       <c r="A117">
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B117" t="s">
@@ -17372,6 +17635,7 @@
     </row>
     <row r="118" spans="1:18" ht="75">
       <c r="A118">
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B118" t="s">
@@ -17401,6 +17665,7 @@
     </row>
     <row r="119" spans="1:18" ht="60.75">
       <c r="A119">
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B119" t="s">
@@ -17430,6 +17695,7 @@
     </row>
     <row r="120" spans="1:18" ht="45">
       <c r="A120">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B120" t="s">
@@ -17456,6 +17722,7 @@
     </row>
     <row r="121" spans="1:18" ht="30">
       <c r="A121">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B121" t="s">
@@ -17485,6 +17752,7 @@
     </row>
     <row r="122" spans="1:18" ht="30">
       <c r="A122">
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B122" t="s">
@@ -17508,6 +17776,7 @@
     </row>
     <row r="123" spans="1:18" ht="76.5">
       <c r="A123">
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B123" t="s">
@@ -17537,6 +17806,7 @@
     </row>
     <row r="124" spans="1:18" ht="45.75">
       <c r="A124">
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B124" t="s">
@@ -17569,6 +17839,7 @@
     </row>
     <row r="125" spans="1:18" ht="75">
       <c r="A125">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B125" t="s">
@@ -17598,6 +17869,7 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126">
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B126" t="s">
@@ -17627,6 +17899,7 @@
     </row>
     <row r="127" spans="1:18" ht="45">
       <c r="A127">
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B127" t="s">
@@ -17653,6 +17926,7 @@
     </row>
     <row r="128" spans="1:18" ht="45">
       <c r="A128">
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B128" t="s">
@@ -17688,6 +17962,7 @@
     </row>
     <row r="129" spans="1:18" ht="45">
       <c r="A129">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B129" t="s">
@@ -17715,6 +17990,7 @@
     </row>
     <row r="130" spans="1:18" ht="30">
       <c r="A130">
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B130" t="s">
@@ -17742,6 +18018,7 @@
     </row>
     <row r="131" spans="1:18" ht="60">
       <c r="A131">
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B131" t="s">
@@ -17771,6 +18048,7 @@
     </row>
     <row r="132" spans="1:18" ht="60">
       <c r="A132">
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B132" t="s">
@@ -17803,6 +18081,7 @@
     </row>
     <row r="133" spans="1:18" ht="60">
       <c r="A133">
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B133" t="s">
@@ -17835,6 +18114,7 @@
     </row>
     <row r="134" spans="1:18" ht="45">
       <c r="A134">
+        <f t="shared" ref="A134:A197" si="2">ROW() - 5</f>
         <v>129</v>
       </c>
       <c r="B134" t="s">
@@ -17867,6 +18147,7 @@
     </row>
     <row r="135" spans="1:18" ht="30">
       <c r="A135">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B135" t="s">
@@ -17894,6 +18175,7 @@
     </row>
     <row r="136" spans="1:18" ht="30.75">
       <c r="A136">
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B136" t="s">
@@ -17929,6 +18211,7 @@
     </row>
     <row r="137" spans="1:18" ht="45.75">
       <c r="A137">
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B137" t="s">
@@ -17964,6 +18247,7 @@
     </row>
     <row r="138" spans="1:18" ht="45.75">
       <c r="A138">
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B138" t="s">
@@ -17997,6 +18281,7 @@
     </row>
     <row r="139" spans="1:18" ht="60.75">
       <c r="A139">
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B139" t="s">
@@ -18032,6 +18317,7 @@
     </row>
     <row r="140" spans="1:18" ht="45.75">
       <c r="A140">
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B140" t="s">
@@ -18065,6 +18351,7 @@
     </row>
     <row r="141" spans="1:18" ht="60.75">
       <c r="A141">
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B141" t="s">
@@ -18100,6 +18387,7 @@
     </row>
     <row r="142" spans="1:18" ht="60.75">
       <c r="A142">
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B142" t="s">
@@ -18126,6 +18414,7 @@
     </row>
     <row r="143" spans="1:18" ht="60.75">
       <c r="A143">
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B143" t="s">
@@ -18152,6 +18441,7 @@
     </row>
     <row r="144" spans="1:18" ht="45.75">
       <c r="A144">
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B144" t="s">
@@ -18176,6 +18466,7 @@
     </row>
     <row r="145" spans="1:18" ht="60.75">
       <c r="A145">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B145" t="s">
@@ -18205,6 +18496,7 @@
     </row>
     <row r="146" spans="1:18" ht="60">
       <c r="A146">
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B146" t="s">
@@ -18229,6 +18521,7 @@
     </row>
     <row r="147" spans="1:18" ht="30">
       <c r="A147">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B147" t="s">
@@ -18253,6 +18546,7 @@
     </row>
     <row r="148" spans="1:18" ht="30">
       <c r="A148">
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B148" t="s">
@@ -18277,6 +18571,7 @@
     </row>
     <row r="149" spans="1:18" ht="45">
       <c r="A149">
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B149" t="s">
@@ -18301,6 +18596,7 @@
     </row>
     <row r="150" spans="1:18" ht="30">
       <c r="A150">
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B150" t="s">
@@ -18325,6 +18621,7 @@
     </row>
     <row r="151" spans="1:18" ht="30">
       <c r="A151">
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B151" t="s">
@@ -18349,6 +18646,7 @@
     </row>
     <row r="152" spans="1:18" ht="45">
       <c r="A152">
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B152" t="s">
@@ -18373,6 +18671,7 @@
     </row>
     <row r="153" spans="1:18" ht="75">
       <c r="A153">
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B153" t="s">
@@ -18399,6 +18698,7 @@
     </row>
     <row r="154" spans="1:18" ht="30">
       <c r="A154">
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B154" t="s">
@@ -18423,6 +18723,7 @@
     </row>
     <row r="155" spans="1:18" ht="60.75">
       <c r="A155">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B155" t="s">
@@ -18458,6 +18759,7 @@
     </row>
     <row r="156" spans="1:18" ht="45.75">
       <c r="A156">
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B156" t="s">
@@ -18491,6 +18793,7 @@
     </row>
     <row r="157" spans="1:18" ht="45.75">
       <c r="A157">
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B157" t="s">
@@ -18524,6 +18827,7 @@
     </row>
     <row r="158" spans="1:18" ht="45">
       <c r="A158">
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B158" t="s">
@@ -18548,6 +18852,7 @@
     </row>
     <row r="159" spans="1:18" ht="60">
       <c r="A159">
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B159" t="s">
@@ -18572,6 +18877,7 @@
     </row>
     <row r="160" spans="1:18" ht="60">
       <c r="A160">
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B160" t="s">
@@ -18596,6 +18902,7 @@
     </row>
     <row r="161" spans="1:18" ht="183">
       <c r="A161">
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B161" t="s">
@@ -18620,6 +18927,7 @@
     </row>
     <row r="162" spans="1:18" ht="76.5">
       <c r="A162">
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B162" t="s">
@@ -18644,6 +18952,7 @@
     </row>
     <row r="163" spans="1:18" ht="76.5">
       <c r="A163">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B163" t="s">
@@ -18668,6 +18977,7 @@
     </row>
     <row r="164" spans="1:18" ht="180">
       <c r="A164">
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B164" t="s">
@@ -18701,6 +19011,7 @@
     </row>
     <row r="165" spans="1:18" ht="45.75">
       <c r="A165">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B165" t="s">
@@ -18725,6 +19036,7 @@
     </row>
     <row r="166" spans="1:18" ht="45.75">
       <c r="A166">
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B166" t="s">
@@ -18752,6 +19064,7 @@
     </row>
     <row r="167" spans="1:18" ht="45.75">
       <c r="A167">
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B167" t="s">
@@ -18787,6 +19100,7 @@
     </row>
     <row r="168" spans="1:18" ht="60">
       <c r="A168">
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B168" t="s">
@@ -18811,6 +19125,7 @@
     </row>
     <row r="169" spans="1:18" ht="45.75">
       <c r="A169">
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B169" t="s">
@@ -18838,6 +19153,7 @@
     </row>
     <row r="170" spans="1:18" ht="60">
       <c r="A170">
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B170" t="s">
@@ -18865,6 +19181,7 @@
     </row>
     <row r="171" spans="1:18" ht="30">
       <c r="A171">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B171" t="s">
@@ -18892,6 +19209,7 @@
     </row>
     <row r="172" spans="1:18" ht="45">
       <c r="A172">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B172" t="s">
@@ -18925,6 +19243,7 @@
     </row>
     <row r="173" spans="1:18" ht="76.5">
       <c r="A173">
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B173" t="s">
@@ -18954,6 +19273,7 @@
     </row>
     <row r="174" spans="1:18" ht="137.25">
       <c r="A174">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B174" t="s">
@@ -18987,6 +19307,7 @@
     </row>
     <row r="175" spans="1:18" ht="45.75">
       <c r="A175">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B175" t="s">
@@ -19011,6 +19332,7 @@
     </row>
     <row r="176" spans="1:18" ht="60">
       <c r="A176">
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B176" t="s">
@@ -19038,6 +19360,7 @@
     </row>
     <row r="177" spans="1:18" ht="30">
       <c r="A177">
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B177" t="s">
@@ -19065,6 +19388,7 @@
     </row>
     <row r="178" spans="1:18" ht="45">
       <c r="A178">
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B178" t="s">
@@ -19092,6 +19416,7 @@
     </row>
     <row r="179" spans="1:18" ht="45">
       <c r="A179">
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B179" t="s">
@@ -19119,6 +19444,7 @@
     </row>
     <row r="180" spans="1:18" ht="45.75">
       <c r="A180">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B180" t="s">
@@ -19152,6 +19478,7 @@
     </row>
     <row r="181" spans="1:18" ht="45.75">
       <c r="A181">
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B181" t="s">
@@ -19185,6 +19512,7 @@
     </row>
     <row r="182" spans="1:18" ht="45.75">
       <c r="A182">
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B182" t="s">
@@ -19218,6 +19546,7 @@
     </row>
     <row r="183" spans="1:18" ht="45.75">
       <c r="A183">
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B183" t="s">
@@ -19251,6 +19580,7 @@
     </row>
     <row r="184" spans="1:18" ht="45.75">
       <c r="A184">
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B184" t="s">
@@ -19284,6 +19614,7 @@
     </row>
     <row r="185" spans="1:18" ht="45.75">
       <c r="A185">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B185" t="s">
@@ -19317,6 +19648,7 @@
     </row>
     <row r="186" spans="1:18" ht="45.75">
       <c r="A186">
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B186" t="s">
@@ -19350,6 +19682,7 @@
     </row>
     <row r="187" spans="1:18" ht="45.75">
       <c r="A187">
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B187" t="s">
@@ -19383,6 +19716,7 @@
     </row>
     <row r="188" spans="1:18" ht="45.75">
       <c r="A188">
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B188" t="s">
@@ -19416,6 +19750,7 @@
     </row>
     <row r="189" spans="1:18" ht="45.75">
       <c r="A189">
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B189" t="s">
@@ -19449,6 +19784,7 @@
     </row>
     <row r="190" spans="1:18" ht="45.75">
       <c r="A190">
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B190" t="s">
@@ -19473,6 +19809,7 @@
     </row>
     <row r="191" spans="1:18" ht="30.75">
       <c r="A191">
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B191" t="s">
@@ -19500,6 +19837,7 @@
     </row>
     <row r="192" spans="1:18" ht="30.75">
       <c r="A192">
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B192" t="s">
@@ -19527,6 +19865,7 @@
     </row>
     <row r="193" spans="1:18" ht="45.75">
       <c r="A193">
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B193" t="s">
@@ -19554,6 +19893,7 @@
     </row>
     <row r="194" spans="1:18" ht="45.75">
       <c r="A194">
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B194" t="s">
@@ -19581,6 +19921,7 @@
     </row>
     <row r="195" spans="1:18" ht="30.75">
       <c r="A195">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B195" t="s">
@@ -19605,6 +19946,7 @@
     </row>
     <row r="196" spans="1:18" ht="30.75">
       <c r="A196">
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B196" t="s">
@@ -19629,6 +19971,7 @@
     </row>
     <row r="197" spans="1:18" ht="91.5">
       <c r="A197">
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B197" t="s">
@@ -19655,6 +19998,7 @@
     </row>
     <row r="198" spans="1:18" ht="91.5">
       <c r="A198">
+        <f t="shared" ref="A198:A247" si="3">ROW() - 5</f>
         <v>193</v>
       </c>
       <c r="B198" t="s">
@@ -19663,6 +20007,9 @@
       <c r="C198" t="s">
         <v>463</v>
       </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
       <c r="H198">
         <v>2</v>
       </c>
@@ -19690,6 +20037,7 @@
     </row>
     <row r="199" spans="1:18" ht="76.5">
       <c r="A199">
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="B199" t="s">
@@ -19698,6 +20046,9 @@
       <c r="C199" t="s">
         <v>466</v>
       </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
       <c r="G199">
         <v>2</v>
       </c>
@@ -19725,6 +20076,7 @@
     </row>
     <row r="200" spans="1:18" ht="60.75">
       <c r="A200">
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="B200" t="s">
@@ -19733,6 +20085,9 @@
       <c r="C200" t="s">
         <v>469</v>
       </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
       <c r="G200">
         <v>2</v>
       </c>
@@ -19760,6 +20115,7 @@
     </row>
     <row r="201" spans="1:18" ht="121.5">
       <c r="A201">
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B201" t="s">
@@ -19768,6 +20124,9 @@
       <c r="C201" t="s">
         <v>472</v>
       </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
       <c r="F201">
         <v>3</v>
       </c>
@@ -19795,6 +20154,7 @@
     </row>
     <row r="202" spans="1:18" ht="45.75">
       <c r="A202">
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B202" t="s">
@@ -19822,6 +20182,7 @@
     </row>
     <row r="203" spans="1:18" ht="45.75">
       <c r="A203">
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="B203" t="s">
@@ -19855,6 +20216,7 @@
     </row>
     <row r="204" spans="1:18" ht="45.75">
       <c r="A204">
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B204" t="s">
@@ -19863,6 +20225,9 @@
       <c r="C204" t="s">
         <v>479</v>
       </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
       <c r="F204">
         <v>2</v>
       </c>
@@ -19890,6 +20255,7 @@
     </row>
     <row r="205" spans="1:18" ht="60.75">
       <c r="A205">
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B205" t="s">
@@ -19917,6 +20283,7 @@
     </row>
     <row r="206" spans="1:18" ht="76.5">
       <c r="A206">
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="B206" t="s">
@@ -19944,6 +20311,7 @@
     </row>
     <row r="207" spans="1:18" ht="45.75">
       <c r="A207">
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B207" t="s">
@@ -19968,6 +20336,7 @@
     </row>
     <row r="208" spans="1:18" ht="45.75">
       <c r="A208">
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="B208" t="s">
@@ -19992,6 +20361,7 @@
     </row>
     <row r="209" spans="1:18" ht="45.75">
       <c r="A209">
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="B209" t="s">
@@ -20025,6 +20395,7 @@
     </row>
     <row r="210" spans="1:18" ht="60.75">
       <c r="A210">
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B210" t="s">
@@ -20058,6 +20429,7 @@
     </row>
     <row r="211" spans="1:18" ht="60.75">
       <c r="A211">
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B211" t="s">
@@ -20091,6 +20463,7 @@
     </row>
     <row r="212" spans="1:18" ht="45.75">
       <c r="A212">
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B212" t="s">
@@ -20124,6 +20497,7 @@
     </row>
     <row r="213" spans="1:18" ht="60.75">
       <c r="A213">
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B213" t="s">
@@ -20157,6 +20531,7 @@
     </row>
     <row r="214" spans="1:18" ht="60.75">
       <c r="A214">
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B214" t="s">
@@ -20190,6 +20565,7 @@
     </row>
     <row r="215" spans="1:18" ht="45.75">
       <c r="A215">
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B215" t="s">
@@ -20223,6 +20599,7 @@
     </row>
     <row r="216" spans="1:18" ht="59.25" customHeight="1">
       <c r="A216">
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B216" t="s">
@@ -20256,6 +20633,7 @@
     </row>
     <row r="217" spans="1:18" ht="57.75" customHeight="1">
       <c r="A217">
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B217" t="s">
@@ -20289,6 +20667,7 @@
     </row>
     <row r="218" spans="1:18" ht="52.5" customHeight="1">
       <c r="A218">
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="B218" t="s">
@@ -20322,6 +20701,7 @@
     </row>
     <row r="219" spans="1:18" ht="71.25" customHeight="1">
       <c r="A219">
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B219" t="s">
@@ -20355,6 +20735,7 @@
     </row>
     <row r="220" spans="1:18" ht="66.75" customHeight="1">
       <c r="A220">
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B220" t="s">
@@ -20388,6 +20769,7 @@
     </row>
     <row r="221" spans="1:18" ht="45.75">
       <c r="A221">
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B221" t="s">
@@ -20421,6 +20803,7 @@
     </row>
     <row r="222" spans="1:18" ht="60.75">
       <c r="A222">
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B222" t="s">
@@ -20454,6 +20837,7 @@
     </row>
     <row r="223" spans="1:18" ht="60.75">
       <c r="A223">
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B223" t="s">
@@ -20485,8 +20869,9 @@
       </c>
       <c r="R223" s="2"/>
     </row>
-    <row r="224" spans="1:18" ht="45.75">
+    <row r="224" spans="1:18" ht="60.75">
       <c r="A224">
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B224" t="s">
@@ -20495,6 +20880,9 @@
       <c r="C224" t="s">
         <v>520</v>
       </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
       <c r="I224">
         <v>1</v>
       </c>
@@ -20518,95 +20906,558 @@
       </c>
       <c r="R224" s="2"/>
     </row>
-    <row r="225" spans="17:18">
-      <c r="Q225" s="2"/>
+    <row r="225" spans="1:18" ht="60.75">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="B225" t="s">
+        <v>48</v>
+      </c>
+      <c r="C225" t="s">
+        <v>522</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>2</v>
+      </c>
+      <c r="L225" t="s">
+        <v>7</v>
+      </c>
+      <c r="M225" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="O225" t="s">
+        <v>17</v>
+      </c>
+      <c r="P225" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q225" s="2" t="s">
+        <v>523</v>
+      </c>
       <c r="R225" s="2"/>
     </row>
-    <row r="226" spans="17:18">
-      <c r="Q226" s="2"/>
+    <row r="226" spans="1:18" ht="45.75">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="B226" t="s">
+        <v>48</v>
+      </c>
+      <c r="C226" t="s">
+        <v>524</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="L226" t="s">
+        <v>7</v>
+      </c>
+      <c r="M226" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="O226" t="s">
+        <v>17</v>
+      </c>
+      <c r="P226" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q226" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="R226" s="2"/>
     </row>
-    <row r="227" spans="17:18">
-      <c r="Q227" s="2"/>
+    <row r="227" spans="1:18" ht="60.75">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="B227" t="s">
+        <v>48</v>
+      </c>
+      <c r="C227" t="s">
+        <v>526</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>2</v>
+      </c>
+      <c r="L227" t="s">
+        <v>7</v>
+      </c>
+      <c r="M227" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="O227" t="s">
+        <v>17</v>
+      </c>
+      <c r="P227" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q227" s="2" t="s">
+        <v>527</v>
+      </c>
       <c r="R227" s="2"/>
     </row>
-    <row r="228" spans="17:18">
-      <c r="Q228" s="2"/>
+    <row r="228" spans="1:18" ht="60.75">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="B228" t="s">
+        <v>48</v>
+      </c>
+      <c r="C228" t="s">
+        <v>528</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>1</v>
+      </c>
+      <c r="J228">
+        <v>2</v>
+      </c>
+      <c r="L228" t="s">
+        <v>7</v>
+      </c>
+      <c r="M228" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="O228" t="s">
+        <v>17</v>
+      </c>
+      <c r="P228" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q228" s="2" t="s">
+        <v>529</v>
+      </c>
       <c r="R228" s="2"/>
     </row>
-    <row r="229" spans="17:18">
-      <c r="Q229" s="2"/>
+    <row r="229" spans="1:18" ht="60.75">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="B229" t="s">
+        <v>90</v>
+      </c>
+      <c r="C229" t="s">
+        <v>530</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>3</v>
+      </c>
+      <c r="L229" t="s">
+        <v>5</v>
+      </c>
+      <c r="P229" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q229" s="57" t="s">
+        <v>531</v>
+      </c>
       <c r="R229" s="2"/>
     </row>
-    <row r="230" spans="17:18">
-      <c r="Q230" s="2"/>
+    <row r="230" spans="1:18" ht="106.5">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="B230" t="s">
+        <v>90</v>
+      </c>
+      <c r="C230" t="s">
+        <v>532</v>
+      </c>
+      <c r="G230">
+        <v>2</v>
+      </c>
+      <c r="J230">
+        <v>3</v>
+      </c>
+      <c r="L230" t="s">
+        <v>5</v>
+      </c>
+      <c r="P230" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q230" s="57" t="s">
+        <v>533</v>
+      </c>
       <c r="R230" s="2"/>
     </row>
-    <row r="231" spans="17:18">
-      <c r="Q231" s="2"/>
+    <row r="231" spans="1:18" ht="45.75">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="B231" t="s">
+        <v>90</v>
+      </c>
+      <c r="C231" t="s">
+        <v>534</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="J231">
+        <v>3</v>
+      </c>
+      <c r="L231" t="s">
+        <v>9</v>
+      </c>
+      <c r="P231" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q231" s="2" t="s">
+        <v>535</v>
+      </c>
       <c r="R231" s="2"/>
     </row>
-    <row r="232" spans="17:18">
-      <c r="Q232" s="2"/>
+    <row r="232" spans="1:18" ht="30.75">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="B232" t="s">
+        <v>90</v>
+      </c>
+      <c r="C232" t="s">
+        <v>536</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="L232" t="s">
+        <v>10</v>
+      </c>
+      <c r="P232" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q232" s="2" t="s">
+        <v>537</v>
+      </c>
       <c r="R232" s="2"/>
     </row>
-    <row r="233" spans="17:18">
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-    </row>
-    <row r="234" spans="17:18">
-      <c r="Q234" s="2"/>
+    <row r="233" spans="1:18" ht="45.75">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="B233" t="s">
+        <v>90</v>
+      </c>
+      <c r="C233" t="s">
+        <v>538</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>2</v>
+      </c>
+      <c r="L233" t="s">
+        <v>10</v>
+      </c>
+      <c r="P233" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q233" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="R233" s="55" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" ht="45.75">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="B234" t="s">
+        <v>90</v>
+      </c>
+      <c r="C234" t="s">
+        <v>541</v>
+      </c>
+      <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="J234">
+        <v>2</v>
+      </c>
+      <c r="L234" t="s">
+        <v>6</v>
+      </c>
+      <c r="P234" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q234" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="R234" s="2"/>
     </row>
-    <row r="235" spans="17:18">
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-    </row>
-    <row r="236" spans="17:18">
-      <c r="Q236" s="2"/>
-      <c r="R236" s="2"/>
-    </row>
-    <row r="237" spans="17:18">
-      <c r="Q237" s="2"/>
+    <row r="235" spans="1:18" ht="76.5">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="B235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C235" t="s">
+        <v>543</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235">
+        <v>3</v>
+      </c>
+      <c r="L235" t="s">
+        <v>3</v>
+      </c>
+      <c r="M235" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="O235" t="s">
+        <v>17</v>
+      </c>
+      <c r="P235" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q235" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="R235" s="55" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" ht="91.5">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="B236" t="s">
+        <v>90</v>
+      </c>
+      <c r="C236" t="s">
+        <v>546</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>2</v>
+      </c>
+      <c r="L236" t="s">
+        <v>8</v>
+      </c>
+      <c r="P236" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q236" s="57" t="s">
+        <v>547</v>
+      </c>
+      <c r="R236" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" ht="30.75">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="B237" t="s">
+        <v>90</v>
+      </c>
+      <c r="C237" t="s">
+        <v>549</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="J237">
+        <v>2</v>
+      </c>
+      <c r="L237" t="s">
+        <v>9</v>
+      </c>
+      <c r="P237" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q237" s="2" t="s">
+        <v>550</v>
+      </c>
       <c r="R237" s="2"/>
     </row>
-    <row r="238" spans="17:18">
-      <c r="Q238" s="2"/>
+    <row r="238" spans="1:18" ht="30.75">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="B238" t="s">
+        <v>90</v>
+      </c>
+      <c r="C238" t="s">
+        <v>551</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="J238">
+        <v>2</v>
+      </c>
+      <c r="L238" t="s">
+        <v>5</v>
+      </c>
+      <c r="P238" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q238" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="R238" s="2"/>
     </row>
-    <row r="239" spans="17:18">
-      <c r="Q239" s="2"/>
+    <row r="239" spans="1:18" ht="30.75">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="B239" t="s">
+        <v>90</v>
+      </c>
+      <c r="C239" t="s">
+        <v>553</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>2</v>
+      </c>
+      <c r="L239" t="s">
+        <v>5</v>
+      </c>
+      <c r="P239" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q239" s="2" t="s">
+        <v>552</v>
+      </c>
       <c r="R239" s="2"/>
     </row>
-    <row r="240" spans="17:18">
-      <c r="Q240" s="2"/>
+    <row r="240" spans="1:18" ht="30.75">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>235</v>
+      </c>
+      <c r="B240" t="s">
+        <v>90</v>
+      </c>
+      <c r="C240" t="s">
+        <v>554</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="L240" t="s">
+        <v>6</v>
+      </c>
+      <c r="P240" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q240" s="2" t="s">
+        <v>555</v>
+      </c>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="17:18">
+    <row r="241" spans="1:18">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
       <c r="Q241" s="2"/>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="17:18">
+    <row r="242" spans="1:18">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
       <c r="Q242" s="2"/>
       <c r="R242" s="2"/>
     </row>
-    <row r="243" spans="17:18">
+    <row r="243" spans="1:18">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
     </row>
-    <row r="244" spans="17:18">
+    <row r="244" spans="1:18">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>239</v>
+      </c>
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
     </row>
-    <row r="245" spans="17:18">
+    <row r="245" spans="1:18">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>240</v>
+      </c>
       <c r="Q245" s="2"/>
       <c r="R245" s="2"/>
     </row>
-    <row r="246" spans="17:18">
+    <row r="246" spans="1:18">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>241</v>
+      </c>
       <c r="Q246" s="2"/>
       <c r="R246" s="2"/>
     </row>
-    <row r="247" spans="17:18">
+    <row r="247" spans="1:18">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
       <c r="Q247" s="2"/>
       <c r="R247" s="2"/>
     </row>
@@ -20641,270 +21492,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="66" t="s">
-        <v>522</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="66" t="s">
+      <c r="B1" s="80" t="s">
+        <v>556</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="68"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
+      <c r="AQ1" s="81"/>
+      <c r="AR1" s="81"/>
+      <c r="AS1" s="81"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
+      <c r="AV1" s="81"/>
+      <c r="AW1" s="81"/>
+      <c r="AX1" s="81"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
+      <c r="BA1" s="81"/>
+      <c r="BB1" s="81"/>
+      <c r="BC1" s="82"/>
     </row>
     <row r="2" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B2" s="72" t="s">
-        <v>523</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="73" t="s">
-        <v>525</v>
-      </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="74" t="s">
-        <v>526</v>
-      </c>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="73" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="74" t="s">
-        <v>528</v>
-      </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="72" t="s">
-        <v>529</v>
-      </c>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="74" t="s">
-        <v>530</v>
-      </c>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="73"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="73" t="s">
-        <v>531</v>
-      </c>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="73"/>
-      <c r="BB2" s="73"/>
-      <c r="BC2" s="124"/>
-      <c r="BE2" s="122" t="s">
-        <v>532</v>
-      </c>
-      <c r="BF2" s="123"/>
+      <c r="H2" s="77" t="s">
+        <v>558</v>
+      </c>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="76" t="s">
+        <v>559</v>
+      </c>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="77" t="s">
+        <v>560</v>
+      </c>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="76" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="77" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76"/>
+      <c r="AL2" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM2" s="76"/>
+      <c r="AN2" s="76"/>
+      <c r="AO2" s="76"/>
+      <c r="AP2" s="76"/>
+      <c r="AQ2" s="76"/>
+      <c r="AR2" s="77" t="s">
+        <v>564</v>
+      </c>
+      <c r="AS2" s="76"/>
+      <c r="AT2" s="76"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="76"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="AY2" s="76"/>
+      <c r="AZ2" s="76"/>
+      <c r="BA2" s="76"/>
+      <c r="BB2" s="76"/>
+      <c r="BC2" s="79"/>
+      <c r="BE2" s="83" t="s">
+        <v>566</v>
+      </c>
+      <c r="BF2" s="84"/>
       <c r="BG2" s="23" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
     </row>
     <row r="3" spans="2:59">
       <c r="B3" s="9" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="69" t="str">
+      <c r="D3" s="74" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="10"/>
       <c r="H3" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="I3" s="33">
         <v>21</v>
       </c>
-      <c r="J3" s="92" t="str">
+      <c r="J3" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="93"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="10" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="69" t="str">
+      <c r="P3" s="74" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
       <c r="T3" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="U3" s="33">
         <v>56</v>
       </c>
-      <c r="V3" s="92" t="str">
+      <c r="V3" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="93"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="61"/>
       <c r="Z3" s="10" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="69" t="str">
+      <c r="AB3" s="74" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
       <c r="AF3" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AG3" s="33">
         <v>62</v>
       </c>
-      <c r="AH3" s="92" t="str">
+      <c r="AH3" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="92"/>
-      <c r="AJ3" s="92"/>
-      <c r="AK3" s="93"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="61"/>
       <c r="AL3" s="10" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="69" t="str">
+      <c r="AN3" s="74" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
       <c r="AR3" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AS3" s="33">
         <v>11</v>
       </c>
-      <c r="AT3" s="92" t="str">
+      <c r="AT3" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="92"/>
-      <c r="AV3" s="92"/>
-      <c r="AW3" s="93"/>
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="61"/>
       <c r="AX3" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AY3" s="33">
         <v>4</v>
       </c>
-      <c r="AZ3" s="92" t="str">
+      <c r="AZ3" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="92"/>
-      <c r="BB3" s="92"/>
-      <c r="BC3" s="93"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="60"/>
+      <c r="BC3" s="61"/>
       <c r="BE3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
@@ -20912,183 +21763,183 @@
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="70" t="str">
+      <c r="B4" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="70" t="str">
+      <c r="H4" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="69" t="str">
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="74" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="70" t="str">
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="69" t="str">
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="74" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="70" t="str">
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="69" t="str">
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="74" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="70" t="str">
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="74"/>
+      <c r="AQ4" s="74"/>
+      <c r="AR4" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="70" t="str">
+      <c r="AS4" s="74"/>
+      <c r="AT4" s="74"/>
+      <c r="AU4" s="74"/>
+      <c r="AV4" s="74"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="71"/>
+      <c r="AY4" s="74"/>
+      <c r="AZ4" s="74"/>
+      <c r="BA4" s="74"/>
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="110"/>
       <c r="BE4" s="20" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
-        <v>CREW</v>
+        <v>STRATEGY</v>
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="109" t="str">
+      <c r="B5" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="109" t="str">
+      <c r="H5" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="110" t="str">
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="109" t="str">
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="110"/>
-      <c r="V5" s="110"/>
-      <c r="W5" s="110"/>
-      <c r="X5" s="110"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="110" t="str">
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="110"/>
-      <c r="AB5" s="110"/>
-      <c r="AC5" s="110"/>
-      <c r="AD5" s="110"/>
-      <c r="AE5" s="110"/>
-      <c r="AF5" s="109" t="str">
+      <c r="AA5" s="112"/>
+      <c r="AB5" s="112"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="110"/>
-      <c r="AH5" s="110"/>
-      <c r="AI5" s="110"/>
-      <c r="AJ5" s="110"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="110" t="str">
+      <c r="AG5" s="112"/>
+      <c r="AH5" s="112"/>
+      <c r="AI5" s="112"/>
+      <c r="AJ5" s="112"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="110"/>
-      <c r="AN5" s="110"/>
-      <c r="AO5" s="110"/>
-      <c r="AP5" s="110"/>
-      <c r="AQ5" s="110"/>
-      <c r="AR5" s="109" t="str">
+      <c r="AM5" s="112"/>
+      <c r="AN5" s="112"/>
+      <c r="AO5" s="112"/>
+      <c r="AP5" s="112"/>
+      <c r="AQ5" s="112"/>
+      <c r="AR5" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="110"/>
-      <c r="AT5" s="110"/>
-      <c r="AU5" s="110"/>
-      <c r="AV5" s="110"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="109" t="str">
+      <c r="AS5" s="112"/>
+      <c r="AT5" s="112"/>
+      <c r="AU5" s="112"/>
+      <c r="AV5" s="112"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="110"/>
-      <c r="AZ5" s="110"/>
-      <c r="BA5" s="110"/>
-      <c r="BB5" s="110"/>
-      <c r="BC5" s="111"/>
+      <c r="AY5" s="112"/>
+      <c r="AZ5" s="112"/>
+      <c r="BA5" s="112"/>
+      <c r="BB5" s="112"/>
+      <c r="BC5" s="113"/>
       <c r="BE5" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="BF5">
         <f>MAX('Card Designs'!A6:A199)</f>
@@ -21097,166 +21948,166 @@
     </row>
     <row r="6" spans="2:59">
       <c r="B6" s="28" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="AK6" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="AL6" s="29" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="AQ6" s="31" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AU6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AV6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="AW6" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="BA6" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="BB6" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="BC6" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="2:59">
@@ -21478,228 +22329,228 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="71"/>
-      <c r="AL8" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="76" t="s">
-        <v>542</v>
-      </c>
-      <c r="AS8" s="77"/>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="78"/>
-      <c r="AX8" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BB8" s="69"/>
-      <c r="BC8" s="71"/>
+      <c r="H8" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="106" t="s">
+        <v>576</v>
+      </c>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="108"/>
+      <c r="AX8" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="110"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="60" t="str">
+      <c r="B9" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="60" t="str">
+      <c r="H9" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="61" t="str">
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="86" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Engage: Medic + 3
 Engage: Repair ship by 100</v>
       </c>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="60" t="str">
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Engage: Medic + 1
 Engage: Repair ship by 100</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="61" t="str">
+      <c r="U9" s="86"/>
+      <c r="V9" s="86"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="86" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="61"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="60" t="str">
+      <c r="AA9" s="86"/>
+      <c r="AB9" s="86"/>
+      <c r="AC9" s="86"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Engage: Handling + 2
 Engage: Repair ship by 100</v>
       </c>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="61"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="61" t="str">
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="86" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="61"/>
-      <c r="AO9" s="61"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="60" t="str">
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Engage: Medical + 3</v>
       </c>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="60" t="str">
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Engage: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="62"/>
+      <c r="AY9" s="86"/>
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="87"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="61"/>
-      <c r="BA10" s="61"/>
-      <c r="BB10" s="61"/>
-      <c r="BC10" s="62"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="86"/>
+      <c r="S10" s="86"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="86"/>
+      <c r="V10" s="86"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="86"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="86"/>
+      <c r="AA10" s="86"/>
+      <c r="AB10" s="86"/>
+      <c r="AC10" s="86"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="86"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="86"/>
+      <c r="AQ10" s="86"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="86"/>
+      <c r="AT10" s="86"/>
+      <c r="AU10" s="86"/>
+      <c r="AV10" s="86"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="86"/>
+      <c r="AZ10" s="86"/>
+      <c r="BA10" s="86"/>
+      <c r="BB10" s="86"/>
+      <c r="BC10" s="87"/>
       <c r="BE10" s="50" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="BF10" s="51">
         <v>15</v>
@@ -21710,351 +22561,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="61"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="61"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="61"/>
-      <c r="BC11" s="62"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="86"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="86"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="86"/>
+      <c r="AA11" s="86"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="86"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="86"/>
+      <c r="AO11" s="86"/>
+      <c r="AP11" s="86"/>
+      <c r="AQ11" s="86"/>
+      <c r="AR11" s="85"/>
+      <c r="AS11" s="86"/>
+      <c r="AT11" s="86"/>
+      <c r="AU11" s="86"/>
+      <c r="AV11" s="86"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="86"/>
+      <c r="AZ11" s="86"/>
+      <c r="BA11" s="86"/>
+      <c r="BB11" s="86"/>
+      <c r="BC11" s="87"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="61"/>
-      <c r="AV12" s="61"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="61"/>
-      <c r="BB12" s="61"/>
-      <c r="BC12" s="62"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="86"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="86"/>
+      <c r="AO12" s="86"/>
+      <c r="AP12" s="86"/>
+      <c r="AQ12" s="86"/>
+      <c r="AR12" s="85"/>
+      <c r="AS12" s="86"/>
+      <c r="AT12" s="86"/>
+      <c r="AU12" s="86"/>
+      <c r="AV12" s="86"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="85"/>
+      <c r="AY12" s="86"/>
+      <c r="AZ12" s="86"/>
+      <c r="BA12" s="86"/>
+      <c r="BB12" s="86"/>
+      <c r="BC12" s="87"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="61"/>
-      <c r="AJ13" s="61"/>
-      <c r="AK13" s="62"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="61"/>
-      <c r="AN13" s="61"/>
-      <c r="AO13" s="61"/>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="61"/>
-      <c r="AU13" s="61"/>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="61"/>
-      <c r="BA13" s="61"/>
-      <c r="BB13" s="61"/>
-      <c r="BC13" s="62"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="86"/>
+      <c r="V13" s="86"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="86"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="86"/>
+      <c r="AA13" s="86"/>
+      <c r="AB13" s="86"/>
+      <c r="AC13" s="86"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="86"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="86"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="86"/>
+      <c r="AO13" s="86"/>
+      <c r="AP13" s="86"/>
+      <c r="AQ13" s="86"/>
+      <c r="AR13" s="85"/>
+      <c r="AS13" s="86"/>
+      <c r="AT13" s="86"/>
+      <c r="AU13" s="86"/>
+      <c r="AV13" s="86"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="85"/>
+      <c r="AY13" s="86"/>
+      <c r="AZ13" s="86"/>
+      <c r="BA13" s="86"/>
+      <c r="BB13" s="86"/>
+      <c r="BC13" s="87"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="61"/>
-      <c r="AO14" s="61"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="61"/>
-      <c r="BB14" s="61"/>
-      <c r="BC14" s="62"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="86"/>
+      <c r="V14" s="86"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="86"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="86"/>
+      <c r="AA14" s="86"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="86"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="86"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="86"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="86"/>
+      <c r="AO14" s="86"/>
+      <c r="AP14" s="86"/>
+      <c r="AQ14" s="86"/>
+      <c r="AR14" s="85"/>
+      <c r="AS14" s="86"/>
+      <c r="AT14" s="86"/>
+      <c r="AU14" s="86"/>
+      <c r="AV14" s="86"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="85"/>
+      <c r="AY14" s="86"/>
+      <c r="AZ14" s="86"/>
+      <c r="BA14" s="86"/>
+      <c r="BB14" s="86"/>
+      <c r="BC14" s="87"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="64"/>
-      <c r="AM15" s="64"/>
-      <c r="AN15" s="64"/>
-      <c r="AO15" s="64"/>
-      <c r="AP15" s="64"/>
-      <c r="AQ15" s="64"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="64"/>
-      <c r="AT15" s="64"/>
-      <c r="AU15" s="64"/>
-      <c r="AV15" s="64"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="64"/>
-      <c r="AZ15" s="64"/>
-      <c r="BA15" s="64"/>
-      <c r="BB15" s="64"/>
-      <c r="BC15" s="65"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="90"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="89"/>
+      <c r="AO15" s="89"/>
+      <c r="AP15" s="89"/>
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="90"/>
+      <c r="AX15" s="88"/>
+      <c r="AY15" s="89"/>
+      <c r="AZ15" s="89"/>
+      <c r="BA15" s="89"/>
+      <c r="BB15" s="89"/>
+      <c r="BC15" s="90"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="94" t="s">
-        <v>544</v>
-      </c>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95"/>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95"/>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="96"/>
+      <c r="B16" s="117" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="118"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="118"/>
+      <c r="AG16" s="118"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="118"/>
+      <c r="AJ16" s="118"/>
+      <c r="AK16" s="118"/>
+      <c r="AL16" s="118"/>
+      <c r="AM16" s="118"/>
+      <c r="AN16" s="118"/>
+      <c r="AO16" s="118"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="118"/>
+      <c r="AR16" s="118"/>
+      <c r="AS16" s="118"/>
+      <c r="AT16" s="118"/>
+      <c r="AU16" s="118"/>
+      <c r="AV16" s="118"/>
+      <c r="AW16" s="118"/>
+      <c r="AX16" s="118"/>
+      <c r="AY16" s="118"/>
+      <c r="AZ16" s="118"/>
+      <c r="BA16" s="118"/>
+      <c r="BB16" s="118"/>
+      <c r="BC16" s="119"/>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="97" t="s">
-        <v>545</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
+      <c r="B17" s="120" t="s">
+        <v>579</v>
+      </c>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -22099,24 +22950,24 @@
       <c r="AV17" s="34"/>
       <c r="AW17" s="35"/>
       <c r="AX17" s="38" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AY17" s="39"/>
-      <c r="AZ17" s="112" t="s">
+      <c r="AZ17" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="BA17" s="112"/>
-      <c r="BB17" s="112"/>
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63"/>
       <c r="BC17" s="40"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="100" t="s">
-        <v>546</v>
-      </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
+      <c r="B18" s="97" t="s">
+        <v>580</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -22125,24 +22976,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="81" t="e">
+      <c r="AX18" s="64" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="82"/>
-      <c r="AZ18" s="82"/>
-      <c r="BA18" s="82"/>
-      <c r="BB18" s="82"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
       <c r="BC18" s="41"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="103" t="s">
-        <v>547</v>
-      </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
+      <c r="B19" s="100" t="s">
+        <v>581</v>
+      </c>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="36"/>
       <c r="L19" s="36"/>
       <c r="R19" s="36"/>
@@ -22151,24 +23002,24 @@
       <c r="AJ19" s="36"/>
       <c r="AP19" s="36"/>
       <c r="AV19" s="36"/>
-      <c r="AX19" s="79" t="e">
+      <c r="AX19" s="66" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="80"/>
-      <c r="AZ19" s="80"/>
-      <c r="BA19" s="80"/>
-      <c r="BB19" s="80"/>
+      <c r="AY19" s="67"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
       <c r="BC19" s="42"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="106" t="s">
-        <v>548</v>
-      </c>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="108"/>
+      <c r="B20" s="123" t="s">
+        <v>582</v>
+      </c>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -22178,22 +23029,22 @@
       <c r="AP20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AX20" s="43" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AZ20" s="44" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="BA20" s="44" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="BB20" s="44" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="BC20" s="45" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="2:55">
@@ -22225,71 +23076,71 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="81" t="s">
-        <v>542</v>
-      </c>
-      <c r="AY22" s="82"/>
-      <c r="AZ22" s="82"/>
-      <c r="BA22" s="82"/>
-      <c r="BB22" s="82"/>
+      <c r="AX22" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="AY22" s="65"/>
+      <c r="AZ22" s="65"/>
+      <c r="BA22" s="65"/>
+      <c r="BB22" s="65"/>
       <c r="BC22" s="41"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="AX23" s="83" t="e">
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="AX23" s="68" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="84"/>
-      <c r="AZ23" s="84"/>
-      <c r="BA23" s="84"/>
-      <c r="BB23" s="84"/>
-      <c r="BC23" s="85"/>
+      <c r="AY23" s="69"/>
+      <c r="AZ23" s="69"/>
+      <c r="BA23" s="69"/>
+      <c r="BB23" s="69"/>
+      <c r="BC23" s="70"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="83"/>
-      <c r="AY24" s="84"/>
-      <c r="AZ24" s="84"/>
-      <c r="BA24" s="84"/>
-      <c r="BB24" s="84"/>
-      <c r="BC24" s="85"/>
+      <c r="AX24" s="68"/>
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="69"/>
+      <c r="BA24" s="69"/>
+      <c r="BB24" s="69"/>
+      <c r="BC24" s="70"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="83"/>
-      <c r="AY25" s="84"/>
-      <c r="AZ25" s="84"/>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="84"/>
-      <c r="BC25" s="85"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="69"/>
+      <c r="AZ25" s="69"/>
+      <c r="BA25" s="69"/>
+      <c r="BB25" s="69"/>
+      <c r="BC25" s="70"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="84"/>
-      <c r="AZ26" s="84"/>
-      <c r="BA26" s="84"/>
-      <c r="BB26" s="84"/>
-      <c r="BC26" s="85"/>
+      <c r="AX26" s="68"/>
+      <c r="AY26" s="69"/>
+      <c r="AZ26" s="69"/>
+      <c r="BA26" s="69"/>
+      <c r="BB26" s="69"/>
+      <c r="BC26" s="70"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="86"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="87"/>
-      <c r="BA27" s="87"/>
-      <c r="BB27" s="87"/>
-      <c r="BC27" s="88"/>
+      <c r="AX27" s="71"/>
+      <c r="AY27" s="72"/>
+      <c r="AZ27" s="72"/>
+      <c r="BA27" s="72"/>
+      <c r="BB27" s="72"/>
+      <c r="BC27" s="73"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="47" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -22338,70 +23189,70 @@
       <c r="AU28" s="37"/>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
-      <c r="AX28" s="89" t="s">
-        <v>549</v>
-      </c>
-      <c r="AY28" s="90"/>
-      <c r="AZ28" s="90"/>
-      <c r="BA28" s="90"/>
-      <c r="BB28" s="90"/>
-      <c r="BC28" s="91"/>
+      <c r="AX28" s="114" t="s">
+        <v>583</v>
+      </c>
+      <c r="AY28" s="115"/>
+      <c r="AZ28" s="115"/>
+      <c r="BA28" s="115"/>
+      <c r="BB28" s="115"/>
+      <c r="BC28" s="116"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="38" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="40"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="81" t="e">
+      <c r="B30" s="64" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="41"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="79" t="e">
+      <c r="B31" s="66" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="42"/>
       <c r="BC31" s="8"/>
     </row>
     <row r="32" spans="2:55">
       <c r="B32" s="43" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="BC32" s="8"/>
     </row>
@@ -22433,83 +23284,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="81" t="s">
-        <v>542</v>
-      </c>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
+      <c r="B34" s="64" t="s">
+        <v>576</v>
+      </c>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="41"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="83" t="e">
+      <c r="B35" s="68" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="85"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="70"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="84"/>
-      <c r="G36" s="85"/>
-      <c r="AX36" s="119" t="s">
-        <v>548</v>
-      </c>
-      <c r="AY36" s="120"/>
-      <c r="AZ36" s="120"/>
-      <c r="BA36" s="120"/>
-      <c r="BB36" s="120"/>
-      <c r="BC36" s="121"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="AX36" s="103" t="s">
+        <v>582</v>
+      </c>
+      <c r="AY36" s="104"/>
+      <c r="AZ36" s="104"/>
+      <c r="BA36" s="104"/>
+      <c r="BB36" s="104"/>
+      <c r="BC36" s="105"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="85"/>
-      <c r="AX37" s="103" t="s">
-        <v>547</v>
-      </c>
-      <c r="AY37" s="104"/>
-      <c r="AZ37" s="104"/>
-      <c r="BA37" s="104"/>
-      <c r="BB37" s="104"/>
-      <c r="BC37" s="105"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="70"/>
+      <c r="AX37" s="100" t="s">
+        <v>581</v>
+      </c>
+      <c r="AY37" s="101"/>
+      <c r="AZ37" s="101"/>
+      <c r="BA37" s="101"/>
+      <c r="BB37" s="101"/>
+      <c r="BC37" s="102"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="85"/>
-      <c r="AX38" s="100" t="s">
-        <v>546</v>
-      </c>
-      <c r="AY38" s="101"/>
-      <c r="AZ38" s="101"/>
-      <c r="BA38" s="101"/>
-      <c r="BB38" s="101"/>
-      <c r="BC38" s="102"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="70"/>
+      <c r="AX38" s="97" t="s">
+        <v>580</v>
+      </c>
+      <c r="AY38" s="98"/>
+      <c r="AZ38" s="98"/>
+      <c r="BA38" s="98"/>
+      <c r="BB38" s="98"/>
+      <c r="BC38" s="99"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="86"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="88"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -22552,654 +23403,654 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="116" t="s">
-        <v>545</v>
-      </c>
-      <c r="AY39" s="117"/>
-      <c r="AZ39" s="117"/>
-      <c r="BA39" s="117"/>
-      <c r="BB39" s="117"/>
-      <c r="BC39" s="118"/>
+      <c r="AX39" s="94" t="s">
+        <v>579</v>
+      </c>
+      <c r="AY39" s="95"/>
+      <c r="AZ39" s="95"/>
+      <c r="BA39" s="95"/>
+      <c r="BB39" s="95"/>
+      <c r="BC39" s="96"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="113" t="s">
-        <v>550</v>
-      </c>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="114"/>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="114"/>
-      <c r="S40" s="114"/>
-      <c r="T40" s="114"/>
-      <c r="U40" s="114"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="114"/>
-      <c r="Y40" s="114"/>
-      <c r="Z40" s="114"/>
-      <c r="AA40" s="114"/>
-      <c r="AB40" s="114"/>
-      <c r="AC40" s="114"/>
-      <c r="AD40" s="114"/>
-      <c r="AE40" s="114"/>
-      <c r="AF40" s="114"/>
-      <c r="AG40" s="114"/>
-      <c r="AH40" s="114"/>
-      <c r="AI40" s="114"/>
-      <c r="AJ40" s="114"/>
-      <c r="AK40" s="114"/>
-      <c r="AL40" s="114"/>
-      <c r="AM40" s="114"/>
-      <c r="AN40" s="114"/>
-      <c r="AO40" s="114"/>
-      <c r="AP40" s="114"/>
-      <c r="AQ40" s="114"/>
-      <c r="AR40" s="114"/>
-      <c r="AS40" s="114"/>
-      <c r="AT40" s="114"/>
-      <c r="AU40" s="114"/>
-      <c r="AV40" s="114"/>
-      <c r="AW40" s="114"/>
-      <c r="AX40" s="114"/>
-      <c r="AY40" s="114"/>
-      <c r="AZ40" s="114"/>
-      <c r="BA40" s="114"/>
-      <c r="BB40" s="114"/>
-      <c r="BC40" s="115"/>
+      <c r="B40" s="91" t="s">
+        <v>584</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+      <c r="AA40" s="92"/>
+      <c r="AB40" s="92"/>
+      <c r="AC40" s="92"/>
+      <c r="AD40" s="92"/>
+      <c r="AE40" s="92"/>
+      <c r="AF40" s="92"/>
+      <c r="AG40" s="92"/>
+      <c r="AH40" s="92"/>
+      <c r="AI40" s="92"/>
+      <c r="AJ40" s="92"/>
+      <c r="AK40" s="92"/>
+      <c r="AL40" s="92"/>
+      <c r="AM40" s="92"/>
+      <c r="AN40" s="92"/>
+      <c r="AO40" s="92"/>
+      <c r="AP40" s="92"/>
+      <c r="AQ40" s="92"/>
+      <c r="AR40" s="92"/>
+      <c r="AS40" s="92"/>
+      <c r="AT40" s="92"/>
+      <c r="AU40" s="92"/>
+      <c r="AV40" s="92"/>
+      <c r="AW40" s="92"/>
+      <c r="AX40" s="92"/>
+      <c r="AY40" s="92"/>
+      <c r="AZ40" s="92"/>
+      <c r="BA40" s="92"/>
+      <c r="BB40" s="92"/>
+      <c r="BC40" s="93"/>
     </row>
     <row r="41" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B41" s="66" t="s">
-        <v>522</v>
-      </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
-      <c r="R41" s="67"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="67"/>
-      <c r="AE41" s="67"/>
-      <c r="AF41" s="67"/>
-      <c r="AG41" s="67"/>
-      <c r="AH41" s="67"/>
-      <c r="AI41" s="67"/>
-      <c r="AJ41" s="67"/>
-      <c r="AK41" s="68"/>
-      <c r="AL41" s="66" t="s">
+      <c r="B41" s="80" t="s">
+        <v>556</v>
+      </c>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="81"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="81"/>
+      <c r="V41" s="81"/>
+      <c r="W41" s="81"/>
+      <c r="X41" s="81"/>
+      <c r="Y41" s="81"/>
+      <c r="Z41" s="81"/>
+      <c r="AA41" s="81"/>
+      <c r="AB41" s="81"/>
+      <c r="AC41" s="81"/>
+      <c r="AD41" s="81"/>
+      <c r="AE41" s="81"/>
+      <c r="AF41" s="81"/>
+      <c r="AG41" s="81"/>
+      <c r="AH41" s="81"/>
+      <c r="AI41" s="81"/>
+      <c r="AJ41" s="81"/>
+      <c r="AK41" s="82"/>
+      <c r="AL41" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AM41" s="67"/>
-      <c r="AN41" s="67"/>
-      <c r="AO41" s="67"/>
-      <c r="AP41" s="67"/>
-      <c r="AQ41" s="67"/>
-      <c r="AR41" s="67"/>
-      <c r="AS41" s="67"/>
-      <c r="AT41" s="67"/>
-      <c r="AU41" s="67"/>
-      <c r="AV41" s="67"/>
-      <c r="AW41" s="67"/>
-      <c r="AX41" s="67"/>
-      <c r="AY41" s="67"/>
-      <c r="AZ41" s="67"/>
-      <c r="BA41" s="67"/>
-      <c r="BB41" s="67"/>
-      <c r="BC41" s="68"/>
+      <c r="AM41" s="81"/>
+      <c r="AN41" s="81"/>
+      <c r="AO41" s="81"/>
+      <c r="AP41" s="81"/>
+      <c r="AQ41" s="81"/>
+      <c r="AR41" s="81"/>
+      <c r="AS41" s="81"/>
+      <c r="AT41" s="81"/>
+      <c r="AU41" s="81"/>
+      <c r="AV41" s="81"/>
+      <c r="AW41" s="81"/>
+      <c r="AX41" s="81"/>
+      <c r="AY41" s="81"/>
+      <c r="AZ41" s="81"/>
+      <c r="BA41" s="81"/>
+      <c r="BB41" s="81"/>
+      <c r="BC41" s="82"/>
     </row>
     <row r="42" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B42" s="72" t="s">
-        <v>523</v>
-      </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
+      <c r="B42" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="27"/>
-      <c r="H42" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="73"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="73" t="s">
-        <v>525</v>
-      </c>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
-      <c r="Q42" s="73"/>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73"/>
-      <c r="T42" s="74" t="s">
-        <v>526</v>
-      </c>
-      <c r="U42" s="73"/>
-      <c r="V42" s="73"/>
-      <c r="W42" s="73"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="75"/>
-      <c r="Z42" s="73" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA42" s="73"/>
-      <c r="AB42" s="73"/>
-      <c r="AC42" s="73"/>
-      <c r="AD42" s="73"/>
-      <c r="AE42" s="73"/>
-      <c r="AF42" s="74" t="s">
-        <v>528</v>
-      </c>
-      <c r="AG42" s="73"/>
-      <c r="AH42" s="73"/>
-      <c r="AI42" s="73"/>
-      <c r="AJ42" s="73"/>
-      <c r="AK42" s="73"/>
-      <c r="AL42" s="72" t="s">
-        <v>529</v>
-      </c>
-      <c r="AM42" s="73"/>
-      <c r="AN42" s="73"/>
-      <c r="AO42" s="73"/>
-      <c r="AP42" s="73"/>
-      <c r="AQ42" s="73"/>
-      <c r="AR42" s="74" t="s">
-        <v>530</v>
-      </c>
-      <c r="AS42" s="73"/>
-      <c r="AT42" s="73"/>
-      <c r="AU42" s="73"/>
-      <c r="AV42" s="73"/>
-      <c r="AW42" s="75"/>
-      <c r="AX42" s="73" t="s">
-        <v>531</v>
-      </c>
-      <c r="AY42" s="73"/>
-      <c r="AZ42" s="73"/>
-      <c r="BA42" s="73"/>
-      <c r="BB42" s="73"/>
-      <c r="BC42" s="124"/>
+      <c r="H42" s="77" t="s">
+        <v>558</v>
+      </c>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="76" t="s">
+        <v>559</v>
+      </c>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="77" t="s">
+        <v>560</v>
+      </c>
+      <c r="U42" s="76"/>
+      <c r="V42" s="76"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="78"/>
+      <c r="Z42" s="76" t="s">
+        <v>561</v>
+      </c>
+      <c r="AA42" s="76"/>
+      <c r="AB42" s="76"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="77" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG42" s="76"/>
+      <c r="AH42" s="76"/>
+      <c r="AI42" s="76"/>
+      <c r="AJ42" s="76"/>
+      <c r="AK42" s="76"/>
+      <c r="AL42" s="75" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM42" s="76"/>
+      <c r="AN42" s="76"/>
+      <c r="AO42" s="76"/>
+      <c r="AP42" s="76"/>
+      <c r="AQ42" s="76"/>
+      <c r="AR42" s="77" t="s">
+        <v>564</v>
+      </c>
+      <c r="AS42" s="76"/>
+      <c r="AT42" s="76"/>
+      <c r="AU42" s="76"/>
+      <c r="AV42" s="76"/>
+      <c r="AW42" s="78"/>
+      <c r="AX42" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="AY42" s="76"/>
+      <c r="AZ42" s="76"/>
+      <c r="BA42" s="76"/>
+      <c r="BB42" s="76"/>
+      <c r="BC42" s="79"/>
     </row>
     <row r="43" spans="2:55">
       <c r="B43" s="9" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="C43" s="26">
         <v>63</v>
       </c>
-      <c r="D43" s="69" t="str">
+      <c r="D43" s="74" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
       <c r="G43" s="10"/>
       <c r="H43" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="I43" s="33">
         <v>99</v>
       </c>
-      <c r="J43" s="92" t="str">
+      <c r="J43" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="93"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="61"/>
       <c r="N43" s="10" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="O43" s="26">
         <v>46</v>
       </c>
-      <c r="P43" s="69" t="str">
+      <c r="P43" s="74" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="Q43" s="69"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="69"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
       <c r="T43" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="U43" s="33">
         <v>56</v>
       </c>
-      <c r="V43" s="92" t="str">
+      <c r="V43" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="93"/>
+      <c r="W43" s="60"/>
+      <c r="X43" s="60"/>
+      <c r="Y43" s="61"/>
       <c r="Z43" s="10" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AA43" s="26">
         <v>99</v>
       </c>
-      <c r="AB43" s="69" t="str">
+      <c r="AB43" s="74" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC43" s="69"/>
-      <c r="AD43" s="69"/>
-      <c r="AE43" s="69"/>
+      <c r="AC43" s="74"/>
+      <c r="AD43" s="74"/>
+      <c r="AE43" s="74"/>
       <c r="AF43" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AG43" s="33">
         <v>62</v>
       </c>
-      <c r="AH43" s="92" t="str">
+      <c r="AH43" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI43" s="92"/>
-      <c r="AJ43" s="92"/>
-      <c r="AK43" s="93"/>
+      <c r="AI43" s="60"/>
+      <c r="AJ43" s="60"/>
+      <c r="AK43" s="61"/>
       <c r="AL43" s="10" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AM43" s="26">
         <v>82</v>
       </c>
-      <c r="AN43" s="69" t="str">
+      <c r="AN43" s="74" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO43" s="69"/>
-      <c r="AP43" s="69"/>
-      <c r="AQ43" s="69"/>
+      <c r="AO43" s="74"/>
+      <c r="AP43" s="74"/>
+      <c r="AQ43" s="74"/>
       <c r="AR43" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AS43" s="33">
         <v>11</v>
       </c>
-      <c r="AT43" s="92" t="str">
+      <c r="AT43" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU43" s="92"/>
-      <c r="AV43" s="92"/>
-      <c r="AW43" s="93"/>
+      <c r="AU43" s="60"/>
+      <c r="AV43" s="60"/>
+      <c r="AW43" s="61"/>
       <c r="AX43" s="32" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="AY43" s="33">
         <v>4</v>
       </c>
-      <c r="AZ43" s="92" t="str">
+      <c r="AZ43" s="60" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA43" s="92"/>
-      <c r="BB43" s="92"/>
-      <c r="BC43" s="93"/>
+      <c r="BA43" s="60"/>
+      <c r="BB43" s="60"/>
+      <c r="BC43" s="61"/>
     </row>
     <row r="44" spans="2:55">
-      <c r="B44" s="70" t="str">
+      <c r="B44" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),3)</f>
         <v>P Bot Bot</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="70" t="str">
+      <c r="H44" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="69" t="str">
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="74" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),3)</f>
         <v>Hull Breach</v>
       </c>
-      <c r="O44" s="69"/>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="69"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="70" t="str">
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U44" s="69"/>
-      <c r="V44" s="69"/>
-      <c r="W44" s="69"/>
-      <c r="X44" s="69"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="69" t="str">
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="110"/>
+      <c r="Z44" s="74" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA44" s="69"/>
-      <c r="AB44" s="69"/>
-      <c r="AC44" s="69"/>
-      <c r="AD44" s="69"/>
-      <c r="AE44" s="69"/>
-      <c r="AF44" s="70" t="str">
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG44" s="69"/>
-      <c r="AH44" s="69"/>
-      <c r="AI44" s="69"/>
-      <c r="AJ44" s="69"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="69" t="str">
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="74"/>
+      <c r="AI44" s="74"/>
+      <c r="AJ44" s="74"/>
+      <c r="AK44" s="110"/>
+      <c r="AL44" s="74" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM44" s="69"/>
-      <c r="AN44" s="69"/>
-      <c r="AO44" s="69"/>
-      <c r="AP44" s="69"/>
-      <c r="AQ44" s="69"/>
-      <c r="AR44" s="70" t="str">
+      <c r="AM44" s="74"/>
+      <c r="AN44" s="74"/>
+      <c r="AO44" s="74"/>
+      <c r="AP44" s="74"/>
+      <c r="AQ44" s="74"/>
+      <c r="AR44" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS44" s="69"/>
-      <c r="AT44" s="69"/>
-      <c r="AU44" s="69"/>
-      <c r="AV44" s="69"/>
-      <c r="AW44" s="71"/>
-      <c r="AX44" s="70" t="str">
+      <c r="AS44" s="74"/>
+      <c r="AT44" s="74"/>
+      <c r="AU44" s="74"/>
+      <c r="AV44" s="74"/>
+      <c r="AW44" s="110"/>
+      <c r="AX44" s="109" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY44" s="69"/>
-      <c r="AZ44" s="69"/>
-      <c r="BA44" s="69"/>
-      <c r="BB44" s="69"/>
-      <c r="BC44" s="71"/>
+      <c r="AY44" s="74"/>
+      <c r="AZ44" s="74"/>
+      <c r="BA44" s="74"/>
+      <c r="BB44" s="74"/>
+      <c r="BC44" s="110"/>
     </row>
     <row r="45" spans="2:55">
-      <c r="B45" s="109" t="str">
+      <c r="B45" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="109" t="str">
+      <c r="H45" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="110" t="str">
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
+      <c r="K45" s="112"/>
+      <c r="L45" s="112"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O45" s="110"/>
-      <c r="P45" s="110"/>
-      <c r="Q45" s="110"/>
-      <c r="R45" s="110"/>
-      <c r="S45" s="110"/>
-      <c r="T45" s="109" t="str">
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+      <c r="Q45" s="112"/>
+      <c r="R45" s="112"/>
+      <c r="S45" s="112"/>
+      <c r="T45" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U45" s="110"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="110"/>
-      <c r="X45" s="110"/>
-      <c r="Y45" s="111"/>
-      <c r="Z45" s="110" t="str">
+      <c r="U45" s="112"/>
+      <c r="V45" s="112"/>
+      <c r="W45" s="112"/>
+      <c r="X45" s="112"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA45" s="110"/>
-      <c r="AB45" s="110"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="110"/>
-      <c r="AE45" s="110"/>
-      <c r="AF45" s="109" t="str">
+      <c r="AA45" s="112"/>
+      <c r="AB45" s="112"/>
+      <c r="AC45" s="112"/>
+      <c r="AD45" s="112"/>
+      <c r="AE45" s="112"/>
+      <c r="AF45" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG45" s="110"/>
-      <c r="AH45" s="110"/>
-      <c r="AI45" s="110"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="111"/>
-      <c r="AL45" s="110" t="str">
+      <c r="AG45" s="112"/>
+      <c r="AH45" s="112"/>
+      <c r="AI45" s="112"/>
+      <c r="AJ45" s="112"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM45" s="110"/>
-      <c r="AN45" s="110"/>
-      <c r="AO45" s="110"/>
-      <c r="AP45" s="110"/>
-      <c r="AQ45" s="110"/>
-      <c r="AR45" s="109" t="str">
+      <c r="AM45" s="112"/>
+      <c r="AN45" s="112"/>
+      <c r="AO45" s="112"/>
+      <c r="AP45" s="112"/>
+      <c r="AQ45" s="112"/>
+      <c r="AR45" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS45" s="110"/>
-      <c r="AT45" s="110"/>
-      <c r="AU45" s="110"/>
-      <c r="AV45" s="110"/>
-      <c r="AW45" s="111"/>
-      <c r="AX45" s="109" t="str">
+      <c r="AS45" s="112"/>
+      <c r="AT45" s="112"/>
+      <c r="AU45" s="112"/>
+      <c r="AV45" s="112"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="111" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY45" s="110"/>
-      <c r="AZ45" s="110"/>
-      <c r="BA45" s="110"/>
-      <c r="BB45" s="110"/>
-      <c r="BC45" s="111"/>
+      <c r="AY45" s="112"/>
+      <c r="AZ45" s="112"/>
+      <c r="BA45" s="112"/>
+      <c r="BB45" s="112"/>
+      <c r="BC45" s="113"/>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="28" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="S46" s="31" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="Y46" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="AE46" s="31" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AG46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AH46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AI46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AJ46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="AK46" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="AL46" s="29" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AM46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AN46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AO46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AP46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="AQ46" s="31" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="AR46" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AS46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AT46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AU46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AV46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="AW46" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="AX46" s="16" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="AY46" s="14" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="AZ46" s="14" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="BA46" s="14" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="BB46" s="14" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="BC46" s="17" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
     </row>
     <row r="47" spans="2:55">
@@ -23421,509 +24272,620 @@
       </c>
     </row>
     <row r="48" spans="2:55">
-      <c r="B48" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
+      <c r="B48" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="69"/>
-      <c r="R48" s="69"/>
-      <c r="S48" s="69"/>
-      <c r="T48" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="U48" s="69"/>
-      <c r="V48" s="69"/>
-      <c r="W48" s="69"/>
-      <c r="X48" s="69"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="AA48" s="69"/>
-      <c r="AB48" s="69"/>
-      <c r="AC48" s="69"/>
-      <c r="AD48" s="69"/>
-      <c r="AE48" s="69"/>
-      <c r="AF48" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="AG48" s="69"/>
-      <c r="AH48" s="69"/>
-      <c r="AI48" s="69"/>
-      <c r="AJ48" s="69"/>
-      <c r="AK48" s="71"/>
-      <c r="AL48" s="69" t="s">
-        <v>542</v>
-      </c>
-      <c r="AM48" s="69"/>
-      <c r="AN48" s="69"/>
-      <c r="AO48" s="69"/>
-      <c r="AP48" s="69"/>
-      <c r="AQ48" s="69"/>
-      <c r="AR48" s="76" t="s">
-        <v>542</v>
-      </c>
-      <c r="AS48" s="77"/>
-      <c r="AT48" s="77"/>
-      <c r="AU48" s="77"/>
-      <c r="AV48" s="77"/>
-      <c r="AW48" s="78"/>
-      <c r="AX48" s="70" t="s">
-        <v>542</v>
-      </c>
-      <c r="AY48" s="69"/>
-      <c r="AZ48" s="69"/>
-      <c r="BA48" s="69"/>
-      <c r="BB48" s="69"/>
-      <c r="BC48" s="71"/>
+      <c r="H48" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="O48" s="74"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="U48" s="74"/>
+      <c r="V48" s="74"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="110"/>
+      <c r="Z48" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="AA48" s="74"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="74"/>
+      <c r="AD48" s="74"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG48" s="74"/>
+      <c r="AH48" s="74"/>
+      <c r="AI48" s="74"/>
+      <c r="AJ48" s="74"/>
+      <c r="AK48" s="110"/>
+      <c r="AL48" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="74"/>
+      <c r="AP48" s="74"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="106" t="s">
+        <v>576</v>
+      </c>
+      <c r="AS48" s="107"/>
+      <c r="AT48" s="107"/>
+      <c r="AU48" s="107"/>
+      <c r="AV48" s="107"/>
+      <c r="AW48" s="108"/>
+      <c r="AX48" s="109" t="s">
+        <v>576</v>
+      </c>
+      <c r="AY48" s="74"/>
+      <c r="AZ48" s="74"/>
+      <c r="BA48" s="74"/>
+      <c r="BB48" s="74"/>
+      <c r="BC48" s="110"/>
     </row>
     <row r="49" spans="2:55" ht="15" customHeight="1">
-      <c r="B49" s="60" t="str">
+      <c r="B49" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Engage: Assault + 2
 Engage: Repair ship by 100</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="60" t="str">
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="61"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="61" t="str">
+      <c r="I49" s="86"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="86"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="86" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="61"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
-      <c r="T49" s="60" t="str">
+      <c r="O49" s="86"/>
+      <c r="P49" s="86"/>
+      <c r="Q49" s="86"/>
+      <c r="R49" s="86"/>
+      <c r="S49" s="86"/>
+      <c r="T49" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Robot can't be used for gun slots.
 Engage: Medic + 1
 Engage: Repair ship by 100</v>
       </c>
-      <c r="U49" s="61"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="61" t="str">
+      <c r="U49" s="86"/>
+      <c r="V49" s="86"/>
+      <c r="W49" s="86"/>
+      <c r="X49" s="86"/>
+      <c r="Y49" s="87"/>
+      <c r="Z49" s="86" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA49" s="61"/>
-      <c r="AB49" s="61"/>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="60" t="str">
+      <c r="AA49" s="86"/>
+      <c r="AB49" s="86"/>
+      <c r="AC49" s="86"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="86"/>
+      <c r="AF49" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Engage: Handling + 2
 Engage: Repair ship by 100</v>
       </c>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="61"/>
-      <c r="AI49" s="61"/>
-      <c r="AJ49" s="61"/>
-      <c r="AK49" s="62"/>
-      <c r="AL49" s="61" t="str">
+      <c r="AG49" s="86"/>
+      <c r="AH49" s="86"/>
+      <c r="AI49" s="86"/>
+      <c r="AJ49" s="86"/>
+      <c r="AK49" s="87"/>
+      <c r="AL49" s="86" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM49" s="61"/>
-      <c r="AN49" s="61"/>
-      <c r="AO49" s="61"/>
-      <c r="AP49" s="61"/>
-      <c r="AQ49" s="61"/>
-      <c r="AR49" s="60" t="str">
+      <c r="AM49" s="86"/>
+      <c r="AN49" s="86"/>
+      <c r="AO49" s="86"/>
+      <c r="AP49" s="86"/>
+      <c r="AQ49" s="86"/>
+      <c r="AR49" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Engage: Medical + 3</v>
       </c>
-      <c r="AS49" s="61"/>
-      <c r="AT49" s="61"/>
-      <c r="AU49" s="61"/>
-      <c r="AV49" s="61"/>
-      <c r="AW49" s="62"/>
-      <c r="AX49" s="60" t="str">
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="87"/>
+      <c r="AX49" s="85" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Engage: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY49" s="61"/>
-      <c r="AZ49" s="61"/>
-      <c r="BA49" s="61"/>
-      <c r="BB49" s="61"/>
-      <c r="BC49" s="62"/>
+      <c r="AY49" s="86"/>
+      <c r="AZ49" s="86"/>
+      <c r="BA49" s="86"/>
+      <c r="BB49" s="86"/>
+      <c r="BC49" s="87"/>
     </row>
     <row r="50" spans="2:55">
-      <c r="B50" s="60"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="60"/>
-      <c r="U50" s="61"/>
-      <c r="V50" s="61"/>
-      <c r="W50" s="61"/>
-      <c r="X50" s="61"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="61"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="61"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="60"/>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="61"/>
-      <c r="AI50" s="61"/>
-      <c r="AJ50" s="61"/>
-      <c r="AK50" s="62"/>
-      <c r="AL50" s="61"/>
-      <c r="AM50" s="61"/>
-      <c r="AN50" s="61"/>
-      <c r="AO50" s="61"/>
-      <c r="AP50" s="61"/>
-      <c r="AQ50" s="61"/>
-      <c r="AR50" s="60"/>
-      <c r="AS50" s="61"/>
-      <c r="AT50" s="61"/>
-      <c r="AU50" s="61"/>
-      <c r="AV50" s="61"/>
-      <c r="AW50" s="62"/>
-      <c r="AX50" s="60"/>
-      <c r="AY50" s="61"/>
-      <c r="AZ50" s="61"/>
-      <c r="BA50" s="61"/>
-      <c r="BB50" s="61"/>
-      <c r="BC50" s="62"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="86"/>
+      <c r="O50" s="86"/>
+      <c r="P50" s="86"/>
+      <c r="Q50" s="86"/>
+      <c r="R50" s="86"/>
+      <c r="S50" s="86"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="86"/>
+      <c r="V50" s="86"/>
+      <c r="W50" s="86"/>
+      <c r="X50" s="86"/>
+      <c r="Y50" s="87"/>
+      <c r="Z50" s="86"/>
+      <c r="AA50" s="86"/>
+      <c r="AB50" s="86"/>
+      <c r="AC50" s="86"/>
+      <c r="AD50" s="86"/>
+      <c r="AE50" s="86"/>
+      <c r="AF50" s="85"/>
+      <c r="AG50" s="86"/>
+      <c r="AH50" s="86"/>
+      <c r="AI50" s="86"/>
+      <c r="AJ50" s="86"/>
+      <c r="AK50" s="87"/>
+      <c r="AL50" s="86"/>
+      <c r="AM50" s="86"/>
+      <c r="AN50" s="86"/>
+      <c r="AO50" s="86"/>
+      <c r="AP50" s="86"/>
+      <c r="AQ50" s="86"/>
+      <c r="AR50" s="85"/>
+      <c r="AS50" s="86"/>
+      <c r="AT50" s="86"/>
+      <c r="AU50" s="86"/>
+      <c r="AV50" s="86"/>
+      <c r="AW50" s="87"/>
+      <c r="AX50" s="85"/>
+      <c r="AY50" s="86"/>
+      <c r="AZ50" s="86"/>
+      <c r="BA50" s="86"/>
+      <c r="BB50" s="86"/>
+      <c r="BC50" s="87"/>
     </row>
     <row r="51" spans="2:55">
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="60"/>
-      <c r="U51" s="61"/>
-      <c r="V51" s="61"/>
-      <c r="W51" s="61"/>
-      <c r="X51" s="61"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="61"/>
-      <c r="AA51" s="61"/>
-      <c r="AB51" s="61"/>
-      <c r="AC51" s="61"/>
-      <c r="AD51" s="61"/>
-      <c r="AE51" s="61"/>
-      <c r="AF51" s="60"/>
-      <c r="AG51" s="61"/>
-      <c r="AH51" s="61"/>
-      <c r="AI51" s="61"/>
-      <c r="AJ51" s="61"/>
-      <c r="AK51" s="62"/>
-      <c r="AL51" s="61"/>
-      <c r="AM51" s="61"/>
-      <c r="AN51" s="61"/>
-      <c r="AO51" s="61"/>
-      <c r="AP51" s="61"/>
-      <c r="AQ51" s="61"/>
-      <c r="AR51" s="60"/>
-      <c r="AS51" s="61"/>
-      <c r="AT51" s="61"/>
-      <c r="AU51" s="61"/>
-      <c r="AV51" s="61"/>
-      <c r="AW51" s="62"/>
-      <c r="AX51" s="60"/>
-      <c r="AY51" s="61"/>
-      <c r="AZ51" s="61"/>
-      <c r="BA51" s="61"/>
-      <c r="BB51" s="61"/>
-      <c r="BC51" s="62"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="86"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="86"/>
+      <c r="W51" s="86"/>
+      <c r="X51" s="86"/>
+      <c r="Y51" s="87"/>
+      <c r="Z51" s="86"/>
+      <c r="AA51" s="86"/>
+      <c r="AB51" s="86"/>
+      <c r="AC51" s="86"/>
+      <c r="AD51" s="86"/>
+      <c r="AE51" s="86"/>
+      <c r="AF51" s="85"/>
+      <c r="AG51" s="86"/>
+      <c r="AH51" s="86"/>
+      <c r="AI51" s="86"/>
+      <c r="AJ51" s="86"/>
+      <c r="AK51" s="87"/>
+      <c r="AL51" s="86"/>
+      <c r="AM51" s="86"/>
+      <c r="AN51" s="86"/>
+      <c r="AO51" s="86"/>
+      <c r="AP51" s="86"/>
+      <c r="AQ51" s="86"/>
+      <c r="AR51" s="85"/>
+      <c r="AS51" s="86"/>
+      <c r="AT51" s="86"/>
+      <c r="AU51" s="86"/>
+      <c r="AV51" s="86"/>
+      <c r="AW51" s="87"/>
+      <c r="AX51" s="85"/>
+      <c r="AY51" s="86"/>
+      <c r="AZ51" s="86"/>
+      <c r="BA51" s="86"/>
+      <c r="BB51" s="86"/>
+      <c r="BC51" s="87"/>
     </row>
     <row r="52" spans="2:55">
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="61"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="61"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="60"/>
-      <c r="U52" s="61"/>
-      <c r="V52" s="61"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="61"/>
-      <c r="AF52" s="60"/>
-      <c r="AG52" s="61"/>
-      <c r="AH52" s="61"/>
-      <c r="AI52" s="61"/>
-      <c r="AJ52" s="61"/>
-      <c r="AK52" s="62"/>
-      <c r="AL52" s="61"/>
-      <c r="AM52" s="61"/>
-      <c r="AN52" s="61"/>
-      <c r="AO52" s="61"/>
-      <c r="AP52" s="61"/>
-      <c r="AQ52" s="61"/>
-      <c r="AR52" s="60"/>
-      <c r="AS52" s="61"/>
-      <c r="AT52" s="61"/>
-      <c r="AU52" s="61"/>
-      <c r="AV52" s="61"/>
-      <c r="AW52" s="62"/>
-      <c r="AX52" s="60"/>
-      <c r="AY52" s="61"/>
-      <c r="AZ52" s="61"/>
-      <c r="BA52" s="61"/>
-      <c r="BB52" s="61"/>
-      <c r="BC52" s="62"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="86"/>
+      <c r="L52" s="86"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="86"/>
+      <c r="O52" s="86"/>
+      <c r="P52" s="86"/>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="87"/>
+      <c r="Z52" s="86"/>
+      <c r="AA52" s="86"/>
+      <c r="AB52" s="86"/>
+      <c r="AC52" s="86"/>
+      <c r="AD52" s="86"/>
+      <c r="AE52" s="86"/>
+      <c r="AF52" s="85"/>
+      <c r="AG52" s="86"/>
+      <c r="AH52" s="86"/>
+      <c r="AI52" s="86"/>
+      <c r="AJ52" s="86"/>
+      <c r="AK52" s="87"/>
+      <c r="AL52" s="86"/>
+      <c r="AM52" s="86"/>
+      <c r="AN52" s="86"/>
+      <c r="AO52" s="86"/>
+      <c r="AP52" s="86"/>
+      <c r="AQ52" s="86"/>
+      <c r="AR52" s="85"/>
+      <c r="AS52" s="86"/>
+      <c r="AT52" s="86"/>
+      <c r="AU52" s="86"/>
+      <c r="AV52" s="86"/>
+      <c r="AW52" s="87"/>
+      <c r="AX52" s="85"/>
+      <c r="AY52" s="86"/>
+      <c r="AZ52" s="86"/>
+      <c r="BA52" s="86"/>
+      <c r="BB52" s="86"/>
+      <c r="BC52" s="87"/>
     </row>
     <row r="53" spans="2:55">
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="61"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="60"/>
-      <c r="U53" s="61"/>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="61"/>
-      <c r="AA53" s="61"/>
-      <c r="AB53" s="61"/>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="61"/>
-      <c r="AF53" s="60"/>
-      <c r="AG53" s="61"/>
-      <c r="AH53" s="61"/>
-      <c r="AI53" s="61"/>
-      <c r="AJ53" s="61"/>
-      <c r="AK53" s="62"/>
-      <c r="AL53" s="61"/>
-      <c r="AM53" s="61"/>
-      <c r="AN53" s="61"/>
-      <c r="AO53" s="61"/>
-      <c r="AP53" s="61"/>
-      <c r="AQ53" s="61"/>
-      <c r="AR53" s="60"/>
-      <c r="AS53" s="61"/>
-      <c r="AT53" s="61"/>
-      <c r="AU53" s="61"/>
-      <c r="AV53" s="61"/>
-      <c r="AW53" s="62"/>
-      <c r="AX53" s="60"/>
-      <c r="AY53" s="61"/>
-      <c r="AZ53" s="61"/>
-      <c r="BA53" s="61"/>
-      <c r="BB53" s="61"/>
-      <c r="BC53" s="62"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="86"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="87"/>
+      <c r="Z53" s="86"/>
+      <c r="AA53" s="86"/>
+      <c r="AB53" s="86"/>
+      <c r="AC53" s="86"/>
+      <c r="AD53" s="86"/>
+      <c r="AE53" s="86"/>
+      <c r="AF53" s="85"/>
+      <c r="AG53" s="86"/>
+      <c r="AH53" s="86"/>
+      <c r="AI53" s="86"/>
+      <c r="AJ53" s="86"/>
+      <c r="AK53" s="87"/>
+      <c r="AL53" s="86"/>
+      <c r="AM53" s="86"/>
+      <c r="AN53" s="86"/>
+      <c r="AO53" s="86"/>
+      <c r="AP53" s="86"/>
+      <c r="AQ53" s="86"/>
+      <c r="AR53" s="85"/>
+      <c r="AS53" s="86"/>
+      <c r="AT53" s="86"/>
+      <c r="AU53" s="86"/>
+      <c r="AV53" s="86"/>
+      <c r="AW53" s="87"/>
+      <c r="AX53" s="85"/>
+      <c r="AY53" s="86"/>
+      <c r="AZ53" s="86"/>
+      <c r="BA53" s="86"/>
+      <c r="BB53" s="86"/>
+      <c r="BC53" s="87"/>
     </row>
     <row r="54" spans="2:55">
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="60"/>
-      <c r="U54" s="61"/>
-      <c r="V54" s="61"/>
-      <c r="W54" s="61"/>
-      <c r="X54" s="61"/>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="61"/>
-      <c r="AA54" s="61"/>
-      <c r="AB54" s="61"/>
-      <c r="AC54" s="61"/>
-      <c r="AD54" s="61"/>
-      <c r="AE54" s="61"/>
-      <c r="AF54" s="60"/>
-      <c r="AG54" s="61"/>
-      <c r="AH54" s="61"/>
-      <c r="AI54" s="61"/>
-      <c r="AJ54" s="61"/>
-      <c r="AK54" s="62"/>
-      <c r="AL54" s="61"/>
-      <c r="AM54" s="61"/>
-      <c r="AN54" s="61"/>
-      <c r="AO54" s="61"/>
-      <c r="AP54" s="61"/>
-      <c r="AQ54" s="61"/>
-      <c r="AR54" s="60"/>
-      <c r="AS54" s="61"/>
-      <c r="AT54" s="61"/>
-      <c r="AU54" s="61"/>
-      <c r="AV54" s="61"/>
-      <c r="AW54" s="62"/>
-      <c r="AX54" s="60"/>
-      <c r="AY54" s="61"/>
-      <c r="AZ54" s="61"/>
-      <c r="BA54" s="61"/>
-      <c r="BB54" s="61"/>
-      <c r="BC54" s="62"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="86"/>
+      <c r="L54" s="86"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="86"/>
+      <c r="O54" s="86"/>
+      <c r="P54" s="86"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="86"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="86"/>
+      <c r="W54" s="86"/>
+      <c r="X54" s="86"/>
+      <c r="Y54" s="87"/>
+      <c r="Z54" s="86"/>
+      <c r="AA54" s="86"/>
+      <c r="AB54" s="86"/>
+      <c r="AC54" s="86"/>
+      <c r="AD54" s="86"/>
+      <c r="AE54" s="86"/>
+      <c r="AF54" s="85"/>
+      <c r="AG54" s="86"/>
+      <c r="AH54" s="86"/>
+      <c r="AI54" s="86"/>
+      <c r="AJ54" s="86"/>
+      <c r="AK54" s="87"/>
+      <c r="AL54" s="86"/>
+      <c r="AM54" s="86"/>
+      <c r="AN54" s="86"/>
+      <c r="AO54" s="86"/>
+      <c r="AP54" s="86"/>
+      <c r="AQ54" s="86"/>
+      <c r="AR54" s="85"/>
+      <c r="AS54" s="86"/>
+      <c r="AT54" s="86"/>
+      <c r="AU54" s="86"/>
+      <c r="AV54" s="86"/>
+      <c r="AW54" s="87"/>
+      <c r="AX54" s="85"/>
+      <c r="AY54" s="86"/>
+      <c r="AZ54" s="86"/>
+      <c r="BA54" s="86"/>
+      <c r="BB54" s="86"/>
+      <c r="BC54" s="87"/>
     </row>
     <row r="55" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="64"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="64"/>
-      <c r="L55" s="64"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="64"/>
-      <c r="O55" s="64"/>
-      <c r="P55" s="64"/>
-      <c r="Q55" s="64"/>
-      <c r="R55" s="64"/>
-      <c r="S55" s="64"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="64"/>
-      <c r="V55" s="64"/>
-      <c r="W55" s="64"/>
-      <c r="X55" s="64"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="64"/>
-      <c r="AA55" s="64"/>
-      <c r="AB55" s="64"/>
-      <c r="AC55" s="64"/>
-      <c r="AD55" s="64"/>
-      <c r="AE55" s="64"/>
-      <c r="AF55" s="63"/>
-      <c r="AG55" s="64"/>
-      <c r="AH55" s="64"/>
-      <c r="AI55" s="64"/>
-      <c r="AJ55" s="64"/>
-      <c r="AK55" s="65"/>
-      <c r="AL55" s="64"/>
-      <c r="AM55" s="64"/>
-      <c r="AN55" s="64"/>
-      <c r="AO55" s="64"/>
-      <c r="AP55" s="64"/>
-      <c r="AQ55" s="64"/>
-      <c r="AR55" s="63"/>
-      <c r="AS55" s="64"/>
-      <c r="AT55" s="64"/>
-      <c r="AU55" s="64"/>
-      <c r="AV55" s="64"/>
-      <c r="AW55" s="65"/>
-      <c r="AX55" s="63"/>
-      <c r="AY55" s="64"/>
-      <c r="AZ55" s="64"/>
-      <c r="BA55" s="64"/>
-      <c r="BB55" s="64"/>
-      <c r="BC55" s="65"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="90"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="89"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="89"/>
+      <c r="S55" s="89"/>
+      <c r="T55" s="88"/>
+      <c r="U55" s="89"/>
+      <c r="V55" s="89"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="89"/>
+      <c r="Y55" s="90"/>
+      <c r="Z55" s="89"/>
+      <c r="AA55" s="89"/>
+      <c r="AB55" s="89"/>
+      <c r="AC55" s="89"/>
+      <c r="AD55" s="89"/>
+      <c r="AE55" s="89"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="89"/>
+      <c r="AH55" s="89"/>
+      <c r="AI55" s="89"/>
+      <c r="AJ55" s="89"/>
+      <c r="AK55" s="90"/>
+      <c r="AL55" s="89"/>
+      <c r="AM55" s="89"/>
+      <c r="AN55" s="89"/>
+      <c r="AO55" s="89"/>
+      <c r="AP55" s="89"/>
+      <c r="AQ55" s="89"/>
+      <c r="AR55" s="88"/>
+      <c r="AS55" s="89"/>
+      <c r="AT55" s="89"/>
+      <c r="AU55" s="89"/>
+      <c r="AV55" s="89"/>
+      <c r="AW55" s="90"/>
+      <c r="AX55" s="88"/>
+      <c r="AY55" s="89"/>
+      <c r="AZ55" s="89"/>
+      <c r="BA55" s="89"/>
+      <c r="BB55" s="89"/>
+      <c r="BC55" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="B49:G55"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="AL1:BC1"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AF4:AK4"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AL8:AQ8"/>
+    <mergeCell ref="AR2:AW2"/>
+    <mergeCell ref="AR8:AW8"/>
+    <mergeCell ref="AL4:AQ4"/>
+    <mergeCell ref="AR4:AW4"/>
+    <mergeCell ref="Z2:AE2"/>
+    <mergeCell ref="Z8:AE8"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="AX4:BC4"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BC27"/>
+    <mergeCell ref="AX28:BC28"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B16:BC16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
+    <mergeCell ref="B9:F15"/>
+    <mergeCell ref="H9:M15"/>
+    <mergeCell ref="N9:S15"/>
+    <mergeCell ref="T9:Y15"/>
+    <mergeCell ref="Z9:AE15"/>
+    <mergeCell ref="AF9:AK15"/>
+    <mergeCell ref="AL9:AQ15"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AR9:AW15"/>
+    <mergeCell ref="AX9:BC15"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AF45:AK45"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="AL44:AQ44"/>
+    <mergeCell ref="AR44:AW44"/>
+    <mergeCell ref="AR49:AW55"/>
+    <mergeCell ref="AX49:BC55"/>
+    <mergeCell ref="B40:BC40"/>
+    <mergeCell ref="AX39:BC39"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="AX36:BC36"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AL48:AQ48"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="N49:S55"/>
+    <mergeCell ref="T49:Y55"/>
+    <mergeCell ref="Z49:AE55"/>
+    <mergeCell ref="AF49:AK55"/>
+    <mergeCell ref="AL49:AQ55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX2:BC2"/>
     <mergeCell ref="AZ43:BC43"/>
     <mergeCell ref="K23:O23"/>
     <mergeCell ref="D29:F29"/>
@@ -23948,117 +24910,6 @@
     <mergeCell ref="T42:Y42"/>
     <mergeCell ref="Z42:AE42"/>
     <mergeCell ref="AF42:AK42"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AR49:AW55"/>
-    <mergeCell ref="AX49:BC55"/>
-    <mergeCell ref="B40:BC40"/>
-    <mergeCell ref="AX39:BC39"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="AX36:BC36"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AL48:AQ48"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:M55"/>
-    <mergeCell ref="N49:S55"/>
-    <mergeCell ref="T49:Y55"/>
-    <mergeCell ref="Z49:AE55"/>
-    <mergeCell ref="AF49:AK55"/>
-    <mergeCell ref="AL49:AQ55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AF45:AK45"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="AL44:AQ44"/>
-    <mergeCell ref="AR44:AW44"/>
-    <mergeCell ref="B9:F15"/>
-    <mergeCell ref="H9:M15"/>
-    <mergeCell ref="N9:S15"/>
-    <mergeCell ref="T9:Y15"/>
-    <mergeCell ref="Z9:AE15"/>
-    <mergeCell ref="AF9:AK15"/>
-    <mergeCell ref="AL9:AQ15"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AR9:AW15"/>
-    <mergeCell ref="AX9:BC15"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BC27"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B16:BC16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B49:G55"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="AL1:BC1"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AF4:AK4"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AL8:AQ8"/>
-    <mergeCell ref="AR2:AW2"/>
-    <mergeCell ref="AR8:AW8"/>
-    <mergeCell ref="AL4:AQ4"/>
-    <mergeCell ref="AR4:AW4"/>
-    <mergeCell ref="Z2:AE2"/>
-    <mergeCell ref="Z8:AE8"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="T2:Y2"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="AX4:BC4"/>
   </mergeCells>
   <conditionalFormatting sqref="BG3 BG10">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="CREW">
@@ -24093,26 +24944,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="E3" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -24141,7 +24992,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -24186,7 +25037,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -28468,26 +29319,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="E3" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -28516,7 +29367,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -28561,7 +29412,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -31512,7 +32363,7 @@
       </c>
       <c r="D30">
         <f>INDEX(TblCardDesign[#Data],MATCH($B30,TblCardDesign[ID],0),4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <f>INDEX(TblCardDesign[#Data],MATCH($B30,TblCardDesign[ID],0),5)</f>
@@ -31633,7 +32484,7 @@
       </c>
       <c r="D31">
         <f>INDEX(TblCardDesign[#Data],MATCH($B31,TblCardDesign[ID],0),4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <f>INDEX(TblCardDesign[#Data],MATCH($B31,TblCardDesign[ID],0),5)</f>
@@ -32859,26 +33710,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="E3" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -32907,7 +33758,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -32952,7 +33803,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -37230,26 +38081,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -37278,7 +38129,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -37323,7 +38174,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -41603,26 +42454,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -41651,7 +42502,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -41696,7 +42547,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -44893,7 +45744,7 @@
       </c>
       <c r="J32">
         <f>INDEX(TblCardDesign[#Data],MATCH($B32,TblCardDesign[ID],0),10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <f>INDEX(TblCardDesign[#Data],MATCH($B32,TblCardDesign[ID],0),11)</f>
@@ -45013,7 +45864,7 @@
       </c>
       <c r="J33">
         <f>INDEX(TblCardDesign[#Data],MATCH($B33,TblCardDesign[ID],0),10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
         <f>INDEX(TblCardDesign[#Data],MATCH($B33,TblCardDesign[ID],0),11)</f>
@@ -45133,7 +45984,7 @@
       </c>
       <c r="J34">
         <f>INDEX(TblCardDesign[#Data],MATCH($B34,TblCardDesign[ID],0),10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34">
         <f>INDEX(TblCardDesign[#Data],MATCH($B34,TblCardDesign[ID],0),11)</f>
@@ -45974,26 +46825,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="E2" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -46022,7 +46873,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -46067,7 +46918,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{000D03D3-704E-4505-BF82-0B2FE6BC204C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A525468B-4481-4046-9064-0DF54086849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId11"/>
+    <pivotCache cacheId="4861" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="613">
   <si>
     <t>Type</t>
   </si>
@@ -2126,6 +2126,74 @@
   </si>
   <si>
     <t>Target ships shields are depleted until next End Phase</t>
+  </si>
+  <si>
+    <t>Recovery Shells</t>
+  </si>
+  <si>
+    <t>Engage, Sacrifice another crew: +3 Medic</t>
+  </si>
+  <si>
+    <t>Crustal Nexus Shard</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ancient
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">At the start of your Disengage Phase assigned ship takes 100 hull damage.
+Each time you Engage an enemy crew during your turn you may choose one of the following:
+- Draw a card
+- +1 to any Department
+- deal 100 damage to Engaged enemy crews ship
+</t>
+    </r>
+  </si>
+  <si>
+    <t>As a symbol of Krileon prowess and a testament to their mastery of celestial energies, the Crustal Nexus Shard stands as a coveted relic, sought after by captains aspiring to leave an indelible mark on the annals of spacefaring history.</t>
+  </si>
+  <si>
+    <t>Astral Chronometer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ancient
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Place 3 Sol counters on Astral Chronometer.
+At the start of your Disengage Phase remove a Sol Counter. If Astral Chronometer has 0 Sol counters then gain another turn after this one. After your second turn place 3 Sol counters on Astral Chronometer.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Astral Chronometer, with its timeless design and intricate functionality, serves as a reminder of humanity's enduring fascination with the cosmos and the pursuit of knowledge that transcends the boundaries of time itself.</t>
   </si>
   <si>
     <t>Strategy</t>
@@ -2991,22 +3059,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3014,6 +3121,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3033,73 +3146,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3120,28 +3197,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3153,40 +3215,46 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -8450,7 +8518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91C0DB95-3F2E-49BF-A001-009CDB8468CF}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91C0DB95-3F2E-49BF-A001-009CDB8468CF}" name="PivotTable1" cacheId="4861" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -8541,7 +8609,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C17E6186-C211-45E3-BF98-94266063404B}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C17E6186-C211-45E3-BF98-94266063404B}" name="PivotTable2" cacheId="4861" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A17:G52" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -9674,26 +9742,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E2" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="E3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -9722,7 +9790,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -9767,7 +9835,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -14024,8 +14092,8 @@
   <dimension ref="A2:S247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B234" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M242" sqref="M242"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B242" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="R243" sqref="R243"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -21405,29 +21473,90 @@
       </c>
       <c r="R240" s="2"/>
     </row>
-    <row r="241" spans="1:18">
+    <row r="241" spans="1:18" ht="30.75">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="Q241" s="2"/>
+      <c r="B241" t="s">
+        <v>48</v>
+      </c>
+      <c r="C241" t="s">
+        <v>556</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="L241" t="s">
+        <v>4</v>
+      </c>
+      <c r="M241" t="s">
+        <v>19</v>
+      </c>
+      <c r="O241" t="s">
+        <v>17</v>
+      </c>
+      <c r="P241" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q241" s="2" t="s">
+        <v>557</v>
+      </c>
       <c r="R241" s="2"/>
     </row>
-    <row r="242" spans="1:18">
+    <row r="242" spans="1:18" ht="183">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="Q242" s="2"/>
-      <c r="R242" s="2"/>
-    </row>
-    <row r="243" spans="1:18">
+      <c r="B242" t="s">
+        <v>90</v>
+      </c>
+      <c r="C242" t="s">
+        <v>558</v>
+      </c>
+      <c r="J242">
+        <v>7</v>
+      </c>
+      <c r="L242" t="s">
+        <v>9</v>
+      </c>
+      <c r="P242" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q242" s="57" t="s">
+        <v>559</v>
+      </c>
+      <c r="R242" s="5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" ht="137.25">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="Q243" s="2"/>
-      <c r="R243" s="2"/>
+      <c r="B243" t="s">
+        <v>90</v>
+      </c>
+      <c r="C243" t="s">
+        <v>561</v>
+      </c>
+      <c r="J243">
+        <v>7</v>
+      </c>
+      <c r="L243" t="s">
+        <v>9</v>
+      </c>
+      <c r="P243" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q243" s="57" t="s">
+        <v>562</v>
+      </c>
+      <c r="R243" s="5" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="244" spans="1:18">
       <c r="A244">
@@ -21492,270 +21621,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="80" t="s">
-        <v>556</v>
-      </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="80" t="s">
+      <c r="B1" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="68"/>
     </row>
     <row r="2" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B2" s="75" t="s">
-        <v>557</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="72" t="s">
+        <v>565</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
       <c r="G2" s="27"/>
-      <c r="H2" s="77" t="s">
-        <v>558</v>
-      </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="76" t="s">
-        <v>559</v>
-      </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="77" t="s">
-        <v>560</v>
-      </c>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="76" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="77" t="s">
-        <v>562</v>
-      </c>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="75" t="s">
-        <v>563</v>
-      </c>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="77" t="s">
-        <v>564</v>
-      </c>
-      <c r="AS2" s="76"/>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="76" t="s">
-        <v>565</v>
-      </c>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="79"/>
-      <c r="BE2" s="83" t="s">
+      <c r="H2" s="74" t="s">
         <v>566</v>
       </c>
-      <c r="BF2" s="84"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="73" t="s">
+        <v>567</v>
+      </c>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="74" t="s">
+        <v>568</v>
+      </c>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="73" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="74" t="s">
+        <v>570</v>
+      </c>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="74" t="s">
+        <v>572</v>
+      </c>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="73" t="s">
+        <v>573</v>
+      </c>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="124"/>
+      <c r="BE2" s="122" t="s">
+        <v>574</v>
+      </c>
+      <c r="BF2" s="123"/>
       <c r="BG2" s="23" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="2:59">
       <c r="B3" s="9" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="74" t="str">
+      <c r="D3" s="69" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="10"/>
       <c r="H3" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="I3" s="33">
         <v>21</v>
       </c>
-      <c r="J3" s="60" t="str">
+      <c r="J3" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="74" t="str">
+      <c r="P3" s="69" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
       <c r="T3" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="U3" s="33">
         <v>56</v>
       </c>
-      <c r="V3" s="60" t="str">
+      <c r="V3" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="61"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="93"/>
       <c r="Z3" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="74" t="str">
+      <c r="AB3" s="69" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
       <c r="AF3" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AG3" s="33">
         <v>62</v>
       </c>
-      <c r="AH3" s="60" t="str">
+      <c r="AH3" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="61"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="92"/>
+      <c r="AK3" s="93"/>
       <c r="AL3" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="74" t="str">
+      <c r="AN3" s="69" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
       <c r="AR3" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AS3" s="33">
         <v>11</v>
       </c>
-      <c r="AT3" s="60" t="str">
+      <c r="AT3" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="61"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="92"/>
+      <c r="AW3" s="93"/>
       <c r="AX3" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AY3" s="33">
         <v>4</v>
       </c>
-      <c r="AZ3" s="60" t="str">
+      <c r="AZ3" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="61"/>
+      <c r="BA3" s="92"/>
+      <c r="BB3" s="92"/>
+      <c r="BC3" s="93"/>
       <c r="BE3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
@@ -21763,93 +21892,93 @@
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="109" t="str">
+      <c r="H4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="74" t="str">
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="109" t="str">
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="74" t="str">
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="109" t="str">
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="74" t="str">
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="109" t="str">
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="109" t="str">
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="110"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="71"/>
       <c r="BE4" s="20" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
@@ -21857,89 +21986,89 @@
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="111" t="str">
+      <c r="B5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="111" t="str">
+      <c r="H5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="112" t="str">
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="111" t="str">
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="112" t="str">
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="111"/>
+      <c r="Z5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="111" t="str">
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="112" t="str">
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="110"/>
+      <c r="AK5" s="111"/>
+      <c r="AL5" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="111" t="str">
+      <c r="AM5" s="110"/>
+      <c r="AN5" s="110"/>
+      <c r="AO5" s="110"/>
+      <c r="AP5" s="110"/>
+      <c r="AQ5" s="110"/>
+      <c r="AR5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="111" t="str">
+      <c r="AS5" s="110"/>
+      <c r="AT5" s="110"/>
+      <c r="AU5" s="110"/>
+      <c r="AV5" s="110"/>
+      <c r="AW5" s="111"/>
+      <c r="AX5" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="113"/>
+      <c r="AY5" s="110"/>
+      <c r="AZ5" s="110"/>
+      <c r="BA5" s="110"/>
+      <c r="BB5" s="110"/>
+      <c r="BC5" s="111"/>
       <c r="BE5" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="BF5">
         <f>MAX('Card Designs'!A6:A199)</f>
@@ -21948,166 +22077,166 @@
     </row>
     <row r="6" spans="2:59">
       <c r="B6" s="28" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="G6" s="31" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="Q6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="S6" s="31" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AE6" s="31" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AF6" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AK6" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AL6" s="29" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AM6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AQ6" s="31" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AR6" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AU6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AV6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AW6" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AX6" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AZ6" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="BA6" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="BB6" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="BC6" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="2:59">
@@ -22329,228 +22458,228 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="B8" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="74" t="s">
-        <v>576</v>
-      </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="74" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="74" t="s">
-        <v>576</v>
-      </c>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="106" t="s">
-        <v>576</v>
-      </c>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="108"/>
-      <c r="AX8" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="110"/>
+      <c r="H8" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="69" t="s">
+        <v>584</v>
+      </c>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="69" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="69" t="s">
+        <v>584</v>
+      </c>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="76" t="s">
+        <v>584</v>
+      </c>
+      <c r="AS8" s="77"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="78"/>
+      <c r="AX8" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="AY8" s="69"/>
+      <c r="AZ8" s="69"/>
+      <c r="BA8" s="69"/>
+      <c r="BB8" s="69"/>
+      <c r="BC8" s="71"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="85" t="str">
+      <c r="B9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="85" t="str">
+      <c r="H9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your library, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="86" t="str">
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="61" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Engage: Medic + 3
 Engage: Repair ship by 100</v>
       </c>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="85" t="str">
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Engage: Medic + 1
 Engage: Repair ship by 100</v>
       </c>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="86" t="str">
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="61" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="85" t="str">
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Engage: Handling + 2
 Engage: Repair ship by 100</v>
       </c>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="86" t="str">
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="61"/>
+      <c r="AI9" s="61"/>
+      <c r="AJ9" s="61"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="61" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="85" t="str">
+      <c r="AM9" s="61"/>
+      <c r="AN9" s="61"/>
+      <c r="AO9" s="61"/>
+      <c r="AP9" s="61"/>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Engage: Medical + 3</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="85" t="str">
+      <c r="AS9" s="61"/>
+      <c r="AT9" s="61"/>
+      <c r="AU9" s="61"/>
+      <c r="AV9" s="61"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Engage: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY9" s="86"/>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="87"/>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="62"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="86"/>
-      <c r="AZ10" s="86"/>
-      <c r="BA10" s="86"/>
-      <c r="BB10" s="86"/>
-      <c r="BC10" s="87"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="61"/>
+      <c r="AU10" s="61"/>
+      <c r="AV10" s="61"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="62"/>
       <c r="BE10" s="50" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="BF10" s="51">
         <v>15</v>
@@ -22561,351 +22690,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="86"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="87"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="61"/>
+      <c r="AI11" s="61"/>
+      <c r="AJ11" s="61"/>
+      <c r="AK11" s="62"/>
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="61"/>
+      <c r="AN11" s="61"/>
+      <c r="AO11" s="61"/>
+      <c r="AP11" s="61"/>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="61"/>
+      <c r="AT11" s="61"/>
+      <c r="AU11" s="61"/>
+      <c r="AV11" s="61"/>
+      <c r="AW11" s="62"/>
+      <c r="AX11" s="60"/>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="62"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="86"/>
-      <c r="AO12" s="86"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="86"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="86"/>
-      <c r="AZ12" s="86"/>
-      <c r="BA12" s="86"/>
-      <c r="BB12" s="86"/>
-      <c r="BC12" s="87"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="61"/>
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="61"/>
+      <c r="AT12" s="61"/>
+      <c r="AU12" s="61"/>
+      <c r="AV12" s="61"/>
+      <c r="AW12" s="62"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="61"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="61"/>
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="62"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="86"/>
-      <c r="AO13" s="86"/>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="86"/>
-      <c r="AV13" s="86"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="85"/>
-      <c r="AY13" s="86"/>
-      <c r="AZ13" s="86"/>
-      <c r="BA13" s="86"/>
-      <c r="BB13" s="86"/>
-      <c r="BC13" s="87"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="61"/>
+      <c r="AI13" s="61"/>
+      <c r="AJ13" s="61"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="61"/>
+      <c r="AN13" s="61"/>
+      <c r="AO13" s="61"/>
+      <c r="AP13" s="61"/>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="60"/>
+      <c r="AS13" s="61"/>
+      <c r="AT13" s="61"/>
+      <c r="AU13" s="61"/>
+      <c r="AV13" s="61"/>
+      <c r="AW13" s="62"/>
+      <c r="AX13" s="60"/>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="62"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="87"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="60"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="61"/>
+      <c r="AN14" s="61"/>
+      <c r="AO14" s="61"/>
+      <c r="AP14" s="61"/>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="60"/>
+      <c r="AS14" s="61"/>
+      <c r="AT14" s="61"/>
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="60"/>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="61"/>
+      <c r="BB14" s="61"/>
+      <c r="BC14" s="62"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="89"/>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="88"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="89"/>
-      <c r="BA15" s="89"/>
-      <c r="BB15" s="89"/>
-      <c r="BC15" s="90"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="63"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="63"/>
+      <c r="AY15" s="64"/>
+      <c r="AZ15" s="64"/>
+      <c r="BA15" s="64"/>
+      <c r="BB15" s="64"/>
+      <c r="BC15" s="65"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="117" t="s">
-        <v>578</v>
-      </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-      <c r="AY16" s="118"/>
-      <c r="AZ16" s="118"/>
-      <c r="BA16" s="118"/>
-      <c r="BB16" s="118"/>
-      <c r="BC16" s="119"/>
+      <c r="B16" s="94" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="95"/>
+      <c r="AM16" s="95"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="95"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="95"/>
+      <c r="AU16" s="95"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="95"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="95"/>
+      <c r="BA16" s="95"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="96"/>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="120" t="s">
-        <v>579</v>
-      </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
+      <c r="B17" s="97" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -22950,24 +23079,24 @@
       <c r="AV17" s="34"/>
       <c r="AW17" s="35"/>
       <c r="AX17" s="38" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AY17" s="39"/>
-      <c r="AZ17" s="63" t="s">
+      <c r="AZ17" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63"/>
+      <c r="BA17" s="112"/>
+      <c r="BB17" s="112"/>
       <c r="BC17" s="40"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="97" t="s">
-        <v>580</v>
-      </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
+      <c r="B18" s="100" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="102"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -22976,24 +23105,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="64" t="e">
+      <c r="AX18" s="81" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
+      <c r="AY18" s="82"/>
+      <c r="AZ18" s="82"/>
+      <c r="BA18" s="82"/>
+      <c r="BB18" s="82"/>
       <c r="BC18" s="41"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="100" t="s">
-        <v>581</v>
-      </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
+      <c r="B19" s="103" t="s">
+        <v>589</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="36"/>
       <c r="L19" s="36"/>
       <c r="R19" s="36"/>
@@ -23002,24 +23131,24 @@
       <c r="AJ19" s="36"/>
       <c r="AP19" s="36"/>
       <c r="AV19" s="36"/>
-      <c r="AX19" s="66" t="e">
+      <c r="AX19" s="79" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
+      <c r="AY19" s="80"/>
+      <c r="AZ19" s="80"/>
+      <c r="BA19" s="80"/>
+      <c r="BB19" s="80"/>
       <c r="BC19" s="42"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="123" t="s">
-        <v>582</v>
-      </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
+      <c r="B20" s="106" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -23029,22 +23158,22 @@
       <c r="AP20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AX20" s="43" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AY20" s="44" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AZ20" s="44" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="BA20" s="44" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="BB20" s="44" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="BC20" s="45" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="2:55">
@@ -23076,71 +23205,71 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="64" t="s">
-        <v>576</v>
-      </c>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="65"/>
-      <c r="BA22" s="65"/>
-      <c r="BB22" s="65"/>
+      <c r="AX22" s="81" t="s">
+        <v>584</v>
+      </c>
+      <c r="AY22" s="82"/>
+      <c r="AZ22" s="82"/>
+      <c r="BA22" s="82"/>
+      <c r="BB22" s="82"/>
       <c r="BC22" s="41"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="AX23" s="68" t="e">
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="AX23" s="83" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="70"/>
+      <c r="AY23" s="84"/>
+      <c r="AZ23" s="84"/>
+      <c r="BA23" s="84"/>
+      <c r="BB23" s="84"/>
+      <c r="BC23" s="85"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="69"/>
-      <c r="BA24" s="69"/>
-      <c r="BB24" s="69"/>
-      <c r="BC24" s="70"/>
+      <c r="AX24" s="83"/>
+      <c r="AY24" s="84"/>
+      <c r="AZ24" s="84"/>
+      <c r="BA24" s="84"/>
+      <c r="BB24" s="84"/>
+      <c r="BC24" s="85"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="69"/>
-      <c r="AZ25" s="69"/>
-      <c r="BA25" s="69"/>
-      <c r="BB25" s="69"/>
-      <c r="BC25" s="70"/>
+      <c r="AX25" s="83"/>
+      <c r="AY25" s="84"/>
+      <c r="AZ25" s="84"/>
+      <c r="BA25" s="84"/>
+      <c r="BB25" s="84"/>
+      <c r="BC25" s="85"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="70"/>
+      <c r="AX26" s="83"/>
+      <c r="AY26" s="84"/>
+      <c r="AZ26" s="84"/>
+      <c r="BA26" s="84"/>
+      <c r="BB26" s="84"/>
+      <c r="BC26" s="85"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="72"/>
-      <c r="BA27" s="72"/>
-      <c r="BB27" s="72"/>
-      <c r="BC27" s="73"/>
+      <c r="AX27" s="86"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="87"/>
+      <c r="BA27" s="87"/>
+      <c r="BB27" s="87"/>
+      <c r="BC27" s="88"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="47" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
@@ -23189,70 +23318,70 @@
       <c r="AU28" s="37"/>
       <c r="AV28" s="37"/>
       <c r="AW28" s="37"/>
-      <c r="AX28" s="114" t="s">
-        <v>583</v>
-      </c>
-      <c r="AY28" s="115"/>
-      <c r="AZ28" s="115"/>
-      <c r="BA28" s="115"/>
-      <c r="BB28" s="115"/>
-      <c r="BC28" s="116"/>
+      <c r="AX28" s="89" t="s">
+        <v>591</v>
+      </c>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="90"/>
+      <c r="BA28" s="90"/>
+      <c r="BB28" s="90"/>
+      <c r="BC28" s="91"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="38" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="C29" s="39"/>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
       <c r="G29" s="40"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="64" t="e">
+      <c r="B30" s="81" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="41"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="66" t="e">
+      <c r="B31" s="79" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
       <c r="G31" s="42"/>
       <c r="BC31" s="8"/>
     </row>
     <row r="32" spans="2:55">
       <c r="B32" s="43" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="E32" s="44" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="BC32" s="8"/>
     </row>
@@ -23284,83 +23413,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="64" t="s">
-        <v>576</v>
-      </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
+      <c r="B34" s="81" t="s">
+        <v>584</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
       <c r="G34" s="41"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="68" t="e">
+      <c r="B35" s="83" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="70"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="85"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-      <c r="AX36" s="103" t="s">
-        <v>582</v>
-      </c>
-      <c r="AY36" s="104"/>
-      <c r="AZ36" s="104"/>
-      <c r="BA36" s="104"/>
-      <c r="BB36" s="104"/>
-      <c r="BC36" s="105"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="85"/>
+      <c r="AX36" s="119" t="s">
+        <v>590</v>
+      </c>
+      <c r="AY36" s="120"/>
+      <c r="AZ36" s="120"/>
+      <c r="BA36" s="120"/>
+      <c r="BB36" s="120"/>
+      <c r="BC36" s="121"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
-      <c r="AX37" s="100" t="s">
-        <v>581</v>
-      </c>
-      <c r="AY37" s="101"/>
-      <c r="AZ37" s="101"/>
-      <c r="BA37" s="101"/>
-      <c r="BB37" s="101"/>
-      <c r="BC37" s="102"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="85"/>
+      <c r="AX37" s="103" t="s">
+        <v>589</v>
+      </c>
+      <c r="AY37" s="104"/>
+      <c r="AZ37" s="104"/>
+      <c r="BA37" s="104"/>
+      <c r="BB37" s="104"/>
+      <c r="BC37" s="105"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
-      <c r="AX38" s="97" t="s">
-        <v>580</v>
-      </c>
-      <c r="AY38" s="98"/>
-      <c r="AZ38" s="98"/>
-      <c r="BA38" s="98"/>
-      <c r="BB38" s="98"/>
-      <c r="BC38" s="99"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="85"/>
+      <c r="AX38" s="100" t="s">
+        <v>588</v>
+      </c>
+      <c r="AY38" s="101"/>
+      <c r="AZ38" s="101"/>
+      <c r="BA38" s="101"/>
+      <c r="BB38" s="101"/>
+      <c r="BC38" s="102"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="88"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -23403,654 +23532,654 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="94" t="s">
-        <v>579</v>
-      </c>
-      <c r="AY39" s="95"/>
-      <c r="AZ39" s="95"/>
-      <c r="BA39" s="95"/>
-      <c r="BB39" s="95"/>
-      <c r="BC39" s="96"/>
+      <c r="AX39" s="116" t="s">
+        <v>587</v>
+      </c>
+      <c r="AY39" s="117"/>
+      <c r="AZ39" s="117"/>
+      <c r="BA39" s="117"/>
+      <c r="BB39" s="117"/>
+      <c r="BC39" s="118"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="91" t="s">
-        <v>584</v>
-      </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="92"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="92"/>
-      <c r="AF40" s="92"/>
-      <c r="AG40" s="92"/>
-      <c r="AH40" s="92"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="92"/>
-      <c r="AK40" s="92"/>
-      <c r="AL40" s="92"/>
-      <c r="AM40" s="92"/>
-      <c r="AN40" s="92"/>
-      <c r="AO40" s="92"/>
-      <c r="AP40" s="92"/>
-      <c r="AQ40" s="92"/>
-      <c r="AR40" s="92"/>
-      <c r="AS40" s="92"/>
-      <c r="AT40" s="92"/>
-      <c r="AU40" s="92"/>
-      <c r="AV40" s="92"/>
-      <c r="AW40" s="92"/>
-      <c r="AX40" s="92"/>
-      <c r="AY40" s="92"/>
-      <c r="AZ40" s="92"/>
-      <c r="BA40" s="92"/>
-      <c r="BB40" s="92"/>
-      <c r="BC40" s="93"/>
+      <c r="B40" s="113" t="s">
+        <v>592</v>
+      </c>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
+      <c r="O40" s="114"/>
+      <c r="P40" s="114"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="114"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="114"/>
+      <c r="Z40" s="114"/>
+      <c r="AA40" s="114"/>
+      <c r="AB40" s="114"/>
+      <c r="AC40" s="114"/>
+      <c r="AD40" s="114"/>
+      <c r="AE40" s="114"/>
+      <c r="AF40" s="114"/>
+      <c r="AG40" s="114"/>
+      <c r="AH40" s="114"/>
+      <c r="AI40" s="114"/>
+      <c r="AJ40" s="114"/>
+      <c r="AK40" s="114"/>
+      <c r="AL40" s="114"/>
+      <c r="AM40" s="114"/>
+      <c r="AN40" s="114"/>
+      <c r="AO40" s="114"/>
+      <c r="AP40" s="114"/>
+      <c r="AQ40" s="114"/>
+      <c r="AR40" s="114"/>
+      <c r="AS40" s="114"/>
+      <c r="AT40" s="114"/>
+      <c r="AU40" s="114"/>
+      <c r="AV40" s="114"/>
+      <c r="AW40" s="114"/>
+      <c r="AX40" s="114"/>
+      <c r="AY40" s="114"/>
+      <c r="AZ40" s="114"/>
+      <c r="BA40" s="114"/>
+      <c r="BB40" s="114"/>
+      <c r="BC40" s="115"/>
     </row>
     <row r="41" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B41" s="80" t="s">
-        <v>556</v>
-      </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="81"/>
-      <c r="U41" s="81"/>
-      <c r="V41" s="81"/>
-      <c r="W41" s="81"/>
-      <c r="X41" s="81"/>
-      <c r="Y41" s="81"/>
-      <c r="Z41" s="81"/>
-      <c r="AA41" s="81"/>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="81"/>
-      <c r="AD41" s="81"/>
-      <c r="AE41" s="81"/>
-      <c r="AF41" s="81"/>
-      <c r="AG41" s="81"/>
-      <c r="AH41" s="81"/>
-      <c r="AI41" s="81"/>
-      <c r="AJ41" s="81"/>
-      <c r="AK41" s="82"/>
-      <c r="AL41" s="80" t="s">
+      <c r="B41" s="66" t="s">
+        <v>564</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="67"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="67"/>
+      <c r="AI41" s="67"/>
+      <c r="AJ41" s="67"/>
+      <c r="AK41" s="68"/>
+      <c r="AL41" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AM41" s="81"/>
-      <c r="AN41" s="81"/>
-      <c r="AO41" s="81"/>
-      <c r="AP41" s="81"/>
-      <c r="AQ41" s="81"/>
-      <c r="AR41" s="81"/>
-      <c r="AS41" s="81"/>
-      <c r="AT41" s="81"/>
-      <c r="AU41" s="81"/>
-      <c r="AV41" s="81"/>
-      <c r="AW41" s="81"/>
-      <c r="AX41" s="81"/>
-      <c r="AY41" s="81"/>
-      <c r="AZ41" s="81"/>
-      <c r="BA41" s="81"/>
-      <c r="BB41" s="81"/>
-      <c r="BC41" s="82"/>
+      <c r="AM41" s="67"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="67"/>
+      <c r="AP41" s="67"/>
+      <c r="AQ41" s="67"/>
+      <c r="AR41" s="67"/>
+      <c r="AS41" s="67"/>
+      <c r="AT41" s="67"/>
+      <c r="AU41" s="67"/>
+      <c r="AV41" s="67"/>
+      <c r="AW41" s="67"/>
+      <c r="AX41" s="67"/>
+      <c r="AY41" s="67"/>
+      <c r="AZ41" s="67"/>
+      <c r="BA41" s="67"/>
+      <c r="BB41" s="67"/>
+      <c r="BC41" s="68"/>
     </row>
     <row r="42" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B42" s="75" t="s">
-        <v>557</v>
-      </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
+      <c r="B42" s="72" t="s">
+        <v>565</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
       <c r="G42" s="27"/>
-      <c r="H42" s="77" t="s">
-        <v>558</v>
-      </c>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="76" t="s">
-        <v>559</v>
-      </c>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="77" t="s">
-        <v>560</v>
-      </c>
-      <c r="U42" s="76"/>
-      <c r="V42" s="76"/>
-      <c r="W42" s="76"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="78"/>
-      <c r="Z42" s="76" t="s">
-        <v>561</v>
-      </c>
-      <c r="AA42" s="76"/>
-      <c r="AB42" s="76"/>
-      <c r="AC42" s="76"/>
-      <c r="AD42" s="76"/>
-      <c r="AE42" s="76"/>
-      <c r="AF42" s="77" t="s">
-        <v>562</v>
-      </c>
-      <c r="AG42" s="76"/>
-      <c r="AH42" s="76"/>
-      <c r="AI42" s="76"/>
-      <c r="AJ42" s="76"/>
-      <c r="AK42" s="76"/>
-      <c r="AL42" s="75" t="s">
-        <v>563</v>
-      </c>
-      <c r="AM42" s="76"/>
-      <c r="AN42" s="76"/>
-      <c r="AO42" s="76"/>
-      <c r="AP42" s="76"/>
-      <c r="AQ42" s="76"/>
-      <c r="AR42" s="77" t="s">
-        <v>564</v>
-      </c>
-      <c r="AS42" s="76"/>
-      <c r="AT42" s="76"/>
-      <c r="AU42" s="76"/>
-      <c r="AV42" s="76"/>
-      <c r="AW42" s="78"/>
-      <c r="AX42" s="76" t="s">
-        <v>565</v>
-      </c>
-      <c r="AY42" s="76"/>
-      <c r="AZ42" s="76"/>
-      <c r="BA42" s="76"/>
-      <c r="BB42" s="76"/>
-      <c r="BC42" s="79"/>
+      <c r="H42" s="74" t="s">
+        <v>566</v>
+      </c>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="73" t="s">
+        <v>567</v>
+      </c>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="73"/>
+      <c r="T42" s="74" t="s">
+        <v>568</v>
+      </c>
+      <c r="U42" s="73"/>
+      <c r="V42" s="73"/>
+      <c r="W42" s="73"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="75"/>
+      <c r="Z42" s="73" t="s">
+        <v>569</v>
+      </c>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="73"/>
+      <c r="AC42" s="73"/>
+      <c r="AD42" s="73"/>
+      <c r="AE42" s="73"/>
+      <c r="AF42" s="74" t="s">
+        <v>570</v>
+      </c>
+      <c r="AG42" s="73"/>
+      <c r="AH42" s="73"/>
+      <c r="AI42" s="73"/>
+      <c r="AJ42" s="73"/>
+      <c r="AK42" s="73"/>
+      <c r="AL42" s="72" t="s">
+        <v>571</v>
+      </c>
+      <c r="AM42" s="73"/>
+      <c r="AN42" s="73"/>
+      <c r="AO42" s="73"/>
+      <c r="AP42" s="73"/>
+      <c r="AQ42" s="73"/>
+      <c r="AR42" s="74" t="s">
+        <v>572</v>
+      </c>
+      <c r="AS42" s="73"/>
+      <c r="AT42" s="73"/>
+      <c r="AU42" s="73"/>
+      <c r="AV42" s="73"/>
+      <c r="AW42" s="75"/>
+      <c r="AX42" s="73" t="s">
+        <v>573</v>
+      </c>
+      <c r="AY42" s="73"/>
+      <c r="AZ42" s="73"/>
+      <c r="BA42" s="73"/>
+      <c r="BB42" s="73"/>
+      <c r="BC42" s="124"/>
     </row>
     <row r="43" spans="2:55">
       <c r="B43" s="9" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="C43" s="26">
         <v>63</v>
       </c>
-      <c r="D43" s="74" t="str">
+      <c r="D43" s="69" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
       <c r="G43" s="10"/>
       <c r="H43" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="I43" s="33">
         <v>99</v>
       </c>
-      <c r="J43" s="60" t="str">
+      <c r="J43" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="61"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="93"/>
       <c r="N43" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="O43" s="26">
         <v>46</v>
       </c>
-      <c r="P43" s="74" t="str">
+      <c r="P43" s="69" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
+      <c r="Q43" s="69"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="69"/>
       <c r="T43" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="U43" s="33">
         <v>56</v>
       </c>
-      <c r="V43" s="60" t="str">
+      <c r="V43" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W43" s="60"/>
-      <c r="X43" s="60"/>
-      <c r="Y43" s="61"/>
+      <c r="W43" s="92"/>
+      <c r="X43" s="92"/>
+      <c r="Y43" s="93"/>
       <c r="Z43" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AA43" s="26">
         <v>99</v>
       </c>
-      <c r="AB43" s="74" t="str">
+      <c r="AB43" s="69" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC43" s="74"/>
-      <c r="AD43" s="74"/>
-      <c r="AE43" s="74"/>
+      <c r="AC43" s="69"/>
+      <c r="AD43" s="69"/>
+      <c r="AE43" s="69"/>
       <c r="AF43" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AG43" s="33">
         <v>62</v>
       </c>
-      <c r="AH43" s="60" t="str">
+      <c r="AH43" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI43" s="60"/>
-      <c r="AJ43" s="60"/>
-      <c r="AK43" s="61"/>
+      <c r="AI43" s="92"/>
+      <c r="AJ43" s="92"/>
+      <c r="AK43" s="93"/>
       <c r="AL43" s="10" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AM43" s="26">
         <v>82</v>
       </c>
-      <c r="AN43" s="74" t="str">
+      <c r="AN43" s="69" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO43" s="74"/>
-      <c r="AP43" s="74"/>
-      <c r="AQ43" s="74"/>
+      <c r="AO43" s="69"/>
+      <c r="AP43" s="69"/>
+      <c r="AQ43" s="69"/>
       <c r="AR43" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AS43" s="33">
         <v>11</v>
       </c>
-      <c r="AT43" s="60" t="str">
+      <c r="AT43" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU43" s="60"/>
-      <c r="AV43" s="60"/>
-      <c r="AW43" s="61"/>
+      <c r="AU43" s="92"/>
+      <c r="AV43" s="92"/>
+      <c r="AW43" s="93"/>
       <c r="AX43" s="32" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="AY43" s="33">
         <v>4</v>
       </c>
-      <c r="AZ43" s="60" t="str">
+      <c r="AZ43" s="92" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA43" s="60"/>
-      <c r="BB43" s="60"/>
-      <c r="BC43" s="61"/>
+      <c r="BA43" s="92"/>
+      <c r="BB43" s="92"/>
+      <c r="BC43" s="93"/>
     </row>
     <row r="44" spans="2:55">
-      <c r="B44" s="109" t="str">
+      <c r="B44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),3)</f>
         <v>P Bot Bot</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="109" t="str">
+      <c r="H44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="74" t="str">
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="71"/>
+      <c r="N44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),3)</f>
         <v>Hull Breach</v>
       </c>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="109" t="str">
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="110"/>
-      <c r="Z44" s="74" t="str">
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="71"/>
+      <c r="Z44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA44" s="74"/>
-      <c r="AB44" s="74"/>
-      <c r="AC44" s="74"/>
-      <c r="AD44" s="74"/>
-      <c r="AE44" s="74"/>
-      <c r="AF44" s="109" t="str">
+      <c r="AA44" s="69"/>
+      <c r="AB44" s="69"/>
+      <c r="AC44" s="69"/>
+      <c r="AD44" s="69"/>
+      <c r="AE44" s="69"/>
+      <c r="AF44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG44" s="74"/>
-      <c r="AH44" s="74"/>
-      <c r="AI44" s="74"/>
-      <c r="AJ44" s="74"/>
-      <c r="AK44" s="110"/>
-      <c r="AL44" s="74" t="str">
+      <c r="AG44" s="69"/>
+      <c r="AH44" s="69"/>
+      <c r="AI44" s="69"/>
+      <c r="AJ44" s="69"/>
+      <c r="AK44" s="71"/>
+      <c r="AL44" s="69" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM44" s="74"/>
-      <c r="AN44" s="74"/>
-      <c r="AO44" s="74"/>
-      <c r="AP44" s="74"/>
-      <c r="AQ44" s="74"/>
-      <c r="AR44" s="109" t="str">
+      <c r="AM44" s="69"/>
+      <c r="AN44" s="69"/>
+      <c r="AO44" s="69"/>
+      <c r="AP44" s="69"/>
+      <c r="AQ44" s="69"/>
+      <c r="AR44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS44" s="74"/>
-      <c r="AT44" s="74"/>
-      <c r="AU44" s="74"/>
-      <c r="AV44" s="74"/>
-      <c r="AW44" s="110"/>
-      <c r="AX44" s="109" t="str">
+      <c r="AS44" s="69"/>
+      <c r="AT44" s="69"/>
+      <c r="AU44" s="69"/>
+      <c r="AV44" s="69"/>
+      <c r="AW44" s="71"/>
+      <c r="AX44" s="70" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY44" s="74"/>
-      <c r="AZ44" s="74"/>
-      <c r="BA44" s="74"/>
-      <c r="BB44" s="74"/>
-      <c r="BC44" s="110"/>
+      <c r="AY44" s="69"/>
+      <c r="AZ44" s="69"/>
+      <c r="BA44" s="69"/>
+      <c r="BB44" s="69"/>
+      <c r="BC44" s="71"/>
     </row>
     <row r="45" spans="2:55">
-      <c r="B45" s="111" t="str">
+      <c r="B45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C45" s="112"/>
-      <c r="D45" s="112"/>
-      <c r="E45" s="112"/>
-      <c r="F45" s="112"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="111" t="str">
+      <c r="H45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I45" s="112"/>
-      <c r="J45" s="112"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="112"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="112" t="str">
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="112"/>
-      <c r="R45" s="112"/>
-      <c r="S45" s="112"/>
-      <c r="T45" s="111" t="str">
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U45" s="112"/>
-      <c r="V45" s="112"/>
-      <c r="W45" s="112"/>
-      <c r="X45" s="112"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="112" t="str">
+      <c r="U45" s="110"/>
+      <c r="V45" s="110"/>
+      <c r="W45" s="110"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="111"/>
+      <c r="Z45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA45" s="112"/>
-      <c r="AB45" s="112"/>
-      <c r="AC45" s="112"/>
-      <c r="AD45" s="112"/>
-      <c r="AE45" s="112"/>
-      <c r="AF45" s="111" t="str">
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+      <c r="AF45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG45" s="112"/>
-      <c r="AH45" s="112"/>
-      <c r="AI45" s="112"/>
-      <c r="AJ45" s="112"/>
-      <c r="AK45" s="113"/>
-      <c r="AL45" s="112" t="str">
+      <c r="AG45" s="110"/>
+      <c r="AH45" s="110"/>
+      <c r="AI45" s="110"/>
+      <c r="AJ45" s="110"/>
+      <c r="AK45" s="111"/>
+      <c r="AL45" s="110" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM45" s="112"/>
-      <c r="AN45" s="112"/>
-      <c r="AO45" s="112"/>
-      <c r="AP45" s="112"/>
-      <c r="AQ45" s="112"/>
-      <c r="AR45" s="111" t="str">
+      <c r="AM45" s="110"/>
+      <c r="AN45" s="110"/>
+      <c r="AO45" s="110"/>
+      <c r="AP45" s="110"/>
+      <c r="AQ45" s="110"/>
+      <c r="AR45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS45" s="112"/>
-      <c r="AT45" s="112"/>
-      <c r="AU45" s="112"/>
-      <c r="AV45" s="112"/>
-      <c r="AW45" s="113"/>
-      <c r="AX45" s="111" t="str">
+      <c r="AS45" s="110"/>
+      <c r="AT45" s="110"/>
+      <c r="AU45" s="110"/>
+      <c r="AV45" s="110"/>
+      <c r="AW45" s="111"/>
+      <c r="AX45" s="109" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY45" s="112"/>
-      <c r="AZ45" s="112"/>
-      <c r="BA45" s="112"/>
-      <c r="BB45" s="112"/>
-      <c r="BC45" s="113"/>
+      <c r="AY45" s="110"/>
+      <c r="AZ45" s="110"/>
+      <c r="BA45" s="110"/>
+      <c r="BB45" s="110"/>
+      <c r="BC45" s="111"/>
     </row>
     <row r="46" spans="2:55">
       <c r="B46" s="28" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="G46" s="31" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="M46" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="P46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="Q46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="R46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="S46" s="31" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="V46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="W46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="X46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="Y46" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="Z46" s="15" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AE46" s="31" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AF46" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AG46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AH46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AI46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AJ46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AK46" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AL46" s="29" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AM46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AN46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AO46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AP46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AQ46" s="31" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AR46" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AS46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AT46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="AU46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="AV46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="AW46" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="AX46" s="16" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="AY46" s="14" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="AZ46" s="14" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="BA46" s="14" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="BB46" s="14" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="BC46" s="17" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="2:55">
@@ -24272,509 +24401,620 @@
       </c>
     </row>
     <row r="48" spans="2:55">
-      <c r="B48" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
+      <c r="B48" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
       <c r="G48" s="10"/>
-      <c r="H48" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="I48" s="74"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="110"/>
-      <c r="N48" s="74" t="s">
-        <v>576</v>
-      </c>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="74"/>
-      <c r="S48" s="74"/>
-      <c r="T48" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="U48" s="74"/>
-      <c r="V48" s="74"/>
-      <c r="W48" s="74"/>
-      <c r="X48" s="74"/>
-      <c r="Y48" s="110"/>
-      <c r="Z48" s="74" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA48" s="74"/>
-      <c r="AB48" s="74"/>
-      <c r="AC48" s="74"/>
-      <c r="AD48" s="74"/>
-      <c r="AE48" s="74"/>
-      <c r="AF48" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG48" s="74"/>
-      <c r="AH48" s="74"/>
-      <c r="AI48" s="74"/>
-      <c r="AJ48" s="74"/>
-      <c r="AK48" s="110"/>
-      <c r="AL48" s="74" t="s">
-        <v>576</v>
-      </c>
-      <c r="AM48" s="74"/>
-      <c r="AN48" s="74"/>
-      <c r="AO48" s="74"/>
-      <c r="AP48" s="74"/>
-      <c r="AQ48" s="74"/>
-      <c r="AR48" s="106" t="s">
-        <v>576</v>
-      </c>
-      <c r="AS48" s="107"/>
-      <c r="AT48" s="107"/>
-      <c r="AU48" s="107"/>
-      <c r="AV48" s="107"/>
-      <c r="AW48" s="108"/>
-      <c r="AX48" s="109" t="s">
-        <v>576</v>
-      </c>
-      <c r="AY48" s="74"/>
-      <c r="AZ48" s="74"/>
-      <c r="BA48" s="74"/>
-      <c r="BB48" s="74"/>
-      <c r="BC48" s="110"/>
+      <c r="H48" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="69" t="s">
+        <v>584</v>
+      </c>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="69"/>
+      <c r="S48" s="69"/>
+      <c r="T48" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="U48" s="69"/>
+      <c r="V48" s="69"/>
+      <c r="W48" s="69"/>
+      <c r="X48" s="69"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="69" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA48" s="69"/>
+      <c r="AB48" s="69"/>
+      <c r="AC48" s="69"/>
+      <c r="AD48" s="69"/>
+      <c r="AE48" s="69"/>
+      <c r="AF48" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="AG48" s="69"/>
+      <c r="AH48" s="69"/>
+      <c r="AI48" s="69"/>
+      <c r="AJ48" s="69"/>
+      <c r="AK48" s="71"/>
+      <c r="AL48" s="69" t="s">
+        <v>584</v>
+      </c>
+      <c r="AM48" s="69"/>
+      <c r="AN48" s="69"/>
+      <c r="AO48" s="69"/>
+      <c r="AP48" s="69"/>
+      <c r="AQ48" s="69"/>
+      <c r="AR48" s="76" t="s">
+        <v>584</v>
+      </c>
+      <c r="AS48" s="77"/>
+      <c r="AT48" s="77"/>
+      <c r="AU48" s="77"/>
+      <c r="AV48" s="77"/>
+      <c r="AW48" s="78"/>
+      <c r="AX48" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="AY48" s="69"/>
+      <c r="AZ48" s="69"/>
+      <c r="BA48" s="69"/>
+      <c r="BB48" s="69"/>
+      <c r="BC48" s="71"/>
     </row>
     <row r="49" spans="2:55" ht="15" customHeight="1">
-      <c r="B49" s="85" t="str">
+      <c r="B49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Assault Tier 1
 Robot can't be used for gun slots.
 Engage: Assault + 2
 Engage: Repair ship by 100</v>
       </c>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="85" t="str">
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="86" t="str">
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="61" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Target Enemy Ship: They Sacrifice 1 crew member and take 100 damage to ship</v>
       </c>
-      <c r="O49" s="86"/>
-      <c r="P49" s="86"/>
-      <c r="Q49" s="86"/>
-      <c r="R49" s="86"/>
-      <c r="S49" s="86"/>
-      <c r="T49" s="85" t="str">
+      <c r="O49" s="61"/>
+      <c r="P49" s="61"/>
+      <c r="Q49" s="61"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Robot can't be used for gun slots.
 Engage: Medic + 1
 Engage: Repair ship by 100</v>
       </c>
-      <c r="U49" s="86"/>
-      <c r="V49" s="86"/>
-      <c r="W49" s="86"/>
-      <c r="X49" s="86"/>
-      <c r="Y49" s="87"/>
-      <c r="Z49" s="86" t="str">
+      <c r="U49" s="61"/>
+      <c r="V49" s="61"/>
+      <c r="W49" s="61"/>
+      <c r="X49" s="61"/>
+      <c r="Y49" s="62"/>
+      <c r="Z49" s="61" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA49" s="86"/>
-      <c r="AB49" s="86"/>
-      <c r="AC49" s="86"/>
-      <c r="AD49" s="86"/>
-      <c r="AE49" s="86"/>
-      <c r="AF49" s="85" t="str">
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="61"/>
+      <c r="AC49" s="61"/>
+      <c r="AD49" s="61"/>
+      <c r="AE49" s="61"/>
+      <c r="AF49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Engage: Handling + 2
 Engage: Repair ship by 100</v>
       </c>
-      <c r="AG49" s="86"/>
-      <c r="AH49" s="86"/>
-      <c r="AI49" s="86"/>
-      <c r="AJ49" s="86"/>
-      <c r="AK49" s="87"/>
-      <c r="AL49" s="86" t="str">
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="62"/>
+      <c r="AL49" s="61" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM49" s="86"/>
-      <c r="AN49" s="86"/>
-      <c r="AO49" s="86"/>
-      <c r="AP49" s="86"/>
-      <c r="AQ49" s="86"/>
-      <c r="AR49" s="85" t="str">
+      <c r="AM49" s="61"/>
+      <c r="AN49" s="61"/>
+      <c r="AO49" s="61"/>
+      <c r="AP49" s="61"/>
+      <c r="AQ49" s="61"/>
+      <c r="AR49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Engage: Medical + 3</v>
       </c>
-      <c r="AS49" s="86"/>
-      <c r="AT49" s="86"/>
-      <c r="AU49" s="86"/>
-      <c r="AV49" s="86"/>
-      <c r="AW49" s="87"/>
-      <c r="AX49" s="85" t="str">
+      <c r="AS49" s="61"/>
+      <c r="AT49" s="61"/>
+      <c r="AU49" s="61"/>
+      <c r="AV49" s="61"/>
+      <c r="AW49" s="62"/>
+      <c r="AX49" s="60" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY43,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>Engage: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY49" s="86"/>
-      <c r="AZ49" s="86"/>
-      <c r="BA49" s="86"/>
-      <c r="BB49" s="86"/>
-      <c r="BC49" s="87"/>
+      <c r="AY49" s="61"/>
+      <c r="AZ49" s="61"/>
+      <c r="BA49" s="61"/>
+      <c r="BB49" s="61"/>
+      <c r="BC49" s="62"/>
     </row>
     <row r="50" spans="2:55">
-      <c r="B50" s="85"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="86"/>
-      <c r="R50" s="86"/>
-      <c r="S50" s="86"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="86"/>
-      <c r="V50" s="86"/>
-      <c r="W50" s="86"/>
-      <c r="X50" s="86"/>
-      <c r="Y50" s="87"/>
-      <c r="Z50" s="86"/>
-      <c r="AA50" s="86"/>
-      <c r="AB50" s="86"/>
-      <c r="AC50" s="86"/>
-      <c r="AD50" s="86"/>
-      <c r="AE50" s="86"/>
-      <c r="AF50" s="85"/>
-      <c r="AG50" s="86"/>
-      <c r="AH50" s="86"/>
-      <c r="AI50" s="86"/>
-      <c r="AJ50" s="86"/>
-      <c r="AK50" s="87"/>
-      <c r="AL50" s="86"/>
-      <c r="AM50" s="86"/>
-      <c r="AN50" s="86"/>
-      <c r="AO50" s="86"/>
-      <c r="AP50" s="86"/>
-      <c r="AQ50" s="86"/>
-      <c r="AR50" s="85"/>
-      <c r="AS50" s="86"/>
-      <c r="AT50" s="86"/>
-      <c r="AU50" s="86"/>
-      <c r="AV50" s="86"/>
-      <c r="AW50" s="87"/>
-      <c r="AX50" s="85"/>
-      <c r="AY50" s="86"/>
-      <c r="AZ50" s="86"/>
-      <c r="BA50" s="86"/>
-      <c r="BB50" s="86"/>
-      <c r="BC50" s="87"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="61"/>
+      <c r="P50" s="61"/>
+      <c r="Q50" s="61"/>
+      <c r="R50" s="61"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="61"/>
+      <c r="W50" s="61"/>
+      <c r="X50" s="61"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="61"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="61"/>
+      <c r="AC50" s="61"/>
+      <c r="AD50" s="61"/>
+      <c r="AE50" s="61"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="61"/>
+      <c r="AH50" s="61"/>
+      <c r="AI50" s="61"/>
+      <c r="AJ50" s="61"/>
+      <c r="AK50" s="62"/>
+      <c r="AL50" s="61"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="61"/>
+      <c r="AP50" s="61"/>
+      <c r="AQ50" s="61"/>
+      <c r="AR50" s="60"/>
+      <c r="AS50" s="61"/>
+      <c r="AT50" s="61"/>
+      <c r="AU50" s="61"/>
+      <c r="AV50" s="61"/>
+      <c r="AW50" s="62"/>
+      <c r="AX50" s="60"/>
+      <c r="AY50" s="61"/>
+      <c r="AZ50" s="61"/>
+      <c r="BA50" s="61"/>
+      <c r="BB50" s="61"/>
+      <c r="BC50" s="62"/>
     </row>
     <row r="51" spans="2:55">
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="86"/>
-      <c r="S51" s="86"/>
-      <c r="T51" s="85"/>
-      <c r="U51" s="86"/>
-      <c r="V51" s="86"/>
-      <c r="W51" s="86"/>
-      <c r="X51" s="86"/>
-      <c r="Y51" s="87"/>
-      <c r="Z51" s="86"/>
-      <c r="AA51" s="86"/>
-      <c r="AB51" s="86"/>
-      <c r="AC51" s="86"/>
-      <c r="AD51" s="86"/>
-      <c r="AE51" s="86"/>
-      <c r="AF51" s="85"/>
-      <c r="AG51" s="86"/>
-      <c r="AH51" s="86"/>
-      <c r="AI51" s="86"/>
-      <c r="AJ51" s="86"/>
-      <c r="AK51" s="87"/>
-      <c r="AL51" s="86"/>
-      <c r="AM51" s="86"/>
-      <c r="AN51" s="86"/>
-      <c r="AO51" s="86"/>
-      <c r="AP51" s="86"/>
-      <c r="AQ51" s="86"/>
-      <c r="AR51" s="85"/>
-      <c r="AS51" s="86"/>
-      <c r="AT51" s="86"/>
-      <c r="AU51" s="86"/>
-      <c r="AV51" s="86"/>
-      <c r="AW51" s="87"/>
-      <c r="AX51" s="85"/>
-      <c r="AY51" s="86"/>
-      <c r="AZ51" s="86"/>
-      <c r="BA51" s="86"/>
-      <c r="BB51" s="86"/>
-      <c r="BC51" s="87"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="61"/>
+      <c r="AC51" s="61"/>
+      <c r="AD51" s="61"/>
+      <c r="AE51" s="61"/>
+      <c r="AF51" s="60"/>
+      <c r="AG51" s="61"/>
+      <c r="AH51" s="61"/>
+      <c r="AI51" s="61"/>
+      <c r="AJ51" s="61"/>
+      <c r="AK51" s="62"/>
+      <c r="AL51" s="61"/>
+      <c r="AM51" s="61"/>
+      <c r="AN51" s="61"/>
+      <c r="AO51" s="61"/>
+      <c r="AP51" s="61"/>
+      <c r="AQ51" s="61"/>
+      <c r="AR51" s="60"/>
+      <c r="AS51" s="61"/>
+      <c r="AT51" s="61"/>
+      <c r="AU51" s="61"/>
+      <c r="AV51" s="61"/>
+      <c r="AW51" s="62"/>
+      <c r="AX51" s="60"/>
+      <c r="AY51" s="61"/>
+      <c r="AZ51" s="61"/>
+      <c r="BA51" s="61"/>
+      <c r="BB51" s="61"/>
+      <c r="BC51" s="62"/>
     </row>
     <row r="52" spans="2:55">
-      <c r="B52" s="85"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="86"/>
-      <c r="T52" s="85"/>
-      <c r="U52" s="86"/>
-      <c r="V52" s="86"/>
-      <c r="W52" s="86"/>
-      <c r="X52" s="86"/>
-      <c r="Y52" s="87"/>
-      <c r="Z52" s="86"/>
-      <c r="AA52" s="86"/>
-      <c r="AB52" s="86"/>
-      <c r="AC52" s="86"/>
-      <c r="AD52" s="86"/>
-      <c r="AE52" s="86"/>
-      <c r="AF52" s="85"/>
-      <c r="AG52" s="86"/>
-      <c r="AH52" s="86"/>
-      <c r="AI52" s="86"/>
-      <c r="AJ52" s="86"/>
-      <c r="AK52" s="87"/>
-      <c r="AL52" s="86"/>
-      <c r="AM52" s="86"/>
-      <c r="AN52" s="86"/>
-      <c r="AO52" s="86"/>
-      <c r="AP52" s="86"/>
-      <c r="AQ52" s="86"/>
-      <c r="AR52" s="85"/>
-      <c r="AS52" s="86"/>
-      <c r="AT52" s="86"/>
-      <c r="AU52" s="86"/>
-      <c r="AV52" s="86"/>
-      <c r="AW52" s="87"/>
-      <c r="AX52" s="85"/>
-      <c r="AY52" s="86"/>
-      <c r="AZ52" s="86"/>
-      <c r="BA52" s="86"/>
-      <c r="BB52" s="86"/>
-      <c r="BC52" s="87"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="60"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="62"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="60"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="62"/>
+      <c r="AL52" s="61"/>
+      <c r="AM52" s="61"/>
+      <c r="AN52" s="61"/>
+      <c r="AO52" s="61"/>
+      <c r="AP52" s="61"/>
+      <c r="AQ52" s="61"/>
+      <c r="AR52" s="60"/>
+      <c r="AS52" s="61"/>
+      <c r="AT52" s="61"/>
+      <c r="AU52" s="61"/>
+      <c r="AV52" s="61"/>
+      <c r="AW52" s="62"/>
+      <c r="AX52" s="60"/>
+      <c r="AY52" s="61"/>
+      <c r="AZ52" s="61"/>
+      <c r="BA52" s="61"/>
+      <c r="BB52" s="61"/>
+      <c r="BC52" s="62"/>
     </row>
     <row r="53" spans="2:55">
-      <c r="B53" s="85"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
-      <c r="Q53" s="86"/>
-      <c r="R53" s="86"/>
-      <c r="S53" s="86"/>
-      <c r="T53" s="85"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="86"/>
-      <c r="W53" s="86"/>
-      <c r="X53" s="86"/>
-      <c r="Y53" s="87"/>
-      <c r="Z53" s="86"/>
-      <c r="AA53" s="86"/>
-      <c r="AB53" s="86"/>
-      <c r="AC53" s="86"/>
-      <c r="AD53" s="86"/>
-      <c r="AE53" s="86"/>
-      <c r="AF53" s="85"/>
-      <c r="AG53" s="86"/>
-      <c r="AH53" s="86"/>
-      <c r="AI53" s="86"/>
-      <c r="AJ53" s="86"/>
-      <c r="AK53" s="87"/>
-      <c r="AL53" s="86"/>
-      <c r="AM53" s="86"/>
-      <c r="AN53" s="86"/>
-      <c r="AO53" s="86"/>
-      <c r="AP53" s="86"/>
-      <c r="AQ53" s="86"/>
-      <c r="AR53" s="85"/>
-      <c r="AS53" s="86"/>
-      <c r="AT53" s="86"/>
-      <c r="AU53" s="86"/>
-      <c r="AV53" s="86"/>
-      <c r="AW53" s="87"/>
-      <c r="AX53" s="85"/>
-      <c r="AY53" s="86"/>
-      <c r="AZ53" s="86"/>
-      <c r="BA53" s="86"/>
-      <c r="BB53" s="86"/>
-      <c r="BC53" s="87"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="60"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="62"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="60"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="62"/>
+      <c r="AL53" s="61"/>
+      <c r="AM53" s="61"/>
+      <c r="AN53" s="61"/>
+      <c r="AO53" s="61"/>
+      <c r="AP53" s="61"/>
+      <c r="AQ53" s="61"/>
+      <c r="AR53" s="60"/>
+      <c r="AS53" s="61"/>
+      <c r="AT53" s="61"/>
+      <c r="AU53" s="61"/>
+      <c r="AV53" s="61"/>
+      <c r="AW53" s="62"/>
+      <c r="AX53" s="60"/>
+      <c r="AY53" s="61"/>
+      <c r="AZ53" s="61"/>
+      <c r="BA53" s="61"/>
+      <c r="BB53" s="61"/>
+      <c r="BC53" s="62"/>
     </row>
     <row r="54" spans="2:55">
-      <c r="B54" s="85"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="86"/>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="86"/>
-      <c r="S54" s="86"/>
-      <c r="T54" s="85"/>
-      <c r="U54" s="86"/>
-      <c r="V54" s="86"/>
-      <c r="W54" s="86"/>
-      <c r="X54" s="86"/>
-      <c r="Y54" s="87"/>
-      <c r="Z54" s="86"/>
-      <c r="AA54" s="86"/>
-      <c r="AB54" s="86"/>
-      <c r="AC54" s="86"/>
-      <c r="AD54" s="86"/>
-      <c r="AE54" s="86"/>
-      <c r="AF54" s="85"/>
-      <c r="AG54" s="86"/>
-      <c r="AH54" s="86"/>
-      <c r="AI54" s="86"/>
-      <c r="AJ54" s="86"/>
-      <c r="AK54" s="87"/>
-      <c r="AL54" s="86"/>
-      <c r="AM54" s="86"/>
-      <c r="AN54" s="86"/>
-      <c r="AO54" s="86"/>
-      <c r="AP54" s="86"/>
-      <c r="AQ54" s="86"/>
-      <c r="AR54" s="85"/>
-      <c r="AS54" s="86"/>
-      <c r="AT54" s="86"/>
-      <c r="AU54" s="86"/>
-      <c r="AV54" s="86"/>
-      <c r="AW54" s="87"/>
-      <c r="AX54" s="85"/>
-      <c r="AY54" s="86"/>
-      <c r="AZ54" s="86"/>
-      <c r="BA54" s="86"/>
-      <c r="BB54" s="86"/>
-      <c r="BC54" s="87"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="62"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="60"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="62"/>
+      <c r="AL54" s="61"/>
+      <c r="AM54" s="61"/>
+      <c r="AN54" s="61"/>
+      <c r="AO54" s="61"/>
+      <c r="AP54" s="61"/>
+      <c r="AQ54" s="61"/>
+      <c r="AR54" s="60"/>
+      <c r="AS54" s="61"/>
+      <c r="AT54" s="61"/>
+      <c r="AU54" s="61"/>
+      <c r="AV54" s="61"/>
+      <c r="AW54" s="62"/>
+      <c r="AX54" s="60"/>
+      <c r="AY54" s="61"/>
+      <c r="AZ54" s="61"/>
+      <c r="BA54" s="61"/>
+      <c r="BB54" s="61"/>
+      <c r="BC54" s="62"/>
     </row>
     <row r="55" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="89"/>
-      <c r="P55" s="89"/>
-      <c r="Q55" s="89"/>
-      <c r="R55" s="89"/>
-      <c r="S55" s="89"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="89"/>
-      <c r="W55" s="89"/>
-      <c r="X55" s="89"/>
-      <c r="Y55" s="90"/>
-      <c r="Z55" s="89"/>
-      <c r="AA55" s="89"/>
-      <c r="AB55" s="89"/>
-      <c r="AC55" s="89"/>
-      <c r="AD55" s="89"/>
-      <c r="AE55" s="89"/>
-      <c r="AF55" s="88"/>
-      <c r="AG55" s="89"/>
-      <c r="AH55" s="89"/>
-      <c r="AI55" s="89"/>
-      <c r="AJ55" s="89"/>
-      <c r="AK55" s="90"/>
-      <c r="AL55" s="89"/>
-      <c r="AM55" s="89"/>
-      <c r="AN55" s="89"/>
-      <c r="AO55" s="89"/>
-      <c r="AP55" s="89"/>
-      <c r="AQ55" s="89"/>
-      <c r="AR55" s="88"/>
-      <c r="AS55" s="89"/>
-      <c r="AT55" s="89"/>
-      <c r="AU55" s="89"/>
-      <c r="AV55" s="89"/>
-      <c r="AW55" s="90"/>
-      <c r="AX55" s="88"/>
-      <c r="AY55" s="89"/>
-      <c r="AZ55" s="89"/>
-      <c r="BA55" s="89"/>
-      <c r="BB55" s="89"/>
-      <c r="BC55" s="90"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
+      <c r="L55" s="64"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="64"/>
+      <c r="R55" s="64"/>
+      <c r="S55" s="64"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="64"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="64"/>
+      <c r="X55" s="64"/>
+      <c r="Y55" s="65"/>
+      <c r="Z55" s="64"/>
+      <c r="AA55" s="64"/>
+      <c r="AB55" s="64"/>
+      <c r="AC55" s="64"/>
+      <c r="AD55" s="64"/>
+      <c r="AE55" s="64"/>
+      <c r="AF55" s="63"/>
+      <c r="AG55" s="64"/>
+      <c r="AH55" s="64"/>
+      <c r="AI55" s="64"/>
+      <c r="AJ55" s="64"/>
+      <c r="AK55" s="65"/>
+      <c r="AL55" s="64"/>
+      <c r="AM55" s="64"/>
+      <c r="AN55" s="64"/>
+      <c r="AO55" s="64"/>
+      <c r="AP55" s="64"/>
+      <c r="AQ55" s="64"/>
+      <c r="AR55" s="63"/>
+      <c r="AS55" s="64"/>
+      <c r="AT55" s="64"/>
+      <c r="AU55" s="64"/>
+      <c r="AV55" s="64"/>
+      <c r="AW55" s="65"/>
+      <c r="AX55" s="63"/>
+      <c r="AY55" s="64"/>
+      <c r="AZ55" s="64"/>
+      <c r="BA55" s="64"/>
+      <c r="BB55" s="64"/>
+      <c r="BC55" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="AZ43:BC43"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:G39"/>
+    <mergeCell ref="P43:S43"/>
+    <mergeCell ref="V43:Y43"/>
+    <mergeCell ref="AB43:AE43"/>
+    <mergeCell ref="AH43:AK43"/>
+    <mergeCell ref="AN43:AQ43"/>
+    <mergeCell ref="AT43:AW43"/>
+    <mergeCell ref="AL42:AQ42"/>
+    <mergeCell ref="AR42:AW42"/>
+    <mergeCell ref="AX42:BC42"/>
+    <mergeCell ref="B41:AK41"/>
+    <mergeCell ref="AL41:BC41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="N42:S42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="Z42:AE42"/>
+    <mergeCell ref="AF42:AK42"/>
+    <mergeCell ref="BE2:BF2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AT3:AW3"/>
+    <mergeCell ref="AX2:BC2"/>
+    <mergeCell ref="AR49:AW55"/>
+    <mergeCell ref="AX49:BC55"/>
+    <mergeCell ref="B40:BC40"/>
+    <mergeCell ref="AX39:BC39"/>
+    <mergeCell ref="AX38:BC38"/>
+    <mergeCell ref="AX37:BC37"/>
+    <mergeCell ref="AX36:BC36"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AL48:AQ48"/>
+    <mergeCell ref="AR48:AW48"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="H49:M55"/>
+    <mergeCell ref="N49:S55"/>
+    <mergeCell ref="T49:Y55"/>
+    <mergeCell ref="Z49:AE55"/>
+    <mergeCell ref="AF49:AK55"/>
+    <mergeCell ref="AL49:AQ55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="N48:S48"/>
+    <mergeCell ref="T48:Y48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AF48:AK48"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="N45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AF45:AK45"/>
+    <mergeCell ref="AL45:AQ45"/>
+    <mergeCell ref="AR45:AW45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="N44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AF44:AK44"/>
+    <mergeCell ref="AL44:AQ44"/>
+    <mergeCell ref="AR44:AW44"/>
+    <mergeCell ref="B9:F15"/>
+    <mergeCell ref="H9:M15"/>
+    <mergeCell ref="N9:S15"/>
+    <mergeCell ref="T9:Y15"/>
+    <mergeCell ref="Z9:AE15"/>
+    <mergeCell ref="AF9:AK15"/>
+    <mergeCell ref="AL9:AQ15"/>
+    <mergeCell ref="AZ17:BB17"/>
+    <mergeCell ref="AX18:BB18"/>
+    <mergeCell ref="AR9:AW15"/>
+    <mergeCell ref="AX9:BC15"/>
+    <mergeCell ref="AX19:BB19"/>
+    <mergeCell ref="AX22:BB22"/>
+    <mergeCell ref="AX23:BC27"/>
+    <mergeCell ref="AX28:BC28"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="B16:BC16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="AX8:BC8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="T5:Y5"/>
+    <mergeCell ref="Z5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AL5:AQ5"/>
+    <mergeCell ref="AR5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
     <mergeCell ref="B49:G55"/>
     <mergeCell ref="B1:AK1"/>
     <mergeCell ref="AL1:BC1"/>
@@ -24799,117 +25039,6 @@
     <mergeCell ref="H2:M2"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="AX4:BC4"/>
-    <mergeCell ref="AX19:BB19"/>
-    <mergeCell ref="AX22:BB22"/>
-    <mergeCell ref="AX23:BC27"/>
-    <mergeCell ref="AX28:BC28"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="B16:BC16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="AX8:BC8"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="T5:Y5"/>
-    <mergeCell ref="Z5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AL5:AQ5"/>
-    <mergeCell ref="AR5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
-    <mergeCell ref="B9:F15"/>
-    <mergeCell ref="H9:M15"/>
-    <mergeCell ref="N9:S15"/>
-    <mergeCell ref="T9:Y15"/>
-    <mergeCell ref="Z9:AE15"/>
-    <mergeCell ref="AF9:AK15"/>
-    <mergeCell ref="AL9:AQ15"/>
-    <mergeCell ref="AZ17:BB17"/>
-    <mergeCell ref="AX18:BB18"/>
-    <mergeCell ref="AR9:AW15"/>
-    <mergeCell ref="AX9:BC15"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AF45:AK45"/>
-    <mergeCell ref="AL45:AQ45"/>
-    <mergeCell ref="AR45:AW45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="N44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AF44:AK44"/>
-    <mergeCell ref="AL44:AQ44"/>
-    <mergeCell ref="AR44:AW44"/>
-    <mergeCell ref="AR49:AW55"/>
-    <mergeCell ref="AX49:BC55"/>
-    <mergeCell ref="B40:BC40"/>
-    <mergeCell ref="AX39:BC39"/>
-    <mergeCell ref="AX38:BC38"/>
-    <mergeCell ref="AX37:BC37"/>
-    <mergeCell ref="AX36:BC36"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AL48:AQ48"/>
-    <mergeCell ref="AR48:AW48"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="H49:M55"/>
-    <mergeCell ref="N49:S55"/>
-    <mergeCell ref="T49:Y55"/>
-    <mergeCell ref="Z49:AE55"/>
-    <mergeCell ref="AF49:AK55"/>
-    <mergeCell ref="AL49:AQ55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="N48:S48"/>
-    <mergeCell ref="T48:Y48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AH3:AK3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AT3:AW3"/>
-    <mergeCell ref="AX2:BC2"/>
-    <mergeCell ref="AZ43:BC43"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:G39"/>
-    <mergeCell ref="P43:S43"/>
-    <mergeCell ref="V43:Y43"/>
-    <mergeCell ref="AB43:AE43"/>
-    <mergeCell ref="AH43:AK43"/>
-    <mergeCell ref="AN43:AQ43"/>
-    <mergeCell ref="AT43:AW43"/>
-    <mergeCell ref="AL42:AQ42"/>
-    <mergeCell ref="AR42:AW42"/>
-    <mergeCell ref="AX42:BC42"/>
-    <mergeCell ref="B41:AK41"/>
-    <mergeCell ref="AL41:BC41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="N42:S42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="Z42:AE42"/>
-    <mergeCell ref="AF42:AK42"/>
   </mergeCells>
   <conditionalFormatting sqref="BG3 BG10">
     <cfRule type="notContainsText" dxfId="1" priority="2" operator="notContains" text="CREW">
@@ -24944,26 +25073,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -24992,7 +25121,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -25037,7 +25166,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -29319,26 +29448,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E2" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -29367,7 +29496,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -29412,7 +29541,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -33710,26 +33839,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E2" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E3" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -33758,7 +33887,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -33803,7 +33932,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -38081,26 +38210,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E2" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="E3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -38129,7 +38258,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -38174,7 +38303,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -42454,26 +42583,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E2" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="E3" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -42502,7 +42631,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -42547,7 +42676,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>
@@ -46825,26 +46954,26 @@
   <sheetData>
     <row r="2" spans="2:33">
       <c r="B2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="E2" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="E3" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="2:33">
       <c r="B4" s="1" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="2:33">
@@ -46873,7 +47002,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="K5" s="54" t="s">
         <v>42</v>
@@ -46918,7 +47047,7 @@
         <v>23</v>
       </c>
       <c r="AA5" s="54" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="AB5" s="54" t="s">
         <v>42</v>

--- a/ShipCardsDesigns.xlsx
+++ b/ShipCardsDesigns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27421"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MultiplayerGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCABA8C-11EF-4D7A-AB3E-9ACF8D922AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D856E46E-5E23-446A-8BF6-CAA687567E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,8 +34,8 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="160" r:id="rId11"/>
-    <pivotCache cacheId="161" r:id="rId12"/>
+    <pivotCache cacheId="402" r:id="rId11"/>
+    <pivotCache cacheId="403" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5380,82 +5380,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5476,22 +5408,106 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5512,28 +5528,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5545,48 +5546,47 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -24454,7 +24454,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91C0DB95-3F2E-49BF-A001-009CDB8468CF}" name="PivotTable1" cacheId="161" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{91C0DB95-3F2E-49BF-A001-009CDB8468CF}" name="PivotTable1" cacheId="403" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -24557,7 +24557,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4889AD0-C894-4D73-8042-C68520653761}" name="PivotTable4" cacheId="160" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4889AD0-C894-4D73-8042-C68520653761}" name="PivotTable4" cacheId="402" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="E3:F9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
@@ -24629,7 +24629,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C17E6186-C211-45E3-BF98-94266063404B}" name="PivotTable2" cacheId="161" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C17E6186-C211-45E3-BF98-94266063404B}" name="PivotTable2" cacheId="403" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A19:G55" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="19">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
@@ -25889,7 +25889,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="23.25">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="59" t="s">
         <v>845</v>
       </c>
     </row>
@@ -26012,8 +26012,8 @@
   <dimension ref="A2:S547"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -26040,18 +26040,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="18.75">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:19">
       <c r="A3">
@@ -27076,7 +27076,7 @@
       <c r="P34" t="s">
         <v>61</v>
       </c>
-      <c r="Q34" s="128" t="s">
+      <c r="Q34" s="61" t="s">
         <v>119</v>
       </c>
     </row>
@@ -37052,8 +37052,8 @@
   <dimension ref="A3:P402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40477,64 +40477,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="69" t="s">
         <v>799</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="81"/>
-      <c r="AI1" s="81"/>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="80" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="71"/>
+      <c r="AL1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="81"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="81"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
-      <c r="BA1" s="81"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="82"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="71"/>
     </row>
     <row r="2" spans="2:59" ht="15.75" thickBot="1">
       <c r="B2" s="75" t="s">
@@ -40608,11 +40608,11 @@
       <c r="AZ2" s="76"/>
       <c r="BA2" s="76"/>
       <c r="BB2" s="76"/>
-      <c r="BC2" s="79"/>
-      <c r="BE2" s="83" t="s">
+      <c r="BC2" s="127"/>
+      <c r="BE2" s="125" t="s">
         <v>809</v>
       </c>
-      <c r="BF2" s="84"/>
+      <c r="BF2" s="126"/>
       <c r="BG2" s="23" t="s">
         <v>810</v>
       </c>
@@ -40624,12 +40624,12 @@
       <c r="C3" s="26">
         <v>21</v>
       </c>
-      <c r="D3" s="74" t="str">
+      <c r="D3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="10"/>
       <c r="H3" s="31" t="s">
         <v>811</v>
@@ -40637,110 +40637,110 @@
       <c r="I3" s="32">
         <v>21</v>
       </c>
-      <c r="J3" s="60" t="str">
+      <c r="J3" s="95" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
       <c r="N3" s="10" t="s">
         <v>811</v>
       </c>
       <c r="O3" s="26">
         <v>66</v>
       </c>
-      <c r="P3" s="74" t="str">
+      <c r="P3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
       <c r="T3" s="31" t="s">
         <v>811</v>
       </c>
       <c r="U3" s="32">
         <v>56</v>
       </c>
-      <c r="V3" s="60" t="str">
+      <c r="V3" s="95" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="61"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="96"/>
       <c r="Z3" s="10" t="s">
         <v>811</v>
       </c>
       <c r="AA3" s="26">
         <v>99</v>
       </c>
-      <c r="AB3" s="74" t="str">
+      <c r="AB3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
       <c r="AF3" s="31" t="s">
         <v>811</v>
       </c>
       <c r="AG3" s="32">
         <v>62</v>
       </c>
-      <c r="AH3" s="60" t="str">
+      <c r="AH3" s="95" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 2</v>
       </c>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="61"/>
+      <c r="AI3" s="95"/>
+      <c r="AJ3" s="95"/>
+      <c r="AK3" s="96"/>
       <c r="AL3" s="10" t="s">
         <v>811</v>
       </c>
       <c r="AM3" s="26">
         <v>82</v>
       </c>
-      <c r="AN3" s="74" t="str">
+      <c r="AN3" s="72" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),14)</f>
         <v xml:space="preserve">Rank: </v>
       </c>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
       <c r="AR3" s="31" t="s">
         <v>811</v>
       </c>
       <c r="AS3" s="32">
         <v>11</v>
       </c>
-      <c r="AT3" s="60" t="str">
+      <c r="AT3" s="95" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 3</v>
       </c>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="61"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="95"/>
+      <c r="AW3" s="96"/>
       <c r="AX3" s="31" t="s">
         <v>811</v>
       </c>
       <c r="AY3" s="32">
         <v>4</v>
       </c>
-      <c r="AZ3" s="60" t="str">
+      <c r="AZ3" s="95" t="str">
         <f>"Rank: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),14)</f>
         <v>Rank: 1</v>
       </c>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="61"/>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="95"/>
+      <c r="BC3" s="96"/>
       <c r="BE3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="BF3" s="21">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="BG3" s="24" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF3,TblCardDesign[ID],0),2))</f>
@@ -40748,181 +40748,181 @@
       </c>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B4" s="109" t="str">
+      <c r="B4" s="73" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="G4" s="10"/>
-      <c r="H4" s="109" t="str">
+      <c r="H4" s="73" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),3)</f>
         <v>The Great Nebula</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="74" t="str">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),3)</f>
         <v>R Boop Bot</v>
       </c>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="109" t="str">
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="73" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),3)</f>
         <v>R Bot</v>
       </c>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="74" t="str">
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),3)</f>
         <v>Auto Cannon</v>
       </c>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="109" t="str">
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="73" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),3)</f>
         <v>B Bot Bot</v>
       </c>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="74" t="str">
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="72" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),3)</f>
         <v>Adm. I.T.S Atrap</v>
       </c>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="109" t="str">
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="73" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),3)</f>
         <v>Chief Medical Officer</v>
       </c>
-      <c r="AS4" s="74"/>
-      <c r="AT4" s="74"/>
-      <c r="AU4" s="74"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="109" t="str">
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="74"/>
+      <c r="AX4" s="73" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),3)</f>
         <v>Mad Scientist</v>
       </c>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="74"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="110"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="74"/>
       <c r="BE4" s="20" t="s">
         <v>799</v>
       </c>
       <c r="BF4" s="22">
         <f ca="1">RANDBETWEEN(1,BF5)</f>
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="BG4" s="25" t="str">
         <f ca="1">UPPER(INDEX(TblCardDesign[#Data],MATCH(BF4,TblCardDesign[ID],0),2))</f>
-        <v>CREW</v>
+        <v>STRATEGY</v>
       </c>
     </row>
     <row r="5" spans="2:59">
-      <c r="B5" s="111" t="str">
+      <c r="B5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="111" t="str">
+      <c r="H5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="112" t="str">
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="113" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="111" t="str">
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="112" t="str">
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="114"/>
+      <c r="Z5" s="113" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="111" t="str">
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AG5" s="112"/>
-      <c r="AH5" s="112"/>
-      <c r="AI5" s="112"/>
-      <c r="AJ5" s="112"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="112" t="str">
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="114"/>
+      <c r="AL5" s="113" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AM5" s="112"/>
-      <c r="AN5" s="112"/>
-      <c r="AO5" s="112"/>
-      <c r="AP5" s="112"/>
-      <c r="AQ5" s="112"/>
-      <c r="AR5" s="111" t="str">
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AS5" s="112"/>
-      <c r="AT5" s="112"/>
-      <c r="AU5" s="112"/>
-      <c r="AV5" s="112"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="111" t="str">
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="114"/>
+      <c r="AX5" s="112" t="str">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),11)</f>
         <v xml:space="preserve">Type: </v>
       </c>
-      <c r="AY5" s="112"/>
-      <c r="AZ5" s="112"/>
-      <c r="BA5" s="112"/>
-      <c r="BB5" s="112"/>
-      <c r="BC5" s="113"/>
+      <c r="AY5" s="113"/>
+      <c r="AZ5" s="113"/>
+      <c r="BA5" s="113"/>
+      <c r="BB5" s="113"/>
+      <c r="BC5" s="114"/>
       <c r="BE5" t="s">
         <v>812</v>
       </c>
@@ -41314,226 +41314,226 @@
       </c>
     </row>
     <row r="8" spans="2:59">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="73" t="s">
         <v>819</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="109" t="s">
+      <c r="H8" s="73" t="s">
         <v>819</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="74" t="s">
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="72" t="s">
         <v>819</v>
       </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="109" t="s">
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="73" t="s">
         <v>819</v>
       </c>
-      <c r="U8" s="74"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="74" t="s">
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="72" t="s">
         <v>819</v>
       </c>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="109" t="s">
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="73" t="s">
         <v>819</v>
       </c>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="74" t="s">
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="72" t="s">
         <v>819</v>
       </c>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="106" t="s">
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="79" t="s">
         <v>819</v>
       </c>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="108"/>
-      <c r="AX8" s="109" t="s">
+      <c r="AS8" s="80"/>
+      <c r="AT8" s="80"/>
+      <c r="AU8" s="80"/>
+      <c r="AV8" s="80"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="73" t="s">
         <v>819</v>
       </c>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="110"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="74"/>
     </row>
     <row r="9" spans="2:59" ht="15" customHeight="1" thickBot="1">
-      <c r="B9" s="85" t="str">
+      <c r="B9" s="63" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(C3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your Strategy Deck, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="85" t="str">
+      <c r="H9" s="63" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(I3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Look at the top 3 cards of your Strategy Deck, put 2 Event cards into your hand and the rest into the junkyard</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="86" t="str">
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="64" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(O3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Robot can't be used for gun slots.
 Engage: Medic + 3
 Engage: Repair ship by 100</v>
       </c>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="85" t="str">
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="63" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(U3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Robot can't be used for gun slots.
 Engage: Medic + 1
 Engage: Repair ship by 100</v>
       </c>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="86" t="str">
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="64" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AA3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Attach to Ship: When this ship is targetted by enemy ship gun slots, deal 200 damage to that enemy ship</v>
       </c>
-      <c r="AA9" s="86"/>
-      <c r="AB9" s="86"/>
-      <c r="AC9" s="86"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="85" t="str">
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="63" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AG3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Handling Tier 1
 Robot can't be used for gun slots.
 Engage: Handling + 2
 Engage: Repair ship by 100</v>
       </c>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="86"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="86" t="str">
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="65"/>
+      <c r="AL9" s="64" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AM3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Provides 1x Frigate ship when your Capital ship is destroyed, fill crew slots with any crew that wouldve died up to maximum Frigate crew slots.</v>
       </c>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="86"/>
-      <c r="AO9" s="86"/>
-      <c r="AP9" s="86"/>
-      <c r="AQ9" s="86"/>
-      <c r="AR9" s="85" t="str">
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="63" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AS3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Sacrifice 1 Medic Tier 2
 Engage: Medical + 3</v>
       </c>
-      <c r="AS9" s="86"/>
-      <c r="AT9" s="86"/>
-      <c r="AU9" s="86"/>
-      <c r="AV9" s="86"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="85" t="str">
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="63" t="str">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY3,TblCardDesign[ID],0),'Card Designs'!Q3)</f>
         <v>Engage: Discard 1 strategy card from your hand, if you do then Research + 2</v>
       </c>
-      <c r="AY9" s="86"/>
-      <c r="AZ9" s="86"/>
-      <c r="BA9" s="86"/>
-      <c r="BB9" s="86"/>
-      <c r="BC9" s="87"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="65"/>
     </row>
     <row r="10" spans="2:59" ht="30.75" thickBot="1">
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="86"/>
-      <c r="V10" s="86"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="86"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="86"/>
-      <c r="AB10" s="86"/>
-      <c r="AC10" s="86"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="86"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="86"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="86"/>
-      <c r="AO10" s="86"/>
-      <c r="AP10" s="86"/>
-      <c r="AQ10" s="86"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="86"/>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="86"/>
-      <c r="AZ10" s="86"/>
-      <c r="BA10" s="86"/>
-      <c r="BB10" s="86"/>
-      <c r="BC10" s="87"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="63"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="65"/>
       <c r="BE10" s="49" t="s">
         <v>820</v>
       </c>
@@ -41546,351 +41546,351 @@
       </c>
     </row>
     <row r="11" spans="2:59">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="86"/>
-      <c r="AB11" s="86"/>
-      <c r="AC11" s="86"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="86"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="86"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="86"/>
-      <c r="AO11" s="86"/>
-      <c r="AP11" s="86"/>
-      <c r="AQ11" s="86"/>
-      <c r="AR11" s="85"/>
-      <c r="AS11" s="86"/>
-      <c r="AT11" s="86"/>
-      <c r="AU11" s="86"/>
-      <c r="AV11" s="86"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="85"/>
-      <c r="AY11" s="86"/>
-      <c r="AZ11" s="86"/>
-      <c r="BA11" s="86"/>
-      <c r="BB11" s="86"/>
-      <c r="BC11" s="87"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="63"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="65"/>
     </row>
     <row r="12" spans="2:59">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="86"/>
-      <c r="AJ12" s="86"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="86"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="86"/>
-      <c r="AO12" s="86"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="85"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="86"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="85"/>
-      <c r="AY12" s="86"/>
-      <c r="AZ12" s="86"/>
-      <c r="BA12" s="86"/>
-      <c r="BB12" s="86"/>
-      <c r="BC12" s="87"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="63"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="63"/>
+      <c r="AY12" s="64"/>
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="65"/>
     </row>
     <row r="13" spans="2:59">
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="86"/>
-      <c r="AB13" s="86"/>
-      <c r="AC13" s="86"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="86"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="86"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="86"/>
-      <c r="AO13" s="86"/>
-      <c r="AP13" s="86"/>
-      <c r="AQ13" s="86"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="86"/>
-      <c r="AT13" s="86"/>
-      <c r="AU13" s="86"/>
-      <c r="AV13" s="86"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="85"/>
-      <c r="AY13" s="86"/>
-      <c r="AZ13" s="86"/>
-      <c r="BA13" s="86"/>
-      <c r="BB13" s="86"/>
-      <c r="BC13" s="87"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="65"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="63"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="63"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="65"/>
     </row>
     <row r="14" spans="2:59">
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="86"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="86"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="85"/>
-      <c r="AY14" s="86"/>
-      <c r="AZ14" s="86"/>
-      <c r="BA14" s="86"/>
-      <c r="BB14" s="86"/>
-      <c r="BC14" s="87"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="65"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="63"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="65"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="63"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="63"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="65"/>
     </row>
     <row r="15" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="89"/>
-      <c r="AK15" s="90"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="89"/>
-      <c r="AN15" s="89"/>
-      <c r="AO15" s="89"/>
-      <c r="AP15" s="89"/>
-      <c r="AQ15" s="89"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="89"/>
-      <c r="AV15" s="89"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="88"/>
-      <c r="AY15" s="89"/>
-      <c r="AZ15" s="89"/>
-      <c r="BA15" s="89"/>
-      <c r="BB15" s="89"/>
-      <c r="BC15" s="90"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="67"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="67"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="67"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="67"/>
+      <c r="AP15" s="67"/>
+      <c r="AQ15" s="67"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="67"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="67"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="66"/>
+      <c r="AY15" s="67"/>
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="67"/>
+      <c r="BB15" s="67"/>
+      <c r="BC15" s="68"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="97" t="s">
         <v>821</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="118"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="118"/>
-      <c r="AQ16" s="118"/>
-      <c r="AR16" s="118"/>
-      <c r="AS16" s="118"/>
-      <c r="AT16" s="118"/>
-      <c r="AU16" s="118"/>
-      <c r="AV16" s="118"/>
-      <c r="AW16" s="118"/>
-      <c r="AX16" s="118"/>
-      <c r="AY16" s="118"/>
-      <c r="AZ16" s="118"/>
-      <c r="BA16" s="118"/>
-      <c r="BB16" s="118"/>
-      <c r="BC16" s="119"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="98"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="98"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AQ16" s="98"/>
+      <c r="AR16" s="98"/>
+      <c r="AS16" s="98"/>
+      <c r="AT16" s="98"/>
+      <c r="AU16" s="98"/>
+      <c r="AV16" s="98"/>
+      <c r="AW16" s="98"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="98"/>
+      <c r="AZ16" s="98"/>
+      <c r="BA16" s="98"/>
+      <c r="BB16" s="98"/>
+      <c r="BC16" s="99"/>
     </row>
     <row r="17" spans="2:55">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="100" t="s">
         <v>822</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
@@ -41938,21 +41938,21 @@
         <v>811</v>
       </c>
       <c r="AY17" s="38"/>
-      <c r="AZ17" s="63" t="s">
+      <c r="AZ17" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63"/>
+      <c r="BA17" s="115"/>
+      <c r="BB17" s="115"/>
       <c r="BC17" s="39"/>
     </row>
     <row r="18" spans="2:55">
-      <c r="B18" s="97" t="s">
+      <c r="B18" s="103" t="s">
         <v>823</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="6"/>
       <c r="L18" s="6"/>
       <c r="R18" s="6"/>
@@ -41961,24 +41961,24 @@
       <c r="AJ18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AV18" s="6"/>
-      <c r="AX18" s="64" t="e">
+      <c r="AX18" s="84" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
+      <c r="AY18" s="85"/>
+      <c r="AZ18" s="85"/>
+      <c r="BA18" s="85"/>
+      <c r="BB18" s="85"/>
       <c r="BC18" s="40"/>
     </row>
     <row r="19" spans="2:55">
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="106" t="s">
         <v>824</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
       <c r="G19" s="35"/>
       <c r="L19" s="35"/>
       <c r="R19" s="35"/>
@@ -41987,24 +41987,24 @@
       <c r="AJ19" s="35"/>
       <c r="AP19" s="35"/>
       <c r="AV19" s="35"/>
-      <c r="AX19" s="66" t="e">
+      <c r="AX19" s="82" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY19" s="67"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
+      <c r="AY19" s="83"/>
+      <c r="AZ19" s="83"/>
+      <c r="BA19" s="83"/>
+      <c r="BB19" s="83"/>
       <c r="BC19" s="41"/>
     </row>
     <row r="20" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="109" t="s">
         <v>825</v>
       </c>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="6"/>
       <c r="L20" s="6"/>
       <c r="R20" s="6"/>
@@ -42061,67 +42061,67 @@
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="7"/>
-      <c r="AX22" s="64" t="s">
+      <c r="AX22" s="84" t="s">
         <v>819</v>
       </c>
-      <c r="AY22" s="65"/>
-      <c r="AZ22" s="65"/>
-      <c r="BA22" s="65"/>
-      <c r="BB22" s="65"/>
+      <c r="AY22" s="85"/>
+      <c r="AZ22" s="85"/>
+      <c r="BA22" s="85"/>
+      <c r="BB22" s="85"/>
       <c r="BC22" s="40"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="7"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="AX23" s="68" t="e">
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="AX23" s="86" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(AY17,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
-      <c r="BB23" s="69"/>
-      <c r="BC23" s="70"/>
+      <c r="AY23" s="87"/>
+      <c r="AZ23" s="87"/>
+      <c r="BA23" s="87"/>
+      <c r="BB23" s="87"/>
+      <c r="BC23" s="88"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="7"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="69"/>
-      <c r="BA24" s="69"/>
-      <c r="BB24" s="69"/>
-      <c r="BC24" s="70"/>
+      <c r="AX24" s="86"/>
+      <c r="AY24" s="87"/>
+      <c r="AZ24" s="87"/>
+      <c r="BA24" s="87"/>
+      <c r="BB24" s="87"/>
+      <c r="BC24" s="88"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="7"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="69"/>
-      <c r="AZ25" s="69"/>
-      <c r="BA25" s="69"/>
-      <c r="BB25" s="69"/>
-      <c r="BC25" s="70"/>
+      <c r="AX25" s="86"/>
+      <c r="AY25" s="87"/>
+      <c r="AZ25" s="87"/>
+      <c r="BA25" s="87"/>
+      <c r="BB25" s="87"/>
+      <c r="BC25" s="88"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="7"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
-      <c r="BB26" s="69"/>
-      <c r="BC26" s="70"/>
+      <c r="AX26" s="86"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="87"/>
+      <c r="BA26" s="87"/>
+      <c r="BB26" s="87"/>
+      <c r="BC26" s="88"/>
     </row>
     <row r="27" spans="2:55" ht="15.75" thickBot="1">
       <c r="B27" s="7"/>
-      <c r="AX27" s="71"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="72"/>
-      <c r="BA27" s="72"/>
-      <c r="BB27" s="72"/>
-      <c r="BC27" s="73"/>
+      <c r="AX27" s="89"/>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="91"/>
     </row>
     <row r="28" spans="2:55" ht="15.75" thickBot="1">
       <c r="B28" s="46" t="s">
@@ -42174,49 +42174,49 @@
       <c r="AU28" s="36"/>
       <c r="AV28" s="36"/>
       <c r="AW28" s="36"/>
-      <c r="AX28" s="114" t="s">
+      <c r="AX28" s="92" t="s">
         <v>826</v>
       </c>
-      <c r="AY28" s="115"/>
-      <c r="AZ28" s="115"/>
-      <c r="BA28" s="115"/>
-      <c r="BB28" s="115"/>
-      <c r="BC28" s="116"/>
+      <c r="AY28" s="93"/>
+      <c r="AZ28" s="93"/>
+      <c r="BA28" s="93"/>
+      <c r="BB28" s="93"/>
+      <c r="BC28" s="94"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="37" t="s">
         <v>811</v>
       </c>
       <c r="C29" s="38"/>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="39"/>
       <c r="BC29" s="8"/>
     </row>
     <row r="30" spans="2:55">
-      <c r="B30" s="64" t="e">
+      <c r="B30" s="84" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
       <c r="G30" s="40"/>
       <c r="BC30" s="8"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="66" t="e">
+      <c r="B31" s="82" t="e">
         <f>"Type: "&amp;INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),11)</f>
         <v>#N/A</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="41"/>
       <c r="BC31" s="8"/>
     </row>
@@ -42269,83 +42269,83 @@
       <c r="BC33" s="8"/>
     </row>
     <row r="34" spans="2:55">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="84" t="s">
         <v>819</v>
       </c>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
       <c r="G34" s="40"/>
       <c r="BC34" s="8"/>
     </row>
     <row r="35" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B35" s="68" t="e">
+      <c r="B35" s="86" t="e">
         <f>INDEX(TblCardDesign[#Data],MATCH(C29,TblCardDesign[ID],0),'Card Designs'!$Q$3)</f>
         <v>#N/A</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="70"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="88"/>
       <c r="BC35" s="8"/>
     </row>
     <row r="36" spans="2:55">
-      <c r="B36" s="68"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-      <c r="AX36" s="103" t="s">
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="88"/>
+      <c r="AX36" s="122" t="s">
         <v>825</v>
       </c>
-      <c r="AY36" s="104"/>
-      <c r="AZ36" s="104"/>
-      <c r="BA36" s="104"/>
-      <c r="BB36" s="104"/>
-      <c r="BC36" s="105"/>
+      <c r="AY36" s="123"/>
+      <c r="AZ36" s="123"/>
+      <c r="BA36" s="123"/>
+      <c r="BB36" s="123"/>
+      <c r="BC36" s="124"/>
     </row>
     <row r="37" spans="2:55">
-      <c r="B37" s="68"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
-      <c r="AX37" s="100" t="s">
+      <c r="B37" s="86"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
+      <c r="AX37" s="106" t="s">
         <v>824</v>
       </c>
-      <c r="AY37" s="101"/>
-      <c r="AZ37" s="101"/>
-      <c r="BA37" s="101"/>
-      <c r="BB37" s="101"/>
-      <c r="BC37" s="102"/>
+      <c r="AY37" s="107"/>
+      <c r="AZ37" s="107"/>
+      <c r="BA37" s="107"/>
+      <c r="BB37" s="107"/>
+      <c r="BC37" s="108"/>
     </row>
     <row r="38" spans="2:55">
-      <c r="B38" s="68"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
-      <c r="AX38" s="97" t="s">
+      <c r="B38" s="86"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="88"/>
+      <c r="AX38" s="103" t="s">
         <v>823</v>
       </c>
-      <c r="AY38" s="98"/>
-      <c r="AZ38" s="98"/>
-      <c r="BA38" s="98"/>
-      <c r="BB38" s="98"/>
-      <c r="BC38" s="99"/>
+      <c r="AY38" s="104"/>
+      <c r="AZ38" s="104"/>
+      <c r="BA38" s="104"/>
+      <c r="BB38" s="104"/>
+      <c r="BC38" s="105"/>
     </row>
     <row r="39" spans="2:55" ht="15.75" thickBot="1">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -42388,132 +42388,132 @@
       <c r="AU39" s="18"/>
       <c r="AV39" s="18"/>
       <c r="AW39" s="18"/>
-      <c r="AX39" s="94" t="s">
+      <c r="AX39" s="119" t="s">
         <v>822</v>
       </c>
-      <c r="AY39" s="95"/>
-      <c r="AZ39" s="95"/>
-      <c r="BA39" s="95"/>
-      <c r="BB39" s="95"/>
-      <c r="BC39" s="96"/>
+      <c r="AY39" s="120"/>
+      <c r="AZ39" s="120"/>
+      <c r="BA39" s="120"/>
+      <c r="BB39" s="120"/>
+      <c r="BC39" s="121"/>
     </row>
     <row r="40" spans="2:55" ht="16.5" thickBot="1">
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="116" t="s">
         <v>827</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="92"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="92"/>
-      <c r="AF40" s="92"/>
-      <c r="AG40" s="92"/>
-      <c r="AH40" s="92"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="92"/>
-      <c r="AK40" s="92"/>
-      <c r="AL40" s="92"/>
-      <c r="AM40" s="92"/>
-      <c r="AN40" s="92"/>
-      <c r="AO40" s="92"/>
-      <c r="AP40" s="92"/>
-      <c r="AQ40" s="92"/>
-      <c r="AR40" s="92"/>
-      <c r="AS40" s="92"/>
-      <c r="AT40" s="92"/>
-      <c r="AU40" s="92"/>
-      <c r="AV40" s="92"/>
-      <c r="AW40" s="92"/>
-      <c r="AX40" s="92"/>
-      <c r="AY40" s="92"/>
-      <c r="AZ40" s="92"/>
-      <c r="BA40" s="92"/>
-      <c r="BB40" s="92"/>
-      <c r="BC40" s="93"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" 